--- a/Doc/1.SA/調査/リンク先テーブル調査.xlsx
+++ b/Doc/1.SA/調査/リンク先テーブル調査.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaimuVB\Desktop\Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\zaimu\Doc\1.SA\調査\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="社内" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="370">
   <si>
     <t>外注チェック</t>
     <rPh sb="0" eb="2">
@@ -804,9 +804,6 @@
   </si>
   <si>
     <t>M_TANKA_txt</t>
-  </si>
-  <si>
-    <t>QP_既払当月テーブル_sv3</t>
   </si>
   <si>
     <t>QP_既払当月テーブル_札幌</t>
@@ -1275,6 +1272,26 @@
   </si>
   <si>
     <t>dbo_業務業績テーブル</t>
+  </si>
+  <si>
+    <t>ローカル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QP_既払当月テーブル_sv3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レプリケート</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1729,7 +1746,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1869,6 +1886,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2153,1193 +2173,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <f>ROW()-3</f>
-        <v>1</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>288</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>289</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>290</v>
-      </c>
-      <c r="F4" s="42"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="34">
-        <f t="shared" ref="B5:B72" si="0">ROW()-3</f>
-        <v>2</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="F5" s="22"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="34">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="F6" s="22"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="34">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="F7" s="22"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="34">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="22"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="34">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="46">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="34">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="F11" s="22"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="34">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="F12" s="22"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="34">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="F13" s="22"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="34">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="30" t="s">
-        <v>301</v>
-      </c>
-      <c r="F14" s="22"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="34">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="30" t="s">
-        <v>302</v>
-      </c>
-      <c r="F15" s="22"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="34">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="F16" s="22"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="34">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="F17" s="22"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="34">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="F18" s="22"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="34">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="F19" s="22"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="34">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="F20" s="22"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="34">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="F21" s="22"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="34">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="30" t="s">
-        <v>309</v>
-      </c>
-      <c r="F22" s="22"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="34">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="F23" s="22"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="34">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="F24" s="22"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="34">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="F25" s="22"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="34">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="F26" s="22"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="34">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="F27" s="22"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="34">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="F28" s="22"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="34">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="F29" s="22"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="34">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="30" t="s">
-        <v>314</v>
-      </c>
-      <c r="F30" s="22"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="34">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="F31" s="22"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="34">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="30" t="s">
-        <v>316</v>
-      </c>
-      <c r="F32" s="22"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="34">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="30" t="s">
-        <v>317</v>
-      </c>
-      <c r="F33" s="22"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="34">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="30" t="s">
-        <v>318</v>
-      </c>
-      <c r="F34" s="22"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="34">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="F35" s="22"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="34">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="30" t="s">
-        <v>320</v>
-      </c>
-      <c r="F36" s="22"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="34">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="30" t="s">
-        <v>321</v>
-      </c>
-      <c r="F37" s="22"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="34">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="30" t="s">
-        <v>322</v>
-      </c>
-      <c r="F38" s="22"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="34">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="F39" s="22"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="34">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="F40" s="22"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="34">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="F41" s="22"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="34">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="F42" s="22"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="34">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="30" t="s">
-        <v>327</v>
-      </c>
-      <c r="F43" s="22"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="34">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="30" t="s">
-        <v>328</v>
-      </c>
-      <c r="F44" s="22"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="34">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="F45" s="22"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="34">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="F46" s="10"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="46">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="E47" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="F47" s="15"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="34">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="30" t="s">
-        <v>331</v>
-      </c>
-      <c r="F48" s="22"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="34">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="30" t="s">
-        <v>332</v>
-      </c>
-      <c r="F49" s="22"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="34">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="F50" s="10"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="34">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E51" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="F51" s="15"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="34">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="F52" s="22"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="34">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="28" t="s">
-        <v>293</v>
-      </c>
-      <c r="F53" s="10"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="46">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E54" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="F54" s="15"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="34">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="30" t="s">
-        <v>343</v>
-      </c>
-      <c r="F55" s="22"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="34">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="F56" s="22"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="34">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="30" t="s">
-        <v>348</v>
-      </c>
-      <c r="F57" s="22"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="34">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="28" t="s">
-        <v>349</v>
-      </c>
-      <c r="F58" s="10"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="34">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E59" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="F59" s="15"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="34">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="F60" s="22"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="34">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="30" t="s">
-        <v>336</v>
-      </c>
-      <c r="F61" s="22"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="34">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="30" t="s">
-        <v>337</v>
-      </c>
-      <c r="F62" s="22"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="34">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="F63" s="22"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="34">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="F64" s="22"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="34">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="30" t="s">
-        <v>338</v>
-      </c>
-      <c r="F65" s="22"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="34">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="F66" s="22"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="34">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="30" t="s">
-        <v>340</v>
-      </c>
-      <c r="F67" s="22"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="34">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="F68" s="22"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="34">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="F69" s="22"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="34">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="F70" s="22"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="34">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="30" t="s">
-        <v>341</v>
-      </c>
-      <c r="F71" s="22"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="34">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="30" t="s">
-        <v>342</v>
-      </c>
-      <c r="F72" s="22"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="34">
-        <f t="shared" ref="B73:B95" si="1">ROW()-3</f>
-        <v>70</v>
-      </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="30" t="s">
-        <v>345</v>
-      </c>
-      <c r="F73" s="22"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="34">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="C74" s="7"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="30" t="s">
-        <v>346</v>
-      </c>
-      <c r="F74" s="22"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="34">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="F75" s="22"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="34">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="C76" s="7"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="30" t="s">
-        <v>350</v>
-      </c>
-      <c r="F76" s="22"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="34">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="C77" s="7"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F77" s="22"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="34">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="28" t="s">
-        <v>351</v>
-      </c>
-      <c r="F78" s="10"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="46">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E79" s="28"/>
-      <c r="F79" s="10"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" s="46">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="D80" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E80" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F80" s="10"/>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B81" s="34">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="C81" s="7"/>
-      <c r="D81" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E81" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="F81" s="15"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="34">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="C82" s="7"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="F82" s="22"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="34">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="C83" s="7"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="30" t="s">
-        <v>356</v>
-      </c>
-      <c r="F83" s="22"/>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="34">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="C84" s="7"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="30" t="s">
-        <v>357</v>
-      </c>
-      <c r="F84" s="22"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B85" s="34">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="C85" s="7"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="30" t="s">
-        <v>358</v>
-      </c>
-      <c r="F85" s="22"/>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="34">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="C86" s="7"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="30" t="s">
-        <v>359</v>
-      </c>
-      <c r="F86" s="22"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="34">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="C87" s="7"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="30" t="s">
-        <v>360</v>
-      </c>
-      <c r="F87" s="22"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="34">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="C88" s="7"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="F88" s="22"/>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="34">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="C89" s="7"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="F89" s="22"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="34">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="C90" s="7"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="F90" s="22"/>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="34">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="C91" s="7"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="30" t="s">
-        <v>362</v>
-      </c>
-      <c r="F91" s="22"/>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="34">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="C92" s="7"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="30" t="s">
-        <v>281</v>
-      </c>
-      <c r="F92" s="22"/>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="34">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="C93" s="9"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="28" t="s">
-        <v>363</v>
-      </c>
-      <c r="F93" s="10"/>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="46">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="D94" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E94" s="32" t="s">
-        <v>365</v>
-      </c>
-      <c r="F94" s="25"/>
-    </row>
-    <row r="95" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="43">
-        <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="C95" s="8"/>
-      <c r="D95" s="44"/>
-      <c r="E95" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="F95" s="4"/>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F313"/>
-  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3378,6 +2211,1194 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
+      <c r="C4" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="F4" s="42"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="34">
+        <f t="shared" ref="B5:B72" si="0">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="34">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="34">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="34">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="46">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="34">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="34">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="34">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="34">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="34">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="34">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="34">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="F17" s="22"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="34">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="F18" s="22"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="34">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="34">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="F20" s="22"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="34">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="F21" s="22"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="34">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="34">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="F23" s="22"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="34">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="F24" s="22"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="34">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="34">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="22"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="34">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="F27" s="22"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="34">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="34">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" s="22"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="34">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="F30" s="22"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="34">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="F31" s="22"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="34">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="34">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="F33" s="22"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="34">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="F34" s="22"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="34">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="34">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="F37" s="22"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="34">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="F38" s="22"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="34">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="F39" s="22"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="34">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="F40" s="22"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="34">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="F41" s="22"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="34">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="F42" s="22"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="34">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="F43" s="22"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="34">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="F44" s="22"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="34">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="F45" s="22"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="34">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="46">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="F47" s="15"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="34">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="F48" s="22"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="34">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="F49" s="22"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="34">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="34">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="F51" s="15"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="34">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="F52" s="22"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="34">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="46">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F54" s="15"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="34">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="F55" s="22"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="34">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="F56" s="22"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="34">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="F57" s="22"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="34">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="F58" s="10"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="34">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="F59" s="15"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="34">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="F60" s="22"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="34">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="F61" s="22"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="34">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="F62" s="22"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="34">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="F63" s="22"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="34">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="F64" s="22"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="34">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="F65" s="22"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="34">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="F66" s="22"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="34">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="F67" s="22"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="34">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="F68" s="22"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="34">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="F69" s="22"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="34">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" s="22"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="34">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="F71" s="22"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="34">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="F72" s="22"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="34">
+        <f t="shared" ref="B73:B95" si="1">ROW()-3</f>
+        <v>70</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="F73" s="22"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="34">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="F74" s="22"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="34">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="F75" s="22"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="34">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="F76" s="22"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="34">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F77" s="22"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="34">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="C78" s="9"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="F78" s="10"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="46">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" s="28"/>
+      <c r="F79" s="10"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="46">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E80" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F80" s="10"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="34">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E81" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="F81" s="15"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="34">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="F82" s="22"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="34">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="F83" s="22"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="34">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="F84" s="22"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="34">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="F85" s="22"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="34">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="F86" s="22"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="34">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="C87" s="7"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="F87" s="22"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="34">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="F88" s="22"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="34">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="C89" s="7"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F89" s="22"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="34">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="F90" s="22"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="34">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="F91" s="22"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="34">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="F92" s="22"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="34">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="C93" s="9"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="F93" s="10"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="46">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D94" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E94" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="F94" s="25"/>
+    </row>
+    <row r="95" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="43">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="C95" s="8"/>
+      <c r="D95" s="44"/>
+      <c r="E95" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="F95" s="4"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G313"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5" customWidth="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="38"/>
+      <c r="F3" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
@@ -3388,8 +3409,11 @@
         <v>30</v>
       </c>
       <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="34">
         <f t="shared" ref="B5:B68" si="0">ROW()-3</f>
         <v>2</v>
@@ -3400,8 +3424,11 @@
         <v>31</v>
       </c>
       <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="34">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3412,8 +3439,11 @@
         <v>32</v>
       </c>
       <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3423,11 +3453,14 @@
         <v>2</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3440,8 +3473,11 @@
         <v>33</v>
       </c>
       <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3456,8 +3492,11 @@
         <v>34</v>
       </c>
       <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="34">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3468,8 +3507,11 @@
         <v>35</v>
       </c>
       <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="34">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3480,8 +3522,11 @@
         <v>36</v>
       </c>
       <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="34">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3492,8 +3537,11 @@
         <v>37</v>
       </c>
       <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="34">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3504,8 +3552,11 @@
         <v>38</v>
       </c>
       <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="34">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3518,8 +3569,11 @@
         <v>39</v>
       </c>
       <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="34">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3530,8 +3584,11 @@
         <v>40</v>
       </c>
       <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="34">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3544,8 +3601,11 @@
         <v>41</v>
       </c>
       <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="34">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3553,11 +3613,14 @@
       <c r="C17" s="7"/>
       <c r="D17" s="2"/>
       <c r="E17" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F17" s="22"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="34">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3565,11 +3628,14 @@
       <c r="C18" s="7"/>
       <c r="D18" s="2"/>
       <c r="E18" s="30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F18" s="22"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="34">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3577,11 +3643,14 @@
       <c r="C19" s="7"/>
       <c r="D19" s="2"/>
       <c r="E19" s="30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F19" s="22"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="34">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3589,11 +3658,14 @@
       <c r="C20" s="7"/>
       <c r="D20" s="2"/>
       <c r="E20" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F20" s="22"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="34">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3601,11 +3673,14 @@
       <c r="C21" s="7"/>
       <c r="D21" s="2"/>
       <c r="E21" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F21" s="22"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="34">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3613,11 +3688,14 @@
       <c r="C22" s="7"/>
       <c r="D22" s="2"/>
       <c r="E22" s="30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F22" s="22"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="34">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3628,8 +3706,11 @@
         <v>203</v>
       </c>
       <c r="F23" s="22"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="34">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3640,8 +3721,11 @@
         <v>208</v>
       </c>
       <c r="F24" s="22"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="34">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3652,8 +3736,11 @@
         <v>210</v>
       </c>
       <c r="F25" s="22"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="34">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3664,8 +3751,11 @@
         <v>211</v>
       </c>
       <c r="F26" s="22"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="34">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3676,8 +3766,11 @@
         <v>212</v>
       </c>
       <c r="F27" s="22"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="34">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3688,8 +3781,11 @@
         <v>42</v>
       </c>
       <c r="F28" s="22"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="34">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3700,8 +3796,11 @@
         <v>43</v>
       </c>
       <c r="F29" s="22"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="34">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3712,8 +3811,11 @@
         <v>44</v>
       </c>
       <c r="F30" s="22"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="34">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3724,8 +3826,11 @@
         <v>45</v>
       </c>
       <c r="F31" s="22"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="34">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3736,8 +3841,11 @@
         <v>46</v>
       </c>
       <c r="F32" s="22"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="34">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3748,8 +3856,11 @@
         <v>47</v>
       </c>
       <c r="F33" s="22"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="34">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3757,11 +3868,14 @@
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
       <c r="E34" s="30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F34" s="22"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3772,8 +3886,11 @@
         <v>48</v>
       </c>
       <c r="F35" s="22"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3784,8 +3901,11 @@
         <v>49</v>
       </c>
       <c r="F36" s="22"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="34">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3796,8 +3916,11 @@
         <v>50</v>
       </c>
       <c r="F37" s="22"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="34">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3808,8 +3931,11 @@
         <v>51</v>
       </c>
       <c r="F38" s="22"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="34">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3820,8 +3946,11 @@
         <v>52</v>
       </c>
       <c r="F39" s="22"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="34">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3832,8 +3961,11 @@
         <v>53</v>
       </c>
       <c r="F40" s="22"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="34">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3844,8 +3976,11 @@
         <v>54</v>
       </c>
       <c r="F41" s="22"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="34">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3856,8 +3991,11 @@
         <v>55</v>
       </c>
       <c r="F42" s="10"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="34">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3872,8 +4010,11 @@
         <v>38</v>
       </c>
       <c r="F43" s="11"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="34">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3884,8 +4025,11 @@
         <v>56</v>
       </c>
       <c r="F44" s="10"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="34">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3898,8 +4042,11 @@
         <v>57</v>
       </c>
       <c r="F45" s="10"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="34">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3914,8 +4061,11 @@
         <v>58</v>
       </c>
       <c r="F46" s="11"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="34">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3926,8 +4076,11 @@
         <v>59</v>
       </c>
       <c r="F47" s="10"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="34">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3940,8 +4093,11 @@
         <v>60</v>
       </c>
       <c r="F48" s="11"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="34">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3952,8 +4108,11 @@
         <v>61</v>
       </c>
       <c r="F49" s="11"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="34">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3964,8 +4123,11 @@
         <v>62</v>
       </c>
       <c r="F50" s="10"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="34">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3978,8 +4140,11 @@
         <v>63</v>
       </c>
       <c r="F51" s="10"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="34">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3994,8 +4159,11 @@
         <v>60</v>
       </c>
       <c r="F52" s="10"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="34">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -4008,8 +4176,11 @@
         <v>64</v>
       </c>
       <c r="F53" s="11"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="34">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -4020,8 +4191,11 @@
         <v>65</v>
       </c>
       <c r="F54" s="10"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="34">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -4034,8 +4208,11 @@
         <v>66</v>
       </c>
       <c r="F55" s="11"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="34">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -4046,8 +4223,11 @@
         <v>67</v>
       </c>
       <c r="F56" s="10"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="34">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -4062,8 +4242,11 @@
         <v>68</v>
       </c>
       <c r="F57" s="15"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="34">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -4074,8 +4257,11 @@
         <v>69</v>
       </c>
       <c r="F58" s="22"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="34">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -4086,8 +4272,11 @@
         <v>70</v>
       </c>
       <c r="F59" s="22"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G59" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="34">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -4098,8 +4287,11 @@
         <v>71</v>
       </c>
       <c r="F60" s="22"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="34">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -4110,8 +4302,11 @@
         <v>72</v>
       </c>
       <c r="F61" s="22"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G61" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="34">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -4122,8 +4317,11 @@
         <v>36</v>
       </c>
       <c r="F62" s="22"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="34">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -4134,8 +4332,11 @@
         <v>73</v>
       </c>
       <c r="F63" s="22"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="34">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -4146,8 +4347,11 @@
         <v>74</v>
       </c>
       <c r="F64" s="22"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="34">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -4158,8 +4362,11 @@
         <v>37</v>
       </c>
       <c r="F65" s="22"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G65" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="34">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -4170,8 +4377,11 @@
         <v>75</v>
       </c>
       <c r="F66" s="22"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G66" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="34">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -4182,8 +4392,11 @@
         <v>76</v>
       </c>
       <c r="F67" s="22"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G67" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="34">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -4194,8 +4407,11 @@
         <v>38</v>
       </c>
       <c r="F68" s="22"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="34">
         <f t="shared" ref="B69:B132" si="1">ROW()-3</f>
         <v>66</v>
@@ -4206,8 +4422,11 @@
         <v>56</v>
       </c>
       <c r="F69" s="22"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="34">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -4218,8 +4437,11 @@
         <v>77</v>
       </c>
       <c r="F70" s="22"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G70" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="34">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -4230,8 +4452,11 @@
         <v>79</v>
       </c>
       <c r="F71" s="22"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G71" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="34">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -4242,8 +4467,11 @@
         <v>80</v>
       </c>
       <c r="F72" s="22"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G72" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="34">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -4254,8 +4482,11 @@
         <v>81</v>
       </c>
       <c r="F73" s="10"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G73" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="34">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -4268,8 +4499,11 @@
         <v>78</v>
       </c>
       <c r="F74" s="15"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G74" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="34">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -4280,8 +4514,11 @@
         <v>82</v>
       </c>
       <c r="F75" s="22"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G75" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="34">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -4292,8 +4529,11 @@
         <v>40</v>
       </c>
       <c r="F76" s="22"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G76" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="34">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -4304,8 +4544,11 @@
         <v>83</v>
       </c>
       <c r="F77" s="22"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G77" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="34">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -4316,8 +4559,11 @@
         <v>85</v>
       </c>
       <c r="F78" s="10"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G78" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="34">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -4330,8 +4576,11 @@
         <v>41</v>
       </c>
       <c r="F79" s="15"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G79" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="34">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -4339,11 +4588,14 @@
       <c r="C80" s="7"/>
       <c r="D80" s="2"/>
       <c r="E80" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F80" s="22"/>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G80" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="34">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -4351,11 +4603,14 @@
       <c r="C81" s="7"/>
       <c r="D81" s="2"/>
       <c r="E81" s="30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F81" s="22"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G81" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="34">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -4363,11 +4618,14 @@
       <c r="C82" s="7"/>
       <c r="D82" s="2"/>
       <c r="E82" s="30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F82" s="22"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G82" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="34">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -4375,11 +4633,14 @@
       <c r="C83" s="7"/>
       <c r="D83" s="2"/>
       <c r="E83" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F83" s="22"/>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G83" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="34">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -4387,11 +4648,14 @@
       <c r="C84" s="7"/>
       <c r="D84" s="2"/>
       <c r="E84" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F84" s="22"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G84" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="34">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -4402,8 +4666,11 @@
         <v>84</v>
       </c>
       <c r="F85" s="10"/>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G85" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="34">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -4418,8 +4685,11 @@
         <v>86</v>
       </c>
       <c r="F86" s="15"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G86" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="34">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -4430,8 +4700,11 @@
         <v>87</v>
       </c>
       <c r="F87" s="22"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G87" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="34">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -4442,8 +4715,11 @@
         <v>73</v>
       </c>
       <c r="F88" s="22"/>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G88" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="34">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -4454,8 +4730,11 @@
         <v>37</v>
       </c>
       <c r="F89" s="22"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G89" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="34">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -4466,8 +4745,11 @@
         <v>75</v>
       </c>
       <c r="F90" s="10"/>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G90" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="34">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -4480,10 +4762,13 @@
         <v>88</v>
       </c>
       <c r="F91" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="G91" s="47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="34">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -4494,8 +4779,11 @@
         <v>89</v>
       </c>
       <c r="F92" s="22"/>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G92" s="47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="34">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -4506,8 +4794,11 @@
         <v>90</v>
       </c>
       <c r="F93" s="22"/>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G93" s="47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="34">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -4518,8 +4809,11 @@
         <v>91</v>
       </c>
       <c r="F94" s="22"/>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G94" s="47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="34">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -4530,8 +4824,11 @@
         <v>92</v>
       </c>
       <c r="F95" s="22"/>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G95" s="47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="34">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -4542,8 +4839,11 @@
         <v>93</v>
       </c>
       <c r="F96" s="22"/>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G96" s="47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="34">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -4554,8 +4854,11 @@
         <v>94</v>
       </c>
       <c r="F97" s="22"/>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G97" s="47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="34">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -4566,8 +4869,11 @@
         <v>95</v>
       </c>
       <c r="F98" s="22"/>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G98" s="47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="34">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -4578,8 +4884,11 @@
         <v>96</v>
       </c>
       <c r="F99" s="22"/>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G99" s="47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="34">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -4590,8 +4899,11 @@
         <v>97</v>
       </c>
       <c r="F100" s="22"/>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G100" s="47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" s="34">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -4602,8 +4914,11 @@
         <v>98</v>
       </c>
       <c r="F101" s="22"/>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G101" s="47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" s="34">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -4614,8 +4929,11 @@
         <v>99</v>
       </c>
       <c r="F102" s="22"/>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G102" s="47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103" s="34">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4626,8 +4944,11 @@
         <v>100</v>
       </c>
       <c r="F103" s="22"/>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G103" s="47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104" s="34">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -4638,8 +4959,11 @@
         <v>101</v>
       </c>
       <c r="F104" s="22"/>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G104" s="47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" s="34">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -4650,8 +4974,11 @@
         <v>102</v>
       </c>
       <c r="F105" s="22"/>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G105" s="47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="34">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -4662,8 +4989,11 @@
         <v>103</v>
       </c>
       <c r="F106" s="22"/>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G106" s="47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" s="34">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -4674,8 +5004,11 @@
         <v>104</v>
       </c>
       <c r="F107" s="22"/>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G107" s="47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" s="34">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -4686,8 +5019,11 @@
         <v>105</v>
       </c>
       <c r="F108" s="22"/>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G108" s="47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" s="34">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -4698,8 +5034,11 @@
         <v>106</v>
       </c>
       <c r="F109" s="22"/>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G109" s="47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110" s="34">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -4710,8 +5049,11 @@
         <v>107</v>
       </c>
       <c r="F110" s="22"/>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G110" s="47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B111" s="34">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -4722,8 +5064,11 @@
         <v>108</v>
       </c>
       <c r="F111" s="22"/>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G111" s="47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" s="34">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -4734,8 +5079,11 @@
         <v>109</v>
       </c>
       <c r="F112" s="22"/>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G112" s="47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" s="34">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -4746,8 +5094,11 @@
         <v>110</v>
       </c>
       <c r="F113" s="22"/>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G113" s="47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" s="34">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -4758,8 +5109,11 @@
         <v>111</v>
       </c>
       <c r="F114" s="22"/>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G114" s="47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" s="34">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -4770,8 +5124,11 @@
         <v>112</v>
       </c>
       <c r="F115" s="22"/>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G115" s="47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" s="34">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -4782,8 +5139,11 @@
         <v>113</v>
       </c>
       <c r="F116" s="22"/>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G116" s="47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="34">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -4794,8 +5154,11 @@
         <v>114</v>
       </c>
       <c r="F117" s="22"/>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G117" s="47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="34">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -4806,8 +5169,11 @@
         <v>115</v>
       </c>
       <c r="F118" s="22"/>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G118" s="47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" s="34">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -4818,8 +5184,11 @@
         <v>116</v>
       </c>
       <c r="F119" s="22"/>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G119" s="47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B120" s="34">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -4830,8 +5199,11 @@
         <v>117</v>
       </c>
       <c r="F120" s="22"/>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G120" s="47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B121" s="34">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -4842,8 +5214,11 @@
         <v>118</v>
       </c>
       <c r="F121" s="10"/>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G121" s="47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B122" s="34">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -4856,8 +5231,11 @@
         <v>119</v>
       </c>
       <c r="F122" s="15"/>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G122" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B123" s="34">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -4868,8 +5246,11 @@
         <v>120</v>
       </c>
       <c r="F123" s="22"/>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G123" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B124" s="34">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -4880,8 +5261,11 @@
         <v>121</v>
       </c>
       <c r="F124" s="22"/>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G124" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B125" s="34">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -4892,8 +5276,11 @@
         <v>122</v>
       </c>
       <c r="F125" s="22"/>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G125" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B126" s="34">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -4904,8 +5291,11 @@
         <v>123</v>
       </c>
       <c r="F126" s="22"/>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G126" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B127" s="34">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -4916,8 +5306,11 @@
         <v>124</v>
       </c>
       <c r="F127" s="22"/>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G127" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B128" s="34">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -4928,8 +5321,11 @@
         <v>125</v>
       </c>
       <c r="F128" s="22"/>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G128" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129" s="34">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -4940,8 +5336,11 @@
         <v>127</v>
       </c>
       <c r="F129" s="22"/>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G129" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B130" s="34">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -4952,8 +5351,11 @@
         <v>128</v>
       </c>
       <c r="F130" s="22"/>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G130" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B131" s="34">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -4964,8 +5366,11 @@
         <v>129</v>
       </c>
       <c r="F131" s="22"/>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G131" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B132" s="34">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -4976,8 +5381,11 @@
         <v>130</v>
       </c>
       <c r="F132" s="22"/>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G132" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B133" s="34">
         <f t="shared" ref="B133:B196" si="2">ROW()-3</f>
         <v>130</v>
@@ -4988,8 +5396,11 @@
         <v>131</v>
       </c>
       <c r="F133" s="22"/>
-    </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G133" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B134" s="34">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -5000,8 +5411,11 @@
         <v>132</v>
       </c>
       <c r="F134" s="22"/>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G134" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B135" s="34">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -5012,8 +5426,11 @@
         <v>133</v>
       </c>
       <c r="F135" s="22"/>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G135" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B136" s="34">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -5024,8 +5441,11 @@
         <v>134</v>
       </c>
       <c r="F136" s="22"/>
-    </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G136" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B137" s="34">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -5036,8 +5456,11 @@
         <v>135</v>
       </c>
       <c r="F137" s="22"/>
-    </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G137" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B138" s="34">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -5048,8 +5471,11 @@
         <v>136</v>
       </c>
       <c r="F138" s="22"/>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G138" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B139" s="34">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -5060,8 +5486,11 @@
         <v>137</v>
       </c>
       <c r="F139" s="22"/>
-    </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G139" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B140" s="34">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -5072,8 +5501,11 @@
         <v>138</v>
       </c>
       <c r="F140" s="22"/>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G140" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B141" s="34">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -5084,8 +5516,11 @@
         <v>139</v>
       </c>
       <c r="F141" s="22"/>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G141" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B142" s="34">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -5096,8 +5531,11 @@
         <v>140</v>
       </c>
       <c r="F142" s="22"/>
-    </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G142" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B143" s="34">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -5108,8 +5546,11 @@
         <v>141</v>
       </c>
       <c r="F143" s="22"/>
-    </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G143" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B144" s="34">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -5120,8 +5561,11 @@
         <v>142</v>
       </c>
       <c r="F144" s="22"/>
-    </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G144" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B145" s="34">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -5132,8 +5576,11 @@
         <v>143</v>
       </c>
       <c r="F145" s="22"/>
-    </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G145" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B146" s="34">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -5144,8 +5591,11 @@
         <v>144</v>
       </c>
       <c r="F146" s="22"/>
-    </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G146" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B147" s="34">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -5156,8 +5606,11 @@
         <v>145</v>
       </c>
       <c r="F147" s="22"/>
-    </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G147" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B148" s="34">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -5168,8 +5621,11 @@
         <v>146</v>
       </c>
       <c r="F148" s="22"/>
-    </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G148" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B149" s="34">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -5180,8 +5636,11 @@
         <v>147</v>
       </c>
       <c r="F149" s="22"/>
-    </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G149" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B150" s="34">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -5192,8 +5651,11 @@
         <v>148</v>
       </c>
       <c r="F150" s="22"/>
-    </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G150" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B151" s="34">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -5204,8 +5666,11 @@
         <v>149</v>
       </c>
       <c r="F151" s="22"/>
-    </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G151" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B152" s="34">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -5216,8 +5681,11 @@
         <v>150</v>
       </c>
       <c r="F152" s="22"/>
-    </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G152" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B153" s="34">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -5228,8 +5696,11 @@
         <v>151</v>
       </c>
       <c r="F153" s="22"/>
-    </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G153" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B154" s="34">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -5240,8 +5711,11 @@
         <v>152</v>
       </c>
       <c r="F154" s="22"/>
-    </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G154" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B155" s="34">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -5252,8 +5726,11 @@
         <v>153</v>
       </c>
       <c r="F155" s="22"/>
-    </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G155" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B156" s="34">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -5264,8 +5741,11 @@
         <v>154</v>
       </c>
       <c r="F156" s="22"/>
-    </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G156" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B157" s="34">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -5276,8 +5756,11 @@
         <v>156</v>
       </c>
       <c r="F157" s="10"/>
-    </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G157" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B158" s="34">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -5290,8 +5773,11 @@
         <v>126</v>
       </c>
       <c r="F158" s="10"/>
-    </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G158" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B159" s="34">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -5304,10 +5790,13 @@
         <v>155</v>
       </c>
       <c r="F159" s="15" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="160" spans="2:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="G159" s="47" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B160" s="34">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -5318,8 +5807,11 @@
         <v>157</v>
       </c>
       <c r="F160" s="23"/>
-    </row>
-    <row r="161" spans="2:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G160" s="47" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B161" s="34">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -5330,8 +5822,11 @@
         <v>158</v>
       </c>
       <c r="F161" s="23"/>
-    </row>
-    <row r="162" spans="2:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G161" s="47" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B162" s="34">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -5342,8 +5837,11 @@
         <v>159</v>
       </c>
       <c r="F162" s="23"/>
-    </row>
-    <row r="163" spans="2:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G162" s="47" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B163" s="34">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -5354,8 +5852,11 @@
         <v>160</v>
       </c>
       <c r="F163" s="23"/>
-    </row>
-    <row r="164" spans="2:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G163" s="47" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B164" s="34">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -5366,8 +5867,11 @@
         <v>161</v>
       </c>
       <c r="F164" s="23"/>
-    </row>
-    <row r="165" spans="2:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G164" s="47" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B165" s="34">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -5378,8 +5882,11 @@
         <v>162</v>
       </c>
       <c r="F165" s="24"/>
-    </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G165" s="47" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B166" s="34">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -5394,8 +5901,11 @@
         <v>163</v>
       </c>
       <c r="F166" s="15"/>
-    </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G166" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B167" s="34">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -5406,8 +5916,11 @@
         <v>170</v>
       </c>
       <c r="F167" s="22"/>
-    </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G167" s="47" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B168" s="34">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -5418,8 +5931,11 @@
         <v>171</v>
       </c>
       <c r="F168" s="22"/>
-    </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G168" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B169" s="34">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -5430,8 +5946,11 @@
         <v>172</v>
       </c>
       <c r="F169" s="22"/>
-    </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G169" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B170" s="34">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -5442,8 +5961,11 @@
         <v>173</v>
       </c>
       <c r="F170" s="10"/>
-    </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G170" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B171" s="34">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -5456,8 +5978,11 @@
         <v>164</v>
       </c>
       <c r="F171" s="15"/>
-    </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G171" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B172" s="34">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -5468,8 +5993,11 @@
         <v>37</v>
       </c>
       <c r="F172" s="22"/>
-    </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G172" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B173" s="34">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -5480,8 +6008,11 @@
         <v>38</v>
       </c>
       <c r="F173" s="22"/>
-    </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G173" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B174" s="34">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -5492,8 +6023,11 @@
         <v>60</v>
       </c>
       <c r="F174" s="22"/>
-    </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G174" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B175" s="34">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -5504,8 +6038,11 @@
         <v>61</v>
       </c>
       <c r="F175" s="22"/>
-    </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G175" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B176" s="34">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -5516,8 +6053,11 @@
         <v>62</v>
       </c>
       <c r="F176" s="10"/>
-    </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G176" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B177" s="34">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -5530,8 +6070,11 @@
         <v>165</v>
       </c>
       <c r="F177" s="15"/>
-    </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G177" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B178" s="34">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -5542,8 +6085,11 @@
         <v>168</v>
       </c>
       <c r="F178" s="22"/>
-    </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G178" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B179" s="34">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -5554,8 +6100,11 @@
         <v>65</v>
       </c>
       <c r="F179" s="22"/>
-    </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G179" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B180" s="34">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -5566,8 +6115,11 @@
         <v>169</v>
       </c>
       <c r="F180" s="22"/>
-    </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G180" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B181" s="34">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -5578,8 +6130,11 @@
         <v>174</v>
       </c>
       <c r="F181" s="10"/>
-    </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G181" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B182" s="34">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -5592,8 +6147,11 @@
         <v>166</v>
       </c>
       <c r="F182" s="10"/>
-    </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G182" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B183" s="34">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -5606,8 +6164,11 @@
         <v>167</v>
       </c>
       <c r="F183" s="10"/>
-    </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G183" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B184" s="34">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -5620,8 +6181,11 @@
         <v>66</v>
       </c>
       <c r="F184" s="25"/>
-    </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G184" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B185" s="34">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -5632,8 +6196,11 @@
         <v>67</v>
       </c>
       <c r="F185" s="10"/>
-    </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G185" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B186" s="34">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -5648,8 +6215,11 @@
         <v>175</v>
       </c>
       <c r="F186" s="15"/>
-    </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G186" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B187" s="34">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -5660,8 +6230,11 @@
         <v>176</v>
       </c>
       <c r="F187" s="22"/>
-    </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G187" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B188" s="34">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -5672,8 +6245,11 @@
         <v>177</v>
       </c>
       <c r="F188" s="22"/>
-    </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G188" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B189" s="34">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -5684,8 +6260,11 @@
         <v>178</v>
       </c>
       <c r="F189" s="22"/>
-    </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G189" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B190" s="34">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -5696,8 +6275,11 @@
         <v>80</v>
       </c>
       <c r="F190" s="10"/>
-    </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G190" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B191" s="34">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -5710,8 +6292,11 @@
         <v>179</v>
       </c>
       <c r="F191" s="10"/>
-    </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G191" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B192" s="34">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -5724,8 +6309,11 @@
         <v>180</v>
       </c>
       <c r="F192" s="15"/>
-    </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G192" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B193" s="34">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -5736,8 +6324,11 @@
         <v>181</v>
       </c>
       <c r="F193" s="22"/>
-    </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G193" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B194" s="34">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -5748,8 +6339,11 @@
         <v>182</v>
       </c>
       <c r="F194" s="22"/>
-    </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G194" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B195" s="34">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -5760,8 +6354,11 @@
         <v>183</v>
       </c>
       <c r="F195" s="22"/>
-    </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G195" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B196" s="34">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -5772,8 +6369,11 @@
         <v>184</v>
       </c>
       <c r="F196" s="22"/>
-    </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G196" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B197" s="34">
         <f t="shared" ref="B197:B260" si="3">ROW()-3</f>
         <v>194</v>
@@ -5784,8 +6384,11 @@
         <v>185</v>
       </c>
       <c r="F197" s="22"/>
-    </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G197" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B198" s="34">
         <f t="shared" si="3"/>
         <v>195</v>
@@ -5796,8 +6399,11 @@
         <v>186</v>
       </c>
       <c r="F198" s="22"/>
-    </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G198" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B199" s="34">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -5808,8 +6414,11 @@
         <v>187</v>
       </c>
       <c r="F199" s="10"/>
-    </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G199" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B200" s="34">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -5824,8 +6433,11 @@
         <v>38</v>
       </c>
       <c r="F200" s="15"/>
-    </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G200" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B201" s="34">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -5836,8 +6448,11 @@
         <v>188</v>
       </c>
       <c r="F201" s="22"/>
-    </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G201" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B202" s="34">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -5848,8 +6463,11 @@
         <v>189</v>
       </c>
       <c r="F202" s="22"/>
-    </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G202" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B203" s="34">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -5860,8 +6478,11 @@
         <v>190</v>
       </c>
       <c r="F203" s="22"/>
-    </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G203" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B204" s="34">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -5872,8 +6493,11 @@
         <v>191</v>
       </c>
       <c r="F204" s="22"/>
-    </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G204" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B205" s="34">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -5884,8 +6508,11 @@
         <v>192</v>
       </c>
       <c r="F205" s="22"/>
-    </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G205" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B206" s="34">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -5896,8 +6523,11 @@
         <v>193</v>
       </c>
       <c r="F206" s="22"/>
-    </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G206" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B207" s="34">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -5908,8 +6538,11 @@
         <v>194</v>
       </c>
       <c r="F207" s="22"/>
-    </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G207" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B208" s="34">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -5920,8 +6553,11 @@
         <v>195</v>
       </c>
       <c r="F208" s="22"/>
-    </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G208" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B209" s="34">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -5932,8 +6568,11 @@
         <v>196</v>
       </c>
       <c r="F209" s="22"/>
-    </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G209" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B210" s="34">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -5944,8 +6583,11 @@
         <v>197</v>
       </c>
       <c r="F210" s="10"/>
-    </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G210" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B211" s="34">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -5958,8 +6600,11 @@
       </c>
       <c r="E211" s="28"/>
       <c r="F211" s="10"/>
-    </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G211" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B212" s="34">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -5974,8 +6619,11 @@
         <v>37</v>
       </c>
       <c r="F212" s="15"/>
-    </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G212" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B213" s="34">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -5986,8 +6634,11 @@
         <v>38</v>
       </c>
       <c r="F213" s="22"/>
-    </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G213" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B214" s="34">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -5998,8 +6649,11 @@
         <v>60</v>
       </c>
       <c r="F214" s="22"/>
-    </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G214" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B215" s="34">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -6010,8 +6664,11 @@
         <v>62</v>
       </c>
       <c r="F215" s="10"/>
-    </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G215" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B216" s="34">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -6024,8 +6681,11 @@
         <v>39</v>
       </c>
       <c r="F216" s="15"/>
-    </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G216" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B217" s="34">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -6036,8 +6696,11 @@
         <v>65</v>
       </c>
       <c r="F217" s="22"/>
-    </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G217" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B218" s="34">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -6048,8 +6711,11 @@
         <v>174</v>
       </c>
       <c r="F218" s="10"/>
-    </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G218" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="219" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B219" s="34">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -6062,8 +6728,11 @@
         <v>199</v>
       </c>
       <c r="F219" s="15"/>
-    </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G219" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="220" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B220" s="34">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -6074,8 +6743,11 @@
         <v>200</v>
       </c>
       <c r="F220" s="22"/>
-    </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G220" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="221" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B221" s="34">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -6086,8 +6758,11 @@
         <v>57</v>
       </c>
       <c r="F221" s="22"/>
-    </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G221" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="222" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B222" s="34">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -6098,8 +6773,11 @@
         <v>84</v>
       </c>
       <c r="F222" s="22"/>
-    </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G222" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="223" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B223" s="34">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -6110,8 +6788,11 @@
         <v>201</v>
       </c>
       <c r="F223" s="22"/>
-    </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G223" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="224" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B224" s="34">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -6122,8 +6803,11 @@
         <v>202</v>
       </c>
       <c r="F224" s="22"/>
-    </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G224" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B225" s="34">
         <f t="shared" si="3"/>
         <v>222</v>
@@ -6134,8 +6818,11 @@
         <v>203</v>
       </c>
       <c r="F225" s="22"/>
-    </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G225" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B226" s="34">
         <f t="shared" si="3"/>
         <v>223</v>
@@ -6146,8 +6833,11 @@
         <v>204</v>
       </c>
       <c r="F226" s="22"/>
-    </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G226" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="227" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B227" s="34">
         <f t="shared" si="3"/>
         <v>224</v>
@@ -6158,8 +6848,11 @@
         <v>205</v>
       </c>
       <c r="F227" s="22"/>
-    </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G227" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="228" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B228" s="34">
         <f t="shared" si="3"/>
         <v>225</v>
@@ -6170,8 +6863,11 @@
         <v>206</v>
       </c>
       <c r="F228" s="22"/>
-    </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G228" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="229" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B229" s="34">
         <f t="shared" si="3"/>
         <v>226</v>
@@ -6182,8 +6878,11 @@
         <v>207</v>
       </c>
       <c r="F229" s="22"/>
-    </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G229" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="230" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B230" s="34">
         <f t="shared" si="3"/>
         <v>227</v>
@@ -6194,8 +6893,11 @@
         <v>208</v>
       </c>
       <c r="F230" s="22"/>
-    </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G230" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="231" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B231" s="34">
         <f t="shared" si="3"/>
         <v>228</v>
@@ -6206,8 +6908,11 @@
         <v>209</v>
       </c>
       <c r="F231" s="22"/>
-    </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G231" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="232" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B232" s="34">
         <f t="shared" si="3"/>
         <v>229</v>
@@ -6218,8 +6923,11 @@
         <v>210</v>
       </c>
       <c r="F232" s="22"/>
-    </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G232" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="233" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B233" s="34">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -6230,8 +6938,11 @@
         <v>211</v>
       </c>
       <c r="F233" s="22"/>
-    </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G233" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="234" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B234" s="34">
         <f t="shared" si="3"/>
         <v>231</v>
@@ -6242,8 +6953,11 @@
         <v>212</v>
       </c>
       <c r="F234" s="22"/>
-    </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G234" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="235" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B235" s="34">
         <f t="shared" si="3"/>
         <v>232</v>
@@ -6254,8 +6968,11 @@
         <v>213</v>
       </c>
       <c r="F235" s="10"/>
-    </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G235" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="236" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B236" s="34">
         <f t="shared" si="3"/>
         <v>233</v>
@@ -6268,8 +6985,11 @@
         <v>214</v>
       </c>
       <c r="F236" s="10"/>
-    </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G236" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="237" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B237" s="34">
         <f t="shared" si="3"/>
         <v>234</v>
@@ -6284,8 +7004,11 @@
         <v>177</v>
       </c>
       <c r="F237" s="15"/>
-    </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G237" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="238" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B238" s="34">
         <f t="shared" si="3"/>
         <v>235</v>
@@ -6296,8 +7019,11 @@
         <v>31</v>
       </c>
       <c r="F238" s="22"/>
-    </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G238" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="239" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B239" s="34">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -6308,8 +7034,11 @@
         <v>164</v>
       </c>
       <c r="F239" s="22"/>
-    </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G239" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="240" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B240" s="34">
         <f t="shared" si="3"/>
         <v>237</v>
@@ -6320,8 +7049,11 @@
         <v>215</v>
       </c>
       <c r="F240" s="22"/>
-    </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G240" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="241" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B241" s="34">
         <f t="shared" si="3"/>
         <v>238</v>
@@ -6332,8 +7064,11 @@
         <v>216</v>
       </c>
       <c r="F241" s="22"/>
-    </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G241" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="242" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B242" s="34">
         <f t="shared" si="3"/>
         <v>239</v>
@@ -6344,8 +7079,11 @@
         <v>36</v>
       </c>
       <c r="F242" s="22"/>
-    </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G242" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="243" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B243" s="34">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -6356,8 +7094,11 @@
         <v>73</v>
       </c>
       <c r="F243" s="22"/>
-    </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G243" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="244" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B244" s="34">
         <f t="shared" si="3"/>
         <v>241</v>
@@ -6368,8 +7109,11 @@
         <v>217</v>
       </c>
       <c r="F244" s="22"/>
-    </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G244" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="245" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B245" s="34">
         <f t="shared" si="3"/>
         <v>242</v>
@@ -6380,8 +7124,11 @@
         <v>37</v>
       </c>
       <c r="F245" s="22"/>
-    </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G245" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="246" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B246" s="34">
         <f t="shared" si="3"/>
         <v>243</v>
@@ -6392,8 +7139,11 @@
         <v>75</v>
       </c>
       <c r="F246" s="22"/>
-    </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G246" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="247" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B247" s="34">
         <f t="shared" si="3"/>
         <v>244</v>
@@ -6404,8 +7154,11 @@
         <v>218</v>
       </c>
       <c r="F247" s="22"/>
-    </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G247" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="248" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B248" s="34">
         <f t="shared" si="3"/>
         <v>245</v>
@@ -6416,8 +7169,11 @@
         <v>219</v>
       </c>
       <c r="F248" s="22"/>
-    </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G248" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="249" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B249" s="34">
         <f t="shared" si="3"/>
         <v>246</v>
@@ -6428,8 +7184,11 @@
         <v>38</v>
       </c>
       <c r="F249" s="22"/>
-    </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G249" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="250" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B250" s="34">
         <f t="shared" si="3"/>
         <v>247</v>
@@ -6440,8 +7199,11 @@
         <v>77</v>
       </c>
       <c r="F250" s="22"/>
-    </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G250" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="251" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B251" s="34">
         <f t="shared" si="3"/>
         <v>248</v>
@@ -6452,8 +7214,11 @@
         <v>81</v>
       </c>
       <c r="F251" s="22"/>
-    </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G251" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="252" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B252" s="34">
         <f t="shared" si="3"/>
         <v>249</v>
@@ -6464,8 +7229,11 @@
         <v>220</v>
       </c>
       <c r="F252" s="22"/>
-    </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G252" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="253" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B253" s="34">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -6476,8 +7244,11 @@
         <v>61</v>
       </c>
       <c r="F253" s="10"/>
-    </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G253" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="254" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B254" s="34">
         <f t="shared" si="3"/>
         <v>251</v>
@@ -6490,8 +7261,11 @@
         <v>179</v>
       </c>
       <c r="F254" s="10"/>
-    </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G254" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="255" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B255" s="34">
         <f t="shared" si="3"/>
         <v>252</v>
@@ -6505,7 +7279,7 @@
       </c>
       <c r="F255" s="10"/>
     </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B256" s="34">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -6515,7 +7289,7 @@
         <v>2</v>
       </c>
       <c r="E256" s="29" t="s">
-        <v>222</v>
+        <v>366</v>
       </c>
       <c r="F256" s="15"/>
     </row>
@@ -6527,7 +7301,7 @@
       <c r="C257" s="7"/>
       <c r="D257" s="2"/>
       <c r="E257" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F257" s="22"/>
     </row>
@@ -6539,7 +7313,7 @@
       <c r="C258" s="7"/>
       <c r="D258" s="2"/>
       <c r="E258" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F258" s="22"/>
     </row>
@@ -6551,7 +7325,7 @@
       <c r="C259" s="7"/>
       <c r="D259" s="2"/>
       <c r="E259" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F259" s="22"/>
     </row>
@@ -6563,7 +7337,7 @@
       <c r="C260" s="7"/>
       <c r="D260" s="2"/>
       <c r="E260" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F260" s="22"/>
     </row>
@@ -6575,7 +7349,7 @@
       <c r="C261" s="7"/>
       <c r="D261" s="2"/>
       <c r="E261" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F261" s="22"/>
     </row>
@@ -6587,7 +7361,7 @@
       <c r="C262" s="7"/>
       <c r="D262" s="2"/>
       <c r="E262" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F262" s="22"/>
     </row>
@@ -6599,7 +7373,7 @@
       <c r="C263" s="7"/>
       <c r="D263" s="2"/>
       <c r="E263" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F263" s="22"/>
     </row>
@@ -6611,7 +7385,7 @@
       <c r="C264" s="7"/>
       <c r="D264" s="2"/>
       <c r="E264" s="30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F264" s="22"/>
     </row>
@@ -6623,7 +7397,7 @@
       <c r="C265" s="7"/>
       <c r="D265" s="2"/>
       <c r="E265" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F265" s="22"/>
     </row>
@@ -6635,7 +7409,7 @@
       <c r="C266" s="7"/>
       <c r="D266" s="2"/>
       <c r="E266" s="30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F266" s="22"/>
     </row>
@@ -6647,7 +7421,7 @@
       <c r="C267" s="7"/>
       <c r="D267" s="2"/>
       <c r="E267" s="30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F267" s="22"/>
     </row>
@@ -6659,7 +7433,7 @@
       <c r="C268" s="7"/>
       <c r="D268" s="2"/>
       <c r="E268" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F268" s="22"/>
     </row>
@@ -6671,7 +7445,7 @@
       <c r="C269" s="7"/>
       <c r="D269" s="2"/>
       <c r="E269" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F269" s="22"/>
     </row>
@@ -6683,7 +7457,7 @@
       <c r="C270" s="7"/>
       <c r="D270" s="2"/>
       <c r="E270" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F270" s="22"/>
     </row>
@@ -6695,7 +7469,7 @@
       <c r="C271" s="7"/>
       <c r="D271" s="2"/>
       <c r="E271" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F271" s="22"/>
     </row>
@@ -6707,7 +7481,7 @@
       <c r="C272" s="7"/>
       <c r="D272" s="2"/>
       <c r="E272" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F272" s="22"/>
     </row>
@@ -6731,7 +7505,7 @@
       <c r="C274" s="7"/>
       <c r="D274" s="2"/>
       <c r="E274" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F274" s="22"/>
     </row>
@@ -6743,7 +7517,7 @@
       <c r="C275" s="7"/>
       <c r="D275" s="2"/>
       <c r="E275" s="30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F275" s="22"/>
     </row>
@@ -6755,7 +7529,7 @@
       <c r="C276" s="7"/>
       <c r="D276" s="2"/>
       <c r="E276" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F276" s="22"/>
     </row>
@@ -6767,7 +7541,7 @@
       <c r="C277" s="7"/>
       <c r="D277" s="2"/>
       <c r="E277" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F277" s="22"/>
     </row>
@@ -6779,7 +7553,7 @@
       <c r="C278" s="7"/>
       <c r="D278" s="2"/>
       <c r="E278" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F278" s="22"/>
     </row>
@@ -6791,7 +7565,7 @@
       <c r="C279" s="7"/>
       <c r="D279" s="2"/>
       <c r="E279" s="30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F279" s="22"/>
     </row>
@@ -6803,7 +7577,7 @@
       <c r="C280" s="7"/>
       <c r="D280" s="2"/>
       <c r="E280" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F280" s="22"/>
     </row>
@@ -6815,7 +7589,7 @@
       <c r="C281" s="7"/>
       <c r="D281" s="2"/>
       <c r="E281" s="30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F281" s="22"/>
     </row>
@@ -6827,7 +7601,7 @@
       <c r="C282" s="7"/>
       <c r="D282" s="2"/>
       <c r="E282" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F282" s="22"/>
     </row>
@@ -6839,7 +7613,7 @@
       <c r="C283" s="7"/>
       <c r="D283" s="2"/>
       <c r="E283" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F283" s="22"/>
     </row>
@@ -6851,7 +7625,7 @@
       <c r="C284" s="7"/>
       <c r="D284" s="2"/>
       <c r="E284" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F284" s="22"/>
     </row>
@@ -6863,7 +7637,7 @@
       <c r="C285" s="7"/>
       <c r="D285" s="2"/>
       <c r="E285" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F285" s="22"/>
     </row>
@@ -6875,7 +7649,7 @@
       <c r="C286" s="7"/>
       <c r="D286" s="2"/>
       <c r="E286" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F286" s="22"/>
     </row>
@@ -6887,7 +7661,7 @@
       <c r="C287" s="7"/>
       <c r="D287" s="2"/>
       <c r="E287" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F287" s="22"/>
     </row>
@@ -6899,7 +7673,7 @@
       <c r="C288" s="7"/>
       <c r="D288" s="21"/>
       <c r="E288" s="28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F288" s="10"/>
     </row>
@@ -6913,7 +7687,7 @@
         <v>5</v>
       </c>
       <c r="E289" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F289" s="15"/>
     </row>
@@ -6925,7 +7699,7 @@
       <c r="C290" s="7"/>
       <c r="D290" s="2"/>
       <c r="E290" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F290" s="22"/>
     </row>
@@ -6937,7 +7711,7 @@
       <c r="C291" s="7"/>
       <c r="D291" s="2"/>
       <c r="E291" s="30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F291" s="22"/>
     </row>
@@ -6949,7 +7723,7 @@
       <c r="C292" s="7"/>
       <c r="D292" s="2"/>
       <c r="E292" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F292" s="22"/>
     </row>
@@ -6961,7 +7735,7 @@
       <c r="C293" s="7"/>
       <c r="D293" s="2"/>
       <c r="E293" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F293" s="22"/>
     </row>
@@ -6973,7 +7747,7 @@
       <c r="C294" s="7"/>
       <c r="D294" s="2"/>
       <c r="E294" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F294" s="22"/>
     </row>
@@ -6985,7 +7759,7 @@
       <c r="C295" s="7"/>
       <c r="D295" s="2"/>
       <c r="E295" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F295" s="22"/>
     </row>
@@ -6997,7 +7771,7 @@
       <c r="C296" s="7"/>
       <c r="D296" s="2"/>
       <c r="E296" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F296" s="22"/>
     </row>
@@ -7021,7 +7795,7 @@
       <c r="C298" s="7"/>
       <c r="D298" s="2"/>
       <c r="E298" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F298" s="22"/>
     </row>
@@ -7033,7 +7807,7 @@
       <c r="C299" s="7"/>
       <c r="D299" s="2"/>
       <c r="E299" s="30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F299" s="22"/>
     </row>
@@ -7045,7 +7819,7 @@
       <c r="C300" s="7"/>
       <c r="D300" s="2"/>
       <c r="E300" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F300" s="22"/>
     </row>
@@ -7057,7 +7831,7 @@
       <c r="C301" s="7"/>
       <c r="D301" s="2"/>
       <c r="E301" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F301" s="22"/>
     </row>
@@ -7069,7 +7843,7 @@
       <c r="C302" s="7"/>
       <c r="D302" s="2"/>
       <c r="E302" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F302" s="22"/>
     </row>
@@ -7081,7 +7855,7 @@
       <c r="C303" s="7"/>
       <c r="D303" s="2"/>
       <c r="E303" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F303" s="22"/>
     </row>
@@ -7093,11 +7867,11 @@
       <c r="C304" s="7"/>
       <c r="D304" s="2"/>
       <c r="E304" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F304" s="22"/>
     </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B305" s="34">
         <f t="shared" si="4"/>
         <v>302</v>
@@ -7105,11 +7879,11 @@
       <c r="C305" s="7"/>
       <c r="D305" s="2"/>
       <c r="E305" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F305" s="22"/>
     </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B306" s="34">
         <f t="shared" si="4"/>
         <v>303</v>
@@ -7117,11 +7891,11 @@
       <c r="C306" s="7"/>
       <c r="D306" s="2"/>
       <c r="E306" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F306" s="22"/>
     </row>
-    <row r="307" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B307" s="34">
         <f t="shared" si="4"/>
         <v>304</v>
@@ -7129,11 +7903,11 @@
       <c r="C307" s="7"/>
       <c r="D307" s="2"/>
       <c r="E307" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F307" s="22"/>
     </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B308" s="34">
         <f t="shared" si="4"/>
         <v>305</v>
@@ -7141,11 +7915,11 @@
       <c r="C308" s="7"/>
       <c r="D308" s="2"/>
       <c r="E308" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F308" s="22"/>
     </row>
-    <row r="309" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B309" s="34">
         <f t="shared" si="4"/>
         <v>306</v>
@@ -7153,11 +7927,11 @@
       <c r="C309" s="7"/>
       <c r="D309" s="2"/>
       <c r="E309" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F309" s="22"/>
     </row>
-    <row r="310" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B310" s="34">
         <f t="shared" si="4"/>
         <v>307</v>
@@ -7165,11 +7939,11 @@
       <c r="C310" s="7"/>
       <c r="D310" s="2"/>
       <c r="E310" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F310" s="22"/>
     </row>
-    <row r="311" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B311" s="34">
         <f t="shared" si="4"/>
         <v>308</v>
@@ -7180,8 +7954,11 @@
         <v>55</v>
       </c>
       <c r="F311" s="22"/>
-    </row>
-    <row r="312" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G311" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="312" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B312" s="1">
         <f t="shared" si="4"/>
         <v>309</v>
@@ -7189,11 +7966,11 @@
       <c r="C312" s="7"/>
       <c r="D312" s="2"/>
       <c r="E312" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F312" s="15"/>
     </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B313" s="19"/>
       <c r="C313" s="19"/>
       <c r="D313" s="19"/>

--- a/Doc/1.SA/調査/リンク先テーブル調査.xlsx
+++ b/Doc/1.SA/調査/リンク先テーブル調査.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="社内" sheetId="4" r:id="rId1"/>
@@ -2173,7 +2173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3360,7 +3360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G313"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Doc/1.SA/調査/リンク先テーブル調査.xlsx
+++ b/Doc/1.SA/調査/リンク先テーブル調査.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="社内" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="371">
   <si>
     <t>外注チェック</t>
     <rPh sb="0" eb="2">
@@ -1291,6 +1291,10 @@
   </si>
   <si>
     <t>レプリケート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1746,7 +1750,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1844,9 +1848,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
@@ -2198,10 +2199,10 @@
       <c r="C3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="38"/>
+      <c r="E3" s="37"/>
       <c r="F3" s="18" t="s">
         <v>28</v>
       </c>
@@ -2211,19 +2212,19 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="39" t="s">
         <v>288</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="40" t="s">
         <v>289</v>
       </c>
-      <c r="F4" s="42"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="34">
+      <c r="B5" s="33">
         <f t="shared" ref="B5:B72" si="0">ROW()-3</f>
         <v>2</v>
       </c>
@@ -2235,7 +2236,7 @@
       <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="34">
+      <c r="B6" s="33">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -2247,7 +2248,7 @@
       <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="34">
+      <c r="B7" s="33">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2259,7 +2260,7 @@
       <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="34">
+      <c r="B8" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -2271,7 +2272,7 @@
       <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="34">
+      <c r="B9" s="33">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -2283,7 +2284,7 @@
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="46">
+      <c r="B10" s="45">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2299,7 +2300,7 @@
       <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="34">
+      <c r="B11" s="33">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -2311,7 +2312,7 @@
       <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="34">
+      <c r="B12" s="33">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -2323,7 +2324,7 @@
       <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="34">
+      <c r="B13" s="33">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -2335,7 +2336,7 @@
       <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="34">
+      <c r="B14" s="33">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -2347,7 +2348,7 @@
       <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="34">
+      <c r="B15" s="33">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -2359,7 +2360,7 @@
       <c r="F15" s="22"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="34">
+      <c r="B16" s="33">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -2371,7 +2372,7 @@
       <c r="F16" s="22"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="34">
+      <c r="B17" s="33">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -2383,7 +2384,7 @@
       <c r="F17" s="22"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="34">
+      <c r="B18" s="33">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -2395,7 +2396,7 @@
       <c r="F18" s="22"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="34">
+      <c r="B19" s="33">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -2407,7 +2408,7 @@
       <c r="F19" s="22"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="34">
+      <c r="B20" s="33">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -2419,7 +2420,7 @@
       <c r="F20" s="22"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="34">
+      <c r="B21" s="33">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -2431,7 +2432,7 @@
       <c r="F21" s="22"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="34">
+      <c r="B22" s="33">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -2443,7 +2444,7 @@
       <c r="F22" s="22"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="34">
+      <c r="B23" s="33">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -2455,7 +2456,7 @@
       <c r="F23" s="22"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="34">
+      <c r="B24" s="33">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -2467,7 +2468,7 @@
       <c r="F24" s="22"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="34">
+      <c r="B25" s="33">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -2479,7 +2480,7 @@
       <c r="F25" s="22"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="34">
+      <c r="B26" s="33">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -2491,7 +2492,7 @@
       <c r="F26" s="22"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="34">
+      <c r="B27" s="33">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -2503,7 +2504,7 @@
       <c r="F27" s="22"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="34">
+      <c r="B28" s="33">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -2515,7 +2516,7 @@
       <c r="F28" s="22"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="34">
+      <c r="B29" s="33">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -2527,7 +2528,7 @@
       <c r="F29" s="22"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="34">
+      <c r="B30" s="33">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -2539,7 +2540,7 @@
       <c r="F30" s="22"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="34">
+      <c r="B31" s="33">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -2551,7 +2552,7 @@
       <c r="F31" s="22"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="34">
+      <c r="B32" s="33">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -2563,7 +2564,7 @@
       <c r="F32" s="22"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="34">
+      <c r="B33" s="33">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -2575,7 +2576,7 @@
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="34">
+      <c r="B34" s="33">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
@@ -2587,7 +2588,7 @@
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="34">
+      <c r="B35" s="33">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -2599,7 +2600,7 @@
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="34">
+      <c r="B36" s="33">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -2611,7 +2612,7 @@
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="34">
+      <c r="B37" s="33">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -2623,7 +2624,7 @@
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="34">
+      <c r="B38" s="33">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -2635,7 +2636,7 @@
       <c r="F38" s="22"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="34">
+      <c r="B39" s="33">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -2647,7 +2648,7 @@
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="34">
+      <c r="B40" s="33">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
@@ -2659,7 +2660,7 @@
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="34">
+      <c r="B41" s="33">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
@@ -2671,7 +2672,7 @@
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="34">
+      <c r="B42" s="33">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -2683,7 +2684,7 @@
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="34">
+      <c r="B43" s="33">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -2695,7 +2696,7 @@
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="34">
+      <c r="B44" s="33">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -2707,7 +2708,7 @@
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="34">
+      <c r="B45" s="33">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -2719,7 +2720,7 @@
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="34">
+      <c r="B46" s="33">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
@@ -2731,7 +2732,7 @@
       <c r="F46" s="10"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="46">
+      <c r="B47" s="45">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
@@ -2747,7 +2748,7 @@
       <c r="F47" s="15"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="34">
+      <c r="B48" s="33">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -2759,7 +2760,7 @@
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="34">
+      <c r="B49" s="33">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
@@ -2771,7 +2772,7 @@
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="34">
+      <c r="B50" s="33">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
@@ -2783,7 +2784,7 @@
       <c r="F50" s="10"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="34">
+      <c r="B51" s="33">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -2797,7 +2798,7 @@
       <c r="F51" s="15"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="34">
+      <c r="B52" s="33">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
@@ -2809,7 +2810,7 @@
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="34">
+      <c r="B53" s="33">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -2821,7 +2822,7 @@
       <c r="F53" s="10"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="46">
+      <c r="B54" s="45">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
@@ -2837,7 +2838,7 @@
       <c r="F54" s="15"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="34">
+      <c r="B55" s="33">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
@@ -2849,7 +2850,7 @@
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="34">
+      <c r="B56" s="33">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
@@ -2861,7 +2862,7 @@
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="34">
+      <c r="B57" s="33">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
@@ -2873,7 +2874,7 @@
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="34">
+      <c r="B58" s="33">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
@@ -2885,7 +2886,7 @@
       <c r="F58" s="10"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="34">
+      <c r="B59" s="33">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
@@ -2899,7 +2900,7 @@
       <c r="F59" s="15"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="34">
+      <c r="B60" s="33">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
@@ -2911,7 +2912,7 @@
       <c r="F60" s="22"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="34">
+      <c r="B61" s="33">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
@@ -2923,7 +2924,7 @@
       <c r="F61" s="22"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="34">
+      <c r="B62" s="33">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
@@ -2935,7 +2936,7 @@
       <c r="F62" s="22"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="34">
+      <c r="B63" s="33">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -2947,7 +2948,7 @@
       <c r="F63" s="22"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="34">
+      <c r="B64" s="33">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
@@ -2959,7 +2960,7 @@
       <c r="F64" s="22"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="34">
+      <c r="B65" s="33">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
@@ -2971,7 +2972,7 @@
       <c r="F65" s="22"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="34">
+      <c r="B66" s="33">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
@@ -2983,7 +2984,7 @@
       <c r="F66" s="22"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="34">
+      <c r="B67" s="33">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
@@ -2995,7 +2996,7 @@
       <c r="F67" s="22"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="34">
+      <c r="B68" s="33">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
@@ -3007,7 +3008,7 @@
       <c r="F68" s="22"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="34">
+      <c r="B69" s="33">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
@@ -3019,7 +3020,7 @@
       <c r="F69" s="22"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="34">
+      <c r="B70" s="33">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
@@ -3031,7 +3032,7 @@
       <c r="F70" s="22"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="34">
+      <c r="B71" s="33">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
@@ -3043,7 +3044,7 @@
       <c r="F71" s="22"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="34">
+      <c r="B72" s="33">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
@@ -3055,7 +3056,7 @@
       <c r="F72" s="22"/>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="34">
+      <c r="B73" s="33">
         <f t="shared" ref="B73:B95" si="1">ROW()-3</f>
         <v>70</v>
       </c>
@@ -3067,7 +3068,7 @@
       <c r="F73" s="22"/>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="34">
+      <c r="B74" s="33">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
@@ -3079,7 +3080,7 @@
       <c r="F74" s="22"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="34">
+      <c r="B75" s="33">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
@@ -3091,7 +3092,7 @@
       <c r="F75" s="22"/>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="34">
+      <c r="B76" s="33">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
@@ -3103,7 +3104,7 @@
       <c r="F76" s="22"/>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="34">
+      <c r="B77" s="33">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
@@ -3115,7 +3116,7 @@
       <c r="F77" s="22"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="34">
+      <c r="B78" s="33">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
@@ -3127,7 +3128,7 @@
       <c r="F78" s="10"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="46">
+      <c r="B79" s="45">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
@@ -3141,7 +3142,7 @@
       <c r="F79" s="10"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" s="46">
+      <c r="B80" s="45">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
@@ -3157,7 +3158,7 @@
       <c r="F80" s="10"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B81" s="34">
+      <c r="B81" s="33">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
@@ -3171,7 +3172,7 @@
       <c r="F81" s="15"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="34">
+      <c r="B82" s="33">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
@@ -3183,7 +3184,7 @@
       <c r="F82" s="22"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="34">
+      <c r="B83" s="33">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
@@ -3195,7 +3196,7 @@
       <c r="F83" s="22"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="34">
+      <c r="B84" s="33">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
@@ -3207,7 +3208,7 @@
       <c r="F84" s="22"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B85" s="34">
+      <c r="B85" s="33">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
@@ -3219,7 +3220,7 @@
       <c r="F85" s="22"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="34">
+      <c r="B86" s="33">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
@@ -3231,7 +3232,7 @@
       <c r="F86" s="22"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="34">
+      <c r="B87" s="33">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
@@ -3243,7 +3244,7 @@
       <c r="F87" s="22"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="34">
+      <c r="B88" s="33">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
@@ -3255,7 +3256,7 @@
       <c r="F88" s="22"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="34">
+      <c r="B89" s="33">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
@@ -3267,7 +3268,7 @@
       <c r="F89" s="22"/>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="34">
+      <c r="B90" s="33">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
@@ -3279,7 +3280,7 @@
       <c r="F90" s="22"/>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="34">
+      <c r="B91" s="33">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
@@ -3291,7 +3292,7 @@
       <c r="F91" s="22"/>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="34">
+      <c r="B92" s="33">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
@@ -3303,7 +3304,7 @@
       <c r="F92" s="22"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="34">
+      <c r="B93" s="33">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
@@ -3315,7 +3316,7 @@
       <c r="F93" s="10"/>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="46">
+      <c r="B94" s="45">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
@@ -3331,13 +3332,13 @@
       <c r="F94" s="25"/>
     </row>
     <row r="95" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="43">
+      <c r="B95" s="42">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="C95" s="8"/>
-      <c r="D95" s="44"/>
-      <c r="E95" s="45" t="s">
+      <c r="D95" s="43"/>
+      <c r="E95" s="44" t="s">
         <v>75</v>
       </c>
       <c r="F95" s="4"/>
@@ -3386,10 +3387,10 @@
       <c r="C3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="38"/>
+      <c r="E3" s="37"/>
       <c r="F3" s="18" t="s">
         <v>28</v>
       </c>
@@ -3409,12 +3410,12 @@
         <v>30</v>
       </c>
       <c r="F4" s="11"/>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="34">
+      <c r="B5" s="33">
         <f t="shared" ref="B5:B68" si="0">ROW()-3</f>
         <v>2</v>
       </c>
@@ -3424,12 +3425,12 @@
         <v>31</v>
       </c>
       <c r="F5" s="11"/>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="34">
+      <c r="B6" s="33">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -3439,12 +3440,12 @@
         <v>32</v>
       </c>
       <c r="F6" s="10"/>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="34">
+      <c r="B7" s="33">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -3461,7 +3462,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="34">
+      <c r="B8" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -3478,7 +3479,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="34">
+      <c r="B9" s="33">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -3492,12 +3493,12 @@
         <v>34</v>
       </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="34">
+      <c r="B10" s="33">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -3507,12 +3508,12 @@
         <v>35</v>
       </c>
       <c r="F10" s="11"/>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="34">
+      <c r="B11" s="33">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -3522,12 +3523,12 @@
         <v>36</v>
       </c>
       <c r="F11" s="11"/>
-      <c r="G11" s="47" t="s">
+      <c r="G11" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="34">
+      <c r="B12" s="33">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -3537,12 +3538,12 @@
         <v>37</v>
       </c>
       <c r="F12" s="11"/>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="34">
+      <c r="B13" s="33">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -3552,12 +3553,12 @@
         <v>38</v>
       </c>
       <c r="F13" s="10"/>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="34">
+      <c r="B14" s="33">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -3574,7 +3575,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="34">
+      <c r="B15" s="33">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -3589,7 +3590,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="34">
+      <c r="B16" s="33">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -3606,7 +3607,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="34">
+      <c r="B17" s="33">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -3621,7 +3622,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="34">
+      <c r="B18" s="33">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -3636,7 +3637,7 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="34">
+      <c r="B19" s="33">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -3651,7 +3652,7 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="34">
+      <c r="B20" s="33">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -3666,7 +3667,7 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="34">
+      <c r="B21" s="33">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -3681,7 +3682,7 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="34">
+      <c r="B22" s="33">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -3696,7 +3697,7 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="34">
+      <c r="B23" s="33">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -3711,7 +3712,7 @@
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="34">
+      <c r="B24" s="33">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -3726,7 +3727,7 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="34">
+      <c r="B25" s="33">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -3741,7 +3742,7 @@
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="34">
+      <c r="B26" s="33">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -3756,7 +3757,7 @@
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="34">
+      <c r="B27" s="33">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -3771,7 +3772,7 @@
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="34">
+      <c r="B28" s="33">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -3786,7 +3787,7 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="34">
+      <c r="B29" s="33">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -3801,7 +3802,7 @@
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="34">
+      <c r="B30" s="33">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -3816,7 +3817,7 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="34">
+      <c r="B31" s="33">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -3831,7 +3832,7 @@
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="34">
+      <c r="B32" s="33">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -3846,7 +3847,7 @@
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="34">
+      <c r="B33" s="33">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -3861,7 +3862,7 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="34">
+      <c r="B34" s="33">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
@@ -3876,7 +3877,7 @@
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="34">
+      <c r="B35" s="33">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -3891,7 +3892,7 @@
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="34">
+      <c r="B36" s="33">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -3906,7 +3907,7 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="34">
+      <c r="B37" s="33">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -3921,7 +3922,7 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="34">
+      <c r="B38" s="33">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -3936,7 +3937,7 @@
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="34">
+      <c r="B39" s="33">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -3951,7 +3952,7 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="34">
+      <c r="B40" s="33">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
@@ -3966,7 +3967,7 @@
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="34">
+      <c r="B41" s="33">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
@@ -3981,7 +3982,7 @@
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="34">
+      <c r="B42" s="33">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -3996,7 +3997,7 @@
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="34">
+      <c r="B43" s="33">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -4010,12 +4011,12 @@
         <v>38</v>
       </c>
       <c r="F43" s="11"/>
-      <c r="G43" s="47" t="s">
+      <c r="G43" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="34">
+      <c r="B44" s="33">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -4025,12 +4026,12 @@
         <v>56</v>
       </c>
       <c r="F44" s="10"/>
-      <c r="G44" s="47" t="s">
+      <c r="G44" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="34">
+      <c r="B45" s="33">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -4047,7 +4048,7 @@
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="34">
+      <c r="B46" s="33">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
@@ -4061,12 +4062,12 @@
         <v>58</v>
       </c>
       <c r="F46" s="11"/>
-      <c r="G46" s="47" t="s">
+      <c r="G46" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="34">
+      <c r="B47" s="33">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
@@ -4076,12 +4077,12 @@
         <v>59</v>
       </c>
       <c r="F47" s="10"/>
-      <c r="G47" s="47" t="s">
+      <c r="G47" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="34">
+      <c r="B48" s="33">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -4093,12 +4094,12 @@
         <v>60</v>
       </c>
       <c r="F48" s="11"/>
-      <c r="G48" s="47" t="s">
+      <c r="G48" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="34">
+      <c r="B49" s="33">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
@@ -4108,12 +4109,12 @@
         <v>61</v>
       </c>
       <c r="F49" s="11"/>
-      <c r="G49" s="47" t="s">
+      <c r="G49" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="34">
+      <c r="B50" s="33">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
@@ -4123,12 +4124,12 @@
         <v>62</v>
       </c>
       <c r="F50" s="10"/>
-      <c r="G50" s="47" t="s">
+      <c r="G50" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="34">
+      <c r="B51" s="33">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -4145,7 +4146,7 @@
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="34">
+      <c r="B52" s="33">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
@@ -4159,12 +4160,12 @@
         <v>60</v>
       </c>
       <c r="F52" s="10"/>
-      <c r="G52" s="47" t="s">
+      <c r="G52" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="34">
+      <c r="B53" s="33">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -4176,12 +4177,12 @@
         <v>64</v>
       </c>
       <c r="F53" s="11"/>
-      <c r="G53" s="47" t="s">
+      <c r="G53" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="34">
+      <c r="B54" s="33">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
@@ -4191,12 +4192,12 @@
         <v>65</v>
       </c>
       <c r="F54" s="10"/>
-      <c r="G54" s="47" t="s">
+      <c r="G54" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="34">
+      <c r="B55" s="33">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
@@ -4208,12 +4209,12 @@
         <v>66</v>
       </c>
       <c r="F55" s="11"/>
-      <c r="G55" s="47" t="s">
+      <c r="G55" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="34">
+      <c r="B56" s="33">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
@@ -4223,12 +4224,12 @@
         <v>67</v>
       </c>
       <c r="F56" s="10"/>
-      <c r="G56" s="47" t="s">
+      <c r="G56" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="34">
+      <c r="B57" s="33">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
@@ -4242,12 +4243,12 @@
         <v>68</v>
       </c>
       <c r="F57" s="15"/>
-      <c r="G57" s="47" t="s">
+      <c r="G57" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="34">
+      <c r="B58" s="33">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
@@ -4257,12 +4258,12 @@
         <v>69</v>
       </c>
       <c r="F58" s="22"/>
-      <c r="G58" s="47" t="s">
+      <c r="G58" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="34">
+      <c r="B59" s="33">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
@@ -4272,12 +4273,12 @@
         <v>70</v>
       </c>
       <c r="F59" s="22"/>
-      <c r="G59" s="47" t="s">
+      <c r="G59" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="34">
+      <c r="B60" s="33">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
@@ -4287,12 +4288,12 @@
         <v>71</v>
       </c>
       <c r="F60" s="22"/>
-      <c r="G60" s="47" t="s">
+      <c r="G60" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="34">
+      <c r="B61" s="33">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
@@ -4302,12 +4303,12 @@
         <v>72</v>
       </c>
       <c r="F61" s="22"/>
-      <c r="G61" s="47" t="s">
+      <c r="G61" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="34">
+      <c r="B62" s="33">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
@@ -4317,12 +4318,12 @@
         <v>36</v>
       </c>
       <c r="F62" s="22"/>
-      <c r="G62" s="47" t="s">
+      <c r="G62" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="34">
+      <c r="B63" s="33">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -4332,12 +4333,12 @@
         <v>73</v>
       </c>
       <c r="F63" s="22"/>
-      <c r="G63" s="47" t="s">
+      <c r="G63" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="34">
+      <c r="B64" s="33">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
@@ -4347,12 +4348,12 @@
         <v>74</v>
       </c>
       <c r="F64" s="22"/>
-      <c r="G64" s="47" t="s">
+      <c r="G64" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="34">
+      <c r="B65" s="33">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
@@ -4362,12 +4363,12 @@
         <v>37</v>
       </c>
       <c r="F65" s="22"/>
-      <c r="G65" s="47" t="s">
+      <c r="G65" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="34">
+      <c r="B66" s="33">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
@@ -4377,12 +4378,12 @@
         <v>75</v>
       </c>
       <c r="F66" s="22"/>
-      <c r="G66" s="47" t="s">
+      <c r="G66" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="34">
+      <c r="B67" s="33">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
@@ -4392,12 +4393,12 @@
         <v>76</v>
       </c>
       <c r="F67" s="22"/>
-      <c r="G67" s="47" t="s">
+      <c r="G67" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="34">
+      <c r="B68" s="33">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
@@ -4407,12 +4408,12 @@
         <v>38</v>
       </c>
       <c r="F68" s="22"/>
-      <c r="G68" s="47" t="s">
+      <c r="G68" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="34">
+      <c r="B69" s="33">
         <f t="shared" ref="B69:B132" si="1">ROW()-3</f>
         <v>66</v>
       </c>
@@ -4422,12 +4423,12 @@
         <v>56</v>
       </c>
       <c r="F69" s="22"/>
-      <c r="G69" s="47" t="s">
+      <c r="G69" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="34">
+      <c r="B70" s="33">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
@@ -4437,12 +4438,12 @@
         <v>77</v>
       </c>
       <c r="F70" s="22"/>
-      <c r="G70" s="47" t="s">
+      <c r="G70" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="34">
+      <c r="B71" s="33">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
@@ -4452,12 +4453,12 @@
         <v>79</v>
       </c>
       <c r="F71" s="22"/>
-      <c r="G71" s="47" t="s">
+      <c r="G71" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="34">
+      <c r="B72" s="33">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
@@ -4467,12 +4468,12 @@
         <v>80</v>
       </c>
       <c r="F72" s="22"/>
-      <c r="G72" s="47" t="s">
+      <c r="G72" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="34">
+      <c r="B73" s="33">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
@@ -4482,12 +4483,12 @@
         <v>81</v>
       </c>
       <c r="F73" s="10"/>
-      <c r="G73" s="47" t="s">
+      <c r="G73" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="34">
+      <c r="B74" s="33">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
@@ -4499,12 +4500,12 @@
         <v>78</v>
       </c>
       <c r="F74" s="15"/>
-      <c r="G74" s="47" t="s">
+      <c r="G74" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="34">
+      <c r="B75" s="33">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
@@ -4514,12 +4515,12 @@
         <v>82</v>
       </c>
       <c r="F75" s="22"/>
-      <c r="G75" s="47" t="s">
+      <c r="G75" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="34">
+      <c r="B76" s="33">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
@@ -4529,12 +4530,12 @@
         <v>40</v>
       </c>
       <c r="F76" s="22"/>
-      <c r="G76" s="47" t="s">
+      <c r="G76" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="34">
+      <c r="B77" s="33">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
@@ -4544,12 +4545,12 @@
         <v>83</v>
       </c>
       <c r="F77" s="22"/>
-      <c r="G77" s="47" t="s">
+      <c r="G77" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="34">
+      <c r="B78" s="33">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
@@ -4559,12 +4560,12 @@
         <v>85</v>
       </c>
       <c r="F78" s="10"/>
-      <c r="G78" s="47" t="s">
+      <c r="G78" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="34">
+      <c r="B79" s="33">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
@@ -4581,7 +4582,7 @@
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="34">
+      <c r="B80" s="33">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
@@ -4596,7 +4597,7 @@
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B81" s="34">
+      <c r="B81" s="33">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
@@ -4611,7 +4612,7 @@
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B82" s="34">
+      <c r="B82" s="33">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
@@ -4626,7 +4627,7 @@
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B83" s="34">
+      <c r="B83" s="33">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
@@ -4641,7 +4642,7 @@
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B84" s="34">
+      <c r="B84" s="33">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
@@ -4656,7 +4657,7 @@
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B85" s="34">
+      <c r="B85" s="33">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
@@ -4671,7 +4672,7 @@
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="34">
+      <c r="B86" s="33">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
@@ -4685,12 +4686,12 @@
         <v>86</v>
       </c>
       <c r="F86" s="15"/>
-      <c r="G86" s="47" t="s">
+      <c r="G86" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="34">
+      <c r="B87" s="33">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
@@ -4700,12 +4701,12 @@
         <v>87</v>
       </c>
       <c r="F87" s="22"/>
-      <c r="G87" s="47" t="s">
+      <c r="G87" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="34">
+      <c r="B88" s="33">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
@@ -4715,12 +4716,12 @@
         <v>73</v>
       </c>
       <c r="F88" s="22"/>
-      <c r="G88" s="47" t="s">
+      <c r="G88" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="34">
+      <c r="B89" s="33">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
@@ -4730,12 +4731,12 @@
         <v>37</v>
       </c>
       <c r="F89" s="22"/>
-      <c r="G89" s="47" t="s">
+      <c r="G89" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="34">
+      <c r="B90" s="33">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
@@ -4745,12 +4746,12 @@
         <v>75</v>
       </c>
       <c r="F90" s="10"/>
-      <c r="G90" s="47" t="s">
+      <c r="G90" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="34">
+      <c r="B91" s="33">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
@@ -4764,462 +4765,462 @@
       <c r="F91" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="G91" s="47" t="s">
+      <c r="G91" s="46" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="34">
+      <c r="B92" s="33">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="3"/>
-      <c r="E92" s="35" t="s">
+      <c r="E92" s="34" t="s">
         <v>89</v>
       </c>
       <c r="F92" s="22"/>
-      <c r="G92" s="47" t="s">
+      <c r="G92" s="46" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B93" s="34">
+      <c r="B93" s="33">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="3"/>
-      <c r="E93" s="35" t="s">
+      <c r="E93" s="34" t="s">
         <v>90</v>
       </c>
       <c r="F93" s="22"/>
-      <c r="G93" s="47" t="s">
+      <c r="G93" s="46" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B94" s="34">
+      <c r="B94" s="33">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="3"/>
-      <c r="E94" s="35" t="s">
+      <c r="E94" s="34" t="s">
         <v>91</v>
       </c>
       <c r="F94" s="22"/>
-      <c r="G94" s="47" t="s">
+      <c r="G94" s="46" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="34">
+      <c r="B95" s="33">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="3"/>
-      <c r="E95" s="35" t="s">
+      <c r="E95" s="34" t="s">
         <v>92</v>
       </c>
       <c r="F95" s="22"/>
-      <c r="G95" s="47" t="s">
+      <c r="G95" s="46" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="34">
+      <c r="B96" s="33">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="3"/>
-      <c r="E96" s="35" t="s">
+      <c r="E96" s="34" t="s">
         <v>93</v>
       </c>
       <c r="F96" s="22"/>
-      <c r="G96" s="47" t="s">
+      <c r="G96" s="46" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="34">
+      <c r="B97" s="33">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="3"/>
-      <c r="E97" s="35" t="s">
+      <c r="E97" s="34" t="s">
         <v>94</v>
       </c>
       <c r="F97" s="22"/>
-      <c r="G97" s="47" t="s">
+      <c r="G97" s="46" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B98" s="34">
+      <c r="B98" s="33">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="35" t="s">
+      <c r="E98" s="34" t="s">
         <v>95</v>
       </c>
       <c r="F98" s="22"/>
-      <c r="G98" s="47" t="s">
+      <c r="G98" s="46" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B99" s="34">
+      <c r="B99" s="33">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="3"/>
-      <c r="E99" s="35" t="s">
+      <c r="E99" s="34" t="s">
         <v>96</v>
       </c>
       <c r="F99" s="22"/>
-      <c r="G99" s="47" t="s">
+      <c r="G99" s="46" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="34">
+      <c r="B100" s="33">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="35" t="s">
+      <c r="E100" s="34" t="s">
         <v>97</v>
       </c>
       <c r="F100" s="22"/>
-      <c r="G100" s="47" t="s">
+      <c r="G100" s="46" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="34">
+      <c r="B101" s="33">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="3"/>
-      <c r="E101" s="35" t="s">
+      <c r="E101" s="34" t="s">
         <v>98</v>
       </c>
       <c r="F101" s="22"/>
-      <c r="G101" s="47" t="s">
+      <c r="G101" s="46" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B102" s="34">
+      <c r="B102" s="33">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="3"/>
-      <c r="E102" s="35" t="s">
+      <c r="E102" s="34" t="s">
         <v>99</v>
       </c>
       <c r="F102" s="22"/>
-      <c r="G102" s="47" t="s">
+      <c r="G102" s="46" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="34">
+      <c r="B103" s="33">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="3"/>
-      <c r="E103" s="35" t="s">
+      <c r="E103" s="34" t="s">
         <v>100</v>
       </c>
       <c r="F103" s="22"/>
-      <c r="G103" s="47" t="s">
+      <c r="G103" s="46" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="34">
+      <c r="B104" s="33">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="3"/>
-      <c r="E104" s="35" t="s">
+      <c r="E104" s="34" t="s">
         <v>101</v>
       </c>
       <c r="F104" s="22"/>
-      <c r="G104" s="47" t="s">
+      <c r="G104" s="46" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="34">
+      <c r="B105" s="33">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="3"/>
-      <c r="E105" s="35" t="s">
+      <c r="E105" s="34" t="s">
         <v>102</v>
       </c>
       <c r="F105" s="22"/>
-      <c r="G105" s="47" t="s">
+      <c r="G105" s="46" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B106" s="34">
+      <c r="B106" s="33">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="3"/>
-      <c r="E106" s="35" t="s">
+      <c r="E106" s="34" t="s">
         <v>103</v>
       </c>
       <c r="F106" s="22"/>
-      <c r="G106" s="47" t="s">
+      <c r="G106" s="46" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B107" s="34">
+      <c r="B107" s="33">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="3"/>
-      <c r="E107" s="35" t="s">
+      <c r="E107" s="34" t="s">
         <v>104</v>
       </c>
       <c r="F107" s="22"/>
-      <c r="G107" s="47" t="s">
+      <c r="G107" s="46" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B108" s="34">
+      <c r="B108" s="33">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="3"/>
-      <c r="E108" s="35" t="s">
+      <c r="E108" s="34" t="s">
         <v>105</v>
       </c>
       <c r="F108" s="22"/>
-      <c r="G108" s="47" t="s">
+      <c r="G108" s="46" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B109" s="34">
+      <c r="B109" s="33">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="3"/>
-      <c r="E109" s="35" t="s">
+      <c r="E109" s="34" t="s">
         <v>106</v>
       </c>
       <c r="F109" s="22"/>
-      <c r="G109" s="47" t="s">
+      <c r="G109" s="46" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B110" s="34">
+      <c r="B110" s="33">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="3"/>
-      <c r="E110" s="35" t="s">
+      <c r="E110" s="34" t="s">
         <v>107</v>
       </c>
       <c r="F110" s="22"/>
-      <c r="G110" s="47" t="s">
+      <c r="G110" s="46" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B111" s="34">
+      <c r="B111" s="33">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="3"/>
-      <c r="E111" s="35" t="s">
+      <c r="E111" s="34" t="s">
         <v>108</v>
       </c>
       <c r="F111" s="22"/>
-      <c r="G111" s="47" t="s">
+      <c r="G111" s="46" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B112" s="34">
+      <c r="B112" s="33">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="3"/>
-      <c r="E112" s="35" t="s">
+      <c r="E112" s="34" t="s">
         <v>109</v>
       </c>
       <c r="F112" s="22"/>
-      <c r="G112" s="47" t="s">
+      <c r="G112" s="46" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B113" s="34">
+      <c r="B113" s="33">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="3"/>
-      <c r="E113" s="35" t="s">
+      <c r="E113" s="34" t="s">
         <v>110</v>
       </c>
       <c r="F113" s="22"/>
-      <c r="G113" s="47" t="s">
+      <c r="G113" s="46" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B114" s="34">
+      <c r="B114" s="33">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="3"/>
-      <c r="E114" s="35" t="s">
+      <c r="E114" s="34" t="s">
         <v>111</v>
       </c>
       <c r="F114" s="22"/>
-      <c r="G114" s="47" t="s">
+      <c r="G114" s="46" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B115" s="34">
+      <c r="B115" s="33">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="3"/>
-      <c r="E115" s="35" t="s">
+      <c r="E115" s="34" t="s">
         <v>112</v>
       </c>
       <c r="F115" s="22"/>
-      <c r="G115" s="47" t="s">
+      <c r="G115" s="46" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B116" s="34">
+      <c r="B116" s="33">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="3"/>
-      <c r="E116" s="35" t="s">
+      <c r="E116" s="34" t="s">
         <v>113</v>
       </c>
       <c r="F116" s="22"/>
-      <c r="G116" s="47" t="s">
+      <c r="G116" s="46" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B117" s="34">
+      <c r="B117" s="33">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="3"/>
-      <c r="E117" s="35" t="s">
+      <c r="E117" s="34" t="s">
         <v>114</v>
       </c>
       <c r="F117" s="22"/>
-      <c r="G117" s="47" t="s">
+      <c r="G117" s="46" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B118" s="34">
+      <c r="B118" s="33">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="3"/>
-      <c r="E118" s="35" t="s">
+      <c r="E118" s="34" t="s">
         <v>115</v>
       </c>
       <c r="F118" s="22"/>
-      <c r="G118" s="47" t="s">
+      <c r="G118" s="46" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B119" s="34">
+      <c r="B119" s="33">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="3"/>
-      <c r="E119" s="35" t="s">
+      <c r="E119" s="34" t="s">
         <v>116</v>
       </c>
       <c r="F119" s="22"/>
-      <c r="G119" s="47" t="s">
+      <c r="G119" s="46" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B120" s="34">
+      <c r="B120" s="33">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="3"/>
-      <c r="E120" s="35" t="s">
+      <c r="E120" s="34" t="s">
         <v>117</v>
       </c>
       <c r="F120" s="22"/>
-      <c r="G120" s="47" t="s">
+      <c r="G120" s="46" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B121" s="34">
+      <c r="B121" s="33">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="C121" s="7"/>
-      <c r="D121" s="36"/>
-      <c r="E121" s="37" t="s">
+      <c r="D121" s="35"/>
+      <c r="E121" s="36" t="s">
         <v>118</v>
       </c>
       <c r="F121" s="10"/>
-      <c r="G121" s="47" t="s">
+      <c r="G121" s="46" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B122" s="34">
+      <c r="B122" s="33">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
@@ -5231,12 +5232,12 @@
         <v>119</v>
       </c>
       <c r="F122" s="15"/>
-      <c r="G122" s="47" t="s">
+      <c r="G122" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B123" s="34">
+      <c r="B123" s="33">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
@@ -5246,12 +5247,12 @@
         <v>120</v>
       </c>
       <c r="F123" s="22"/>
-      <c r="G123" s="47" t="s">
+      <c r="G123" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B124" s="34">
+      <c r="B124" s="33">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
@@ -5261,12 +5262,12 @@
         <v>121</v>
       </c>
       <c r="F124" s="22"/>
-      <c r="G124" s="47" t="s">
+      <c r="G124" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B125" s="34">
+      <c r="B125" s="33">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
@@ -5276,12 +5277,12 @@
         <v>122</v>
       </c>
       <c r="F125" s="22"/>
-      <c r="G125" s="47" t="s">
+      <c r="G125" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B126" s="34">
+      <c r="B126" s="33">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
@@ -5291,12 +5292,12 @@
         <v>123</v>
       </c>
       <c r="F126" s="22"/>
-      <c r="G126" s="47" t="s">
+      <c r="G126" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B127" s="34">
+      <c r="B127" s="33">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
@@ -5306,12 +5307,12 @@
         <v>124</v>
       </c>
       <c r="F127" s="22"/>
-      <c r="G127" s="47" t="s">
+      <c r="G127" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B128" s="34">
+      <c r="B128" s="33">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
@@ -5321,12 +5322,12 @@
         <v>125</v>
       </c>
       <c r="F128" s="22"/>
-      <c r="G128" s="47" t="s">
+      <c r="G128" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B129" s="34">
+      <c r="B129" s="33">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
@@ -5336,12 +5337,12 @@
         <v>127</v>
       </c>
       <c r="F129" s="22"/>
-      <c r="G129" s="47" t="s">
+      <c r="G129" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B130" s="34">
+      <c r="B130" s="33">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
@@ -5351,12 +5352,12 @@
         <v>128</v>
       </c>
       <c r="F130" s="22"/>
-      <c r="G130" s="47" t="s">
+      <c r="G130" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B131" s="34">
+      <c r="B131" s="33">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
@@ -5366,12 +5367,12 @@
         <v>129</v>
       </c>
       <c r="F131" s="22"/>
-      <c r="G131" s="47" t="s">
+      <c r="G131" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B132" s="34">
+      <c r="B132" s="33">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
@@ -5381,12 +5382,12 @@
         <v>130</v>
       </c>
       <c r="F132" s="22"/>
-      <c r="G132" s="47" t="s">
+      <c r="G132" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B133" s="34">
+      <c r="B133" s="33">
         <f t="shared" ref="B133:B196" si="2">ROW()-3</f>
         <v>130</v>
       </c>
@@ -5396,12 +5397,12 @@
         <v>131</v>
       </c>
       <c r="F133" s="22"/>
-      <c r="G133" s="47" t="s">
+      <c r="G133" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B134" s="34">
+      <c r="B134" s="33">
         <f t="shared" si="2"/>
         <v>131</v>
       </c>
@@ -5411,12 +5412,12 @@
         <v>132</v>
       </c>
       <c r="F134" s="22"/>
-      <c r="G134" s="47" t="s">
+      <c r="G134" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B135" s="34">
+      <c r="B135" s="33">
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
@@ -5426,12 +5427,12 @@
         <v>133</v>
       </c>
       <c r="F135" s="22"/>
-      <c r="G135" s="47" t="s">
+      <c r="G135" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B136" s="34">
+      <c r="B136" s="33">
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
@@ -5441,12 +5442,12 @@
         <v>134</v>
       </c>
       <c r="F136" s="22"/>
-      <c r="G136" s="47" t="s">
+      <c r="G136" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B137" s="34">
+      <c r="B137" s="33">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
@@ -5456,12 +5457,12 @@
         <v>135</v>
       </c>
       <c r="F137" s="22"/>
-      <c r="G137" s="47" t="s">
+      <c r="G137" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B138" s="34">
+      <c r="B138" s="33">
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
@@ -5471,12 +5472,12 @@
         <v>136</v>
       </c>
       <c r="F138" s="22"/>
-      <c r="G138" s="47" t="s">
+      <c r="G138" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B139" s="34">
+      <c r="B139" s="33">
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
@@ -5486,12 +5487,12 @@
         <v>137</v>
       </c>
       <c r="F139" s="22"/>
-      <c r="G139" s="47" t="s">
+      <c r="G139" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B140" s="34">
+      <c r="B140" s="33">
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
@@ -5501,12 +5502,12 @@
         <v>138</v>
       </c>
       <c r="F140" s="22"/>
-      <c r="G140" s="47" t="s">
+      <c r="G140" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B141" s="34">
+      <c r="B141" s="33">
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
@@ -5516,12 +5517,12 @@
         <v>139</v>
       </c>
       <c r="F141" s="22"/>
-      <c r="G141" s="47" t="s">
+      <c r="G141" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B142" s="34">
+      <c r="B142" s="33">
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
@@ -5531,12 +5532,12 @@
         <v>140</v>
       </c>
       <c r="F142" s="22"/>
-      <c r="G142" s="47" t="s">
+      <c r="G142" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B143" s="34">
+      <c r="B143" s="33">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
@@ -5546,12 +5547,12 @@
         <v>141</v>
       </c>
       <c r="F143" s="22"/>
-      <c r="G143" s="47" t="s">
+      <c r="G143" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B144" s="34">
+      <c r="B144" s="33">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
@@ -5561,12 +5562,12 @@
         <v>142</v>
       </c>
       <c r="F144" s="22"/>
-      <c r="G144" s="47" t="s">
+      <c r="G144" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B145" s="34">
+      <c r="B145" s="33">
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
@@ -5576,12 +5577,12 @@
         <v>143</v>
       </c>
       <c r="F145" s="22"/>
-      <c r="G145" s="47" t="s">
+      <c r="G145" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B146" s="34">
+      <c r="B146" s="33">
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
@@ -5591,12 +5592,12 @@
         <v>144</v>
       </c>
       <c r="F146" s="22"/>
-      <c r="G146" s="47" t="s">
+      <c r="G146" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B147" s="34">
+      <c r="B147" s="33">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
@@ -5606,12 +5607,12 @@
         <v>145</v>
       </c>
       <c r="F147" s="22"/>
-      <c r="G147" s="47" t="s">
+      <c r="G147" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B148" s="34">
+      <c r="B148" s="33">
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
@@ -5621,12 +5622,12 @@
         <v>146</v>
       </c>
       <c r="F148" s="22"/>
-      <c r="G148" s="47" t="s">
+      <c r="G148" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B149" s="34">
+      <c r="B149" s="33">
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
@@ -5636,12 +5637,12 @@
         <v>147</v>
       </c>
       <c r="F149" s="22"/>
-      <c r="G149" s="47" t="s">
+      <c r="G149" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B150" s="34">
+      <c r="B150" s="33">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
@@ -5651,12 +5652,12 @@
         <v>148</v>
       </c>
       <c r="F150" s="22"/>
-      <c r="G150" s="47" t="s">
+      <c r="G150" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B151" s="34">
+      <c r="B151" s="33">
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
@@ -5666,12 +5667,12 @@
         <v>149</v>
       </c>
       <c r="F151" s="22"/>
-      <c r="G151" s="47" t="s">
+      <c r="G151" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B152" s="34">
+      <c r="B152" s="33">
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
@@ -5681,12 +5682,12 @@
         <v>150</v>
       </c>
       <c r="F152" s="22"/>
-      <c r="G152" s="47" t="s">
+      <c r="G152" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B153" s="34">
+      <c r="B153" s="33">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
@@ -5696,12 +5697,12 @@
         <v>151</v>
       </c>
       <c r="F153" s="22"/>
-      <c r="G153" s="47" t="s">
+      <c r="G153" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B154" s="34">
+      <c r="B154" s="33">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
@@ -5711,12 +5712,12 @@
         <v>152</v>
       </c>
       <c r="F154" s="22"/>
-      <c r="G154" s="47" t="s">
+      <c r="G154" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B155" s="34">
+      <c r="B155" s="33">
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
@@ -5726,12 +5727,12 @@
         <v>153</v>
       </c>
       <c r="F155" s="22"/>
-      <c r="G155" s="47" t="s">
+      <c r="G155" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B156" s="34">
+      <c r="B156" s="33">
         <f t="shared" si="2"/>
         <v>153</v>
       </c>
@@ -5741,12 +5742,12 @@
         <v>154</v>
       </c>
       <c r="F156" s="22"/>
-      <c r="G156" s="47" t="s">
+      <c r="G156" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B157" s="34">
+      <c r="B157" s="33">
         <f t="shared" si="2"/>
         <v>154</v>
       </c>
@@ -5756,12 +5757,12 @@
         <v>156</v>
       </c>
       <c r="F157" s="10"/>
-      <c r="G157" s="47" t="s">
+      <c r="G157" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B158" s="34">
+      <c r="B158" s="33">
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
@@ -5778,7 +5779,7 @@
       </c>
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B159" s="34">
+      <c r="B159" s="33">
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
@@ -5792,102 +5793,102 @@
       <c r="F159" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="G159" s="47" t="s">
+      <c r="G159" s="46" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="160" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="34">
+      <c r="B160" s="33">
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
       <c r="C160" s="17"/>
       <c r="D160" s="3"/>
-      <c r="E160" s="35" t="s">
+      <c r="E160" s="34" t="s">
         <v>157</v>
       </c>
       <c r="F160" s="23"/>
-      <c r="G160" s="47" t="s">
+      <c r="G160" s="46" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="161" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="34">
+      <c r="B161" s="33">
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
       <c r="C161" s="17"/>
       <c r="D161" s="3"/>
-      <c r="E161" s="35" t="s">
+      <c r="E161" s="34" t="s">
         <v>158</v>
       </c>
       <c r="F161" s="23"/>
-      <c r="G161" s="47" t="s">
+      <c r="G161" s="46" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="162" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="34">
+      <c r="B162" s="33">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
       <c r="C162" s="17"/>
       <c r="D162" s="3"/>
-      <c r="E162" s="35" t="s">
+      <c r="E162" s="34" t="s">
         <v>159</v>
       </c>
       <c r="F162" s="23"/>
-      <c r="G162" s="47" t="s">
+      <c r="G162" s="46" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="163" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="34">
+      <c r="B163" s="33">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="C163" s="17"/>
       <c r="D163" s="3"/>
-      <c r="E163" s="35" t="s">
+      <c r="E163" s="34" t="s">
         <v>160</v>
       </c>
       <c r="F163" s="23"/>
-      <c r="G163" s="47" t="s">
+      <c r="G163" s="46" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="164" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="34">
+      <c r="B164" s="33">
         <f t="shared" si="2"/>
         <v>161</v>
       </c>
       <c r="C164" s="17"/>
       <c r="D164" s="3"/>
-      <c r="E164" s="35" t="s">
+      <c r="E164" s="34" t="s">
         <v>161</v>
       </c>
       <c r="F164" s="23"/>
-      <c r="G164" s="47" t="s">
+      <c r="G164" s="46" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="165" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="34">
+      <c r="B165" s="33">
         <f t="shared" si="2"/>
         <v>162</v>
       </c>
       <c r="C165" s="20"/>
       <c r="D165" s="13"/>
-      <c r="E165" s="37" t="s">
+      <c r="E165" s="36" t="s">
         <v>162</v>
       </c>
       <c r="F165" s="24"/>
-      <c r="G165" s="47" t="s">
+      <c r="G165" s="46" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="166" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B166" s="34">
+      <c r="B166" s="33">
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
@@ -5901,12 +5902,12 @@
         <v>163</v>
       </c>
       <c r="F166" s="15"/>
-      <c r="G166" s="47" t="s">
+      <c r="G166" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B167" s="34">
+      <c r="B167" s="33">
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
@@ -5916,12 +5917,12 @@
         <v>170</v>
       </c>
       <c r="F167" s="22"/>
-      <c r="G167" s="47" t="s">
+      <c r="G167" s="46" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B168" s="34">
+      <c r="B168" s="33">
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
@@ -5931,12 +5932,12 @@
         <v>171</v>
       </c>
       <c r="F168" s="22"/>
-      <c r="G168" s="47" t="s">
+      <c r="G168" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B169" s="34">
+      <c r="B169" s="33">
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
@@ -5946,12 +5947,12 @@
         <v>172</v>
       </c>
       <c r="F169" s="22"/>
-      <c r="G169" s="47" t="s">
+      <c r="G169" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="170" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B170" s="34">
+      <c r="B170" s="33">
         <f t="shared" si="2"/>
         <v>167</v>
       </c>
@@ -5961,12 +5962,12 @@
         <v>173</v>
       </c>
       <c r="F170" s="10"/>
-      <c r="G170" s="47" t="s">
+      <c r="G170" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="171" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B171" s="34">
+      <c r="B171" s="33">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
@@ -5978,12 +5979,12 @@
         <v>164</v>
       </c>
       <c r="F171" s="15"/>
-      <c r="G171" s="47" t="s">
+      <c r="G171" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="172" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B172" s="34">
+      <c r="B172" s="33">
         <f t="shared" si="2"/>
         <v>169</v>
       </c>
@@ -5993,12 +5994,12 @@
         <v>37</v>
       </c>
       <c r="F172" s="22"/>
-      <c r="G172" s="47" t="s">
+      <c r="G172" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B173" s="34">
+      <c r="B173" s="33">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
@@ -6008,12 +6009,12 @@
         <v>38</v>
       </c>
       <c r="F173" s="22"/>
-      <c r="G173" s="47" t="s">
+      <c r="G173" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B174" s="34">
+      <c r="B174" s="33">
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
@@ -6023,12 +6024,12 @@
         <v>60</v>
       </c>
       <c r="F174" s="22"/>
-      <c r="G174" s="47" t="s">
+      <c r="G174" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B175" s="34">
+      <c r="B175" s="33">
         <f t="shared" si="2"/>
         <v>172</v>
       </c>
@@ -6038,12 +6039,12 @@
         <v>61</v>
       </c>
       <c r="F175" s="22"/>
-      <c r="G175" s="47" t="s">
+      <c r="G175" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="176" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B176" s="34">
+      <c r="B176" s="33">
         <f t="shared" si="2"/>
         <v>173</v>
       </c>
@@ -6053,12 +6054,12 @@
         <v>62</v>
       </c>
       <c r="F176" s="10"/>
-      <c r="G176" s="47" t="s">
+      <c r="G176" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B177" s="34">
+      <c r="B177" s="33">
         <f t="shared" si="2"/>
         <v>174</v>
       </c>
@@ -6070,12 +6071,12 @@
         <v>165</v>
       </c>
       <c r="F177" s="15"/>
-      <c r="G177" s="47" t="s">
+      <c r="G177" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B178" s="34">
+      <c r="B178" s="33">
         <f t="shared" si="2"/>
         <v>175</v>
       </c>
@@ -6085,12 +6086,12 @@
         <v>168</v>
       </c>
       <c r="F178" s="22"/>
-      <c r="G178" s="47" t="s">
+      <c r="G178" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B179" s="34">
+      <c r="B179" s="33">
         <f t="shared" si="2"/>
         <v>176</v>
       </c>
@@ -6100,12 +6101,12 @@
         <v>65</v>
       </c>
       <c r="F179" s="22"/>
-      <c r="G179" s="47" t="s">
+      <c r="G179" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B180" s="34">
+      <c r="B180" s="33">
         <f t="shared" si="2"/>
         <v>177</v>
       </c>
@@ -6115,12 +6116,12 @@
         <v>169</v>
       </c>
       <c r="F180" s="22"/>
-      <c r="G180" s="47" t="s">
+      <c r="G180" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B181" s="34">
+      <c r="B181" s="33">
         <f t="shared" si="2"/>
         <v>178</v>
       </c>
@@ -6130,12 +6131,12 @@
         <v>174</v>
       </c>
       <c r="F181" s="10"/>
-      <c r="G181" s="47" t="s">
+      <c r="G181" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="182" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B182" s="34">
+      <c r="B182" s="33">
         <f t="shared" si="2"/>
         <v>179</v>
       </c>
@@ -6147,12 +6148,12 @@
         <v>166</v>
       </c>
       <c r="F182" s="10"/>
-      <c r="G182" s="47" t="s">
+      <c r="G182" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="183" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B183" s="34">
+      <c r="B183" s="33">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
@@ -6164,12 +6165,12 @@
         <v>167</v>
       </c>
       <c r="F183" s="10"/>
-      <c r="G183" s="47" t="s">
+      <c r="G183" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="184" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B184" s="34">
+      <c r="B184" s="33">
         <f t="shared" si="2"/>
         <v>181</v>
       </c>
@@ -6181,12 +6182,12 @@
         <v>66</v>
       </c>
       <c r="F184" s="25"/>
-      <c r="G184" s="47" t="s">
+      <c r="G184" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B185" s="34">
+      <c r="B185" s="33">
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
@@ -6196,12 +6197,12 @@
         <v>67</v>
       </c>
       <c r="F185" s="10"/>
-      <c r="G185" s="47" t="s">
+      <c r="G185" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="186" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B186" s="34">
+      <c r="B186" s="33">
         <f t="shared" si="2"/>
         <v>183</v>
       </c>
@@ -6215,12 +6216,12 @@
         <v>175</v>
       </c>
       <c r="F186" s="15"/>
-      <c r="G186" s="47" t="s">
+      <c r="G186" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B187" s="34">
+      <c r="B187" s="33">
         <f t="shared" si="2"/>
         <v>184</v>
       </c>
@@ -6230,12 +6231,12 @@
         <v>176</v>
       </c>
       <c r="F187" s="22"/>
-      <c r="G187" s="47" t="s">
+      <c r="G187" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B188" s="34">
+      <c r="B188" s="33">
         <f t="shared" si="2"/>
         <v>185</v>
       </c>
@@ -6245,12 +6246,12 @@
         <v>177</v>
       </c>
       <c r="F188" s="22"/>
-      <c r="G188" s="47" t="s">
+      <c r="G188" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B189" s="34">
+      <c r="B189" s="33">
         <f t="shared" si="2"/>
         <v>186</v>
       </c>
@@ -6260,12 +6261,12 @@
         <v>178</v>
       </c>
       <c r="F189" s="22"/>
-      <c r="G189" s="47" t="s">
+      <c r="G189" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="190" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B190" s="34">
+      <c r="B190" s="33">
         <f t="shared" si="2"/>
         <v>187</v>
       </c>
@@ -6275,12 +6276,12 @@
         <v>80</v>
       </c>
       <c r="F190" s="10"/>
-      <c r="G190" s="47" t="s">
+      <c r="G190" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="191" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B191" s="34">
+      <c r="B191" s="33">
         <f t="shared" si="2"/>
         <v>188</v>
       </c>
@@ -6292,12 +6293,12 @@
         <v>179</v>
       </c>
       <c r="F191" s="10"/>
-      <c r="G191" s="47" t="s">
+      <c r="G191" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="192" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B192" s="34">
+      <c r="B192" s="33">
         <f t="shared" si="2"/>
         <v>189</v>
       </c>
@@ -6314,7 +6315,7 @@
       </c>
     </row>
     <row r="193" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B193" s="34">
+      <c r="B193" s="33">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
@@ -6329,7 +6330,7 @@
       </c>
     </row>
     <row r="194" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B194" s="34">
+      <c r="B194" s="33">
         <f t="shared" si="2"/>
         <v>191</v>
       </c>
@@ -6344,7 +6345,7 @@
       </c>
     </row>
     <row r="195" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B195" s="34">
+      <c r="B195" s="33">
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
@@ -6359,7 +6360,7 @@
       </c>
     </row>
     <row r="196" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B196" s="34">
+      <c r="B196" s="33">
         <f t="shared" si="2"/>
         <v>193</v>
       </c>
@@ -6374,7 +6375,7 @@
       </c>
     </row>
     <row r="197" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B197" s="34">
+      <c r="B197" s="33">
         <f t="shared" ref="B197:B260" si="3">ROW()-3</f>
         <v>194</v>
       </c>
@@ -6389,7 +6390,7 @@
       </c>
     </row>
     <row r="198" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B198" s="34">
+      <c r="B198" s="33">
         <f t="shared" si="3"/>
         <v>195</v>
       </c>
@@ -6404,7 +6405,7 @@
       </c>
     </row>
     <row r="199" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B199" s="34">
+      <c r="B199" s="33">
         <f t="shared" si="3"/>
         <v>196</v>
       </c>
@@ -6419,7 +6420,7 @@
       </c>
     </row>
     <row r="200" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B200" s="34">
+      <c r="B200" s="33">
         <f t="shared" si="3"/>
         <v>197</v>
       </c>
@@ -6433,12 +6434,12 @@
         <v>38</v>
       </c>
       <c r="F200" s="15"/>
-      <c r="G200" s="47" t="s">
+      <c r="G200" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="201" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B201" s="34">
+      <c r="B201" s="33">
         <f t="shared" si="3"/>
         <v>198</v>
       </c>
@@ -6448,12 +6449,12 @@
         <v>188</v>
       </c>
       <c r="F201" s="22"/>
-      <c r="G201" s="47" t="s">
+      <c r="G201" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="202" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B202" s="34">
+      <c r="B202" s="33">
         <f t="shared" si="3"/>
         <v>199</v>
       </c>
@@ -6463,12 +6464,12 @@
         <v>189</v>
       </c>
       <c r="F202" s="22"/>
-      <c r="G202" s="47" t="s">
+      <c r="G202" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="203" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B203" s="34">
+      <c r="B203" s="33">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
@@ -6478,12 +6479,12 @@
         <v>190</v>
       </c>
       <c r="F203" s="22"/>
-      <c r="G203" s="47" t="s">
+      <c r="G203" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="204" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B204" s="34">
+      <c r="B204" s="33">
         <f t="shared" si="3"/>
         <v>201</v>
       </c>
@@ -6493,12 +6494,12 @@
         <v>191</v>
       </c>
       <c r="F204" s="22"/>
-      <c r="G204" s="47" t="s">
+      <c r="G204" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="205" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B205" s="34">
+      <c r="B205" s="33">
         <f t="shared" si="3"/>
         <v>202</v>
       </c>
@@ -6508,12 +6509,12 @@
         <v>192</v>
       </c>
       <c r="F205" s="22"/>
-      <c r="G205" s="47" t="s">
+      <c r="G205" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="206" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B206" s="34">
+      <c r="B206" s="33">
         <f t="shared" si="3"/>
         <v>203</v>
       </c>
@@ -6523,12 +6524,12 @@
         <v>193</v>
       </c>
       <c r="F206" s="22"/>
-      <c r="G206" s="47" t="s">
+      <c r="G206" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="207" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B207" s="34">
+      <c r="B207" s="33">
         <f t="shared" si="3"/>
         <v>204</v>
       </c>
@@ -6538,12 +6539,12 @@
         <v>194</v>
       </c>
       <c r="F207" s="22"/>
-      <c r="G207" s="47" t="s">
+      <c r="G207" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="208" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B208" s="34">
+      <c r="B208" s="33">
         <f t="shared" si="3"/>
         <v>205</v>
       </c>
@@ -6553,12 +6554,12 @@
         <v>195</v>
       </c>
       <c r="F208" s="22"/>
-      <c r="G208" s="47" t="s">
+      <c r="G208" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="209" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B209" s="34">
+      <c r="B209" s="33">
         <f t="shared" si="3"/>
         <v>206</v>
       </c>
@@ -6568,12 +6569,12 @@
         <v>196</v>
       </c>
       <c r="F209" s="22"/>
-      <c r="G209" s="47" t="s">
+      <c r="G209" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="210" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B210" s="34">
+      <c r="B210" s="33">
         <f t="shared" si="3"/>
         <v>207</v>
       </c>
@@ -6583,12 +6584,12 @@
         <v>197</v>
       </c>
       <c r="F210" s="10"/>
-      <c r="G210" s="47" t="s">
+      <c r="G210" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="211" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B211" s="34">
+      <c r="B211" s="33">
         <f t="shared" si="3"/>
         <v>208</v>
       </c>
@@ -6600,12 +6601,12 @@
       </c>
       <c r="E211" s="28"/>
       <c r="F211" s="10"/>
-      <c r="G211" s="47" t="s">
+      <c r="G211" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="212" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B212" s="34">
+      <c r="B212" s="33">
         <f t="shared" si="3"/>
         <v>209</v>
       </c>
@@ -6619,12 +6620,12 @@
         <v>37</v>
       </c>
       <c r="F212" s="15"/>
-      <c r="G212" s="47" t="s">
+      <c r="G212" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="213" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B213" s="34">
+      <c r="B213" s="33">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
@@ -6634,12 +6635,12 @@
         <v>38</v>
       </c>
       <c r="F213" s="22"/>
-      <c r="G213" s="47" t="s">
+      <c r="G213" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="214" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B214" s="34">
+      <c r="B214" s="33">
         <f t="shared" si="3"/>
         <v>211</v>
       </c>
@@ -6649,12 +6650,12 @@
         <v>60</v>
       </c>
       <c r="F214" s="22"/>
-      <c r="G214" s="47" t="s">
+      <c r="G214" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="215" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B215" s="34">
+      <c r="B215" s="33">
         <f t="shared" si="3"/>
         <v>212</v>
       </c>
@@ -6664,12 +6665,12 @@
         <v>62</v>
       </c>
       <c r="F215" s="10"/>
-      <c r="G215" s="47" t="s">
+      <c r="G215" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="216" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B216" s="34">
+      <c r="B216" s="33">
         <f t="shared" si="3"/>
         <v>213</v>
       </c>
@@ -6681,12 +6682,12 @@
         <v>39</v>
       </c>
       <c r="F216" s="15"/>
-      <c r="G216" s="47" t="s">
+      <c r="G216" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="217" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B217" s="34">
+      <c r="B217" s="33">
         <f t="shared" si="3"/>
         <v>214</v>
       </c>
@@ -6696,12 +6697,12 @@
         <v>65</v>
       </c>
       <c r="F217" s="22"/>
-      <c r="G217" s="47" t="s">
+      <c r="G217" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="218" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B218" s="34">
+      <c r="B218" s="33">
         <f t="shared" si="3"/>
         <v>215</v>
       </c>
@@ -6711,12 +6712,12 @@
         <v>174</v>
       </c>
       <c r="F218" s="10"/>
-      <c r="G218" s="47" t="s">
+      <c r="G218" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="219" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B219" s="34">
+      <c r="B219" s="33">
         <f t="shared" si="3"/>
         <v>216</v>
       </c>
@@ -6733,7 +6734,7 @@
       </c>
     </row>
     <row r="220" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B220" s="34">
+      <c r="B220" s="33">
         <f t="shared" si="3"/>
         <v>217</v>
       </c>
@@ -6748,7 +6749,7 @@
       </c>
     </row>
     <row r="221" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B221" s="34">
+      <c r="B221" s="33">
         <f t="shared" si="3"/>
         <v>218</v>
       </c>
@@ -6763,7 +6764,7 @@
       </c>
     </row>
     <row r="222" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B222" s="34">
+      <c r="B222" s="33">
         <f t="shared" si="3"/>
         <v>219</v>
       </c>
@@ -6778,7 +6779,7 @@
       </c>
     </row>
     <row r="223" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B223" s="34">
+      <c r="B223" s="33">
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
@@ -6793,7 +6794,7 @@
       </c>
     </row>
     <row r="224" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B224" s="34">
+      <c r="B224" s="33">
         <f t="shared" si="3"/>
         <v>221</v>
       </c>
@@ -6808,7 +6809,7 @@
       </c>
     </row>
     <row r="225" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B225" s="34">
+      <c r="B225" s="33">
         <f t="shared" si="3"/>
         <v>222</v>
       </c>
@@ -6823,7 +6824,7 @@
       </c>
     </row>
     <row r="226" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B226" s="34">
+      <c r="B226" s="33">
         <f t="shared" si="3"/>
         <v>223</v>
       </c>
@@ -6838,7 +6839,7 @@
       </c>
     </row>
     <row r="227" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B227" s="34">
+      <c r="B227" s="33">
         <f t="shared" si="3"/>
         <v>224</v>
       </c>
@@ -6853,7 +6854,7 @@
       </c>
     </row>
     <row r="228" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B228" s="34">
+      <c r="B228" s="33">
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
@@ -6868,7 +6869,7 @@
       </c>
     </row>
     <row r="229" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B229" s="34">
+      <c r="B229" s="33">
         <f t="shared" si="3"/>
         <v>226</v>
       </c>
@@ -6883,7 +6884,7 @@
       </c>
     </row>
     <row r="230" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B230" s="34">
+      <c r="B230" s="33">
         <f t="shared" si="3"/>
         <v>227</v>
       </c>
@@ -6898,7 +6899,7 @@
       </c>
     </row>
     <row r="231" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B231" s="34">
+      <c r="B231" s="33">
         <f t="shared" si="3"/>
         <v>228</v>
       </c>
@@ -6913,7 +6914,7 @@
       </c>
     </row>
     <row r="232" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B232" s="34">
+      <c r="B232" s="33">
         <f t="shared" si="3"/>
         <v>229</v>
       </c>
@@ -6928,7 +6929,7 @@
       </c>
     </row>
     <row r="233" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B233" s="34">
+      <c r="B233" s="33">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
@@ -6943,7 +6944,7 @@
       </c>
     </row>
     <row r="234" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B234" s="34">
+      <c r="B234" s="33">
         <f t="shared" si="3"/>
         <v>231</v>
       </c>
@@ -6958,7 +6959,7 @@
       </c>
     </row>
     <row r="235" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B235" s="34">
+      <c r="B235" s="33">
         <f t="shared" si="3"/>
         <v>232</v>
       </c>
@@ -6973,7 +6974,7 @@
       </c>
     </row>
     <row r="236" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B236" s="34">
+      <c r="B236" s="33">
         <f t="shared" si="3"/>
         <v>233</v>
       </c>
@@ -6990,7 +6991,7 @@
       </c>
     </row>
     <row r="237" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B237" s="34">
+      <c r="B237" s="33">
         <f t="shared" si="3"/>
         <v>234</v>
       </c>
@@ -7004,12 +7005,12 @@
         <v>177</v>
       </c>
       <c r="F237" s="15"/>
-      <c r="G237" s="47" t="s">
+      <c r="G237" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="238" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B238" s="34">
+      <c r="B238" s="33">
         <f t="shared" si="3"/>
         <v>235</v>
       </c>
@@ -7019,12 +7020,12 @@
         <v>31</v>
       </c>
       <c r="F238" s="22"/>
-      <c r="G238" s="47" t="s">
+      <c r="G238" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="239" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B239" s="34">
+      <c r="B239" s="33">
         <f t="shared" si="3"/>
         <v>236</v>
       </c>
@@ -7034,12 +7035,12 @@
         <v>164</v>
       </c>
       <c r="F239" s="22"/>
-      <c r="G239" s="47" t="s">
+      <c r="G239" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="240" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B240" s="34">
+      <c r="B240" s="33">
         <f t="shared" si="3"/>
         <v>237</v>
       </c>
@@ -7049,12 +7050,12 @@
         <v>215</v>
       </c>
       <c r="F240" s="22"/>
-      <c r="G240" s="47" t="s">
+      <c r="G240" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="241" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B241" s="34">
+      <c r="B241" s="33">
         <f t="shared" si="3"/>
         <v>238</v>
       </c>
@@ -7064,12 +7065,12 @@
         <v>216</v>
       </c>
       <c r="F241" s="22"/>
-      <c r="G241" s="47" t="s">
+      <c r="G241" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="242" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B242" s="34">
+      <c r="B242" s="33">
         <f t="shared" si="3"/>
         <v>239</v>
       </c>
@@ -7079,12 +7080,12 @@
         <v>36</v>
       </c>
       <c r="F242" s="22"/>
-      <c r="G242" s="47" t="s">
+      <c r="G242" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="243" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B243" s="34">
+      <c r="B243" s="33">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
@@ -7094,12 +7095,12 @@
         <v>73</v>
       </c>
       <c r="F243" s="22"/>
-      <c r="G243" s="47" t="s">
+      <c r="G243" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="244" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B244" s="34">
+      <c r="B244" s="33">
         <f t="shared" si="3"/>
         <v>241</v>
       </c>
@@ -7109,12 +7110,12 @@
         <v>217</v>
       </c>
       <c r="F244" s="22"/>
-      <c r="G244" s="47" t="s">
+      <c r="G244" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="245" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B245" s="34">
+      <c r="B245" s="33">
         <f t="shared" si="3"/>
         <v>242</v>
       </c>
@@ -7124,12 +7125,12 @@
         <v>37</v>
       </c>
       <c r="F245" s="22"/>
-      <c r="G245" s="47" t="s">
+      <c r="G245" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="246" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B246" s="34">
+      <c r="B246" s="33">
         <f t="shared" si="3"/>
         <v>243</v>
       </c>
@@ -7139,12 +7140,12 @@
         <v>75</v>
       </c>
       <c r="F246" s="22"/>
-      <c r="G246" s="47" t="s">
+      <c r="G246" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="247" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B247" s="34">
+      <c r="B247" s="33">
         <f t="shared" si="3"/>
         <v>244</v>
       </c>
@@ -7154,12 +7155,12 @@
         <v>218</v>
       </c>
       <c r="F247" s="22"/>
-      <c r="G247" s="47" t="s">
+      <c r="G247" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="248" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B248" s="34">
+      <c r="B248" s="33">
         <f t="shared" si="3"/>
         <v>245</v>
       </c>
@@ -7169,12 +7170,12 @@
         <v>219</v>
       </c>
       <c r="F248" s="22"/>
-      <c r="G248" s="47" t="s">
+      <c r="G248" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="249" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B249" s="34">
+      <c r="B249" s="33">
         <f t="shared" si="3"/>
         <v>246</v>
       </c>
@@ -7184,12 +7185,12 @@
         <v>38</v>
       </c>
       <c r="F249" s="22"/>
-      <c r="G249" s="47" t="s">
+      <c r="G249" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="250" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B250" s="34">
+      <c r="B250" s="33">
         <f t="shared" si="3"/>
         <v>247</v>
       </c>
@@ -7199,12 +7200,12 @@
         <v>77</v>
       </c>
       <c r="F250" s="22"/>
-      <c r="G250" s="47" t="s">
+      <c r="G250" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="251" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B251" s="34">
+      <c r="B251" s="33">
         <f t="shared" si="3"/>
         <v>248</v>
       </c>
@@ -7214,12 +7215,12 @@
         <v>81</v>
       </c>
       <c r="F251" s="22"/>
-      <c r="G251" s="47" t="s">
+      <c r="G251" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="252" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B252" s="34">
+      <c r="B252" s="33">
         <f t="shared" si="3"/>
         <v>249</v>
       </c>
@@ -7229,12 +7230,12 @@
         <v>220</v>
       </c>
       <c r="F252" s="22"/>
-      <c r="G252" s="47" t="s">
+      <c r="G252" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="253" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B253" s="34">
+      <c r="B253" s="33">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
@@ -7244,12 +7245,12 @@
         <v>61</v>
       </c>
       <c r="F253" s="10"/>
-      <c r="G253" s="47" t="s">
+      <c r="G253" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="254" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B254" s="34">
+      <c r="B254" s="33">
         <f t="shared" si="3"/>
         <v>251</v>
       </c>
@@ -7261,12 +7262,12 @@
         <v>179</v>
       </c>
       <c r="F254" s="10"/>
-      <c r="G254" s="47" t="s">
+      <c r="G254" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="255" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B255" s="34">
+      <c r="B255" s="33">
         <f t="shared" si="3"/>
         <v>252</v>
       </c>
@@ -7278,9 +7279,12 @@
         <v>221</v>
       </c>
       <c r="F255" s="10"/>
+      <c r="G255" s="46" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="256" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B256" s="34">
+      <c r="B256" s="33">
         <f t="shared" si="3"/>
         <v>253</v>
       </c>
@@ -7292,9 +7296,12 @@
         <v>366</v>
       </c>
       <c r="F256" s="15"/>
-    </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B257" s="34">
+      <c r="G256" s="46" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="257" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B257" s="33">
         <f t="shared" si="3"/>
         <v>254</v>
       </c>
@@ -7304,9 +7311,12 @@
         <v>222</v>
       </c>
       <c r="F257" s="22"/>
-    </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B258" s="34">
+      <c r="G257" s="46" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="258" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B258" s="33">
         <f t="shared" si="3"/>
         <v>255</v>
       </c>
@@ -7316,9 +7326,12 @@
         <v>223</v>
       </c>
       <c r="F258" s="22"/>
-    </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B259" s="34">
+      <c r="G258" s="46" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="259" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B259" s="33">
         <f t="shared" si="3"/>
         <v>256</v>
       </c>
@@ -7328,9 +7341,12 @@
         <v>224</v>
       </c>
       <c r="F259" s="22"/>
-    </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B260" s="34">
+      <c r="G259" s="46" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="260" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B260" s="33">
         <f t="shared" si="3"/>
         <v>257</v>
       </c>
@@ -7340,9 +7356,12 @@
         <v>225</v>
       </c>
       <c r="F260" s="22"/>
-    </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B261" s="34">
+      <c r="G260" s="46" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="261" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B261" s="33">
         <f t="shared" ref="B261:B312" si="4">ROW()-3</f>
         <v>258</v>
       </c>
@@ -7352,9 +7371,12 @@
         <v>226</v>
       </c>
       <c r="F261" s="22"/>
-    </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B262" s="34">
+      <c r="G261" s="46" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="262" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B262" s="33">
         <f t="shared" si="4"/>
         <v>259</v>
       </c>
@@ -7364,9 +7386,12 @@
         <v>227</v>
       </c>
       <c r="F262" s="22"/>
-    </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B263" s="34">
+      <c r="G262" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="263" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B263" s="33">
         <f t="shared" si="4"/>
         <v>260</v>
       </c>
@@ -7376,9 +7401,12 @@
         <v>228</v>
       </c>
       <c r="F263" s="22"/>
-    </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B264" s="34">
+      <c r="G263" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="264" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B264" s="33">
         <f t="shared" si="4"/>
         <v>261</v>
       </c>
@@ -7388,9 +7416,12 @@
         <v>229</v>
       </c>
       <c r="F264" s="22"/>
-    </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B265" s="34">
+      <c r="G264" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="265" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B265" s="33">
         <f t="shared" si="4"/>
         <v>262</v>
       </c>
@@ -7400,9 +7431,12 @@
         <v>230</v>
       </c>
       <c r="F265" s="22"/>
-    </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B266" s="34">
+      <c r="G265" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="266" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B266" s="33">
         <f t="shared" si="4"/>
         <v>263</v>
       </c>
@@ -7412,9 +7446,12 @@
         <v>231</v>
       </c>
       <c r="F266" s="22"/>
-    </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B267" s="34">
+      <c r="G266" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="267" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B267" s="33">
         <f t="shared" si="4"/>
         <v>264</v>
       </c>
@@ -7424,9 +7461,12 @@
         <v>232</v>
       </c>
       <c r="F267" s="22"/>
-    </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B268" s="34">
+      <c r="G267" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="268" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B268" s="33">
         <f t="shared" si="4"/>
         <v>265</v>
       </c>
@@ -7436,9 +7476,12 @@
         <v>233</v>
       </c>
       <c r="F268" s="22"/>
-    </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B269" s="34">
+      <c r="G268" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="269" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B269" s="33">
         <f t="shared" si="4"/>
         <v>266</v>
       </c>
@@ -7448,9 +7491,12 @@
         <v>234</v>
       </c>
       <c r="F269" s="22"/>
-    </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B270" s="34">
+      <c r="G269" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="270" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B270" s="33">
         <f t="shared" si="4"/>
         <v>267</v>
       </c>
@@ -7460,9 +7506,12 @@
         <v>235</v>
       </c>
       <c r="F270" s="22"/>
-    </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B271" s="34">
+      <c r="G270" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="271" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B271" s="33">
         <f t="shared" si="4"/>
         <v>268</v>
       </c>
@@ -7472,9 +7521,12 @@
         <v>236</v>
       </c>
       <c r="F271" s="22"/>
-    </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B272" s="34">
+      <c r="G271" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="272" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B272" s="33">
         <f t="shared" si="4"/>
         <v>269</v>
       </c>
@@ -7484,9 +7536,12 @@
         <v>237</v>
       </c>
       <c r="F272" s="22"/>
-    </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B273" s="34">
+      <c r="G272" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="273" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B273" s="33">
         <f t="shared" si="4"/>
         <v>270</v>
       </c>
@@ -7496,9 +7551,12 @@
         <v>185</v>
       </c>
       <c r="F273" s="22"/>
-    </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B274" s="34">
+      <c r="G273" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="274" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B274" s="33">
         <f t="shared" si="4"/>
         <v>271</v>
       </c>
@@ -7508,9 +7566,12 @@
         <v>238</v>
       </c>
       <c r="F274" s="22"/>
-    </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B275" s="34">
+      <c r="G274" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="275" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B275" s="33">
         <f t="shared" si="4"/>
         <v>272</v>
       </c>
@@ -7520,9 +7581,12 @@
         <v>248</v>
       </c>
       <c r="F275" s="22"/>
-    </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B276" s="34">
+      <c r="G275" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="276" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B276" s="33">
         <f t="shared" si="4"/>
         <v>273</v>
       </c>
@@ -7532,9 +7596,12 @@
         <v>249</v>
       </c>
       <c r="F276" s="22"/>
-    </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B277" s="34">
+      <c r="G276" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="277" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B277" s="33">
         <f t="shared" si="4"/>
         <v>274</v>
       </c>
@@ -7544,9 +7611,12 @@
         <v>250</v>
       </c>
       <c r="F277" s="22"/>
-    </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B278" s="34">
+      <c r="G277" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="278" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B278" s="33">
         <f t="shared" si="4"/>
         <v>275</v>
       </c>
@@ -7556,9 +7626,12 @@
         <v>251</v>
       </c>
       <c r="F278" s="22"/>
-    </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B279" s="34">
+      <c r="G278" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="279" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B279" s="33">
         <f t="shared" si="4"/>
         <v>276</v>
       </c>
@@ -7568,9 +7641,12 @@
         <v>252</v>
       </c>
       <c r="F279" s="22"/>
-    </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B280" s="34">
+      <c r="G279" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="280" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B280" s="33">
         <f t="shared" si="4"/>
         <v>277</v>
       </c>
@@ -7580,9 +7656,12 @@
         <v>253</v>
       </c>
       <c r="F280" s="22"/>
-    </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B281" s="34">
+      <c r="G280" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="281" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B281" s="33">
         <f t="shared" si="4"/>
         <v>278</v>
       </c>
@@ -7592,9 +7671,12 @@
         <v>254</v>
       </c>
       <c r="F281" s="22"/>
-    </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B282" s="34">
+      <c r="G281" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="282" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B282" s="33">
         <f t="shared" si="4"/>
         <v>279</v>
       </c>
@@ -7604,9 +7686,12 @@
         <v>255</v>
       </c>
       <c r="F282" s="22"/>
-    </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B283" s="34">
+      <c r="G282" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="283" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B283" s="33">
         <f t="shared" si="4"/>
         <v>280</v>
       </c>
@@ -7616,9 +7701,12 @@
         <v>256</v>
       </c>
       <c r="F283" s="22"/>
-    </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B284" s="34">
+      <c r="G283" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="284" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B284" s="33">
         <f t="shared" si="4"/>
         <v>281</v>
       </c>
@@ -7628,9 +7716,12 @@
         <v>257</v>
       </c>
       <c r="F284" s="22"/>
-    </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B285" s="34">
+      <c r="G284" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="285" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B285" s="33">
         <f t="shared" si="4"/>
         <v>282</v>
       </c>
@@ -7640,9 +7731,12 @@
         <v>258</v>
       </c>
       <c r="F285" s="22"/>
-    </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B286" s="34">
+      <c r="G285" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="286" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B286" s="33">
         <f t="shared" si="4"/>
         <v>283</v>
       </c>
@@ -7652,9 +7746,12 @@
         <v>259</v>
       </c>
       <c r="F286" s="22"/>
-    </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B287" s="34">
+      <c r="G286" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="287" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B287" s="33">
         <f t="shared" si="4"/>
         <v>284</v>
       </c>
@@ -7664,311 +7761,386 @@
         <v>260</v>
       </c>
       <c r="F287" s="22"/>
-    </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B288" s="34">
+      <c r="G287" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="288" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B288" s="33">
         <f t="shared" si="4"/>
         <v>285</v>
       </c>
       <c r="C288" s="7"/>
-      <c r="D288" s="21"/>
-      <c r="E288" s="28" t="s">
+      <c r="D288" s="16"/>
+      <c r="E288" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="F288" s="10"/>
-    </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B289" s="34">
+      <c r="F288" s="22"/>
+      <c r="G288" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="289" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B289" s="33">
         <f t="shared" si="4"/>
         <v>286</v>
       </c>
       <c r="C289" s="7"/>
-      <c r="D289" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E289" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="F289" s="15"/>
-    </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B290" s="34">
+      <c r="D289" s="2"/>
+      <c r="E289" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="F289" s="22"/>
+      <c r="G289" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="290" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B290" s="33">
         <f t="shared" si="4"/>
         <v>287</v>
       </c>
       <c r="C290" s="7"/>
       <c r="D290" s="2"/>
       <c r="E290" s="30" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="F290" s="22"/>
-    </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B291" s="34">
+      <c r="G290" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="291" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B291" s="33">
         <f t="shared" si="4"/>
         <v>288</v>
       </c>
       <c r="C291" s="7"/>
       <c r="D291" s="2"/>
       <c r="E291" s="30" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="F291" s="22"/>
-    </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B292" s="34">
+      <c r="G291" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="292" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B292" s="33">
         <f t="shared" si="4"/>
         <v>289</v>
       </c>
       <c r="C292" s="7"/>
       <c r="D292" s="2"/>
       <c r="E292" s="30" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="F292" s="22"/>
-    </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B293" s="34">
+      <c r="G292" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="293" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B293" s="33">
         <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="C293" s="7"/>
       <c r="D293" s="2"/>
       <c r="E293" s="30" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="F293" s="22"/>
-    </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B294" s="34">
+      <c r="G293" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="294" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B294" s="33">
         <f t="shared" si="4"/>
         <v>291</v>
       </c>
       <c r="C294" s="7"/>
       <c r="D294" s="2"/>
       <c r="E294" s="30" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="F294" s="22"/>
-    </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B295" s="34">
+      <c r="G294" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="295" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B295" s="33">
         <f t="shared" si="4"/>
         <v>292</v>
       </c>
       <c r="C295" s="7"/>
       <c r="D295" s="2"/>
       <c r="E295" s="30" t="s">
-        <v>245</v>
+        <v>55</v>
       </c>
       <c r="F295" s="22"/>
-    </row>
-    <row r="296" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B296" s="34">
+      <c r="G295" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="296" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B296" s="1">
         <f t="shared" si="4"/>
         <v>293</v>
       </c>
       <c r="C296" s="7"/>
-      <c r="D296" s="2"/>
-      <c r="E296" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="F296" s="22"/>
-    </row>
-    <row r="297" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B297" s="34">
+      <c r="D296" s="21"/>
+      <c r="E296" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="F296" s="10"/>
+      <c r="G296" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="297" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B297" s="33">
         <f t="shared" si="4"/>
         <v>294</v>
       </c>
       <c r="C297" s="7"/>
-      <c r="D297" s="2"/>
-      <c r="E297" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="F297" s="22"/>
-    </row>
-    <row r="298" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B298" s="34">
+      <c r="D297" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E297" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="F297" s="15"/>
+      <c r="G297" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="298" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B298" s="33">
         <f t="shared" si="4"/>
         <v>295</v>
       </c>
       <c r="C298" s="7"/>
       <c r="D298" s="2"/>
       <c r="E298" s="30" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F298" s="22"/>
-    </row>
-    <row r="299" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B299" s="34">
+      <c r="G298" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="299" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B299" s="33">
         <f t="shared" si="4"/>
         <v>296</v>
       </c>
       <c r="C299" s="7"/>
       <c r="D299" s="2"/>
       <c r="E299" s="30" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="F299" s="22"/>
-    </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B300" s="34">
+      <c r="G299" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="300" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B300" s="33">
         <f t="shared" si="4"/>
         <v>297</v>
       </c>
       <c r="C300" s="7"/>
       <c r="D300" s="2"/>
       <c r="E300" s="30" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="F300" s="22"/>
-    </row>
-    <row r="301" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B301" s="34">
+      <c r="G300" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="301" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B301" s="33">
         <f t="shared" si="4"/>
         <v>298</v>
       </c>
       <c r="C301" s="7"/>
       <c r="D301" s="2"/>
       <c r="E301" s="30" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="F301" s="22"/>
-    </row>
-    <row r="302" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B302" s="34">
+      <c r="G301" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="302" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B302" s="33">
         <f t="shared" si="4"/>
         <v>299</v>
       </c>
       <c r="C302" s="7"/>
       <c r="D302" s="2"/>
       <c r="E302" s="30" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="F302" s="22"/>
-    </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B303" s="34">
+      <c r="G302" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="303" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B303" s="33">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="C303" s="7"/>
       <c r="D303" s="2"/>
       <c r="E303" s="30" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="F303" s="22"/>
-    </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B304" s="34">
+      <c r="G303" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="304" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B304" s="33">
         <f t="shared" si="4"/>
         <v>301</v>
       </c>
       <c r="C304" s="7"/>
       <c r="D304" s="2"/>
       <c r="E304" s="30" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="F304" s="22"/>
+      <c r="G304" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="305" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B305" s="34">
+      <c r="B305" s="33">
         <f t="shared" si="4"/>
         <v>302</v>
       </c>
       <c r="C305" s="7"/>
       <c r="D305" s="2"/>
       <c r="E305" s="30" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="F305" s="22"/>
+      <c r="G305" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="306" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B306" s="34">
+      <c r="B306" s="33">
         <f t="shared" si="4"/>
         <v>303</v>
       </c>
       <c r="C306" s="7"/>
       <c r="D306" s="2"/>
       <c r="E306" s="30" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="F306" s="22"/>
+      <c r="G306" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="307" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B307" s="34">
+      <c r="B307" s="33">
         <f t="shared" si="4"/>
         <v>304</v>
       </c>
       <c r="C307" s="7"/>
       <c r="D307" s="2"/>
       <c r="E307" s="30" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F307" s="22"/>
+      <c r="G307" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="308" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B308" s="34">
+      <c r="B308" s="33">
         <f t="shared" si="4"/>
         <v>305</v>
       </c>
       <c r="C308" s="7"/>
       <c r="D308" s="2"/>
       <c r="E308" s="30" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F308" s="22"/>
+      <c r="G308" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="309" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B309" s="34">
+      <c r="B309" s="33">
         <f t="shared" si="4"/>
         <v>306</v>
       </c>
       <c r="C309" s="7"/>
       <c r="D309" s="2"/>
       <c r="E309" s="30" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F309" s="22"/>
+      <c r="G309" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="310" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B310" s="34">
+      <c r="B310" s="33">
         <f t="shared" si="4"/>
         <v>307</v>
       </c>
       <c r="C310" s="7"/>
       <c r="D310" s="2"/>
       <c r="E310" s="30" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F310" s="22"/>
+      <c r="G310" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="311" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B311" s="34">
+      <c r="B311" s="33">
         <f t="shared" si="4"/>
         <v>308</v>
       </c>
       <c r="C311" s="7"/>
       <c r="D311" s="2"/>
       <c r="E311" s="30" t="s">
-        <v>55</v>
+        <v>266</v>
       </c>
       <c r="F311" s="22"/>
       <c r="G311" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="312" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B312" s="1">
+      <c r="B312" s="33">
         <f t="shared" si="4"/>
         <v>309</v>
       </c>
       <c r="C312" s="7"/>
       <c r="D312" s="2"/>
-      <c r="E312" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="F312" s="15"/>
+      <c r="E312" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="F312" s="22"/>
+      <c r="G312" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="313" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B313" s="19"/>

--- a/Doc/1.SA/調査/リンク先テーブル調査.xlsx
+++ b/Doc/1.SA/調査/リンク先テーブル調査.xlsx
@@ -2,14 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\zaimu\Doc\1.SA\調査\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="社内" sheetId="4" r:id="rId1"/>

--- a/Doc/1.SA/調査/リンク先テーブル調査.xlsx
+++ b/Doc/1.SA/調査/リンク先テーブル調査.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="4800" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="社内" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="374">
   <si>
     <t>外注チェック</t>
     <rPh sb="0" eb="2">
@@ -362,9 +362,6 @@
     <t>dbo_業務納品マスター</t>
   </si>
   <si>
-    <t>dbo_業務納品履歴マスター160606</t>
-  </si>
-  <si>
     <t>dbo_業務納品履歴マスターsever</t>
   </si>
   <si>
@@ -374,16 +371,7 @@
     <t>dbo_業務履歴マスター</t>
   </si>
   <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>T_未収入金特例業番</t>
-  </si>
-  <si>
     <t>T伝票テーブル_sv3</t>
-  </si>
-  <si>
-    <t>T未払調書</t>
   </si>
   <si>
     <t>dbo_T_施工ユーザー</t>
@@ -1292,12 +1280,58 @@
     <t>ローカル</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>未使用(12/14 熊沢様に確認)</t>
+    <rPh sb="0" eb="3">
+      <t>ミシヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>クマザワサマ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未使用(12/15 熊沢様に確認)</t>
+    <rPh sb="0" eb="3">
+      <t>ミシヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>クマザワサマ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dbo_業務納品履歴マスター160606</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t_完成未成テーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_未収入金特例業番</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T未払調書</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1311,8 +1345,16 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1331,6 +1373,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="34">
     <border>
@@ -1745,7 +1793,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1885,6 +1933,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2169,7 +2238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2183,7 +2252,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2208,13 +2277,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F4" s="41"/>
     </row>
@@ -2226,7 +2295,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="2"/>
       <c r="E5" s="30" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F5" s="22"/>
     </row>
@@ -2238,7 +2307,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="16"/>
       <c r="E6" s="30" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F6" s="22"/>
     </row>
@@ -2250,7 +2319,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="16"/>
       <c r="E7" s="30" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F7" s="22"/>
     </row>
@@ -2274,7 +2343,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="12"/>
       <c r="E9" s="28" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F9" s="10"/>
     </row>
@@ -2284,13 +2353,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F10" s="15"/>
     </row>
@@ -2302,7 +2371,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="2"/>
       <c r="E11" s="30" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F11" s="22"/>
     </row>
@@ -2314,7 +2383,7 @@
       <c r="C12" s="7"/>
       <c r="D12" s="2"/>
       <c r="E12" s="30" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F12" s="22"/>
     </row>
@@ -2326,7 +2395,7 @@
       <c r="C13" s="7"/>
       <c r="D13" s="16"/>
       <c r="E13" s="30" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F13" s="22"/>
     </row>
@@ -2338,7 +2407,7 @@
       <c r="C14" s="7"/>
       <c r="D14" s="2"/>
       <c r="E14" s="30" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F14" s="22"/>
     </row>
@@ -2350,7 +2419,7 @@
       <c r="C15" s="7"/>
       <c r="D15" s="16"/>
       <c r="E15" s="30" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F15" s="22"/>
     </row>
@@ -2362,7 +2431,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="2"/>
       <c r="E16" s="30" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F16" s="22"/>
     </row>
@@ -2374,7 +2443,7 @@
       <c r="C17" s="7"/>
       <c r="D17" s="2"/>
       <c r="E17" s="30" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F17" s="22"/>
     </row>
@@ -2386,7 +2455,7 @@
       <c r="C18" s="7"/>
       <c r="D18" s="2"/>
       <c r="E18" s="30" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F18" s="22"/>
     </row>
@@ -2398,7 +2467,7 @@
       <c r="C19" s="7"/>
       <c r="D19" s="2"/>
       <c r="E19" s="30" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F19" s="22"/>
     </row>
@@ -2410,7 +2479,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="2"/>
       <c r="E20" s="30" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F20" s="22"/>
     </row>
@@ -2422,7 +2491,7 @@
       <c r="C21" s="7"/>
       <c r="D21" s="2"/>
       <c r="E21" s="30" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F21" s="22"/>
     </row>
@@ -2434,7 +2503,7 @@
       <c r="C22" s="7"/>
       <c r="D22" s="2"/>
       <c r="E22" s="30" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F22" s="22"/>
     </row>
@@ -2446,7 +2515,7 @@
       <c r="C23" s="7"/>
       <c r="D23" s="2"/>
       <c r="E23" s="30" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F23" s="22"/>
     </row>
@@ -2458,7 +2527,7 @@
       <c r="C24" s="7"/>
       <c r="D24" s="2"/>
       <c r="E24" s="30" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F24" s="22"/>
     </row>
@@ -2470,7 +2539,7 @@
       <c r="C25" s="7"/>
       <c r="D25" s="2"/>
       <c r="E25" s="30" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F25" s="22"/>
     </row>
@@ -2482,7 +2551,7 @@
       <c r="C26" s="7"/>
       <c r="D26" s="2"/>
       <c r="E26" s="30" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F26" s="22"/>
     </row>
@@ -2494,7 +2563,7 @@
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
       <c r="E27" s="30" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F27" s="22"/>
     </row>
@@ -2506,7 +2575,7 @@
       <c r="C28" s="7"/>
       <c r="D28" s="2"/>
       <c r="E28" s="30" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F28" s="22"/>
     </row>
@@ -2518,7 +2587,7 @@
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
       <c r="E29" s="30" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F29" s="22"/>
     </row>
@@ -2530,7 +2599,7 @@
       <c r="C30" s="7"/>
       <c r="D30" s="2"/>
       <c r="E30" s="30" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F30" s="22"/>
     </row>
@@ -2542,7 +2611,7 @@
       <c r="C31" s="7"/>
       <c r="D31" s="2"/>
       <c r="E31" s="30" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F31" s="22"/>
     </row>
@@ -2554,7 +2623,7 @@
       <c r="C32" s="7"/>
       <c r="D32" s="2"/>
       <c r="E32" s="30" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F32" s="22"/>
     </row>
@@ -2566,7 +2635,7 @@
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
       <c r="E33" s="30" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F33" s="22"/>
     </row>
@@ -2578,7 +2647,7 @@
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
       <c r="E34" s="30" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F34" s="22"/>
     </row>
@@ -2590,7 +2659,7 @@
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
       <c r="E35" s="30" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F35" s="22"/>
     </row>
@@ -2602,7 +2671,7 @@
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
       <c r="E36" s="30" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F36" s="22"/>
     </row>
@@ -2614,7 +2683,7 @@
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
       <c r="E37" s="30" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F37" s="22"/>
     </row>
@@ -2626,7 +2695,7 @@
       <c r="C38" s="7"/>
       <c r="D38" s="2"/>
       <c r="E38" s="30" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F38" s="22"/>
     </row>
@@ -2638,7 +2707,7 @@
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
       <c r="E39" s="30" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F39" s="22"/>
     </row>
@@ -2650,7 +2719,7 @@
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
       <c r="E40" s="30" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F40" s="22"/>
     </row>
@@ -2662,7 +2731,7 @@
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
       <c r="E41" s="30" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F41" s="22"/>
     </row>
@@ -2674,7 +2743,7 @@
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
       <c r="E42" s="30" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F42" s="22"/>
     </row>
@@ -2686,7 +2755,7 @@
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
       <c r="E43" s="30" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F43" s="22"/>
     </row>
@@ -2698,7 +2767,7 @@
       <c r="C44" s="7"/>
       <c r="D44" s="16"/>
       <c r="E44" s="30" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F44" s="22"/>
     </row>
@@ -2710,7 +2779,7 @@
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
       <c r="E45" s="30" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F45" s="22"/>
     </row>
@@ -2732,13 +2801,13 @@
         <v>44</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F47" s="15"/>
     </row>
@@ -2750,7 +2819,7 @@
       <c r="C48" s="7"/>
       <c r="D48" s="16"/>
       <c r="E48" s="30" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F48" s="22"/>
     </row>
@@ -2762,7 +2831,7 @@
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
       <c r="E49" s="30" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F49" s="22"/>
     </row>
@@ -2774,7 +2843,7 @@
       <c r="C50" s="7"/>
       <c r="D50" s="21"/>
       <c r="E50" s="28" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F50" s="10"/>
     </row>
@@ -2788,7 +2857,7 @@
         <v>2</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F51" s="15"/>
     </row>
@@ -2800,7 +2869,7 @@
       <c r="C52" s="7"/>
       <c r="D52" s="2"/>
       <c r="E52" s="30" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F52" s="22"/>
     </row>
@@ -2812,7 +2881,7 @@
       <c r="C53" s="9"/>
       <c r="D53" s="21"/>
       <c r="E53" s="28" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F53" s="10"/>
     </row>
@@ -2822,7 +2891,7 @@
         <v>51</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>1</v>
@@ -2840,7 +2909,7 @@
       <c r="C55" s="7"/>
       <c r="D55" s="2"/>
       <c r="E55" s="30" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F55" s="22"/>
     </row>
@@ -2852,7 +2921,7 @@
       <c r="C56" s="7"/>
       <c r="D56" s="2"/>
       <c r="E56" s="30" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F56" s="22"/>
     </row>
@@ -2864,7 +2933,7 @@
       <c r="C57" s="7"/>
       <c r="D57" s="2"/>
       <c r="E57" s="30" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F57" s="22"/>
     </row>
@@ -2876,7 +2945,7 @@
       <c r="C58" s="7"/>
       <c r="D58" s="21"/>
       <c r="E58" s="28" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F58" s="10"/>
     </row>
@@ -2890,7 +2959,7 @@
         <v>2</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F59" s="15"/>
     </row>
@@ -2902,7 +2971,7 @@
       <c r="C60" s="7"/>
       <c r="D60" s="2"/>
       <c r="E60" s="30" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F60" s="22"/>
     </row>
@@ -2914,7 +2983,7 @@
       <c r="C61" s="7"/>
       <c r="D61" s="2"/>
       <c r="E61" s="30" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F61" s="22"/>
     </row>
@@ -2926,7 +2995,7 @@
       <c r="C62" s="7"/>
       <c r="D62" s="2"/>
       <c r="E62" s="30" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F62" s="22"/>
     </row>
@@ -2938,7 +3007,7 @@
       <c r="C63" s="7"/>
       <c r="D63" s="2"/>
       <c r="E63" s="30" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F63" s="22"/>
     </row>
@@ -2950,7 +3019,7 @@
       <c r="C64" s="7"/>
       <c r="D64" s="2"/>
       <c r="E64" s="30" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F64" s="22"/>
     </row>
@@ -2962,7 +3031,7 @@
       <c r="C65" s="7"/>
       <c r="D65" s="2"/>
       <c r="E65" s="30" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F65" s="22"/>
     </row>
@@ -2974,7 +3043,7 @@
       <c r="C66" s="7"/>
       <c r="D66" s="2"/>
       <c r="E66" s="30" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F66" s="22"/>
     </row>
@@ -2986,7 +3055,7 @@
       <c r="C67" s="7"/>
       <c r="D67" s="2"/>
       <c r="E67" s="30" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F67" s="22"/>
     </row>
@@ -2998,7 +3067,7 @@
       <c r="C68" s="7"/>
       <c r="D68" s="2"/>
       <c r="E68" s="30" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F68" s="22"/>
     </row>
@@ -3010,7 +3079,7 @@
       <c r="C69" s="7"/>
       <c r="D69" s="2"/>
       <c r="E69" s="30" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F69" s="22"/>
     </row>
@@ -3022,7 +3091,7 @@
       <c r="C70" s="7"/>
       <c r="D70" s="2"/>
       <c r="E70" s="30" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F70" s="22"/>
     </row>
@@ -3034,7 +3103,7 @@
       <c r="C71" s="7"/>
       <c r="D71" s="2"/>
       <c r="E71" s="30" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F71" s="22"/>
     </row>
@@ -3046,7 +3115,7 @@
       <c r="C72" s="7"/>
       <c r="D72" s="2"/>
       <c r="E72" s="30" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F72" s="22"/>
     </row>
@@ -3058,7 +3127,7 @@
       <c r="C73" s="7"/>
       <c r="D73" s="2"/>
       <c r="E73" s="30" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F73" s="22"/>
     </row>
@@ -3070,7 +3139,7 @@
       <c r="C74" s="7"/>
       <c r="D74" s="2"/>
       <c r="E74" s="30" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F74" s="22"/>
     </row>
@@ -3082,7 +3151,7 @@
       <c r="C75" s="7"/>
       <c r="D75" s="2"/>
       <c r="E75" s="30" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F75" s="22"/>
     </row>
@@ -3094,7 +3163,7 @@
       <c r="C76" s="7"/>
       <c r="D76" s="2"/>
       <c r="E76" s="30" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F76" s="22"/>
     </row>
@@ -3118,7 +3187,7 @@
       <c r="C78" s="9"/>
       <c r="D78" s="12"/>
       <c r="E78" s="28" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F78" s="10"/>
     </row>
@@ -3128,7 +3197,7 @@
         <v>76</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D79" s="12" t="s">
         <v>24</v>
@@ -3142,7 +3211,7 @@
         <v>77</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D80" s="21" t="s">
         <v>1</v>
@@ -3159,10 +3228,10 @@
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F81" s="15"/>
     </row>
@@ -3174,7 +3243,7 @@
       <c r="C82" s="7"/>
       <c r="D82" s="16"/>
       <c r="E82" s="30" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F82" s="22"/>
     </row>
@@ -3186,7 +3255,7 @@
       <c r="C83" s="7"/>
       <c r="D83" s="2"/>
       <c r="E83" s="30" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F83" s="22"/>
     </row>
@@ -3198,7 +3267,7 @@
       <c r="C84" s="7"/>
       <c r="D84" s="2"/>
       <c r="E84" s="30" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F84" s="22"/>
     </row>
@@ -3210,7 +3279,7 @@
       <c r="C85" s="7"/>
       <c r="D85" s="2"/>
       <c r="E85" s="30" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F85" s="22"/>
     </row>
@@ -3222,7 +3291,7 @@
       <c r="C86" s="7"/>
       <c r="D86" s="2"/>
       <c r="E86" s="30" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F86" s="22"/>
     </row>
@@ -3234,7 +3303,7 @@
       <c r="C87" s="7"/>
       <c r="D87" s="2"/>
       <c r="E87" s="30" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F87" s="22"/>
     </row>
@@ -3246,7 +3315,7 @@
       <c r="C88" s="7"/>
       <c r="D88" s="2"/>
       <c r="E88" s="30" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F88" s="22"/>
     </row>
@@ -3270,7 +3339,7 @@
       <c r="C90" s="7"/>
       <c r="D90" s="2"/>
       <c r="E90" s="30" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F90" s="22"/>
     </row>
@@ -3282,7 +3351,7 @@
       <c r="C91" s="7"/>
       <c r="D91" s="2"/>
       <c r="E91" s="30" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F91" s="22"/>
     </row>
@@ -3294,7 +3363,7 @@
       <c r="C92" s="7"/>
       <c r="D92" s="2"/>
       <c r="E92" s="30" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F92" s="22"/>
     </row>
@@ -3306,7 +3375,7 @@
       <c r="C93" s="9"/>
       <c r="D93" s="12"/>
       <c r="E93" s="28" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F93" s="10"/>
     </row>
@@ -3316,13 +3385,13 @@
         <v>91</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D94" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E94" s="32" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F94" s="25"/>
     </row>
@@ -3356,7 +3425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G313"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3371,7 +3440,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3406,7 +3475,7 @@
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3421,7 +3490,7 @@
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3436,7 +3505,7 @@
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3449,11 +3518,11 @@
         <v>2</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3470,7 +3539,7 @@
       </c>
       <c r="F8" s="10"/>
       <c r="G8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3489,7 +3558,7 @@
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3504,7 +3573,7 @@
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3519,7 +3588,7 @@
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3534,7 +3603,7 @@
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3549,7 +3618,7 @@
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3558,7 +3627,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="49" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="27" t="s">
@@ -3566,7 +3635,7 @@
       </c>
       <c r="F14" s="11"/>
       <c r="G14" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3575,13 +3644,13 @@
         <v>12</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="21"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="28" t="s">
         <v>40</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3598,7 +3667,7 @@
       </c>
       <c r="F16" s="15"/>
       <c r="G16" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -3609,11 +3678,11 @@
       <c r="C17" s="7"/>
       <c r="D17" s="2"/>
       <c r="E17" s="30" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -3624,11 +3693,11 @@
       <c r="C18" s="7"/>
       <c r="D18" s="2"/>
       <c r="E18" s="30" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -3639,11 +3708,11 @@
       <c r="C19" s="7"/>
       <c r="D19" s="2"/>
       <c r="E19" s="30" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -3654,11 +3723,11 @@
       <c r="C20" s="7"/>
       <c r="D20" s="2"/>
       <c r="E20" s="30" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
@@ -3669,11 +3738,11 @@
       <c r="C21" s="7"/>
       <c r="D21" s="2"/>
       <c r="E21" s="30" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -3684,11 +3753,11 @@
       <c r="C22" s="7"/>
       <c r="D22" s="2"/>
       <c r="E22" s="30" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -3699,11 +3768,11 @@
       <c r="C23" s="7"/>
       <c r="D23" s="2"/>
       <c r="E23" s="30" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
@@ -3714,11 +3783,11 @@
       <c r="C24" s="7"/>
       <c r="D24" s="2"/>
       <c r="E24" s="30" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
@@ -3729,11 +3798,11 @@
       <c r="C25" s="7"/>
       <c r="D25" s="2"/>
       <c r="E25" s="30" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
@@ -3744,11 +3813,11 @@
       <c r="C26" s="7"/>
       <c r="D26" s="2"/>
       <c r="E26" s="30" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F26" s="22"/>
       <c r="G26" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -3759,11 +3828,11 @@
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
       <c r="E27" s="30" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
@@ -3778,7 +3847,7 @@
       </c>
       <c r="F28" s="22"/>
       <c r="G28" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -3793,7 +3862,7 @@
       </c>
       <c r="F29" s="22"/>
       <c r="G29" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -3808,7 +3877,7 @@
       </c>
       <c r="F30" s="22"/>
       <c r="G30" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -3823,7 +3892,7 @@
       </c>
       <c r="F31" s="22"/>
       <c r="G31" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
@@ -3838,7 +3907,7 @@
       </c>
       <c r="F32" s="22"/>
       <c r="G32" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
@@ -3853,7 +3922,7 @@
       </c>
       <c r="F33" s="22"/>
       <c r="G33" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -3864,11 +3933,11 @@
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
       <c r="E34" s="30" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F34" s="22"/>
       <c r="G34" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
@@ -3883,7 +3952,7 @@
       </c>
       <c r="F35" s="22"/>
       <c r="G35" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
@@ -3898,7 +3967,7 @@
       </c>
       <c r="F36" s="22"/>
       <c r="G36" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
@@ -3913,7 +3982,7 @@
       </c>
       <c r="F37" s="22"/>
       <c r="G37" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
@@ -3928,7 +3997,7 @@
       </c>
       <c r="F38" s="22"/>
       <c r="G38" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
@@ -3943,7 +4012,7 @@
       </c>
       <c r="F39" s="22"/>
       <c r="G39" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
@@ -3958,7 +4027,7 @@
       </c>
       <c r="F40" s="22"/>
       <c r="G40" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
@@ -3973,7 +4042,7 @@
       </c>
       <c r="F41" s="22"/>
       <c r="G41" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
@@ -3988,7 +4057,7 @@
       </c>
       <c r="F42" s="10"/>
       <c r="G42" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
@@ -4007,7 +4076,7 @@
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
@@ -4022,7 +4091,7 @@
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
@@ -4039,7 +4108,7 @@
       </c>
       <c r="F45" s="10"/>
       <c r="G45" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
@@ -4058,7 +4127,7 @@
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
@@ -4068,12 +4137,14 @@
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="21"/>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="F47" s="10"/>
+      <c r="F47" s="10" t="s">
+        <v>367</v>
+      </c>
       <c r="G47" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
@@ -4090,7 +4161,7 @@
       </c>
       <c r="F48" s="11"/>
       <c r="G48" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
@@ -4105,7 +4176,7 @@
       </c>
       <c r="F49" s="11"/>
       <c r="G49" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
@@ -4120,7 +4191,7 @@
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
@@ -4129,7 +4200,7 @@
         <v>48</v>
       </c>
       <c r="C51" s="9"/>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="48" t="s">
         <v>10</v>
       </c>
       <c r="E51" s="28" t="s">
@@ -4137,7 +4208,7 @@
       </c>
       <c r="F51" s="10"/>
       <c r="G51" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
@@ -4156,7 +4227,7 @@
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
@@ -4165,15 +4236,17 @@
         <v>50</v>
       </c>
       <c r="C53" s="7"/>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="27" t="s">
+      <c r="E53" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="F53" s="11"/>
+      <c r="F53" s="11" t="s">
+        <v>368</v>
+      </c>
       <c r="G53" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
@@ -4182,13 +4255,13 @@
         <v>51</v>
       </c>
       <c r="C54" s="7"/>
-      <c r="D54" s="21"/>
+      <c r="D54" s="50"/>
       <c r="E54" s="28" t="s">
         <v>65</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
@@ -4197,7 +4270,7 @@
         <v>52</v>
       </c>
       <c r="C55" s="7"/>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="49" t="s">
         <v>11</v>
       </c>
       <c r="E55" s="27" t="s">
@@ -4205,7 +4278,7 @@
       </c>
       <c r="F55" s="11"/>
       <c r="G55" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
@@ -4214,13 +4287,13 @@
         <v>53</v>
       </c>
       <c r="C56" s="9"/>
-      <c r="D56" s="12"/>
+      <c r="D56" s="48"/>
       <c r="E56" s="28" t="s">
         <v>67</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
@@ -4239,7 +4312,7 @@
       </c>
       <c r="F57" s="15"/>
       <c r="G57" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
@@ -4254,7 +4327,7 @@
       </c>
       <c r="F58" s="22"/>
       <c r="G58" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
@@ -4269,7 +4342,7 @@
       </c>
       <c r="F59" s="22"/>
       <c r="G59" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
@@ -4284,7 +4357,7 @@
       </c>
       <c r="F60" s="22"/>
       <c r="G60" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
@@ -4299,7 +4372,7 @@
       </c>
       <c r="F61" s="22"/>
       <c r="G61" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
@@ -4314,7 +4387,7 @@
       </c>
       <c r="F62" s="22"/>
       <c r="G62" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
@@ -4329,7 +4402,7 @@
       </c>
       <c r="F63" s="22"/>
       <c r="G63" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
@@ -4344,7 +4417,7 @@
       </c>
       <c r="F64" s="22"/>
       <c r="G64" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
@@ -4359,7 +4432,7 @@
       </c>
       <c r="F65" s="22"/>
       <c r="G65" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
@@ -4374,7 +4447,7 @@
       </c>
       <c r="F66" s="22"/>
       <c r="G66" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
@@ -4389,7 +4462,7 @@
       </c>
       <c r="F67" s="22"/>
       <c r="G67" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
@@ -4404,7 +4477,7 @@
       </c>
       <c r="F68" s="22"/>
       <c r="G68" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
@@ -4419,7 +4492,7 @@
       </c>
       <c r="F69" s="22"/>
       <c r="G69" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
@@ -4434,7 +4507,7 @@
       </c>
       <c r="F70" s="22"/>
       <c r="G70" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
@@ -4445,11 +4518,11 @@
       <c r="C71" s="7"/>
       <c r="D71" s="2"/>
       <c r="E71" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F71" s="22"/>
       <c r="G71" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
@@ -4460,11 +4533,11 @@
       <c r="C72" s="7"/>
       <c r="D72" s="2"/>
       <c r="E72" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F72" s="22"/>
       <c r="G72" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
@@ -4475,11 +4548,11 @@
       <c r="C73" s="7"/>
       <c r="D73" s="21"/>
       <c r="E73" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F73" s="10"/>
       <c r="G73" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
@@ -4488,15 +4561,15 @@
         <v>71</v>
       </c>
       <c r="C74" s="7"/>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="29" t="s">
-        <v>78</v>
+      <c r="E74" s="53" t="s">
+        <v>370</v>
       </c>
       <c r="F74" s="15"/>
       <c r="G74" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
@@ -4505,13 +4578,13 @@
         <v>72</v>
       </c>
       <c r="C75" s="7"/>
-      <c r="D75" s="2"/>
+      <c r="D75" s="49"/>
       <c r="E75" s="30" t="s">
-        <v>82</v>
+        <v>369</v>
       </c>
       <c r="F75" s="22"/>
       <c r="G75" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
@@ -4520,13 +4593,13 @@
         <v>73</v>
       </c>
       <c r="C76" s="7"/>
-      <c r="D76" s="2"/>
+      <c r="D76" s="49"/>
       <c r="E76" s="30" t="s">
-        <v>40</v>
+        <v>371</v>
       </c>
       <c r="F76" s="22"/>
       <c r="G76" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
@@ -4535,13 +4608,13 @@
         <v>74</v>
       </c>
       <c r="C77" s="7"/>
-      <c r="D77" s="2"/>
+      <c r="D77" s="49"/>
       <c r="E77" s="30" t="s">
-        <v>83</v>
+        <v>372</v>
       </c>
       <c r="F77" s="22"/>
       <c r="G77" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
@@ -4550,13 +4623,13 @@
         <v>75</v>
       </c>
       <c r="C78" s="7"/>
-      <c r="D78" s="21"/>
+      <c r="D78" s="50"/>
       <c r="E78" s="28" t="s">
-        <v>85</v>
+        <v>373</v>
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
@@ -4573,7 +4646,7 @@
       </c>
       <c r="F79" s="15"/>
       <c r="G79" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
@@ -4584,11 +4657,11 @@
       <c r="C80" s="7"/>
       <c r="D80" s="2"/>
       <c r="E80" s="30" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F80" s="22"/>
       <c r="G80" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
@@ -4599,11 +4672,11 @@
       <c r="C81" s="7"/>
       <c r="D81" s="2"/>
       <c r="E81" s="30" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F81" s="22"/>
       <c r="G81" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
@@ -4614,11 +4687,11 @@
       <c r="C82" s="7"/>
       <c r="D82" s="2"/>
       <c r="E82" s="30" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F82" s="22"/>
       <c r="G82" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
@@ -4629,11 +4702,11 @@
       <c r="C83" s="7"/>
       <c r="D83" s="2"/>
       <c r="E83" s="30" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F83" s="22"/>
       <c r="G83" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
@@ -4644,11 +4717,11 @@
       <c r="C84" s="7"/>
       <c r="D84" s="2"/>
       <c r="E84" s="30" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F84" s="22"/>
       <c r="G84" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
@@ -4659,11 +4732,11 @@
       <c r="C85" s="9"/>
       <c r="D85" s="12"/>
       <c r="E85" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F85" s="10"/>
       <c r="G85" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
@@ -4678,11 +4751,11 @@
         <v>1</v>
       </c>
       <c r="E86" s="29" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F86" s="15"/>
       <c r="G86" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
@@ -4693,11 +4766,11 @@
       <c r="C87" s="7"/>
       <c r="D87" s="2"/>
       <c r="E87" s="30" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F87" s="22"/>
       <c r="G87" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
@@ -4712,7 +4785,7 @@
       </c>
       <c r="F88" s="22"/>
       <c r="G88" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
@@ -4727,7 +4800,7 @@
       </c>
       <c r="F89" s="22"/>
       <c r="G89" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
@@ -4742,7 +4815,7 @@
       </c>
       <c r="F90" s="10"/>
       <c r="G90" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
@@ -4755,13 +4828,13 @@
         <v>14</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F91" s="15" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G91" s="46" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
@@ -4772,11 +4845,11 @@
       <c r="C92" s="7"/>
       <c r="D92" s="3"/>
       <c r="E92" s="34" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F92" s="22"/>
       <c r="G92" s="46" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
@@ -4787,11 +4860,11 @@
       <c r="C93" s="7"/>
       <c r="D93" s="3"/>
       <c r="E93" s="34" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F93" s="22"/>
       <c r="G93" s="46" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
@@ -4802,11 +4875,11 @@
       <c r="C94" s="7"/>
       <c r="D94" s="3"/>
       <c r="E94" s="34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F94" s="22"/>
       <c r="G94" s="46" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
@@ -4817,11 +4890,11 @@
       <c r="C95" s="7"/>
       <c r="D95" s="3"/>
       <c r="E95" s="34" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F95" s="22"/>
       <c r="G95" s="46" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
@@ -4832,11 +4905,11 @@
       <c r="C96" s="7"/>
       <c r="D96" s="3"/>
       <c r="E96" s="34" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F96" s="22"/>
       <c r="G96" s="46" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
@@ -4847,11 +4920,11 @@
       <c r="C97" s="7"/>
       <c r="D97" s="3"/>
       <c r="E97" s="34" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F97" s="22"/>
       <c r="G97" s="46" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
@@ -4862,11 +4935,11 @@
       <c r="C98" s="7"/>
       <c r="D98" s="3"/>
       <c r="E98" s="34" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F98" s="22"/>
       <c r="G98" s="46" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.25">
@@ -4877,11 +4950,11 @@
       <c r="C99" s="7"/>
       <c r="D99" s="3"/>
       <c r="E99" s="34" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F99" s="22"/>
       <c r="G99" s="46" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
@@ -4892,11 +4965,11 @@
       <c r="C100" s="7"/>
       <c r="D100" s="3"/>
       <c r="E100" s="34" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F100" s="22"/>
       <c r="G100" s="46" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
@@ -4907,11 +4980,11 @@
       <c r="C101" s="7"/>
       <c r="D101" s="3"/>
       <c r="E101" s="34" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F101" s="22"/>
       <c r="G101" s="46" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
@@ -4922,11 +4995,11 @@
       <c r="C102" s="7"/>
       <c r="D102" s="3"/>
       <c r="E102" s="34" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F102" s="22"/>
       <c r="G102" s="46" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.25">
@@ -4937,11 +5010,11 @@
       <c r="C103" s="7"/>
       <c r="D103" s="3"/>
       <c r="E103" s="34" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F103" s="22"/>
       <c r="G103" s="46" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
@@ -4952,11 +5025,11 @@
       <c r="C104" s="7"/>
       <c r="D104" s="3"/>
       <c r="E104" s="34" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F104" s="22"/>
       <c r="G104" s="46" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.25">
@@ -4967,11 +5040,11 @@
       <c r="C105" s="7"/>
       <c r="D105" s="3"/>
       <c r="E105" s="34" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F105" s="22"/>
       <c r="G105" s="46" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.25">
@@ -4982,11 +5055,11 @@
       <c r="C106" s="7"/>
       <c r="D106" s="3"/>
       <c r="E106" s="34" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F106" s="22"/>
       <c r="G106" s="46" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
@@ -4997,11 +5070,11 @@
       <c r="C107" s="7"/>
       <c r="D107" s="3"/>
       <c r="E107" s="34" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F107" s="22"/>
       <c r="G107" s="46" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.25">
@@ -5012,11 +5085,11 @@
       <c r="C108" s="7"/>
       <c r="D108" s="3"/>
       <c r="E108" s="34" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F108" s="22"/>
       <c r="G108" s="46" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.25">
@@ -5027,11 +5100,11 @@
       <c r="C109" s="7"/>
       <c r="D109" s="3"/>
       <c r="E109" s="34" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F109" s="22"/>
       <c r="G109" s="46" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.25">
@@ -5042,11 +5115,11 @@
       <c r="C110" s="7"/>
       <c r="D110" s="3"/>
       <c r="E110" s="34" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F110" s="22"/>
       <c r="G110" s="46" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.25">
@@ -5057,11 +5130,11 @@
       <c r="C111" s="7"/>
       <c r="D111" s="3"/>
       <c r="E111" s="34" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F111" s="22"/>
       <c r="G111" s="46" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.25">
@@ -5072,11 +5145,11 @@
       <c r="C112" s="7"/>
       <c r="D112" s="3"/>
       <c r="E112" s="34" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F112" s="22"/>
       <c r="G112" s="46" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.25">
@@ -5087,11 +5160,11 @@
       <c r="C113" s="7"/>
       <c r="D113" s="3"/>
       <c r="E113" s="34" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F113" s="22"/>
       <c r="G113" s="46" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.25">
@@ -5102,11 +5175,11 @@
       <c r="C114" s="7"/>
       <c r="D114" s="3"/>
       <c r="E114" s="34" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F114" s="22"/>
       <c r="G114" s="46" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.25">
@@ -5117,11 +5190,11 @@
       <c r="C115" s="7"/>
       <c r="D115" s="3"/>
       <c r="E115" s="34" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F115" s="22"/>
       <c r="G115" s="46" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.25">
@@ -5132,11 +5205,11 @@
       <c r="C116" s="7"/>
       <c r="D116" s="3"/>
       <c r="E116" s="34" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F116" s="22"/>
       <c r="G116" s="46" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
@@ -5147,11 +5220,11 @@
       <c r="C117" s="7"/>
       <c r="D117" s="3"/>
       <c r="E117" s="34" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F117" s="22"/>
       <c r="G117" s="46" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.25">
@@ -5162,11 +5235,11 @@
       <c r="C118" s="7"/>
       <c r="D118" s="3"/>
       <c r="E118" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F118" s="22"/>
       <c r="G118" s="46" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.25">
@@ -5177,11 +5250,11 @@
       <c r="C119" s="7"/>
       <c r="D119" s="3"/>
       <c r="E119" s="34" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F119" s="22"/>
       <c r="G119" s="46" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.25">
@@ -5192,11 +5265,11 @@
       <c r="C120" s="7"/>
       <c r="D120" s="3"/>
       <c r="E120" s="34" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F120" s="22"/>
       <c r="G120" s="46" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.25">
@@ -5207,11 +5280,11 @@
       <c r="C121" s="7"/>
       <c r="D121" s="35"/>
       <c r="E121" s="36" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F121" s="10"/>
       <c r="G121" s="46" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.25">
@@ -5224,11 +5297,11 @@
         <v>15</v>
       </c>
       <c r="E122" s="29" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F122" s="15"/>
       <c r="G122" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.25">
@@ -5239,11 +5312,11 @@
       <c r="C123" s="7"/>
       <c r="D123" s="2"/>
       <c r="E123" s="30" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F123" s="22"/>
       <c r="G123" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.25">
@@ -5254,11 +5327,11 @@
       <c r="C124" s="7"/>
       <c r="D124" s="2"/>
       <c r="E124" s="30" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F124" s="22"/>
       <c r="G124" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
@@ -5269,11 +5342,11 @@
       <c r="C125" s="7"/>
       <c r="D125" s="2"/>
       <c r="E125" s="30" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F125" s="22"/>
       <c r="G125" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.25">
@@ -5284,11 +5357,11 @@
       <c r="C126" s="7"/>
       <c r="D126" s="2"/>
       <c r="E126" s="30" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F126" s="22"/>
       <c r="G126" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.25">
@@ -5299,11 +5372,11 @@
       <c r="C127" s="7"/>
       <c r="D127" s="2"/>
       <c r="E127" s="30" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F127" s="22"/>
       <c r="G127" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.25">
@@ -5314,11 +5387,11 @@
       <c r="C128" s="7"/>
       <c r="D128" s="2"/>
       <c r="E128" s="30" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F128" s="22"/>
       <c r="G128" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
@@ -5329,11 +5402,11 @@
       <c r="C129" s="7"/>
       <c r="D129" s="2"/>
       <c r="E129" s="30" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F129" s="22"/>
       <c r="G129" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
@@ -5344,11 +5417,11 @@
       <c r="C130" s="7"/>
       <c r="D130" s="2"/>
       <c r="E130" s="30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F130" s="22"/>
       <c r="G130" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.25">
@@ -5359,11 +5432,11 @@
       <c r="C131" s="7"/>
       <c r="D131" s="2"/>
       <c r="E131" s="30" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F131" s="22"/>
       <c r="G131" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.25">
@@ -5374,11 +5447,11 @@
       <c r="C132" s="7"/>
       <c r="D132" s="2"/>
       <c r="E132" s="30" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F132" s="22"/>
       <c r="G132" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.25">
@@ -5389,11 +5462,11 @@
       <c r="C133" s="7"/>
       <c r="D133" s="2"/>
       <c r="E133" s="30" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F133" s="22"/>
       <c r="G133" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.25">
@@ -5404,11 +5477,11 @@
       <c r="C134" s="7"/>
       <c r="D134" s="2"/>
       <c r="E134" s="30" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F134" s="22"/>
       <c r="G134" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.25">
@@ -5419,11 +5492,11 @@
       <c r="C135" s="7"/>
       <c r="D135" s="2"/>
       <c r="E135" s="30" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F135" s="22"/>
       <c r="G135" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.25">
@@ -5434,11 +5507,11 @@
       <c r="C136" s="7"/>
       <c r="D136" s="2"/>
       <c r="E136" s="30" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F136" s="22"/>
       <c r="G136" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.25">
@@ -5449,11 +5522,11 @@
       <c r="C137" s="7"/>
       <c r="D137" s="2"/>
       <c r="E137" s="30" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F137" s="22"/>
       <c r="G137" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.25">
@@ -5464,11 +5537,11 @@
       <c r="C138" s="7"/>
       <c r="D138" s="2"/>
       <c r="E138" s="30" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F138" s="22"/>
       <c r="G138" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.25">
@@ -5479,11 +5552,11 @@
       <c r="C139" s="7"/>
       <c r="D139" s="2"/>
       <c r="E139" s="30" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F139" s="22"/>
       <c r="G139" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.25">
@@ -5494,11 +5567,11 @@
       <c r="C140" s="7"/>
       <c r="D140" s="2"/>
       <c r="E140" s="30" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F140" s="22"/>
       <c r="G140" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.25">
@@ -5509,11 +5582,11 @@
       <c r="C141" s="7"/>
       <c r="D141" s="2"/>
       <c r="E141" s="30" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F141" s="22"/>
       <c r="G141" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.25">
@@ -5524,11 +5597,11 @@
       <c r="C142" s="7"/>
       <c r="D142" s="2"/>
       <c r="E142" s="30" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F142" s="22"/>
       <c r="G142" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.25">
@@ -5539,11 +5612,11 @@
       <c r="C143" s="7"/>
       <c r="D143" s="2"/>
       <c r="E143" s="30" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F143" s="22"/>
       <c r="G143" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.25">
@@ -5554,11 +5627,11 @@
       <c r="C144" s="7"/>
       <c r="D144" s="2"/>
       <c r="E144" s="30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F144" s="22"/>
       <c r="G144" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.25">
@@ -5569,11 +5642,11 @@
       <c r="C145" s="7"/>
       <c r="D145" s="2"/>
       <c r="E145" s="30" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F145" s="22"/>
       <c r="G145" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.25">
@@ -5584,11 +5657,11 @@
       <c r="C146" s="7"/>
       <c r="D146" s="2"/>
       <c r="E146" s="30" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F146" s="22"/>
       <c r="G146" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.25">
@@ -5599,11 +5672,11 @@
       <c r="C147" s="7"/>
       <c r="D147" s="2"/>
       <c r="E147" s="30" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F147" s="22"/>
       <c r="G147" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.25">
@@ -5614,11 +5687,11 @@
       <c r="C148" s="7"/>
       <c r="D148" s="2"/>
       <c r="E148" s="30" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F148" s="22"/>
       <c r="G148" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.25">
@@ -5629,11 +5702,11 @@
       <c r="C149" s="7"/>
       <c r="D149" s="2"/>
       <c r="E149" s="30" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F149" s="22"/>
       <c r="G149" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.25">
@@ -5644,11 +5717,11 @@
       <c r="C150" s="7"/>
       <c r="D150" s="2"/>
       <c r="E150" s="30" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F150" s="22"/>
       <c r="G150" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.25">
@@ -5659,11 +5732,11 @@
       <c r="C151" s="7"/>
       <c r="D151" s="2"/>
       <c r="E151" s="30" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F151" s="22"/>
       <c r="G151" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.25">
@@ -5674,11 +5747,11 @@
       <c r="C152" s="7"/>
       <c r="D152" s="2"/>
       <c r="E152" s="30" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F152" s="22"/>
       <c r="G152" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.25">
@@ -5689,11 +5762,11 @@
       <c r="C153" s="7"/>
       <c r="D153" s="2"/>
       <c r="E153" s="30" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F153" s="22"/>
       <c r="G153" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.25">
@@ -5704,11 +5777,11 @@
       <c r="C154" s="7"/>
       <c r="D154" s="2"/>
       <c r="E154" s="30" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F154" s="22"/>
       <c r="G154" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.25">
@@ -5719,11 +5792,11 @@
       <c r="C155" s="7"/>
       <c r="D155" s="2"/>
       <c r="E155" s="30" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F155" s="22"/>
       <c r="G155" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.25">
@@ -5734,11 +5807,11 @@
       <c r="C156" s="7"/>
       <c r="D156" s="2"/>
       <c r="E156" s="30" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F156" s="22"/>
       <c r="G156" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.25">
@@ -5749,11 +5822,11 @@
       <c r="C157" s="7"/>
       <c r="D157" s="21"/>
       <c r="E157" s="28" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F157" s="10"/>
       <c r="G157" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.25">
@@ -5762,15 +5835,15 @@
         <v>155</v>
       </c>
       <c r="C158" s="7"/>
-      <c r="D158" s="21" t="s">
+      <c r="D158" s="50" t="s">
         <v>10</v>
       </c>
       <c r="E158" s="28" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F158" s="10"/>
       <c r="G158" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.25">
@@ -5783,13 +5856,13 @@
         <v>16</v>
       </c>
       <c r="E159" s="31" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F159" s="15" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G159" s="46" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="160" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -5800,11 +5873,11 @@
       <c r="C160" s="17"/>
       <c r="D160" s="3"/>
       <c r="E160" s="34" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F160" s="23"/>
       <c r="G160" s="46" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="161" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -5815,11 +5888,11 @@
       <c r="C161" s="17"/>
       <c r="D161" s="3"/>
       <c r="E161" s="34" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F161" s="23"/>
       <c r="G161" s="46" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="162" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -5830,11 +5903,11 @@
       <c r="C162" s="17"/>
       <c r="D162" s="3"/>
       <c r="E162" s="34" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F162" s="23"/>
       <c r="G162" s="46" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="163" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -5845,11 +5918,11 @@
       <c r="C163" s="17"/>
       <c r="D163" s="3"/>
       <c r="E163" s="34" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F163" s="23"/>
       <c r="G163" s="46" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="164" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -5860,11 +5933,11 @@
       <c r="C164" s="17"/>
       <c r="D164" s="3"/>
       <c r="E164" s="34" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F164" s="23"/>
       <c r="G164" s="46" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="165" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -5875,11 +5948,11 @@
       <c r="C165" s="20"/>
       <c r="D165" s="13"/>
       <c r="E165" s="36" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F165" s="24"/>
       <c r="G165" s="46" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="166" spans="2:7" x14ac:dyDescent="0.25">
@@ -5894,11 +5967,11 @@
         <v>18</v>
       </c>
       <c r="E166" s="29" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F166" s="15"/>
       <c r="G166" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.25">
@@ -5909,11 +5982,11 @@
       <c r="C167" s="7"/>
       <c r="D167" s="2"/>
       <c r="E167" s="30" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F167" s="22"/>
       <c r="G167" s="46" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.25">
@@ -5924,11 +5997,11 @@
       <c r="C168" s="7"/>
       <c r="D168" s="2"/>
       <c r="E168" s="30" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F168" s="22"/>
       <c r="G168" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.25">
@@ -5939,11 +6012,11 @@
       <c r="C169" s="7"/>
       <c r="D169" s="2"/>
       <c r="E169" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F169" s="22"/>
       <c r="G169" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="170" spans="2:7" x14ac:dyDescent="0.25">
@@ -5954,11 +6027,11 @@
       <c r="C170" s="7"/>
       <c r="D170" s="21"/>
       <c r="E170" s="28" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F170" s="10"/>
       <c r="G170" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="171" spans="2:7" x14ac:dyDescent="0.25">
@@ -5971,11 +6044,11 @@
         <v>1</v>
       </c>
       <c r="E171" s="29" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F171" s="15"/>
       <c r="G171" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="172" spans="2:7" x14ac:dyDescent="0.25">
@@ -5990,7 +6063,7 @@
       </c>
       <c r="F172" s="22"/>
       <c r="G172" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.25">
@@ -6005,7 +6078,7 @@
       </c>
       <c r="F173" s="22"/>
       <c r="G173" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.25">
@@ -6020,7 +6093,7 @@
       </c>
       <c r="F174" s="22"/>
       <c r="G174" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.25">
@@ -6035,7 +6108,7 @@
       </c>
       <c r="F175" s="22"/>
       <c r="G175" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="176" spans="2:7" x14ac:dyDescent="0.25">
@@ -6050,7 +6123,7 @@
       </c>
       <c r="F176" s="10"/>
       <c r="G176" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.25">
@@ -6059,15 +6132,15 @@
         <v>174</v>
       </c>
       <c r="C177" s="7"/>
-      <c r="D177" s="2" t="s">
+      <c r="D177" s="49" t="s">
         <v>10</v>
       </c>
       <c r="E177" s="29" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F177" s="15"/>
       <c r="G177" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.25">
@@ -6076,13 +6149,13 @@
         <v>175</v>
       </c>
       <c r="C178" s="7"/>
-      <c r="D178" s="2"/>
+      <c r="D178" s="49"/>
       <c r="E178" s="30" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F178" s="22"/>
       <c r="G178" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.25">
@@ -6091,13 +6164,13 @@
         <v>176</v>
       </c>
       <c r="C179" s="7"/>
-      <c r="D179" s="2"/>
+      <c r="D179" s="49"/>
       <c r="E179" s="30" t="s">
         <v>65</v>
       </c>
       <c r="F179" s="22"/>
       <c r="G179" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.25">
@@ -6106,13 +6179,13 @@
         <v>177</v>
       </c>
       <c r="C180" s="7"/>
-      <c r="D180" s="16"/>
+      <c r="D180" s="51"/>
       <c r="E180" s="30" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F180" s="22"/>
       <c r="G180" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.25">
@@ -6121,13 +6194,13 @@
         <v>178</v>
       </c>
       <c r="C181" s="7"/>
-      <c r="D181" s="21"/>
+      <c r="D181" s="50"/>
       <c r="E181" s="28" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F181" s="10"/>
       <c r="G181" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="182" spans="2:7" x14ac:dyDescent="0.25">
@@ -6140,11 +6213,11 @@
         <v>19</v>
       </c>
       <c r="E182" s="28" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F182" s="10"/>
       <c r="G182" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="183" spans="2:7" x14ac:dyDescent="0.25">
@@ -6157,11 +6230,11 @@
         <v>20</v>
       </c>
       <c r="E183" s="28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F183" s="10"/>
       <c r="G183" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="184" spans="2:7" x14ac:dyDescent="0.25">
@@ -6170,7 +6243,7 @@
         <v>181</v>
       </c>
       <c r="C184" s="7"/>
-      <c r="D184" s="2" t="s">
+      <c r="D184" s="49" t="s">
         <v>11</v>
       </c>
       <c r="E184" s="32" t="s">
@@ -6178,7 +6251,7 @@
       </c>
       <c r="F184" s="25"/>
       <c r="G184" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.25">
@@ -6187,13 +6260,13 @@
         <v>182</v>
       </c>
       <c r="C185" s="9"/>
-      <c r="D185" s="12"/>
+      <c r="D185" s="48"/>
       <c r="E185" s="28" t="s">
         <v>67</v>
       </c>
       <c r="F185" s="10"/>
       <c r="G185" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="186" spans="2:7" x14ac:dyDescent="0.25">
@@ -6208,11 +6281,11 @@
         <v>1</v>
       </c>
       <c r="E186" s="29" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F186" s="15"/>
       <c r="G186" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.25">
@@ -6223,11 +6296,11 @@
       <c r="C187" s="7"/>
       <c r="D187" s="2"/>
       <c r="E187" s="30" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F187" s="22"/>
       <c r="G187" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.25">
@@ -6238,11 +6311,11 @@
       <c r="C188" s="7"/>
       <c r="D188" s="2"/>
       <c r="E188" s="30" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F188" s="22"/>
       <c r="G188" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.25">
@@ -6253,11 +6326,11 @@
       <c r="C189" s="7"/>
       <c r="D189" s="2"/>
       <c r="E189" s="30" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F189" s="22"/>
       <c r="G189" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="190" spans="2:7" x14ac:dyDescent="0.25">
@@ -6268,11 +6341,11 @@
       <c r="C190" s="7"/>
       <c r="D190" s="21"/>
       <c r="E190" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F190" s="10"/>
       <c r="G190" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="191" spans="2:7" x14ac:dyDescent="0.25">
@@ -6281,15 +6354,15 @@
         <v>188</v>
       </c>
       <c r="C191" s="7"/>
-      <c r="D191" s="21" t="s">
+      <c r="D191" s="50" t="s">
         <v>10</v>
       </c>
       <c r="E191" s="28" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F191" s="10"/>
       <c r="G191" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="192" spans="2:7" x14ac:dyDescent="0.25">
@@ -6302,11 +6375,11 @@
         <v>2</v>
       </c>
       <c r="E192" s="29" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F192" s="15"/>
       <c r="G192" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="193" spans="2:7" x14ac:dyDescent="0.25">
@@ -6317,11 +6390,11 @@
       <c r="C193" s="7"/>
       <c r="D193" s="2"/>
       <c r="E193" s="30" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F193" s="22"/>
       <c r="G193" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="194" spans="2:7" x14ac:dyDescent="0.25">
@@ -6332,11 +6405,11 @@
       <c r="C194" s="7"/>
       <c r="D194" s="2"/>
       <c r="E194" s="30" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F194" s="22"/>
       <c r="G194" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="195" spans="2:7" x14ac:dyDescent="0.25">
@@ -6347,11 +6420,11 @@
       <c r="C195" s="7"/>
       <c r="D195" s="2"/>
       <c r="E195" s="30" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F195" s="22"/>
       <c r="G195" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="196" spans="2:7" x14ac:dyDescent="0.25">
@@ -6362,11 +6435,11 @@
       <c r="C196" s="7"/>
       <c r="D196" s="2"/>
       <c r="E196" s="30" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F196" s="22"/>
       <c r="G196" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="197" spans="2:7" x14ac:dyDescent="0.25">
@@ -6377,11 +6450,11 @@
       <c r="C197" s="7"/>
       <c r="D197" s="2"/>
       <c r="E197" s="30" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F197" s="22"/>
       <c r="G197" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="198" spans="2:7" x14ac:dyDescent="0.25">
@@ -6392,11 +6465,11 @@
       <c r="C198" s="7"/>
       <c r="D198" s="2"/>
       <c r="E198" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F198" s="22"/>
       <c r="G198" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="199" spans="2:7" x14ac:dyDescent="0.25">
@@ -6407,11 +6480,11 @@
       <c r="C199" s="9"/>
       <c r="D199" s="12"/>
       <c r="E199" s="28" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F199" s="10"/>
       <c r="G199" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="200" spans="2:7" x14ac:dyDescent="0.25">
@@ -6430,7 +6503,7 @@
       </c>
       <c r="F200" s="15"/>
       <c r="G200" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="201" spans="2:7" x14ac:dyDescent="0.25">
@@ -6441,11 +6514,11 @@
       <c r="C201" s="7"/>
       <c r="D201" s="2"/>
       <c r="E201" s="30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F201" s="22"/>
       <c r="G201" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="202" spans="2:7" x14ac:dyDescent="0.25">
@@ -6456,11 +6529,11 @@
       <c r="C202" s="7"/>
       <c r="D202" s="2"/>
       <c r="E202" s="30" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F202" s="22"/>
       <c r="G202" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="203" spans="2:7" x14ac:dyDescent="0.25">
@@ -6471,11 +6544,11 @@
       <c r="C203" s="7"/>
       <c r="D203" s="2"/>
       <c r="E203" s="30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F203" s="22"/>
       <c r="G203" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="204" spans="2:7" x14ac:dyDescent="0.25">
@@ -6486,11 +6559,11 @@
       <c r="C204" s="7"/>
       <c r="D204" s="2"/>
       <c r="E204" s="30" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F204" s="22"/>
       <c r="G204" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="205" spans="2:7" x14ac:dyDescent="0.25">
@@ -6501,11 +6574,11 @@
       <c r="C205" s="7"/>
       <c r="D205" s="2"/>
       <c r="E205" s="30" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F205" s="22"/>
       <c r="G205" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="206" spans="2:7" x14ac:dyDescent="0.25">
@@ -6516,11 +6589,11 @@
       <c r="C206" s="7"/>
       <c r="D206" s="2"/>
       <c r="E206" s="30" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F206" s="22"/>
       <c r="G206" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="207" spans="2:7" x14ac:dyDescent="0.25">
@@ -6531,11 +6604,11 @@
       <c r="C207" s="7"/>
       <c r="D207" s="2"/>
       <c r="E207" s="30" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F207" s="22"/>
       <c r="G207" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="208" spans="2:7" x14ac:dyDescent="0.25">
@@ -6546,11 +6619,11 @@
       <c r="C208" s="7"/>
       <c r="D208" s="2"/>
       <c r="E208" s="30" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F208" s="22"/>
       <c r="G208" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="209" spans="2:7" x14ac:dyDescent="0.25">
@@ -6561,11 +6634,11 @@
       <c r="C209" s="7"/>
       <c r="D209" s="2"/>
       <c r="E209" s="30" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F209" s="22"/>
       <c r="G209" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="210" spans="2:7" x14ac:dyDescent="0.25">
@@ -6576,11 +6649,11 @@
       <c r="C210" s="9"/>
       <c r="D210" s="12"/>
       <c r="E210" s="28" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F210" s="10"/>
       <c r="G210" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="211" spans="2:7" x14ac:dyDescent="0.25">
@@ -6597,7 +6670,7 @@
       <c r="E211" s="28"/>
       <c r="F211" s="10"/>
       <c r="G211" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="212" spans="2:7" x14ac:dyDescent="0.25">
@@ -6606,7 +6679,7 @@
         <v>209</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>1</v>
@@ -6616,7 +6689,7 @@
       </c>
       <c r="F212" s="15"/>
       <c r="G212" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="213" spans="2:7" x14ac:dyDescent="0.25">
@@ -6631,7 +6704,7 @@
       </c>
       <c r="F213" s="22"/>
       <c r="G213" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="214" spans="2:7" x14ac:dyDescent="0.25">
@@ -6646,7 +6719,7 @@
       </c>
       <c r="F214" s="22"/>
       <c r="G214" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="215" spans="2:7" x14ac:dyDescent="0.25">
@@ -6661,7 +6734,7 @@
       </c>
       <c r="F215" s="10"/>
       <c r="G215" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="216" spans="2:7" x14ac:dyDescent="0.25">
@@ -6670,7 +6743,7 @@
         <v>213</v>
       </c>
       <c r="C216" s="7"/>
-      <c r="D216" s="2" t="s">
+      <c r="D216" s="49" t="s">
         <v>10</v>
       </c>
       <c r="E216" s="29" t="s">
@@ -6678,7 +6751,7 @@
       </c>
       <c r="F216" s="15"/>
       <c r="G216" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="217" spans="2:7" x14ac:dyDescent="0.25">
@@ -6687,13 +6760,13 @@
         <v>214</v>
       </c>
       <c r="C217" s="7"/>
-      <c r="D217" s="2"/>
+      <c r="D217" s="49"/>
       <c r="E217" s="30" t="s">
         <v>65</v>
       </c>
       <c r="F217" s="22"/>
       <c r="G217" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="218" spans="2:7" x14ac:dyDescent="0.25">
@@ -6702,13 +6775,13 @@
         <v>215</v>
       </c>
       <c r="C218" s="7"/>
-      <c r="D218" s="21"/>
+      <c r="D218" s="50"/>
       <c r="E218" s="28" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F218" s="10"/>
       <c r="G218" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="219" spans="2:7" x14ac:dyDescent="0.25">
@@ -6721,11 +6794,11 @@
         <v>5</v>
       </c>
       <c r="E219" s="29" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F219" s="15"/>
       <c r="G219" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="220" spans="2:7" x14ac:dyDescent="0.25">
@@ -6736,11 +6809,11 @@
       <c r="C220" s="7"/>
       <c r="D220" s="2"/>
       <c r="E220" s="30" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F220" s="22"/>
       <c r="G220" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="221" spans="2:7" x14ac:dyDescent="0.25">
@@ -6755,7 +6828,7 @@
       </c>
       <c r="F221" s="22"/>
       <c r="G221" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="222" spans="2:7" x14ac:dyDescent="0.25">
@@ -6766,11 +6839,11 @@
       <c r="C222" s="7"/>
       <c r="D222" s="2"/>
       <c r="E222" s="30" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F222" s="22"/>
       <c r="G222" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="223" spans="2:7" x14ac:dyDescent="0.25">
@@ -6781,11 +6854,11 @@
       <c r="C223" s="7"/>
       <c r="D223" s="2"/>
       <c r="E223" s="30" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F223" s="22"/>
       <c r="G223" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="224" spans="2:7" x14ac:dyDescent="0.25">
@@ -6796,11 +6869,11 @@
       <c r="C224" s="7"/>
       <c r="D224" s="2"/>
       <c r="E224" s="30" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F224" s="22"/>
       <c r="G224" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="225" spans="2:7" x14ac:dyDescent="0.25">
@@ -6811,11 +6884,11 @@
       <c r="C225" s="7"/>
       <c r="D225" s="2"/>
       <c r="E225" s="30" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F225" s="22"/>
       <c r="G225" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="226" spans="2:7" x14ac:dyDescent="0.25">
@@ -6826,11 +6899,11 @@
       <c r="C226" s="7"/>
       <c r="D226" s="2"/>
       <c r="E226" s="30" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F226" s="22"/>
       <c r="G226" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="227" spans="2:7" x14ac:dyDescent="0.25">
@@ -6841,11 +6914,11 @@
       <c r="C227" s="7"/>
       <c r="D227" s="2"/>
       <c r="E227" s="30" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F227" s="22"/>
       <c r="G227" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="228" spans="2:7" x14ac:dyDescent="0.25">
@@ -6856,11 +6929,11 @@
       <c r="C228" s="7"/>
       <c r="D228" s="2"/>
       <c r="E228" s="30" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F228" s="22"/>
       <c r="G228" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="229" spans="2:7" x14ac:dyDescent="0.25">
@@ -6871,11 +6944,11 @@
       <c r="C229" s="7"/>
       <c r="D229" s="2"/>
       <c r="E229" s="30" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F229" s="22"/>
       <c r="G229" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="230" spans="2:7" x14ac:dyDescent="0.25">
@@ -6886,11 +6959,11 @@
       <c r="C230" s="7"/>
       <c r="D230" s="2"/>
       <c r="E230" s="30" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F230" s="22"/>
       <c r="G230" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="231" spans="2:7" x14ac:dyDescent="0.25">
@@ -6901,11 +6974,11 @@
       <c r="C231" s="7"/>
       <c r="D231" s="2"/>
       <c r="E231" s="30" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F231" s="22"/>
       <c r="G231" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="232" spans="2:7" x14ac:dyDescent="0.25">
@@ -6916,11 +6989,11 @@
       <c r="C232" s="7"/>
       <c r="D232" s="2"/>
       <c r="E232" s="30" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F232" s="22"/>
       <c r="G232" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="233" spans="2:7" x14ac:dyDescent="0.25">
@@ -6931,11 +7004,11 @@
       <c r="C233" s="7"/>
       <c r="D233" s="2"/>
       <c r="E233" s="30" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F233" s="22"/>
       <c r="G233" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="234" spans="2:7" x14ac:dyDescent="0.25">
@@ -6946,11 +7019,11 @@
       <c r="C234" s="7"/>
       <c r="D234" s="2"/>
       <c r="E234" s="30" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F234" s="22"/>
       <c r="G234" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="235" spans="2:7" x14ac:dyDescent="0.25">
@@ -6961,11 +7034,11 @@
       <c r="C235" s="7"/>
       <c r="D235" s="21"/>
       <c r="E235" s="28" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F235" s="10"/>
       <c r="G235" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="236" spans="2:7" x14ac:dyDescent="0.25">
@@ -6978,11 +7051,11 @@
         <v>18</v>
       </c>
       <c r="E236" s="28" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F236" s="10"/>
       <c r="G236" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="237" spans="2:7" x14ac:dyDescent="0.25">
@@ -6997,11 +7070,11 @@
         <v>1</v>
       </c>
       <c r="E237" s="29" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F237" s="15"/>
       <c r="G237" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="238" spans="2:7" x14ac:dyDescent="0.25">
@@ -7016,7 +7089,7 @@
       </c>
       <c r="F238" s="22"/>
       <c r="G238" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="239" spans="2:7" x14ac:dyDescent="0.25">
@@ -7027,11 +7100,11 @@
       <c r="C239" s="7"/>
       <c r="D239" s="2"/>
       <c r="E239" s="30" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F239" s="22"/>
       <c r="G239" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="240" spans="2:7" x14ac:dyDescent="0.25">
@@ -7042,11 +7115,11 @@
       <c r="C240" s="7"/>
       <c r="D240" s="2"/>
       <c r="E240" s="30" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F240" s="22"/>
       <c r="G240" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="241" spans="2:7" x14ac:dyDescent="0.25">
@@ -7057,11 +7130,11 @@
       <c r="C241" s="7"/>
       <c r="D241" s="2"/>
       <c r="E241" s="30" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F241" s="22"/>
       <c r="G241" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="242" spans="2:7" x14ac:dyDescent="0.25">
@@ -7076,7 +7149,7 @@
       </c>
       <c r="F242" s="22"/>
       <c r="G242" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="243" spans="2:7" x14ac:dyDescent="0.25">
@@ -7091,7 +7164,7 @@
       </c>
       <c r="F243" s="22"/>
       <c r="G243" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="244" spans="2:7" x14ac:dyDescent="0.25">
@@ -7102,11 +7175,11 @@
       <c r="C244" s="7"/>
       <c r="D244" s="2"/>
       <c r="E244" s="30" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F244" s="22"/>
       <c r="G244" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="245" spans="2:7" x14ac:dyDescent="0.25">
@@ -7121,7 +7194,7 @@
       </c>
       <c r="F245" s="22"/>
       <c r="G245" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="246" spans="2:7" x14ac:dyDescent="0.25">
@@ -7136,7 +7209,7 @@
       </c>
       <c r="F246" s="22"/>
       <c r="G246" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="247" spans="2:7" x14ac:dyDescent="0.25">
@@ -7147,11 +7220,11 @@
       <c r="C247" s="7"/>
       <c r="D247" s="2"/>
       <c r="E247" s="30" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F247" s="22"/>
       <c r="G247" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="248" spans="2:7" x14ac:dyDescent="0.25">
@@ -7162,11 +7235,11 @@
       <c r="C248" s="7"/>
       <c r="D248" s="2"/>
       <c r="E248" s="30" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F248" s="22"/>
       <c r="G248" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="249" spans="2:7" x14ac:dyDescent="0.25">
@@ -7181,7 +7254,7 @@
       </c>
       <c r="F249" s="22"/>
       <c r="G249" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="250" spans="2:7" x14ac:dyDescent="0.25">
@@ -7196,7 +7269,7 @@
       </c>
       <c r="F250" s="22"/>
       <c r="G250" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="251" spans="2:7" x14ac:dyDescent="0.25">
@@ -7207,11 +7280,11 @@
       <c r="C251" s="7"/>
       <c r="D251" s="2"/>
       <c r="E251" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F251" s="22"/>
       <c r="G251" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="252" spans="2:7" x14ac:dyDescent="0.25">
@@ -7222,11 +7295,11 @@
       <c r="C252" s="7"/>
       <c r="D252" s="2"/>
       <c r="E252" s="30" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F252" s="22"/>
       <c r="G252" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="253" spans="2:7" x14ac:dyDescent="0.25">
@@ -7241,7 +7314,7 @@
       </c>
       <c r="F253" s="10"/>
       <c r="G253" s="46" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="254" spans="2:7" x14ac:dyDescent="0.25">
@@ -7250,15 +7323,15 @@
         <v>251</v>
       </c>
       <c r="C254" s="7"/>
-      <c r="D254" s="21" t="s">
+      <c r="D254" s="50" t="s">
         <v>10</v>
       </c>
       <c r="E254" s="28" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F254" s="10"/>
       <c r="G254" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="255" spans="2:7" x14ac:dyDescent="0.25">
@@ -7271,7 +7344,7 @@
         <v>8</v>
       </c>
       <c r="E255" s="28" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F255" s="10"/>
       <c r="G255" s="46" t="s">
@@ -7288,11 +7361,11 @@
         <v>2</v>
       </c>
       <c r="E256" s="29" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F256" s="15"/>
       <c r="G256" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="257" spans="2:7" x14ac:dyDescent="0.25">
@@ -7303,11 +7376,11 @@
       <c r="C257" s="7"/>
       <c r="D257" s="2"/>
       <c r="E257" s="30" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F257" s="22"/>
       <c r="G257" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="258" spans="2:7" x14ac:dyDescent="0.25">
@@ -7318,11 +7391,11 @@
       <c r="C258" s="7"/>
       <c r="D258" s="2"/>
       <c r="E258" s="30" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F258" s="22"/>
       <c r="G258" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="259" spans="2:7" x14ac:dyDescent="0.25">
@@ -7333,11 +7406,11 @@
       <c r="C259" s="7"/>
       <c r="D259" s="2"/>
       <c r="E259" s="30" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F259" s="22"/>
       <c r="G259" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="260" spans="2:7" x14ac:dyDescent="0.25">
@@ -7348,11 +7421,11 @@
       <c r="C260" s="7"/>
       <c r="D260" s="2"/>
       <c r="E260" s="30" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F260" s="22"/>
       <c r="G260" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="261" spans="2:7" x14ac:dyDescent="0.25">
@@ -7363,11 +7436,11 @@
       <c r="C261" s="7"/>
       <c r="D261" s="2"/>
       <c r="E261" s="30" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F261" s="22"/>
       <c r="G261" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="262" spans="2:7" x14ac:dyDescent="0.25">
@@ -7378,11 +7451,11 @@
       <c r="C262" s="7"/>
       <c r="D262" s="2"/>
       <c r="E262" s="30" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F262" s="22"/>
       <c r="G262" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="263" spans="2:7" x14ac:dyDescent="0.25">
@@ -7393,11 +7466,11 @@
       <c r="C263" s="7"/>
       <c r="D263" s="2"/>
       <c r="E263" s="30" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F263" s="22"/>
       <c r="G263" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="264" spans="2:7" x14ac:dyDescent="0.25">
@@ -7408,11 +7481,11 @@
       <c r="C264" s="7"/>
       <c r="D264" s="2"/>
       <c r="E264" s="30" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F264" s="22"/>
       <c r="G264" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="265" spans="2:7" x14ac:dyDescent="0.25">
@@ -7423,11 +7496,11 @@
       <c r="C265" s="7"/>
       <c r="D265" s="2"/>
       <c r="E265" s="30" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F265" s="22"/>
       <c r="G265" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="266" spans="2:7" x14ac:dyDescent="0.25">
@@ -7438,11 +7511,11 @@
       <c r="C266" s="7"/>
       <c r="D266" s="2"/>
       <c r="E266" s="30" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F266" s="22"/>
       <c r="G266" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="267" spans="2:7" x14ac:dyDescent="0.25">
@@ -7453,11 +7526,11 @@
       <c r="C267" s="7"/>
       <c r="D267" s="2"/>
       <c r="E267" s="30" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F267" s="22"/>
       <c r="G267" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.25">
@@ -7468,11 +7541,11 @@
       <c r="C268" s="7"/>
       <c r="D268" s="2"/>
       <c r="E268" s="30" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F268" s="22"/>
       <c r="G268" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="269" spans="2:7" x14ac:dyDescent="0.25">
@@ -7483,11 +7556,11 @@
       <c r="C269" s="7"/>
       <c r="D269" s="2"/>
       <c r="E269" s="30" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F269" s="22"/>
       <c r="G269" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="270" spans="2:7" x14ac:dyDescent="0.25">
@@ -7498,11 +7571,11 @@
       <c r="C270" s="7"/>
       <c r="D270" s="2"/>
       <c r="E270" s="30" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F270" s="22"/>
       <c r="G270" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="271" spans="2:7" x14ac:dyDescent="0.25">
@@ -7513,11 +7586,11 @@
       <c r="C271" s="7"/>
       <c r="D271" s="2"/>
       <c r="E271" s="30" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F271" s="22"/>
       <c r="G271" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="272" spans="2:7" x14ac:dyDescent="0.25">
@@ -7528,11 +7601,11 @@
       <c r="C272" s="7"/>
       <c r="D272" s="2"/>
       <c r="E272" s="30" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F272" s="22"/>
       <c r="G272" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="273" spans="2:7" x14ac:dyDescent="0.25">
@@ -7543,11 +7616,11 @@
       <c r="C273" s="7"/>
       <c r="D273" s="2"/>
       <c r="E273" s="30" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F273" s="22"/>
       <c r="G273" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="274" spans="2:7" x14ac:dyDescent="0.25">
@@ -7558,11 +7631,11 @@
       <c r="C274" s="7"/>
       <c r="D274" s="2"/>
       <c r="E274" s="30" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F274" s="22"/>
       <c r="G274" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="275" spans="2:7" x14ac:dyDescent="0.25">
@@ -7573,11 +7646,11 @@
       <c r="C275" s="7"/>
       <c r="D275" s="2"/>
       <c r="E275" s="30" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F275" s="22"/>
       <c r="G275" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="276" spans="2:7" x14ac:dyDescent="0.25">
@@ -7588,11 +7661,11 @@
       <c r="C276" s="7"/>
       <c r="D276" s="2"/>
       <c r="E276" s="30" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F276" s="22"/>
       <c r="G276" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="277" spans="2:7" x14ac:dyDescent="0.25">
@@ -7603,11 +7676,11 @@
       <c r="C277" s="7"/>
       <c r="D277" s="2"/>
       <c r="E277" s="30" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F277" s="22"/>
       <c r="G277" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="278" spans="2:7" x14ac:dyDescent="0.25">
@@ -7618,11 +7691,11 @@
       <c r="C278" s="7"/>
       <c r="D278" s="2"/>
       <c r="E278" s="30" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F278" s="22"/>
       <c r="G278" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="279" spans="2:7" x14ac:dyDescent="0.25">
@@ -7633,11 +7706,11 @@
       <c r="C279" s="7"/>
       <c r="D279" s="2"/>
       <c r="E279" s="30" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F279" s="22"/>
       <c r="G279" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="280" spans="2:7" x14ac:dyDescent="0.25">
@@ -7648,11 +7721,11 @@
       <c r="C280" s="7"/>
       <c r="D280" s="2"/>
       <c r="E280" s="30" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F280" s="22"/>
       <c r="G280" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="281" spans="2:7" x14ac:dyDescent="0.25">
@@ -7663,11 +7736,11 @@
       <c r="C281" s="7"/>
       <c r="D281" s="2"/>
       <c r="E281" s="30" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F281" s="22"/>
       <c r="G281" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="282" spans="2:7" x14ac:dyDescent="0.25">
@@ -7678,11 +7751,11 @@
       <c r="C282" s="7"/>
       <c r="D282" s="2"/>
       <c r="E282" s="30" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F282" s="22"/>
       <c r="G282" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="283" spans="2:7" x14ac:dyDescent="0.25">
@@ -7693,11 +7766,11 @@
       <c r="C283" s="7"/>
       <c r="D283" s="2"/>
       <c r="E283" s="30" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F283" s="22"/>
       <c r="G283" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="284" spans="2:7" x14ac:dyDescent="0.25">
@@ -7708,11 +7781,11 @@
       <c r="C284" s="7"/>
       <c r="D284" s="2"/>
       <c r="E284" s="30" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F284" s="22"/>
       <c r="G284" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="285" spans="2:7" x14ac:dyDescent="0.25">
@@ -7723,11 +7796,11 @@
       <c r="C285" s="7"/>
       <c r="D285" s="2"/>
       <c r="E285" s="30" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F285" s="22"/>
       <c r="G285" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="286" spans="2:7" x14ac:dyDescent="0.25">
@@ -7738,11 +7811,11 @@
       <c r="C286" s="7"/>
       <c r="D286" s="2"/>
       <c r="E286" s="30" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F286" s="22"/>
       <c r="G286" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="287" spans="2:7" x14ac:dyDescent="0.25">
@@ -7753,11 +7826,11 @@
       <c r="C287" s="7"/>
       <c r="D287" s="2"/>
       <c r="E287" s="30" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F287" s="22"/>
       <c r="G287" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="288" spans="2:7" x14ac:dyDescent="0.25">
@@ -7768,11 +7841,11 @@
       <c r="C288" s="7"/>
       <c r="D288" s="16"/>
       <c r="E288" s="30" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F288" s="22"/>
       <c r="G288" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="289" spans="2:7" x14ac:dyDescent="0.25">
@@ -7783,11 +7856,11 @@
       <c r="C289" s="7"/>
       <c r="D289" s="2"/>
       <c r="E289" s="30" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F289" s="22"/>
       <c r="G289" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="290" spans="2:7" x14ac:dyDescent="0.25">
@@ -7798,11 +7871,11 @@
       <c r="C290" s="7"/>
       <c r="D290" s="2"/>
       <c r="E290" s="30" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F290" s="22"/>
       <c r="G290" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="291" spans="2:7" x14ac:dyDescent="0.25">
@@ -7813,11 +7886,11 @@
       <c r="C291" s="7"/>
       <c r="D291" s="2"/>
       <c r="E291" s="30" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F291" s="22"/>
       <c r="G291" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="292" spans="2:7" x14ac:dyDescent="0.25">
@@ -7828,11 +7901,11 @@
       <c r="C292" s="7"/>
       <c r="D292" s="2"/>
       <c r="E292" s="30" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F292" s="22"/>
       <c r="G292" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="293" spans="2:7" x14ac:dyDescent="0.25">
@@ -7843,11 +7916,11 @@
       <c r="C293" s="7"/>
       <c r="D293" s="2"/>
       <c r="E293" s="30" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F293" s="22"/>
       <c r="G293" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="294" spans="2:7" x14ac:dyDescent="0.25">
@@ -7858,11 +7931,11 @@
       <c r="C294" s="7"/>
       <c r="D294" s="2"/>
       <c r="E294" s="30" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F294" s="22"/>
       <c r="G294" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="295" spans="2:7" x14ac:dyDescent="0.25">
@@ -7877,7 +7950,7 @@
       </c>
       <c r="F295" s="22"/>
       <c r="G295" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="296" spans="2:7" x14ac:dyDescent="0.25">
@@ -7888,11 +7961,11 @@
       <c r="C296" s="7"/>
       <c r="D296" s="21"/>
       <c r="E296" s="28" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F296" s="10"/>
       <c r="G296" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="297" spans="2:7" x14ac:dyDescent="0.25">
@@ -7905,11 +7978,11 @@
         <v>5</v>
       </c>
       <c r="E297" s="29" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F297" s="15"/>
       <c r="G297" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="298" spans="2:7" x14ac:dyDescent="0.25">
@@ -7920,11 +7993,11 @@
       <c r="C298" s="7"/>
       <c r="D298" s="2"/>
       <c r="E298" s="30" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F298" s="22"/>
       <c r="G298" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="299" spans="2:7" x14ac:dyDescent="0.25">
@@ -7935,11 +8008,11 @@
       <c r="C299" s="7"/>
       <c r="D299" s="2"/>
       <c r="E299" s="30" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F299" s="22"/>
       <c r="G299" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="300" spans="2:7" x14ac:dyDescent="0.25">
@@ -7950,11 +8023,11 @@
       <c r="C300" s="7"/>
       <c r="D300" s="2"/>
       <c r="E300" s="30" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F300" s="22"/>
       <c r="G300" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="301" spans="2:7" x14ac:dyDescent="0.25">
@@ -7965,11 +8038,11 @@
       <c r="C301" s="7"/>
       <c r="D301" s="2"/>
       <c r="E301" s="30" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F301" s="22"/>
       <c r="G301" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="302" spans="2:7" x14ac:dyDescent="0.25">
@@ -7980,11 +8053,11 @@
       <c r="C302" s="7"/>
       <c r="D302" s="2"/>
       <c r="E302" s="30" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F302" s="22"/>
       <c r="G302" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="303" spans="2:7" x14ac:dyDescent="0.25">
@@ -7995,11 +8068,11 @@
       <c r="C303" s="7"/>
       <c r="D303" s="2"/>
       <c r="E303" s="30" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F303" s="22"/>
       <c r="G303" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="304" spans="2:7" x14ac:dyDescent="0.25">
@@ -8010,11 +8083,11 @@
       <c r="C304" s="7"/>
       <c r="D304" s="2"/>
       <c r="E304" s="30" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F304" s="22"/>
       <c r="G304" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="305" spans="2:7" x14ac:dyDescent="0.25">
@@ -8025,11 +8098,11 @@
       <c r="C305" s="7"/>
       <c r="D305" s="2"/>
       <c r="E305" s="30" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F305" s="22"/>
       <c r="G305" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="306" spans="2:7" x14ac:dyDescent="0.25">
@@ -8040,11 +8113,11 @@
       <c r="C306" s="7"/>
       <c r="D306" s="2"/>
       <c r="E306" s="30" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F306" s="22"/>
       <c r="G306" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="307" spans="2:7" x14ac:dyDescent="0.25">
@@ -8055,11 +8128,11 @@
       <c r="C307" s="7"/>
       <c r="D307" s="2"/>
       <c r="E307" s="30" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F307" s="22"/>
       <c r="G307" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="308" spans="2:7" x14ac:dyDescent="0.25">
@@ -8070,11 +8143,11 @@
       <c r="C308" s="7"/>
       <c r="D308" s="2"/>
       <c r="E308" s="30" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F308" s="22"/>
       <c r="G308" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="309" spans="2:7" x14ac:dyDescent="0.25">
@@ -8085,11 +8158,11 @@
       <c r="C309" s="7"/>
       <c r="D309" s="2"/>
       <c r="E309" s="30" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F309" s="22"/>
       <c r="G309" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="310" spans="2:7" x14ac:dyDescent="0.25">
@@ -8100,11 +8173,11 @@
       <c r="C310" s="7"/>
       <c r="D310" s="2"/>
       <c r="E310" s="30" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F310" s="22"/>
       <c r="G310" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="311" spans="2:7" x14ac:dyDescent="0.25">
@@ -8115,11 +8188,11 @@
       <c r="C311" s="7"/>
       <c r="D311" s="2"/>
       <c r="E311" s="30" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F311" s="22"/>
       <c r="G311" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="312" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -8130,11 +8203,11 @@
       <c r="C312" s="7"/>
       <c r="D312" s="2"/>
       <c r="E312" s="30" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F312" s="22"/>
       <c r="G312" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="313" spans="2:7" x14ac:dyDescent="0.25">

--- a/Doc/1.SA/調査/リンク先テーブル調査.xlsx
+++ b/Doc/1.SA/調査/リンク先テーブル調査.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4800" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="6000" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="社内" sheetId="4" r:id="rId1"/>
@@ -1354,7 +1354,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1379,6 +1379,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="34">
     <border>
@@ -1793,7 +1799,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1954,6 +1960,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4065,7 +4074,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="54" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -4116,7 +4125,7 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="54" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -4216,7 +4225,7 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="54" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="21" t="s">

--- a/Doc/1.SA/調査/リンク先テーブル調査.xlsx
+++ b/Doc/1.SA/調査/リンク先テーブル調査.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6000" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="7800" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="社内" sheetId="4" r:id="rId1"/>
@@ -1331,7 +1331,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1351,6 +1351,14 @@
       <color rgb="FFFF0000"/>
       <name val="Meiryo UI"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1799,7 +1807,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1876,9 +1884,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
@@ -1963,6 +1968,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2272,10 +2292,10 @@
       <c r="C3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="37"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="18" t="s">
         <v>28</v>
       </c>
@@ -2285,79 +2305,79 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="39" t="s">
         <v>285</v>
       </c>
-      <c r="F4" s="41"/>
+      <c r="F4" s="40"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <f t="shared" ref="B5:B72" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="29" t="s">
         <v>286</v>
       </c>
       <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="33">
+      <c r="B6" s="32">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="16"/>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="29" t="s">
         <v>287</v>
       </c>
       <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="16"/>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="29" t="s">
         <v>288</v>
       </c>
       <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="33">
+      <c r="B8" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="29" t="s">
         <v>57</v>
       </c>
       <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>289</v>
       </c>
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="45">
+      <c r="B10" s="44">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2367,445 +2387,445 @@
       <c r="D10" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="28" t="s">
         <v>292</v>
       </c>
       <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="29" t="s">
         <v>293</v>
       </c>
       <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="33">
+      <c r="B12" s="32">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>294</v>
       </c>
       <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="33">
+      <c r="B13" s="32">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="29" t="s">
         <v>295</v>
       </c>
       <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="33">
+      <c r="B14" s="32">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="29" t="s">
         <v>296</v>
       </c>
       <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="33">
+      <c r="B15" s="32">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="29" t="s">
         <v>297</v>
       </c>
       <c r="F15" s="22"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="33">
+      <c r="B16" s="32">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="29" t="s">
         <v>298</v>
       </c>
       <c r="F16" s="22"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="33">
+      <c r="B17" s="32">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="29" t="s">
         <v>299</v>
       </c>
       <c r="F17" s="22"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="33">
+      <c r="B18" s="32">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="29" t="s">
         <v>300</v>
       </c>
       <c r="F18" s="22"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="33">
+      <c r="B19" s="32">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="29" t="s">
         <v>301</v>
       </c>
       <c r="F19" s="22"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="33">
+      <c r="B20" s="32">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="29" t="s">
         <v>302</v>
       </c>
       <c r="F20" s="22"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="33">
+      <c r="B21" s="32">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="29" t="s">
         <v>303</v>
       </c>
       <c r="F21" s="22"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="33">
+      <c r="B22" s="32">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="29" t="s">
         <v>304</v>
       </c>
       <c r="F22" s="22"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="33">
+      <c r="B23" s="32">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="29" t="s">
         <v>305</v>
       </c>
       <c r="F23" s="22"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="33">
+      <c r="B24" s="32">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="29" t="s">
         <v>306</v>
       </c>
       <c r="F24" s="22"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="33">
+      <c r="B25" s="32">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="29" t="s">
         <v>307</v>
       </c>
       <c r="F25" s="22"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="33">
+      <c r="B26" s="32">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="29" t="s">
         <v>132</v>
       </c>
       <c r="F26" s="22"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="33">
+      <c r="B27" s="32">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="29" t="s">
         <v>308</v>
       </c>
       <c r="F27" s="22"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="33">
+      <c r="B28" s="32">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="29" t="s">
         <v>133</v>
       </c>
       <c r="F28" s="22"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="33">
+      <c r="B29" s="32">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="29" t="s">
         <v>134</v>
       </c>
       <c r="F29" s="22"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="33">
+      <c r="B30" s="32">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="29" t="s">
         <v>309</v>
       </c>
       <c r="F30" s="22"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="33">
+      <c r="B31" s="32">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="29" t="s">
         <v>310</v>
       </c>
       <c r="F31" s="22"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="33">
+      <c r="B32" s="32">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="29" t="s">
         <v>311</v>
       </c>
       <c r="F32" s="22"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="33">
+      <c r="B33" s="32">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="29" t="s">
         <v>312</v>
       </c>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="33">
+      <c r="B34" s="32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="29" t="s">
         <v>313</v>
       </c>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="33">
+      <c r="B35" s="32">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="29" t="s">
         <v>314</v>
       </c>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="33">
+      <c r="B36" s="32">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="30" t="s">
+      <c r="E36" s="29" t="s">
         <v>315</v>
       </c>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="33">
+      <c r="B37" s="32">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="30" t="s">
+      <c r="E37" s="29" t="s">
         <v>316</v>
       </c>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="33">
+      <c r="B38" s="32">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="29" t="s">
         <v>317</v>
       </c>
       <c r="F38" s="22"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="33">
+      <c r="B39" s="32">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="30" t="s">
+      <c r="E39" s="29" t="s">
         <v>318</v>
       </c>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="33">
+      <c r="B40" s="32">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="30" t="s">
+      <c r="E40" s="29" t="s">
         <v>319</v>
       </c>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="33">
+      <c r="B41" s="32">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="30" t="s">
+      <c r="E41" s="29" t="s">
         <v>320</v>
       </c>
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="33">
+      <c r="B42" s="32">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="30" t="s">
+      <c r="E42" s="29" t="s">
         <v>321</v>
       </c>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="33">
+      <c r="B43" s="32">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="30" t="s">
+      <c r="E43" s="29" t="s">
         <v>322</v>
       </c>
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="33">
+      <c r="B44" s="32">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="16"/>
-      <c r="E44" s="30" t="s">
+      <c r="E44" s="29" t="s">
         <v>323</v>
       </c>
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="33">
+      <c r="B45" s="32">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="30" t="s">
+      <c r="E45" s="29" t="s">
         <v>150</v>
       </c>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="33">
+      <c r="B46" s="32">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="12"/>
-      <c r="E46" s="28" t="s">
+      <c r="E46" s="27" t="s">
         <v>55</v>
       </c>
       <c r="F46" s="10"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="45">
+      <c r="B47" s="44">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
@@ -2815,49 +2835,49 @@
       <c r="D47" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="E47" s="29" t="s">
+      <c r="E47" s="28" t="s">
         <v>325</v>
       </c>
       <c r="F47" s="15"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="33">
+      <c r="B48" s="32">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="16"/>
-      <c r="E48" s="30" t="s">
+      <c r="E48" s="29" t="s">
         <v>326</v>
       </c>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="33">
+      <c r="B49" s="32">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="30" t="s">
+      <c r="E49" s="29" t="s">
         <v>327</v>
       </c>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="33">
+      <c r="B50" s="32">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="21"/>
-      <c r="E50" s="28" t="s">
+      <c r="E50" s="27" t="s">
         <v>276</v>
       </c>
       <c r="F50" s="10"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="33">
+      <c r="B51" s="32">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -2865,37 +2885,37 @@
       <c r="D51" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E51" s="29" t="s">
+      <c r="E51" s="28" t="s">
         <v>179</v>
       </c>
       <c r="F51" s="15"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="33">
+      <c r="B52" s="32">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="30" t="s">
+      <c r="E52" s="29" t="s">
         <v>286</v>
       </c>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="33">
+      <c r="B53" s="32">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="21"/>
-      <c r="E53" s="28" t="s">
+      <c r="E53" s="27" t="s">
         <v>288</v>
       </c>
       <c r="F53" s="10"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="45">
+      <c r="B54" s="44">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
@@ -2905,61 +2925,61 @@
       <c r="D54" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E54" s="29" t="s">
+      <c r="E54" s="28" t="s">
         <v>75</v>
       </c>
       <c r="F54" s="15"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="33">
+      <c r="B55" s="32">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="30" t="s">
+      <c r="E55" s="29" t="s">
         <v>338</v>
       </c>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="33">
+      <c r="B56" s="32">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="30" t="s">
+      <c r="E56" s="29" t="s">
         <v>339</v>
       </c>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="33">
+      <c r="B57" s="32">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="30" t="s">
+      <c r="E57" s="29" t="s">
         <v>343</v>
       </c>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="33">
+      <c r="B58" s="32">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="21"/>
-      <c r="E58" s="28" t="s">
+      <c r="E58" s="27" t="s">
         <v>344</v>
       </c>
       <c r="F58" s="10"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="33">
+      <c r="B59" s="32">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
@@ -2967,241 +2987,241 @@
       <c r="D59" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E59" s="29" t="s">
+      <c r="E59" s="28" t="s">
         <v>329</v>
       </c>
       <c r="F59" s="15"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="33">
+      <c r="B60" s="32">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="30" t="s">
+      <c r="E60" s="29" t="s">
         <v>330</v>
       </c>
       <c r="F60" s="22"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="33">
+      <c r="B61" s="32">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="30" t="s">
+      <c r="E61" s="29" t="s">
         <v>331</v>
       </c>
       <c r="F61" s="22"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="33">
+      <c r="B62" s="32">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="30" t="s">
+      <c r="E62" s="29" t="s">
         <v>332</v>
       </c>
       <c r="F62" s="22"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="33">
+      <c r="B63" s="32">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="30" t="s">
+      <c r="E63" s="29" t="s">
         <v>179</v>
       </c>
       <c r="F63" s="22"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="33">
+      <c r="B64" s="32">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="30" t="s">
+      <c r="E64" s="29" t="s">
         <v>285</v>
       </c>
       <c r="F64" s="22"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="33">
+      <c r="B65" s="32">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="30" t="s">
+      <c r="E65" s="29" t="s">
         <v>333</v>
       </c>
       <c r="F65" s="22"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="33">
+      <c r="B66" s="32">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="30" t="s">
+      <c r="E66" s="29" t="s">
         <v>334</v>
       </c>
       <c r="F66" s="22"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="33">
+      <c r="B67" s="32">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="30" t="s">
+      <c r="E67" s="29" t="s">
         <v>335</v>
       </c>
       <c r="F67" s="22"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="33">
+      <c r="B68" s="32">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="30" t="s">
+      <c r="E68" s="29" t="s">
         <v>308</v>
       </c>
       <c r="F68" s="22"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="33">
+      <c r="B69" s="32">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="30" t="s">
+      <c r="E69" s="29" t="s">
         <v>133</v>
       </c>
       <c r="F69" s="22"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="33">
+      <c r="B70" s="32">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="30" t="s">
+      <c r="E70" s="29" t="s">
         <v>134</v>
       </c>
       <c r="F70" s="22"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="33">
+      <c r="B71" s="32">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="30" t="s">
+      <c r="E71" s="29" t="s">
         <v>336</v>
       </c>
       <c r="F71" s="22"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="33">
+      <c r="B72" s="32">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="30" t="s">
+      <c r="E72" s="29" t="s">
         <v>337</v>
       </c>
       <c r="F72" s="22"/>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="33">
+      <c r="B73" s="32">
         <f t="shared" ref="B73:B95" si="1">ROW()-3</f>
         <v>70</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="30" t="s">
+      <c r="E73" s="29" t="s">
         <v>340</v>
       </c>
       <c r="F73" s="22"/>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="33">
+      <c r="B74" s="32">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="30" t="s">
+      <c r="E74" s="29" t="s">
         <v>341</v>
       </c>
       <c r="F74" s="22"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="33">
+      <c r="B75" s="32">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="2"/>
-      <c r="E75" s="30" t="s">
+      <c r="E75" s="29" t="s">
         <v>342</v>
       </c>
       <c r="F75" s="22"/>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="33">
+      <c r="B76" s="32">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="30" t="s">
+      <c r="E76" s="29" t="s">
         <v>345</v>
       </c>
       <c r="F76" s="22"/>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="33">
+      <c r="B77" s="32">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="16"/>
-      <c r="E77" s="30" t="s">
+      <c r="E77" s="29" t="s">
         <v>55</v>
       </c>
       <c r="F77" s="22"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="33">
+      <c r="B78" s="32">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="12"/>
-      <c r="E78" s="28" t="s">
+      <c r="E78" s="27" t="s">
         <v>346</v>
       </c>
       <c r="F78" s="10"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="45">
+      <c r="B79" s="44">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
@@ -3211,11 +3231,11 @@
       <c r="D79" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E79" s="28"/>
+      <c r="E79" s="27"/>
       <c r="F79" s="10"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" s="45">
+      <c r="B80" s="44">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
@@ -3225,13 +3245,13 @@
       <c r="D80" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E80" s="28" t="s">
+      <c r="E80" s="27" t="s">
         <v>38</v>
       </c>
       <c r="F80" s="10"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B81" s="33">
+      <c r="B81" s="32">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
@@ -3239,157 +3259,157 @@
       <c r="D81" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E81" s="29" t="s">
+      <c r="E81" s="28" t="s">
         <v>349</v>
       </c>
       <c r="F81" s="15"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="33">
+      <c r="B82" s="32">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="16"/>
-      <c r="E82" s="30" t="s">
+      <c r="E82" s="29" t="s">
         <v>350</v>
       </c>
       <c r="F82" s="22"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="33">
+      <c r="B83" s="32">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="2"/>
-      <c r="E83" s="30" t="s">
+      <c r="E83" s="29" t="s">
         <v>351</v>
       </c>
       <c r="F83" s="22"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="33">
+      <c r="B84" s="32">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="2"/>
-      <c r="E84" s="30" t="s">
+      <c r="E84" s="29" t="s">
         <v>352</v>
       </c>
       <c r="F84" s="22"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B85" s="33">
+      <c r="B85" s="32">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="30" t="s">
+      <c r="E85" s="29" t="s">
         <v>353</v>
       </c>
       <c r="F85" s="22"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="33">
+      <c r="B86" s="32">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="2"/>
-      <c r="E86" s="30" t="s">
+      <c r="E86" s="29" t="s">
         <v>354</v>
       </c>
       <c r="F86" s="22"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="33">
+      <c r="B87" s="32">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="30" t="s">
+      <c r="E87" s="29" t="s">
         <v>355</v>
       </c>
       <c r="F87" s="22"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="33">
+      <c r="B88" s="32">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="30" t="s">
+      <c r="E88" s="29" t="s">
         <v>196</v>
       </c>
       <c r="F88" s="22"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="33">
+      <c r="B89" s="32">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="30" t="s">
+      <c r="E89" s="29" t="s">
         <v>57</v>
       </c>
       <c r="F89" s="22"/>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="33">
+      <c r="B90" s="32">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="30" t="s">
+      <c r="E90" s="29" t="s">
         <v>356</v>
       </c>
       <c r="F90" s="22"/>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="33">
+      <c r="B91" s="32">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="2"/>
-      <c r="E91" s="30" t="s">
+      <c r="E91" s="29" t="s">
         <v>357</v>
       </c>
       <c r="F91" s="22"/>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="33">
+      <c r="B92" s="32">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="2"/>
-      <c r="E92" s="30" t="s">
+      <c r="E92" s="29" t="s">
         <v>276</v>
       </c>
       <c r="F92" s="22"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="33">
+      <c r="B93" s="32">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="12"/>
-      <c r="E93" s="28" t="s">
+      <c r="E93" s="27" t="s">
         <v>358</v>
       </c>
       <c r="F93" s="10"/>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="45">
+      <c r="B94" s="44">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
@@ -3399,19 +3419,19 @@
       <c r="D94" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E94" s="32" t="s">
+      <c r="E94" s="31" t="s">
         <v>360</v>
       </c>
       <c r="F94" s="25"/>
     </row>
     <row r="95" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="42">
+      <c r="B95" s="41">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="C95" s="8"/>
-      <c r="D95" s="43"/>
-      <c r="E95" s="44" t="s">
+      <c r="D95" s="42"/>
+      <c r="E95" s="43" t="s">
         <v>75</v>
       </c>
       <c r="F95" s="4"/>
@@ -3460,10 +3480,10 @@
       <c r="C3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="37"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="18" t="s">
         <v>28</v>
       </c>
@@ -3473,52 +3493,52 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="53" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="54" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="11"/>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <f t="shared" ref="B5:B68" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="55" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="11"/>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="33">
+      <c r="B6" s="32">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="21"/>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="56" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="10"/>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -3526,7 +3546,7 @@
       <c r="D7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="27" t="s">
         <v>278</v>
       </c>
       <c r="F7" s="10"/>
@@ -3535,7 +3555,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="33">
+      <c r="B8" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -3543,7 +3563,7 @@
       <c r="D8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="27" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="10"/>
@@ -3552,7 +3572,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -3562,84 +3582,84 @@
       <c r="D9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="26" t="s">
         <v>34</v>
       </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="33">
+      <c r="B10" s="32">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="26" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="11"/>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="26" t="s">
         <v>36</v>
       </c>
       <c r="F11" s="11"/>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="33">
+      <c r="B12" s="32">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="26" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="11"/>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="33">
+      <c r="B13" s="32">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="21"/>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="27" t="s">
         <v>38</v>
       </c>
       <c r="F13" s="10"/>
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="33">
+      <c r="B14" s="32">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="26" t="s">
         <v>39</v>
       </c>
       <c r="F14" s="11"/>
@@ -3648,13 +3668,13 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="33">
+      <c r="B15" s="32">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="28" t="s">
+      <c r="D15" s="49"/>
+      <c r="E15" s="27" t="s">
         <v>40</v>
       </c>
       <c r="F15" s="10"/>
@@ -3663,7 +3683,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="33">
+      <c r="B16" s="32">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -3671,7 +3691,7 @@
       <c r="D16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="28" t="s">
         <v>41</v>
       </c>
       <c r="F16" s="15"/>
@@ -3680,13 +3700,13 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="33">
+      <c r="B17" s="32">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="29" t="s">
         <v>271</v>
       </c>
       <c r="F17" s="22"/>
@@ -3695,13 +3715,13 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="33">
+      <c r="B18" s="32">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="29" t="s">
         <v>272</v>
       </c>
       <c r="F18" s="22"/>
@@ -3710,13 +3730,13 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="33">
+      <c r="B19" s="32">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="29" t="s">
         <v>273</v>
       </c>
       <c r="F19" s="22"/>
@@ -3725,13 +3745,13 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="33">
+      <c r="B20" s="32">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="29" t="s">
         <v>274</v>
       </c>
       <c r="F20" s="22"/>
@@ -3740,13 +3760,13 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="33">
+      <c r="B21" s="32">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="29" t="s">
         <v>275</v>
       </c>
       <c r="F21" s="22"/>
@@ -3755,13 +3775,13 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="33">
+      <c r="B22" s="32">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="29" t="s">
         <v>276</v>
       </c>
       <c r="F22" s="22"/>
@@ -3770,13 +3790,13 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="33">
+      <c r="B23" s="32">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="29" t="s">
         <v>199</v>
       </c>
       <c r="F23" s="22"/>
@@ -3785,13 +3805,13 @@
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="33">
+      <c r="B24" s="32">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="29" t="s">
         <v>204</v>
       </c>
       <c r="F24" s="22"/>
@@ -3800,13 +3820,13 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="33">
+      <c r="B25" s="32">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="29" t="s">
         <v>206</v>
       </c>
       <c r="F25" s="22"/>
@@ -3815,13 +3835,13 @@
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="33">
+      <c r="B26" s="32">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="29" t="s">
         <v>207</v>
       </c>
       <c r="F26" s="22"/>
@@ -3830,13 +3850,13 @@
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="33">
+      <c r="B27" s="32">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="29" t="s">
         <v>208</v>
       </c>
       <c r="F27" s="22"/>
@@ -3845,13 +3865,13 @@
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="33">
+      <c r="B28" s="32">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="29" t="s">
         <v>42</v>
       </c>
       <c r="F28" s="22"/>
@@ -3860,13 +3880,13 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="33">
+      <c r="B29" s="32">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="29" t="s">
         <v>43</v>
       </c>
       <c r="F29" s="22"/>
@@ -3875,13 +3895,13 @@
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="33">
+      <c r="B30" s="32">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="29" t="s">
         <v>44</v>
       </c>
       <c r="F30" s="22"/>
@@ -3890,13 +3910,13 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="33">
+      <c r="B31" s="32">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="29" t="s">
         <v>45</v>
       </c>
       <c r="F31" s="22"/>
@@ -3905,13 +3925,13 @@
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="33">
+      <c r="B32" s="32">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="29" t="s">
         <v>46</v>
       </c>
       <c r="F32" s="22"/>
@@ -3920,13 +3940,13 @@
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="33">
+      <c r="B33" s="32">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="29" t="s">
         <v>47</v>
       </c>
       <c r="F33" s="22"/>
@@ -3935,13 +3955,13 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="33">
+      <c r="B34" s="32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="29" t="s">
         <v>277</v>
       </c>
       <c r="F34" s="22"/>
@@ -3950,13 +3970,13 @@
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="33">
+      <c r="B35" s="32">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="29" t="s">
         <v>48</v>
       </c>
       <c r="F35" s="22"/>
@@ -3965,13 +3985,13 @@
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="33">
+      <c r="B36" s="32">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="30" t="s">
+      <c r="E36" s="29" t="s">
         <v>49</v>
       </c>
       <c r="F36" s="22"/>
@@ -3980,13 +4000,13 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="33">
+      <c r="B37" s="32">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="30" t="s">
+      <c r="E37" s="29" t="s">
         <v>50</v>
       </c>
       <c r="F37" s="22"/>
@@ -3995,13 +4015,13 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="33">
+      <c r="B38" s="32">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="29" t="s">
         <v>51</v>
       </c>
       <c r="F38" s="22"/>
@@ -4010,13 +4030,13 @@
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="33">
+      <c r="B39" s="32">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="30" t="s">
+      <c r="E39" s="29" t="s">
         <v>52</v>
       </c>
       <c r="F39" s="22"/>
@@ -4025,13 +4045,13 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="33">
+      <c r="B40" s="32">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="30" t="s">
+      <c r="E40" s="29" t="s">
         <v>53</v>
       </c>
       <c r="F40" s="22"/>
@@ -4040,13 +4060,13 @@
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="33">
+      <c r="B41" s="32">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="30" t="s">
+      <c r="E41" s="29" t="s">
         <v>54</v>
       </c>
       <c r="F41" s="22"/>
@@ -4055,13 +4075,13 @@
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="33">
+      <c r="B42" s="32">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="12"/>
-      <c r="E42" s="28" t="s">
+      <c r="E42" s="27" t="s">
         <v>55</v>
       </c>
       <c r="F42" s="10"/>
@@ -4070,41 +4090,41 @@
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="33">
+      <c r="B43" s="32">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C43" s="54" t="s">
+      <c r="C43" s="53" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="27" t="s">
+      <c r="E43" s="26" t="s">
         <v>38</v>
       </c>
       <c r="F43" s="11"/>
-      <c r="G43" s="46" t="s">
+      <c r="G43" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="33">
+      <c r="B44" s="32">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="21"/>
-      <c r="E44" s="28" t="s">
+      <c r="E44" s="27" t="s">
         <v>56</v>
       </c>
       <c r="F44" s="10"/>
-      <c r="G44" s="46" t="s">
+      <c r="G44" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="33">
+      <c r="B45" s="32">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -4112,7 +4132,7 @@
       <c r="D45" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="28" t="s">
+      <c r="E45" s="27" t="s">
         <v>57</v>
       </c>
       <c r="F45" s="10"/>
@@ -4121,43 +4141,43 @@
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="33">
+      <c r="B46" s="32">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C46" s="54" t="s">
+      <c r="C46" s="53" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="27" t="s">
+      <c r="E46" s="26" t="s">
         <v>58</v>
       </c>
       <c r="F46" s="11"/>
-      <c r="G46" s="46" t="s">
+      <c r="G46" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="33">
+      <c r="B47" s="32">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="21"/>
-      <c r="E47" s="47" t="s">
+      <c r="E47" s="46" t="s">
         <v>59</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="G47" s="46" t="s">
+      <c r="G47" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="33">
+      <c r="B48" s="32">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -4165,54 +4185,54 @@
       <c r="D48" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E48" s="27" t="s">
+      <c r="E48" s="26" t="s">
         <v>60</v>
       </c>
       <c r="F48" s="11"/>
-      <c r="G48" s="46" t="s">
+      <c r="G48" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="33">
+      <c r="B49" s="32">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="27" t="s">
+      <c r="E49" s="26" t="s">
         <v>61</v>
       </c>
       <c r="F49" s="11"/>
-      <c r="G49" s="46" t="s">
+      <c r="G49" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="33">
+      <c r="B50" s="32">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="21"/>
-      <c r="E50" s="28" t="s">
+      <c r="E50" s="27" t="s">
         <v>62</v>
       </c>
       <c r="F50" s="10"/>
-      <c r="G50" s="46" t="s">
+      <c r="G50" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="33">
+      <c r="B51" s="32">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="C51" s="9"/>
-      <c r="D51" s="48" t="s">
+      <c r="D51" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="28" t="s">
+      <c r="E51" s="27" t="s">
         <v>63</v>
       </c>
       <c r="F51" s="10"/>
@@ -4221,92 +4241,92 @@
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="33">
+      <c r="B52" s="32">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="C52" s="54" t="s">
+      <c r="C52" s="53" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E52" s="28" t="s">
+      <c r="E52" s="27" t="s">
         <v>60</v>
       </c>
       <c r="F52" s="10"/>
-      <c r="G52" s="46" t="s">
+      <c r="G52" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="33">
+      <c r="B53" s="32">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="C53" s="7"/>
-      <c r="D53" s="49" t="s">
+      <c r="D53" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="52" t="s">
+      <c r="E53" s="51" t="s">
         <v>64</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="G53" s="46" t="s">
+      <c r="G53" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="33">
+      <c r="B54" s="32">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="C54" s="7"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="28" t="s">
+      <c r="D54" s="49"/>
+      <c r="E54" s="27" t="s">
         <v>65</v>
       </c>
       <c r="F54" s="10"/>
-      <c r="G54" s="46" t="s">
+      <c r="G54" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="33">
+      <c r="B55" s="32">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="C55" s="7"/>
-      <c r="D55" s="49" t="s">
+      <c r="D55" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="27" t="s">
+      <c r="E55" s="26" t="s">
         <v>66</v>
       </c>
       <c r="F55" s="11"/>
-      <c r="G55" s="46" t="s">
+      <c r="G55" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="33">
+      <c r="B56" s="32">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="C56" s="9"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="28" t="s">
+      <c r="D56" s="47"/>
+      <c r="E56" s="27" t="s">
         <v>67</v>
       </c>
       <c r="F56" s="10"/>
-      <c r="G56" s="46" t="s">
+      <c r="G56" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="33">
+      <c r="B57" s="32">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
@@ -4316,333 +4336,333 @@
       <c r="D57" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E57" s="29" t="s">
+      <c r="E57" s="28" t="s">
         <v>68</v>
       </c>
       <c r="F57" s="15"/>
-      <c r="G57" s="46" t="s">
+      <c r="G57" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="33">
+      <c r="B58" s="32">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="30" t="s">
+      <c r="E58" s="29" t="s">
         <v>69</v>
       </c>
       <c r="F58" s="22"/>
-      <c r="G58" s="46" t="s">
+      <c r="G58" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="33">
+      <c r="B59" s="32">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="30" t="s">
+      <c r="E59" s="29" t="s">
         <v>70</v>
       </c>
       <c r="F59" s="22"/>
-      <c r="G59" s="46" t="s">
+      <c r="G59" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="33">
+      <c r="B60" s="32">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="30" t="s">
+      <c r="E60" s="29" t="s">
         <v>71</v>
       </c>
       <c r="F60" s="22"/>
-      <c r="G60" s="46" t="s">
+      <c r="G60" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="33">
+      <c r="B61" s="32">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="30" t="s">
+      <c r="E61" s="29" t="s">
         <v>72</v>
       </c>
       <c r="F61" s="22"/>
-      <c r="G61" s="46" t="s">
+      <c r="G61" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="33">
+      <c r="B62" s="32">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="30" t="s">
+      <c r="E62" s="29" t="s">
         <v>36</v>
       </c>
       <c r="F62" s="22"/>
-      <c r="G62" s="46" t="s">
+      <c r="G62" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="33">
+      <c r="B63" s="32">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="30" t="s">
+      <c r="E63" s="29" t="s">
         <v>73</v>
       </c>
       <c r="F63" s="22"/>
-      <c r="G63" s="46" t="s">
+      <c r="G63" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="33">
+      <c r="B64" s="32">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="30" t="s">
+      <c r="E64" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F64" s="22"/>
-      <c r="G64" s="46" t="s">
+      <c r="G64" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="33">
+      <c r="B65" s="32">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="30" t="s">
+      <c r="E65" s="29" t="s">
         <v>37</v>
       </c>
       <c r="F65" s="22"/>
-      <c r="G65" s="46" t="s">
+      <c r="G65" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="33">
+      <c r="B66" s="32">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="30" t="s">
+      <c r="E66" s="29" t="s">
         <v>75</v>
       </c>
       <c r="F66" s="22"/>
-      <c r="G66" s="46" t="s">
+      <c r="G66" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="33">
+      <c r="B67" s="32">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="30" t="s">
+      <c r="E67" s="29" t="s">
         <v>76</v>
       </c>
       <c r="F67" s="22"/>
-      <c r="G67" s="46" t="s">
+      <c r="G67" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="33">
+      <c r="B68" s="32">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="30" t="s">
+      <c r="E68" s="29" t="s">
         <v>38</v>
       </c>
       <c r="F68" s="22"/>
-      <c r="G68" s="46" t="s">
+      <c r="G68" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="33">
+      <c r="B69" s="32">
         <f t="shared" ref="B69:B132" si="1">ROW()-3</f>
         <v>66</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="30" t="s">
+      <c r="E69" s="29" t="s">
         <v>56</v>
       </c>
       <c r="F69" s="22"/>
-      <c r="G69" s="46" t="s">
+      <c r="G69" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="33">
+      <c r="B70" s="32">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="30" t="s">
+      <c r="E70" s="29" t="s">
         <v>77</v>
       </c>
       <c r="F70" s="22"/>
-      <c r="G70" s="46" t="s">
+      <c r="G70" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="33">
+      <c r="B71" s="32">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="30" t="s">
+      <c r="E71" s="29" t="s">
         <v>78</v>
       </c>
       <c r="F71" s="22"/>
-      <c r="G71" s="46" t="s">
+      <c r="G71" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="33">
+      <c r="B72" s="32">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="30" t="s">
+      <c r="E72" s="29" t="s">
         <v>79</v>
       </c>
       <c r="F72" s="22"/>
-      <c r="G72" s="46" t="s">
+      <c r="G72" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="33">
+      <c r="B73" s="32">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="21"/>
-      <c r="E73" s="28" t="s">
+      <c r="E73" s="27" t="s">
         <v>80</v>
       </c>
       <c r="F73" s="10"/>
-      <c r="G73" s="46" t="s">
+      <c r="G73" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="33">
+      <c r="B74" s="32">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="C74" s="7"/>
-      <c r="D74" s="49" t="s">
+      <c r="D74" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="53" t="s">
+      <c r="E74" s="52" t="s">
         <v>370</v>
       </c>
       <c r="F74" s="15"/>
-      <c r="G74" s="46" t="s">
+      <c r="G74" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="33">
+      <c r="B75" s="32">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="C75" s="7"/>
-      <c r="D75" s="49"/>
-      <c r="E75" s="30" t="s">
+      <c r="D75" s="48"/>
+      <c r="E75" s="29" t="s">
         <v>369</v>
       </c>
       <c r="F75" s="22"/>
-      <c r="G75" s="46" t="s">
+      <c r="G75" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="33">
+      <c r="B76" s="32">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="C76" s="7"/>
-      <c r="D76" s="49"/>
-      <c r="E76" s="30" t="s">
+      <c r="D76" s="48"/>
+      <c r="E76" s="29" t="s">
         <v>371</v>
       </c>
       <c r="F76" s="22"/>
-      <c r="G76" s="46" t="s">
+      <c r="G76" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="33">
+      <c r="B77" s="32">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="C77" s="7"/>
-      <c r="D77" s="49"/>
-      <c r="E77" s="30" t="s">
+      <c r="D77" s="48"/>
+      <c r="E77" s="29" t="s">
         <v>372</v>
       </c>
       <c r="F77" s="22"/>
-      <c r="G77" s="46" t="s">
+      <c r="G77" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="33">
+      <c r="B78" s="32">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="C78" s="7"/>
-      <c r="D78" s="50"/>
-      <c r="E78" s="28" t="s">
+      <c r="D78" s="49"/>
+      <c r="E78" s="27" t="s">
         <v>373</v>
       </c>
       <c r="F78" s="10"/>
-      <c r="G78" s="46" t="s">
+      <c r="G78" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="33">
+      <c r="B79" s="32">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
@@ -4650,7 +4670,7 @@
       <c r="D79" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E79" s="29" t="s">
+      <c r="E79" s="28" t="s">
         <v>41</v>
       </c>
       <c r="F79" s="15"/>
@@ -4659,13 +4679,13 @@
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="33">
+      <c r="B80" s="32">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="2"/>
-      <c r="E80" s="30" t="s">
+      <c r="E80" s="29" t="s">
         <v>271</v>
       </c>
       <c r="F80" s="22"/>
@@ -4674,13 +4694,13 @@
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B81" s="33">
+      <c r="B81" s="32">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="2"/>
-      <c r="E81" s="30" t="s">
+      <c r="E81" s="29" t="s">
         <v>272</v>
       </c>
       <c r="F81" s="22"/>
@@ -4689,13 +4709,13 @@
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B82" s="33">
+      <c r="B82" s="32">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="2"/>
-      <c r="E82" s="30" t="s">
+      <c r="E82" s="29" t="s">
         <v>273</v>
       </c>
       <c r="F82" s="22"/>
@@ -4704,13 +4724,13 @@
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B83" s="33">
+      <c r="B83" s="32">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="2"/>
-      <c r="E83" s="30" t="s">
+      <c r="E83" s="29" t="s">
         <v>274</v>
       </c>
       <c r="F83" s="22"/>
@@ -4719,13 +4739,13 @@
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B84" s="33">
+      <c r="B84" s="32">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="2"/>
-      <c r="E84" s="30" t="s">
+      <c r="E84" s="29" t="s">
         <v>275</v>
       </c>
       <c r="F84" s="22"/>
@@ -4734,13 +4754,13 @@
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B85" s="33">
+      <c r="B85" s="32">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="12"/>
-      <c r="E85" s="28" t="s">
+      <c r="E85" s="27" t="s">
         <v>81</v>
       </c>
       <c r="F85" s="10"/>
@@ -4749,7 +4769,7 @@
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="33">
+      <c r="B86" s="32">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
@@ -4759,76 +4779,76 @@
       <c r="D86" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E86" s="29" t="s">
+      <c r="E86" s="28" t="s">
         <v>82</v>
       </c>
       <c r="F86" s="15"/>
-      <c r="G86" s="46" t="s">
+      <c r="G86" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="33">
+      <c r="B87" s="32">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="30" t="s">
+      <c r="E87" s="29" t="s">
         <v>83</v>
       </c>
       <c r="F87" s="22"/>
-      <c r="G87" s="46" t="s">
+      <c r="G87" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="33">
+      <c r="B88" s="32">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="30" t="s">
+      <c r="E88" s="29" t="s">
         <v>73</v>
       </c>
       <c r="F88" s="22"/>
-      <c r="G88" s="46" t="s">
+      <c r="G88" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="33">
+      <c r="B89" s="32">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="30" t="s">
+      <c r="E89" s="29" t="s">
         <v>37</v>
       </c>
       <c r="F89" s="22"/>
-      <c r="G89" s="46" t="s">
+      <c r="G89" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="33">
+      <c r="B90" s="32">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="21"/>
-      <c r="E90" s="28" t="s">
+      <c r="E90" s="27" t="s">
         <v>75</v>
       </c>
       <c r="F90" s="10"/>
-      <c r="G90" s="46" t="s">
+      <c r="G90" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="33">
+      <c r="B91" s="32">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
@@ -4836,468 +4856,468 @@
       <c r="D91" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="31" t="s">
+      <c r="E91" s="30" t="s">
         <v>84</v>
       </c>
       <c r="F91" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="G91" s="46" t="s">
+      <c r="G91" s="45" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="33">
+      <c r="B92" s="32">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="3"/>
-      <c r="E92" s="34" t="s">
+      <c r="E92" s="33" t="s">
         <v>85</v>
       </c>
       <c r="F92" s="22"/>
-      <c r="G92" s="46" t="s">
+      <c r="G92" s="45" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B93" s="33">
+      <c r="B93" s="32">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="3"/>
-      <c r="E93" s="34" t="s">
+      <c r="E93" s="33" t="s">
         <v>86</v>
       </c>
       <c r="F93" s="22"/>
-      <c r="G93" s="46" t="s">
+      <c r="G93" s="45" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B94" s="33">
+      <c r="B94" s="32">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="3"/>
-      <c r="E94" s="34" t="s">
+      <c r="E94" s="33" t="s">
         <v>87</v>
       </c>
       <c r="F94" s="22"/>
-      <c r="G94" s="46" t="s">
+      <c r="G94" s="45" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="33">
+      <c r="B95" s="32">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="3"/>
-      <c r="E95" s="34" t="s">
+      <c r="E95" s="33" t="s">
         <v>88</v>
       </c>
       <c r="F95" s="22"/>
-      <c r="G95" s="46" t="s">
+      <c r="G95" s="45" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="33">
+      <c r="B96" s="32">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="3"/>
-      <c r="E96" s="34" t="s">
+      <c r="E96" s="33" t="s">
         <v>89</v>
       </c>
       <c r="F96" s="22"/>
-      <c r="G96" s="46" t="s">
+      <c r="G96" s="45" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="33">
+      <c r="B97" s="32">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="3"/>
-      <c r="E97" s="34" t="s">
+      <c r="E97" s="33" t="s">
         <v>90</v>
       </c>
       <c r="F97" s="22"/>
-      <c r="G97" s="46" t="s">
+      <c r="G97" s="45" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B98" s="33">
+      <c r="B98" s="32">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="34" t="s">
+      <c r="E98" s="33" t="s">
         <v>91</v>
       </c>
       <c r="F98" s="22"/>
-      <c r="G98" s="46" t="s">
+      <c r="G98" s="45" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B99" s="33">
+      <c r="B99" s="32">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="3"/>
-      <c r="E99" s="34" t="s">
+      <c r="E99" s="33" t="s">
         <v>92</v>
       </c>
       <c r="F99" s="22"/>
-      <c r="G99" s="46" t="s">
+      <c r="G99" s="45" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="33">
+      <c r="B100" s="32">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="34" t="s">
+      <c r="E100" s="33" t="s">
         <v>93</v>
       </c>
       <c r="F100" s="22"/>
-      <c r="G100" s="46" t="s">
+      <c r="G100" s="45" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="33">
+      <c r="B101" s="32">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="3"/>
-      <c r="E101" s="34" t="s">
+      <c r="E101" s="33" t="s">
         <v>94</v>
       </c>
       <c r="F101" s="22"/>
-      <c r="G101" s="46" t="s">
+      <c r="G101" s="45" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B102" s="33">
+      <c r="B102" s="32">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="3"/>
-      <c r="E102" s="34" t="s">
+      <c r="E102" s="33" t="s">
         <v>95</v>
       </c>
       <c r="F102" s="22"/>
-      <c r="G102" s="46" t="s">
+      <c r="G102" s="45" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="33">
+      <c r="B103" s="32">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="3"/>
-      <c r="E103" s="34" t="s">
+      <c r="E103" s="33" t="s">
         <v>96</v>
       </c>
       <c r="F103" s="22"/>
-      <c r="G103" s="46" t="s">
+      <c r="G103" s="45" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="33">
+      <c r="B104" s="32">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="3"/>
-      <c r="E104" s="34" t="s">
+      <c r="E104" s="33" t="s">
         <v>97</v>
       </c>
       <c r="F104" s="22"/>
-      <c r="G104" s="46" t="s">
+      <c r="G104" s="45" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="33">
+      <c r="B105" s="32">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="3"/>
-      <c r="E105" s="34" t="s">
+      <c r="E105" s="33" t="s">
         <v>98</v>
       </c>
       <c r="F105" s="22"/>
-      <c r="G105" s="46" t="s">
+      <c r="G105" s="45" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B106" s="33">
+      <c r="B106" s="32">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="3"/>
-      <c r="E106" s="34" t="s">
+      <c r="E106" s="33" t="s">
         <v>99</v>
       </c>
       <c r="F106" s="22"/>
-      <c r="G106" s="46" t="s">
+      <c r="G106" s="45" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B107" s="33">
+      <c r="B107" s="32">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="3"/>
-      <c r="E107" s="34" t="s">
+      <c r="E107" s="33" t="s">
         <v>100</v>
       </c>
       <c r="F107" s="22"/>
-      <c r="G107" s="46" t="s">
+      <c r="G107" s="45" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B108" s="33">
+      <c r="B108" s="32">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="3"/>
-      <c r="E108" s="34" t="s">
+      <c r="E108" s="33" t="s">
         <v>101</v>
       </c>
       <c r="F108" s="22"/>
-      <c r="G108" s="46" t="s">
+      <c r="G108" s="45" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B109" s="33">
+      <c r="B109" s="32">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="3"/>
-      <c r="E109" s="34" t="s">
+      <c r="E109" s="33" t="s">
         <v>102</v>
       </c>
       <c r="F109" s="22"/>
-      <c r="G109" s="46" t="s">
+      <c r="G109" s="45" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B110" s="33">
+      <c r="B110" s="32">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="3"/>
-      <c r="E110" s="34" t="s">
+      <c r="E110" s="33" t="s">
         <v>103</v>
       </c>
       <c r="F110" s="22"/>
-      <c r="G110" s="46" t="s">
+      <c r="G110" s="45" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B111" s="33">
+      <c r="B111" s="32">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="3"/>
-      <c r="E111" s="34" t="s">
+      <c r="E111" s="33" t="s">
         <v>104</v>
       </c>
       <c r="F111" s="22"/>
-      <c r="G111" s="46" t="s">
+      <c r="G111" s="45" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B112" s="33">
+      <c r="B112" s="32">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="3"/>
-      <c r="E112" s="34" t="s">
+      <c r="E112" s="33" t="s">
         <v>105</v>
       </c>
       <c r="F112" s="22"/>
-      <c r="G112" s="46" t="s">
+      <c r="G112" s="45" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B113" s="33">
+      <c r="B113" s="32">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="3"/>
-      <c r="E113" s="34" t="s">
+      <c r="E113" s="33" t="s">
         <v>106</v>
       </c>
       <c r="F113" s="22"/>
-      <c r="G113" s="46" t="s">
+      <c r="G113" s="45" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B114" s="33">
+      <c r="B114" s="32">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="3"/>
-      <c r="E114" s="34" t="s">
+      <c r="E114" s="33" t="s">
         <v>107</v>
       </c>
       <c r="F114" s="22"/>
-      <c r="G114" s="46" t="s">
+      <c r="G114" s="45" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B115" s="33">
+      <c r="B115" s="32">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="3"/>
-      <c r="E115" s="34" t="s">
+      <c r="E115" s="33" t="s">
         <v>108</v>
       </c>
       <c r="F115" s="22"/>
-      <c r="G115" s="46" t="s">
+      <c r="G115" s="45" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B116" s="33">
+      <c r="B116" s="32">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="3"/>
-      <c r="E116" s="34" t="s">
+      <c r="E116" s="33" t="s">
         <v>109</v>
       </c>
       <c r="F116" s="22"/>
-      <c r="G116" s="46" t="s">
+      <c r="G116" s="45" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B117" s="33">
+      <c r="B117" s="32">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="3"/>
-      <c r="E117" s="34" t="s">
+      <c r="E117" s="33" t="s">
         <v>110</v>
       </c>
       <c r="F117" s="22"/>
-      <c r="G117" s="46" t="s">
+      <c r="G117" s="45" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B118" s="33">
+      <c r="B118" s="32">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="3"/>
-      <c r="E118" s="34" t="s">
+      <c r="E118" s="33" t="s">
         <v>111</v>
       </c>
       <c r="F118" s="22"/>
-      <c r="G118" s="46" t="s">
+      <c r="G118" s="45" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B119" s="33">
+      <c r="B119" s="32">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="3"/>
-      <c r="E119" s="34" t="s">
+      <c r="E119" s="33" t="s">
         <v>112</v>
       </c>
       <c r="F119" s="22"/>
-      <c r="G119" s="46" t="s">
+      <c r="G119" s="45" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B120" s="33">
+      <c r="B120" s="32">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="3"/>
-      <c r="E120" s="34" t="s">
+      <c r="E120" s="33" t="s">
         <v>113</v>
       </c>
       <c r="F120" s="22"/>
-      <c r="G120" s="46" t="s">
+      <c r="G120" s="45" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B121" s="33">
+      <c r="B121" s="32">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="C121" s="7"/>
-      <c r="D121" s="35"/>
-      <c r="E121" s="36" t="s">
+      <c r="D121" s="34"/>
+      <c r="E121" s="35" t="s">
         <v>114</v>
       </c>
       <c r="F121" s="10"/>
-      <c r="G121" s="46" t="s">
+      <c r="G121" s="45" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B122" s="33">
+      <c r="B122" s="32">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
@@ -5305,549 +5325,549 @@
       <c r="D122" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E122" s="29" t="s">
+      <c r="E122" s="28" t="s">
         <v>115</v>
       </c>
       <c r="F122" s="15"/>
-      <c r="G122" s="46" t="s">
+      <c r="G122" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B123" s="33">
+      <c r="B123" s="32">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="2"/>
-      <c r="E123" s="30" t="s">
+      <c r="E123" s="29" t="s">
         <v>116</v>
       </c>
       <c r="F123" s="22"/>
-      <c r="G123" s="46" t="s">
+      <c r="G123" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B124" s="33">
+      <c r="B124" s="32">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="2"/>
-      <c r="E124" s="30" t="s">
+      <c r="E124" s="29" t="s">
         <v>117</v>
       </c>
       <c r="F124" s="22"/>
-      <c r="G124" s="46" t="s">
+      <c r="G124" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B125" s="33">
+      <c r="B125" s="32">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="2"/>
-      <c r="E125" s="30" t="s">
+      <c r="E125" s="29" t="s">
         <v>118</v>
       </c>
       <c r="F125" s="22"/>
-      <c r="G125" s="46" t="s">
+      <c r="G125" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B126" s="33">
+      <c r="B126" s="32">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="2"/>
-      <c r="E126" s="30" t="s">
+      <c r="E126" s="29" t="s">
         <v>119</v>
       </c>
       <c r="F126" s="22"/>
-      <c r="G126" s="46" t="s">
+      <c r="G126" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B127" s="33">
+      <c r="B127" s="32">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="2"/>
-      <c r="E127" s="30" t="s">
+      <c r="E127" s="29" t="s">
         <v>120</v>
       </c>
       <c r="F127" s="22"/>
-      <c r="G127" s="46" t="s">
+      <c r="G127" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B128" s="33">
+      <c r="B128" s="32">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="2"/>
-      <c r="E128" s="30" t="s">
+      <c r="E128" s="29" t="s">
         <v>121</v>
       </c>
       <c r="F128" s="22"/>
-      <c r="G128" s="46" t="s">
+      <c r="G128" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B129" s="33">
+      <c r="B129" s="32">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="2"/>
-      <c r="E129" s="30" t="s">
+      <c r="E129" s="29" t="s">
         <v>123</v>
       </c>
       <c r="F129" s="22"/>
-      <c r="G129" s="46" t="s">
+      <c r="G129" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B130" s="33">
+      <c r="B130" s="32">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="2"/>
-      <c r="E130" s="30" t="s">
+      <c r="E130" s="29" t="s">
         <v>124</v>
       </c>
       <c r="F130" s="22"/>
-      <c r="G130" s="46" t="s">
+      <c r="G130" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B131" s="33">
+      <c r="B131" s="32">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="2"/>
-      <c r="E131" s="30" t="s">
+      <c r="E131" s="29" t="s">
         <v>125</v>
       </c>
       <c r="F131" s="22"/>
-      <c r="G131" s="46" t="s">
+      <c r="G131" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B132" s="33">
+      <c r="B132" s="32">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="2"/>
-      <c r="E132" s="30" t="s">
+      <c r="E132" s="29" t="s">
         <v>126</v>
       </c>
       <c r="F132" s="22"/>
-      <c r="G132" s="46" t="s">
+      <c r="G132" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B133" s="33">
+      <c r="B133" s="32">
         <f t="shared" ref="B133:B196" si="2">ROW()-3</f>
         <v>130</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="2"/>
-      <c r="E133" s="30" t="s">
+      <c r="E133" s="29" t="s">
         <v>127</v>
       </c>
       <c r="F133" s="22"/>
-      <c r="G133" s="46" t="s">
+      <c r="G133" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B134" s="33">
+      <c r="B134" s="32">
         <f t="shared" si="2"/>
         <v>131</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="2"/>
-      <c r="E134" s="30" t="s">
+      <c r="E134" s="29" t="s">
         <v>128</v>
       </c>
       <c r="F134" s="22"/>
-      <c r="G134" s="46" t="s">
+      <c r="G134" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B135" s="33">
+      <c r="B135" s="32">
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="2"/>
-      <c r="E135" s="30" t="s">
+      <c r="E135" s="29" t="s">
         <v>129</v>
       </c>
       <c r="F135" s="22"/>
-      <c r="G135" s="46" t="s">
+      <c r="G135" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B136" s="33">
+      <c r="B136" s="32">
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="2"/>
-      <c r="E136" s="30" t="s">
+      <c r="E136" s="29" t="s">
         <v>130</v>
       </c>
       <c r="F136" s="22"/>
-      <c r="G136" s="46" t="s">
+      <c r="G136" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B137" s="33">
+      <c r="B137" s="32">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
       <c r="C137" s="7"/>
       <c r="D137" s="2"/>
-      <c r="E137" s="30" t="s">
+      <c r="E137" s="29" t="s">
         <v>131</v>
       </c>
       <c r="F137" s="22"/>
-      <c r="G137" s="46" t="s">
+      <c r="G137" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B138" s="33">
+      <c r="B138" s="32">
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="C138" s="7"/>
       <c r="D138" s="2"/>
-      <c r="E138" s="30" t="s">
+      <c r="E138" s="29" t="s">
         <v>132</v>
       </c>
       <c r="F138" s="22"/>
-      <c r="G138" s="46" t="s">
+      <c r="G138" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B139" s="33">
+      <c r="B139" s="32">
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
       <c r="C139" s="7"/>
       <c r="D139" s="2"/>
-      <c r="E139" s="30" t="s">
+      <c r="E139" s="29" t="s">
         <v>133</v>
       </c>
       <c r="F139" s="22"/>
-      <c r="G139" s="46" t="s">
+      <c r="G139" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B140" s="33">
+      <c r="B140" s="32">
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="2"/>
-      <c r="E140" s="30" t="s">
+      <c r="E140" s="29" t="s">
         <v>134</v>
       </c>
       <c r="F140" s="22"/>
-      <c r="G140" s="46" t="s">
+      <c r="G140" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B141" s="33">
+      <c r="B141" s="32">
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="C141" s="7"/>
       <c r="D141" s="2"/>
-      <c r="E141" s="30" t="s">
+      <c r="E141" s="29" t="s">
         <v>135</v>
       </c>
       <c r="F141" s="22"/>
-      <c r="G141" s="46" t="s">
+      <c r="G141" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B142" s="33">
+      <c r="B142" s="32">
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="2"/>
-      <c r="E142" s="30" t="s">
+      <c r="E142" s="29" t="s">
         <v>136</v>
       </c>
       <c r="F142" s="22"/>
-      <c r="G142" s="46" t="s">
+      <c r="G142" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B143" s="33">
+      <c r="B143" s="32">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="C143" s="7"/>
       <c r="D143" s="2"/>
-      <c r="E143" s="30" t="s">
+      <c r="E143" s="29" t="s">
         <v>137</v>
       </c>
       <c r="F143" s="22"/>
-      <c r="G143" s="46" t="s">
+      <c r="G143" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B144" s="33">
+      <c r="B144" s="32">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
       <c r="C144" s="7"/>
       <c r="D144" s="2"/>
-      <c r="E144" s="30" t="s">
+      <c r="E144" s="29" t="s">
         <v>138</v>
       </c>
       <c r="F144" s="22"/>
-      <c r="G144" s="46" t="s">
+      <c r="G144" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B145" s="33">
+      <c r="B145" s="32">
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
       <c r="C145" s="7"/>
       <c r="D145" s="2"/>
-      <c r="E145" s="30" t="s">
+      <c r="E145" s="29" t="s">
         <v>139</v>
       </c>
       <c r="F145" s="22"/>
-      <c r="G145" s="46" t="s">
+      <c r="G145" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B146" s="33">
+      <c r="B146" s="32">
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
       <c r="C146" s="7"/>
       <c r="D146" s="2"/>
-      <c r="E146" s="30" t="s">
+      <c r="E146" s="29" t="s">
         <v>140</v>
       </c>
       <c r="F146" s="22"/>
-      <c r="G146" s="46" t="s">
+      <c r="G146" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B147" s="33">
+      <c r="B147" s="32">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="C147" s="7"/>
       <c r="D147" s="2"/>
-      <c r="E147" s="30" t="s">
+      <c r="E147" s="29" t="s">
         <v>141</v>
       </c>
       <c r="F147" s="22"/>
-      <c r="G147" s="46" t="s">
+      <c r="G147" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B148" s="33">
+      <c r="B148" s="32">
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
       <c r="C148" s="7"/>
       <c r="D148" s="2"/>
-      <c r="E148" s="30" t="s">
+      <c r="E148" s="29" t="s">
         <v>142</v>
       </c>
       <c r="F148" s="22"/>
-      <c r="G148" s="46" t="s">
+      <c r="G148" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B149" s="33">
+      <c r="B149" s="32">
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
       <c r="C149" s="7"/>
       <c r="D149" s="2"/>
-      <c r="E149" s="30" t="s">
+      <c r="E149" s="29" t="s">
         <v>143</v>
       </c>
       <c r="F149" s="22"/>
-      <c r="G149" s="46" t="s">
+      <c r="G149" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B150" s="33">
+      <c r="B150" s="32">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
       <c r="C150" s="7"/>
       <c r="D150" s="2"/>
-      <c r="E150" s="30" t="s">
+      <c r="E150" s="29" t="s">
         <v>144</v>
       </c>
       <c r="F150" s="22"/>
-      <c r="G150" s="46" t="s">
+      <c r="G150" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B151" s="33">
+      <c r="B151" s="32">
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
       <c r="C151" s="7"/>
       <c r="D151" s="2"/>
-      <c r="E151" s="30" t="s">
+      <c r="E151" s="29" t="s">
         <v>145</v>
       </c>
       <c r="F151" s="22"/>
-      <c r="G151" s="46" t="s">
+      <c r="G151" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B152" s="33">
+      <c r="B152" s="32">
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
       <c r="C152" s="7"/>
       <c r="D152" s="2"/>
-      <c r="E152" s="30" t="s">
+      <c r="E152" s="29" t="s">
         <v>146</v>
       </c>
       <c r="F152" s="22"/>
-      <c r="G152" s="46" t="s">
+      <c r="G152" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B153" s="33">
+      <c r="B153" s="32">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="C153" s="7"/>
       <c r="D153" s="2"/>
-      <c r="E153" s="30" t="s">
+      <c r="E153" s="29" t="s">
         <v>147</v>
       </c>
       <c r="F153" s="22"/>
-      <c r="G153" s="46" t="s">
+      <c r="G153" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B154" s="33">
+      <c r="B154" s="32">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
       <c r="C154" s="7"/>
       <c r="D154" s="2"/>
-      <c r="E154" s="30" t="s">
+      <c r="E154" s="29" t="s">
         <v>148</v>
       </c>
       <c r="F154" s="22"/>
-      <c r="G154" s="46" t="s">
+      <c r="G154" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B155" s="33">
+      <c r="B155" s="32">
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
       <c r="C155" s="7"/>
       <c r="D155" s="2"/>
-      <c r="E155" s="30" t="s">
+      <c r="E155" s="29" t="s">
         <v>149</v>
       </c>
       <c r="F155" s="22"/>
-      <c r="G155" s="46" t="s">
+      <c r="G155" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B156" s="33">
+      <c r="B156" s="32">
         <f t="shared" si="2"/>
         <v>153</v>
       </c>
       <c r="C156" s="7"/>
       <c r="D156" s="2"/>
-      <c r="E156" s="30" t="s">
+      <c r="E156" s="29" t="s">
         <v>150</v>
       </c>
       <c r="F156" s="22"/>
-      <c r="G156" s="46" t="s">
+      <c r="G156" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B157" s="33">
+      <c r="B157" s="32">
         <f t="shared" si="2"/>
         <v>154</v>
       </c>
       <c r="C157" s="7"/>
       <c r="D157" s="21"/>
-      <c r="E157" s="28" t="s">
+      <c r="E157" s="27" t="s">
         <v>152</v>
       </c>
       <c r="F157" s="10"/>
-      <c r="G157" s="46" t="s">
+      <c r="G157" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B158" s="33">
+      <c r="B158" s="32">
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
       <c r="C158" s="7"/>
-      <c r="D158" s="50" t="s">
+      <c r="D158" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E158" s="28" t="s">
+      <c r="E158" s="27" t="s">
         <v>122</v>
       </c>
       <c r="F158" s="10"/>
@@ -5856,7 +5876,7 @@
       </c>
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B159" s="33">
+      <c r="B159" s="32">
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
@@ -5864,108 +5884,108 @@
       <c r="D159" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E159" s="31" t="s">
+      <c r="E159" s="30" t="s">
         <v>151</v>
       </c>
       <c r="F159" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="G159" s="46" t="s">
+      <c r="G159" s="45" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="160" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="33">
+      <c r="B160" s="32">
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
       <c r="C160" s="17"/>
       <c r="D160" s="3"/>
-      <c r="E160" s="34" t="s">
+      <c r="E160" s="33" t="s">
         <v>153</v>
       </c>
       <c r="F160" s="23"/>
-      <c r="G160" s="46" t="s">
+      <c r="G160" s="45" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="161" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="33">
+      <c r="B161" s="32">
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
       <c r="C161" s="17"/>
       <c r="D161" s="3"/>
-      <c r="E161" s="34" t="s">
+      <c r="E161" s="33" t="s">
         <v>154</v>
       </c>
       <c r="F161" s="23"/>
-      <c r="G161" s="46" t="s">
+      <c r="G161" s="45" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="162" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="33">
+      <c r="B162" s="32">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
       <c r="C162" s="17"/>
       <c r="D162" s="3"/>
-      <c r="E162" s="34" t="s">
+      <c r="E162" s="33" t="s">
         <v>155</v>
       </c>
       <c r="F162" s="23"/>
-      <c r="G162" s="46" t="s">
+      <c r="G162" s="45" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="163" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="33">
+      <c r="B163" s="32">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="C163" s="17"/>
       <c r="D163" s="3"/>
-      <c r="E163" s="34" t="s">
+      <c r="E163" s="33" t="s">
         <v>156</v>
       </c>
       <c r="F163" s="23"/>
-      <c r="G163" s="46" t="s">
+      <c r="G163" s="45" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="164" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="33">
+      <c r="B164" s="32">
         <f t="shared" si="2"/>
         <v>161</v>
       </c>
       <c r="C164" s="17"/>
       <c r="D164" s="3"/>
-      <c r="E164" s="34" t="s">
+      <c r="E164" s="33" t="s">
         <v>157</v>
       </c>
       <c r="F164" s="23"/>
-      <c r="G164" s="46" t="s">
+      <c r="G164" s="45" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="165" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="33">
+      <c r="B165" s="32">
         <f t="shared" si="2"/>
         <v>162</v>
       </c>
       <c r="C165" s="20"/>
       <c r="D165" s="13"/>
-      <c r="E165" s="36" t="s">
+      <c r="E165" s="35" t="s">
         <v>158</v>
       </c>
       <c r="F165" s="24"/>
-      <c r="G165" s="46" t="s">
+      <c r="G165" s="45" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="166" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B166" s="33">
+      <c r="B166" s="32">
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
@@ -5975,76 +5995,76 @@
       <c r="D166" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E166" s="29" t="s">
+      <c r="E166" s="28" t="s">
         <v>159</v>
       </c>
       <c r="F166" s="15"/>
-      <c r="G166" s="46" t="s">
+      <c r="G166" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B167" s="33">
+      <c r="B167" s="32">
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
       <c r="C167" s="7"/>
       <c r="D167" s="2"/>
-      <c r="E167" s="30" t="s">
+      <c r="E167" s="29" t="s">
         <v>166</v>
       </c>
       <c r="F167" s="22"/>
-      <c r="G167" s="46" t="s">
+      <c r="G167" s="45" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B168" s="33">
+      <c r="B168" s="32">
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
       <c r="C168" s="7"/>
       <c r="D168" s="2"/>
-      <c r="E168" s="30" t="s">
+      <c r="E168" s="29" t="s">
         <v>167</v>
       </c>
       <c r="F168" s="22"/>
-      <c r="G168" s="46" t="s">
+      <c r="G168" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B169" s="33">
+      <c r="B169" s="32">
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
       <c r="C169" s="7"/>
       <c r="D169" s="2"/>
-      <c r="E169" s="30" t="s">
+      <c r="E169" s="29" t="s">
         <v>168</v>
       </c>
       <c r="F169" s="22"/>
-      <c r="G169" s="46" t="s">
+      <c r="G169" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="170" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B170" s="33">
+      <c r="B170" s="32">
         <f t="shared" si="2"/>
         <v>167</v>
       </c>
       <c r="C170" s="7"/>
       <c r="D170" s="21"/>
-      <c r="E170" s="28" t="s">
+      <c r="E170" s="27" t="s">
         <v>169</v>
       </c>
       <c r="F170" s="10"/>
-      <c r="G170" s="46" t="s">
+      <c r="G170" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="171" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B171" s="33">
+      <c r="B171" s="32">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
@@ -6052,168 +6072,168 @@
       <c r="D171" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E171" s="29" t="s">
+      <c r="E171" s="28" t="s">
         <v>160</v>
       </c>
       <c r="F171" s="15"/>
-      <c r="G171" s="46" t="s">
+      <c r="G171" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="172" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B172" s="33">
+      <c r="B172" s="32">
         <f t="shared" si="2"/>
         <v>169</v>
       </c>
       <c r="C172" s="7"/>
       <c r="D172" s="2"/>
-      <c r="E172" s="30" t="s">
+      <c r="E172" s="29" t="s">
         <v>37</v>
       </c>
       <c r="F172" s="22"/>
-      <c r="G172" s="46" t="s">
+      <c r="G172" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B173" s="33">
+      <c r="B173" s="32">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="C173" s="7"/>
       <c r="D173" s="2"/>
-      <c r="E173" s="30" t="s">
+      <c r="E173" s="29" t="s">
         <v>38</v>
       </c>
       <c r="F173" s="22"/>
-      <c r="G173" s="46" t="s">
+      <c r="G173" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B174" s="33">
+      <c r="B174" s="32">
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
       <c r="C174" s="7"/>
       <c r="D174" s="2"/>
-      <c r="E174" s="30" t="s">
+      <c r="E174" s="29" t="s">
         <v>60</v>
       </c>
       <c r="F174" s="22"/>
-      <c r="G174" s="46" t="s">
+      <c r="G174" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B175" s="33">
+      <c r="B175" s="32">
         <f t="shared" si="2"/>
         <v>172</v>
       </c>
       <c r="C175" s="7"/>
       <c r="D175" s="2"/>
-      <c r="E175" s="30" t="s">
+      <c r="E175" s="29" t="s">
         <v>61</v>
       </c>
       <c r="F175" s="22"/>
-      <c r="G175" s="46" t="s">
+      <c r="G175" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="176" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B176" s="33">
+      <c r="B176" s="32">
         <f t="shared" si="2"/>
         <v>173</v>
       </c>
       <c r="C176" s="7"/>
       <c r="D176" s="21"/>
-      <c r="E176" s="28" t="s">
+      <c r="E176" s="27" t="s">
         <v>62</v>
       </c>
       <c r="F176" s="10"/>
-      <c r="G176" s="46" t="s">
+      <c r="G176" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B177" s="33">
+      <c r="B177" s="32">
         <f t="shared" si="2"/>
         <v>174</v>
       </c>
       <c r="C177" s="7"/>
-      <c r="D177" s="49" t="s">
+      <c r="D177" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="E177" s="29" t="s">
+      <c r="E177" s="28" t="s">
         <v>161</v>
       </c>
       <c r="F177" s="15"/>
-      <c r="G177" s="46" t="s">
+      <c r="G177" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B178" s="33">
+      <c r="B178" s="32">
         <f t="shared" si="2"/>
         <v>175</v>
       </c>
       <c r="C178" s="7"/>
-      <c r="D178" s="49"/>
-      <c r="E178" s="30" t="s">
+      <c r="D178" s="48"/>
+      <c r="E178" s="29" t="s">
         <v>164</v>
       </c>
       <c r="F178" s="22"/>
-      <c r="G178" s="46" t="s">
+      <c r="G178" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B179" s="33">
+      <c r="B179" s="32">
         <f t="shared" si="2"/>
         <v>176</v>
       </c>
       <c r="C179" s="7"/>
-      <c r="D179" s="49"/>
-      <c r="E179" s="30" t="s">
+      <c r="D179" s="48"/>
+      <c r="E179" s="29" t="s">
         <v>65</v>
       </c>
       <c r="F179" s="22"/>
-      <c r="G179" s="46" t="s">
+      <c r="G179" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B180" s="33">
+      <c r="B180" s="32">
         <f t="shared" si="2"/>
         <v>177</v>
       </c>
       <c r="C180" s="7"/>
-      <c r="D180" s="51"/>
-      <c r="E180" s="30" t="s">
+      <c r="D180" s="50"/>
+      <c r="E180" s="29" t="s">
         <v>165</v>
       </c>
       <c r="F180" s="22"/>
-      <c r="G180" s="46" t="s">
+      <c r="G180" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B181" s="33">
+      <c r="B181" s="32">
         <f t="shared" si="2"/>
         <v>178</v>
       </c>
       <c r="C181" s="7"/>
-      <c r="D181" s="50"/>
-      <c r="E181" s="28" t="s">
+      <c r="D181" s="49"/>
+      <c r="E181" s="27" t="s">
         <v>170</v>
       </c>
       <c r="F181" s="10"/>
-      <c r="G181" s="46" t="s">
+      <c r="G181" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="182" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B182" s="33">
+      <c r="B182" s="32">
         <f t="shared" si="2"/>
         <v>179</v>
       </c>
@@ -6221,16 +6241,16 @@
       <c r="D182" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E182" s="28" t="s">
+      <c r="E182" s="27" t="s">
         <v>162</v>
       </c>
       <c r="F182" s="10"/>
-      <c r="G182" s="46" t="s">
+      <c r="G182" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="183" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B183" s="33">
+      <c r="B183" s="32">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
@@ -6238,48 +6258,48 @@
       <c r="D183" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E183" s="28" t="s">
+      <c r="E183" s="27" t="s">
         <v>163</v>
       </c>
       <c r="F183" s="10"/>
-      <c r="G183" s="46" t="s">
+      <c r="G183" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="184" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B184" s="33">
+      <c r="B184" s="32">
         <f t="shared" si="2"/>
         <v>181</v>
       </c>
       <c r="C184" s="7"/>
-      <c r="D184" s="49" t="s">
+      <c r="D184" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E184" s="32" t="s">
+      <c r="E184" s="31" t="s">
         <v>66</v>
       </c>
       <c r="F184" s="25"/>
-      <c r="G184" s="46" t="s">
+      <c r="G184" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B185" s="33">
+      <c r="B185" s="32">
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
       <c r="C185" s="9"/>
-      <c r="D185" s="48"/>
-      <c r="E185" s="28" t="s">
+      <c r="D185" s="47"/>
+      <c r="E185" s="27" t="s">
         <v>67</v>
       </c>
       <c r="F185" s="10"/>
-      <c r="G185" s="46" t="s">
+      <c r="G185" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="186" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B186" s="33">
+      <c r="B186" s="32">
         <f t="shared" si="2"/>
         <v>183</v>
       </c>
@@ -6289,93 +6309,93 @@
       <c r="D186" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E186" s="29" t="s">
+      <c r="E186" s="28" t="s">
         <v>171</v>
       </c>
       <c r="F186" s="15"/>
-      <c r="G186" s="46" t="s">
+      <c r="G186" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B187" s="33">
+      <c r="B187" s="32">
         <f t="shared" si="2"/>
         <v>184</v>
       </c>
       <c r="C187" s="7"/>
       <c r="D187" s="2"/>
-      <c r="E187" s="30" t="s">
+      <c r="E187" s="29" t="s">
         <v>172</v>
       </c>
       <c r="F187" s="22"/>
-      <c r="G187" s="46" t="s">
+      <c r="G187" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B188" s="33">
+      <c r="B188" s="32">
         <f t="shared" si="2"/>
         <v>185</v>
       </c>
       <c r="C188" s="7"/>
       <c r="D188" s="2"/>
-      <c r="E188" s="30" t="s">
+      <c r="E188" s="29" t="s">
         <v>173</v>
       </c>
       <c r="F188" s="22"/>
-      <c r="G188" s="46" t="s">
+      <c r="G188" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B189" s="33">
+      <c r="B189" s="32">
         <f t="shared" si="2"/>
         <v>186</v>
       </c>
       <c r="C189" s="7"/>
       <c r="D189" s="2"/>
-      <c r="E189" s="30" t="s">
+      <c r="E189" s="29" t="s">
         <v>174</v>
       </c>
       <c r="F189" s="22"/>
-      <c r="G189" s="46" t="s">
+      <c r="G189" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="190" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B190" s="33">
+      <c r="B190" s="32">
         <f t="shared" si="2"/>
         <v>187</v>
       </c>
       <c r="C190" s="7"/>
       <c r="D190" s="21"/>
-      <c r="E190" s="28" t="s">
+      <c r="E190" s="27" t="s">
         <v>79</v>
       </c>
       <c r="F190" s="10"/>
-      <c r="G190" s="46" t="s">
+      <c r="G190" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="191" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B191" s="33">
+      <c r="B191" s="32">
         <f t="shared" si="2"/>
         <v>188</v>
       </c>
       <c r="C191" s="7"/>
-      <c r="D191" s="50" t="s">
+      <c r="D191" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E191" s="28" t="s">
+      <c r="E191" s="27" t="s">
         <v>175</v>
       </c>
       <c r="F191" s="10"/>
-      <c r="G191" s="46" t="s">
+      <c r="G191" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="192" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B192" s="33">
+      <c r="B192" s="32">
         <f t="shared" si="2"/>
         <v>189</v>
       </c>
@@ -6383,7 +6403,7 @@
       <c r="D192" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E192" s="29" t="s">
+      <c r="E192" s="28" t="s">
         <v>176</v>
       </c>
       <c r="F192" s="15"/>
@@ -6392,13 +6412,13 @@
       </c>
     </row>
     <row r="193" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B193" s="33">
+      <c r="B193" s="32">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="C193" s="7"/>
       <c r="D193" s="2"/>
-      <c r="E193" s="30" t="s">
+      <c r="E193" s="29" t="s">
         <v>177</v>
       </c>
       <c r="F193" s="22"/>
@@ -6407,13 +6427,13 @@
       </c>
     </row>
     <row r="194" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B194" s="33">
+      <c r="B194" s="32">
         <f t="shared" si="2"/>
         <v>191</v>
       </c>
       <c r="C194" s="7"/>
       <c r="D194" s="2"/>
-      <c r="E194" s="30" t="s">
+      <c r="E194" s="29" t="s">
         <v>178</v>
       </c>
       <c r="F194" s="22"/>
@@ -6422,13 +6442,13 @@
       </c>
     </row>
     <row r="195" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B195" s="33">
+      <c r="B195" s="32">
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
       <c r="C195" s="7"/>
       <c r="D195" s="2"/>
-      <c r="E195" s="30" t="s">
+      <c r="E195" s="29" t="s">
         <v>179</v>
       </c>
       <c r="F195" s="22"/>
@@ -6437,13 +6457,13 @@
       </c>
     </row>
     <row r="196" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B196" s="33">
+      <c r="B196" s="32">
         <f t="shared" si="2"/>
         <v>193</v>
       </c>
       <c r="C196" s="7"/>
       <c r="D196" s="2"/>
-      <c r="E196" s="30" t="s">
+      <c r="E196" s="29" t="s">
         <v>180</v>
       </c>
       <c r="F196" s="22"/>
@@ -6452,13 +6472,13 @@
       </c>
     </row>
     <row r="197" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B197" s="33">
+      <c r="B197" s="32">
         <f t="shared" ref="B197:B260" si="3">ROW()-3</f>
         <v>194</v>
       </c>
       <c r="C197" s="7"/>
       <c r="D197" s="2"/>
-      <c r="E197" s="30" t="s">
+      <c r="E197" s="29" t="s">
         <v>181</v>
       </c>
       <c r="F197" s="22"/>
@@ -6467,13 +6487,13 @@
       </c>
     </row>
     <row r="198" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B198" s="33">
+      <c r="B198" s="32">
         <f t="shared" si="3"/>
         <v>195</v>
       </c>
       <c r="C198" s="7"/>
       <c r="D198" s="2"/>
-      <c r="E198" s="30" t="s">
+      <c r="E198" s="29" t="s">
         <v>182</v>
       </c>
       <c r="F198" s="22"/>
@@ -6482,13 +6502,13 @@
       </c>
     </row>
     <row r="199" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B199" s="33">
+      <c r="B199" s="32">
         <f t="shared" si="3"/>
         <v>196</v>
       </c>
       <c r="C199" s="9"/>
       <c r="D199" s="12"/>
-      <c r="E199" s="28" t="s">
+      <c r="E199" s="27" t="s">
         <v>183</v>
       </c>
       <c r="F199" s="10"/>
@@ -6497,176 +6517,176 @@
       </c>
     </row>
     <row r="200" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B200" s="33">
+      <c r="B200" s="32">
         <f t="shared" si="3"/>
         <v>197</v>
       </c>
-      <c r="C200" s="7" t="s">
+      <c r="C200" s="53" t="s">
         <v>22</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E200" s="29" t="s">
+      <c r="E200" s="28" t="s">
         <v>38</v>
       </c>
       <c r="F200" s="15"/>
-      <c r="G200" s="46" t="s">
+      <c r="G200" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="201" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B201" s="33">
+      <c r="B201" s="32">
         <f t="shared" si="3"/>
         <v>198</v>
       </c>
       <c r="C201" s="7"/>
       <c r="D201" s="2"/>
-      <c r="E201" s="30" t="s">
+      <c r="E201" s="57" t="s">
         <v>184</v>
       </c>
       <c r="F201" s="22"/>
-      <c r="G201" s="46" t="s">
+      <c r="G201" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="202" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B202" s="33">
+      <c r="B202" s="32">
         <f t="shared" si="3"/>
         <v>199</v>
       </c>
       <c r="C202" s="7"/>
       <c r="D202" s="2"/>
-      <c r="E202" s="30" t="s">
+      <c r="E202" s="29" t="s">
         <v>185</v>
       </c>
       <c r="F202" s="22"/>
-      <c r="G202" s="46" t="s">
+      <c r="G202" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="203" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B203" s="33">
+      <c r="B203" s="32">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="C203" s="7"/>
       <c r="D203" s="2"/>
-      <c r="E203" s="30" t="s">
+      <c r="E203" s="57" t="s">
         <v>186</v>
       </c>
       <c r="F203" s="22"/>
-      <c r="G203" s="46" t="s">
+      <c r="G203" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="204" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B204" s="33">
+      <c r="B204" s="32">
         <f t="shared" si="3"/>
         <v>201</v>
       </c>
       <c r="C204" s="7"/>
       <c r="D204" s="2"/>
-      <c r="E204" s="30" t="s">
+      <c r="E204" s="58" t="s">
         <v>187</v>
       </c>
       <c r="F204" s="22"/>
-      <c r="G204" s="46" t="s">
+      <c r="G204" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="205" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B205" s="33">
+      <c r="B205" s="32">
         <f t="shared" si="3"/>
         <v>202</v>
       </c>
       <c r="C205" s="7"/>
       <c r="D205" s="2"/>
-      <c r="E205" s="30" t="s">
+      <c r="E205" s="58" t="s">
         <v>188</v>
       </c>
       <c r="F205" s="22"/>
-      <c r="G205" s="46" t="s">
+      <c r="G205" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="206" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B206" s="33">
+      <c r="B206" s="32">
         <f t="shared" si="3"/>
         <v>203</v>
       </c>
       <c r="C206" s="7"/>
       <c r="D206" s="2"/>
-      <c r="E206" s="30" t="s">
+      <c r="E206" s="29" t="s">
         <v>189</v>
       </c>
       <c r="F206" s="22"/>
-      <c r="G206" s="46" t="s">
+      <c r="G206" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="207" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B207" s="33">
+      <c r="B207" s="32">
         <f t="shared" si="3"/>
         <v>204</v>
       </c>
       <c r="C207" s="7"/>
       <c r="D207" s="2"/>
-      <c r="E207" s="30" t="s">
+      <c r="E207" s="29" t="s">
         <v>190</v>
       </c>
       <c r="F207" s="22"/>
-      <c r="G207" s="46" t="s">
+      <c r="G207" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="208" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B208" s="33">
+      <c r="B208" s="32">
         <f t="shared" si="3"/>
         <v>205</v>
       </c>
       <c r="C208" s="7"/>
       <c r="D208" s="2"/>
-      <c r="E208" s="30" t="s">
+      <c r="E208" s="29" t="s">
         <v>191</v>
       </c>
       <c r="F208" s="22"/>
-      <c r="G208" s="46" t="s">
+      <c r="G208" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="209" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B209" s="33">
+      <c r="B209" s="32">
         <f t="shared" si="3"/>
         <v>206</v>
       </c>
       <c r="C209" s="7"/>
       <c r="D209" s="2"/>
-      <c r="E209" s="30" t="s">
+      <c r="E209" s="29" t="s">
         <v>192</v>
       </c>
       <c r="F209" s="22"/>
-      <c r="G209" s="46" t="s">
+      <c r="G209" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="210" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B210" s="33">
+      <c r="B210" s="32">
         <f t="shared" si="3"/>
         <v>207</v>
       </c>
       <c r="C210" s="9"/>
       <c r="D210" s="12"/>
-      <c r="E210" s="28" t="s">
+      <c r="E210" s="46" t="s">
         <v>193</v>
       </c>
       <c r="F210" s="10"/>
-      <c r="G210" s="46" t="s">
+      <c r="G210" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="211" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B211" s="33">
+      <c r="B211" s="32">
         <f t="shared" si="3"/>
         <v>208</v>
       </c>
@@ -6676,14 +6696,14 @@
       <c r="D211" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E211" s="28"/>
+      <c r="E211" s="27"/>
       <c r="F211" s="10"/>
-      <c r="G211" s="46" t="s">
+      <c r="G211" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="212" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B212" s="33">
+      <c r="B212" s="32">
         <f t="shared" si="3"/>
         <v>209</v>
       </c>
@@ -6693,108 +6713,108 @@
       <c r="D212" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E212" s="29" t="s">
+      <c r="E212" s="28" t="s">
         <v>37</v>
       </c>
       <c r="F212" s="15"/>
-      <c r="G212" s="46" t="s">
+      <c r="G212" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="213" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B213" s="33">
+      <c r="B213" s="32">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="C213" s="7"/>
       <c r="D213" s="2"/>
-      <c r="E213" s="30" t="s">
+      <c r="E213" s="29" t="s">
         <v>38</v>
       </c>
       <c r="F213" s="22"/>
-      <c r="G213" s="46" t="s">
+      <c r="G213" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="214" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B214" s="33">
+      <c r="B214" s="32">
         <f t="shared" si="3"/>
         <v>211</v>
       </c>
       <c r="C214" s="7"/>
       <c r="D214" s="2"/>
-      <c r="E214" s="30" t="s">
+      <c r="E214" s="29" t="s">
         <v>60</v>
       </c>
       <c r="F214" s="22"/>
-      <c r="G214" s="46" t="s">
+      <c r="G214" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="215" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B215" s="33">
+      <c r="B215" s="32">
         <f t="shared" si="3"/>
         <v>212</v>
       </c>
       <c r="C215" s="7"/>
       <c r="D215" s="21"/>
-      <c r="E215" s="28" t="s">
+      <c r="E215" s="27" t="s">
         <v>62</v>
       </c>
       <c r="F215" s="10"/>
-      <c r="G215" s="46" t="s">
+      <c r="G215" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="216" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B216" s="33">
+      <c r="B216" s="32">
         <f t="shared" si="3"/>
         <v>213</v>
       </c>
       <c r="C216" s="7"/>
-      <c r="D216" s="49" t="s">
+      <c r="D216" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="E216" s="29" t="s">
+      <c r="E216" s="28" t="s">
         <v>39</v>
       </c>
       <c r="F216" s="15"/>
-      <c r="G216" s="46" t="s">
+      <c r="G216" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="217" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B217" s="33">
+      <c r="B217" s="32">
         <f t="shared" si="3"/>
         <v>214</v>
       </c>
       <c r="C217" s="7"/>
-      <c r="D217" s="49"/>
-      <c r="E217" s="30" t="s">
+      <c r="D217" s="48"/>
+      <c r="E217" s="29" t="s">
         <v>65</v>
       </c>
       <c r="F217" s="22"/>
-      <c r="G217" s="46" t="s">
+      <c r="G217" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="218" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B218" s="33">
+      <c r="B218" s="32">
         <f t="shared" si="3"/>
         <v>215</v>
       </c>
       <c r="C218" s="7"/>
-      <c r="D218" s="50"/>
-      <c r="E218" s="28" t="s">
+      <c r="D218" s="49"/>
+      <c r="E218" s="27" t="s">
         <v>170</v>
       </c>
       <c r="F218" s="10"/>
-      <c r="G218" s="46" t="s">
+      <c r="G218" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="219" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B219" s="33">
+      <c r="B219" s="32">
         <f t="shared" si="3"/>
         <v>216</v>
       </c>
@@ -6802,7 +6822,7 @@
       <c r="D219" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E219" s="29" t="s">
+      <c r="E219" s="28" t="s">
         <v>195</v>
       </c>
       <c r="F219" s="15"/>
@@ -6811,13 +6831,13 @@
       </c>
     </row>
     <row r="220" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B220" s="33">
+      <c r="B220" s="32">
         <f t="shared" si="3"/>
         <v>217</v>
       </c>
       <c r="C220" s="7"/>
       <c r="D220" s="2"/>
-      <c r="E220" s="30" t="s">
+      <c r="E220" s="29" t="s">
         <v>196</v>
       </c>
       <c r="F220" s="22"/>
@@ -6826,13 +6846,13 @@
       </c>
     </row>
     <row r="221" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B221" s="33">
+      <c r="B221" s="32">
         <f t="shared" si="3"/>
         <v>218</v>
       </c>
       <c r="C221" s="7"/>
       <c r="D221" s="2"/>
-      <c r="E221" s="30" t="s">
+      <c r="E221" s="29" t="s">
         <v>57</v>
       </c>
       <c r="F221" s="22"/>
@@ -6841,13 +6861,13 @@
       </c>
     </row>
     <row r="222" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B222" s="33">
+      <c r="B222" s="32">
         <f t="shared" si="3"/>
         <v>219</v>
       </c>
       <c r="C222" s="7"/>
       <c r="D222" s="2"/>
-      <c r="E222" s="30" t="s">
+      <c r="E222" s="29" t="s">
         <v>81</v>
       </c>
       <c r="F222" s="22"/>
@@ -6856,13 +6876,13 @@
       </c>
     </row>
     <row r="223" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B223" s="33">
+      <c r="B223" s="32">
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="C223" s="7"/>
       <c r="D223" s="2"/>
-      <c r="E223" s="30" t="s">
+      <c r="E223" s="29" t="s">
         <v>197</v>
       </c>
       <c r="F223" s="22"/>
@@ -6871,13 +6891,13 @@
       </c>
     </row>
     <row r="224" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B224" s="33">
+      <c r="B224" s="32">
         <f t="shared" si="3"/>
         <v>221</v>
       </c>
       <c r="C224" s="7"/>
       <c r="D224" s="2"/>
-      <c r="E224" s="30" t="s">
+      <c r="E224" s="29" t="s">
         <v>198</v>
       </c>
       <c r="F224" s="22"/>
@@ -6886,13 +6906,13 @@
       </c>
     </row>
     <row r="225" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B225" s="33">
+      <c r="B225" s="32">
         <f t="shared" si="3"/>
         <v>222</v>
       </c>
       <c r="C225" s="7"/>
       <c r="D225" s="2"/>
-      <c r="E225" s="30" t="s">
+      <c r="E225" s="29" t="s">
         <v>199</v>
       </c>
       <c r="F225" s="22"/>
@@ -6901,13 +6921,13 @@
       </c>
     </row>
     <row r="226" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B226" s="33">
+      <c r="B226" s="32">
         <f t="shared" si="3"/>
         <v>223</v>
       </c>
       <c r="C226" s="7"/>
       <c r="D226" s="2"/>
-      <c r="E226" s="30" t="s">
+      <c r="E226" s="29" t="s">
         <v>200</v>
       </c>
       <c r="F226" s="22"/>
@@ -6916,13 +6936,13 @@
       </c>
     </row>
     <row r="227" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B227" s="33">
+      <c r="B227" s="32">
         <f t="shared" si="3"/>
         <v>224</v>
       </c>
       <c r="C227" s="7"/>
       <c r="D227" s="2"/>
-      <c r="E227" s="30" t="s">
+      <c r="E227" s="29" t="s">
         <v>201</v>
       </c>
       <c r="F227" s="22"/>
@@ -6931,13 +6951,13 @@
       </c>
     </row>
     <row r="228" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B228" s="33">
+      <c r="B228" s="32">
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
       <c r="C228" s="7"/>
       <c r="D228" s="2"/>
-      <c r="E228" s="30" t="s">
+      <c r="E228" s="29" t="s">
         <v>202</v>
       </c>
       <c r="F228" s="22"/>
@@ -6946,13 +6966,13 @@
       </c>
     </row>
     <row r="229" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B229" s="33">
+      <c r="B229" s="32">
         <f t="shared" si="3"/>
         <v>226</v>
       </c>
       <c r="C229" s="7"/>
       <c r="D229" s="2"/>
-      <c r="E229" s="30" t="s">
+      <c r="E229" s="29" t="s">
         <v>203</v>
       </c>
       <c r="F229" s="22"/>
@@ -6961,13 +6981,13 @@
       </c>
     </row>
     <row r="230" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B230" s="33">
+      <c r="B230" s="32">
         <f t="shared" si="3"/>
         <v>227</v>
       </c>
       <c r="C230" s="7"/>
       <c r="D230" s="2"/>
-      <c r="E230" s="30" t="s">
+      <c r="E230" s="29" t="s">
         <v>204</v>
       </c>
       <c r="F230" s="22"/>
@@ -6976,13 +6996,13 @@
       </c>
     </row>
     <row r="231" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B231" s="33">
+      <c r="B231" s="32">
         <f t="shared" si="3"/>
         <v>228</v>
       </c>
       <c r="C231" s="7"/>
       <c r="D231" s="2"/>
-      <c r="E231" s="30" t="s">
+      <c r="E231" s="29" t="s">
         <v>205</v>
       </c>
       <c r="F231" s="22"/>
@@ -6991,13 +7011,13 @@
       </c>
     </row>
     <row r="232" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B232" s="33">
+      <c r="B232" s="32">
         <f t="shared" si="3"/>
         <v>229</v>
       </c>
       <c r="C232" s="7"/>
       <c r="D232" s="2"/>
-      <c r="E232" s="30" t="s">
+      <c r="E232" s="29" t="s">
         <v>206</v>
       </c>
       <c r="F232" s="22"/>
@@ -7006,13 +7026,13 @@
       </c>
     </row>
     <row r="233" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B233" s="33">
+      <c r="B233" s="32">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="C233" s="7"/>
       <c r="D233" s="2"/>
-      <c r="E233" s="30" t="s">
+      <c r="E233" s="29" t="s">
         <v>207</v>
       </c>
       <c r="F233" s="22"/>
@@ -7021,13 +7041,13 @@
       </c>
     </row>
     <row r="234" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B234" s="33">
+      <c r="B234" s="32">
         <f t="shared" si="3"/>
         <v>231</v>
       </c>
       <c r="C234" s="7"/>
       <c r="D234" s="2"/>
-      <c r="E234" s="30" t="s">
+      <c r="E234" s="29" t="s">
         <v>208</v>
       </c>
       <c r="F234" s="22"/>
@@ -7036,13 +7056,13 @@
       </c>
     </row>
     <row r="235" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B235" s="33">
+      <c r="B235" s="32">
         <f t="shared" si="3"/>
         <v>232</v>
       </c>
       <c r="C235" s="7"/>
       <c r="D235" s="21"/>
-      <c r="E235" s="28" t="s">
+      <c r="E235" s="27" t="s">
         <v>209</v>
       </c>
       <c r="F235" s="10"/>
@@ -7051,7 +7071,7 @@
       </c>
     </row>
     <row r="236" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B236" s="33">
+      <c r="B236" s="32">
         <f t="shared" si="3"/>
         <v>233</v>
       </c>
@@ -7059,7 +7079,7 @@
       <c r="D236" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E236" s="28" t="s">
+      <c r="E236" s="27" t="s">
         <v>210</v>
       </c>
       <c r="F236" s="10"/>
@@ -7068,7 +7088,7 @@
       </c>
     </row>
     <row r="237" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B237" s="33">
+      <c r="B237" s="32">
         <f t="shared" si="3"/>
         <v>234</v>
       </c>
@@ -7078,273 +7098,273 @@
       <c r="D237" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E237" s="29" t="s">
+      <c r="E237" s="28" t="s">
         <v>173</v>
       </c>
       <c r="F237" s="15"/>
-      <c r="G237" s="46" t="s">
+      <c r="G237" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="238" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B238" s="33">
+      <c r="B238" s="32">
         <f t="shared" si="3"/>
         <v>235</v>
       </c>
       <c r="C238" s="7"/>
       <c r="D238" s="2"/>
-      <c r="E238" s="30" t="s">
+      <c r="E238" s="29" t="s">
         <v>31</v>
       </c>
       <c r="F238" s="22"/>
-      <c r="G238" s="46" t="s">
+      <c r="G238" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="239" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B239" s="33">
+      <c r="B239" s="32">
         <f t="shared" si="3"/>
         <v>236</v>
       </c>
       <c r="C239" s="7"/>
       <c r="D239" s="2"/>
-      <c r="E239" s="30" t="s">
+      <c r="E239" s="29" t="s">
         <v>160</v>
       </c>
       <c r="F239" s="22"/>
-      <c r="G239" s="46" t="s">
+      <c r="G239" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="240" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B240" s="33">
+      <c r="B240" s="32">
         <f t="shared" si="3"/>
         <v>237</v>
       </c>
       <c r="C240" s="7"/>
       <c r="D240" s="2"/>
-      <c r="E240" s="30" t="s">
+      <c r="E240" s="29" t="s">
         <v>211</v>
       </c>
       <c r="F240" s="22"/>
-      <c r="G240" s="46" t="s">
+      <c r="G240" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="241" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B241" s="33">
+      <c r="B241" s="32">
         <f t="shared" si="3"/>
         <v>238</v>
       </c>
       <c r="C241" s="7"/>
       <c r="D241" s="2"/>
-      <c r="E241" s="30" t="s">
+      <c r="E241" s="29" t="s">
         <v>212</v>
       </c>
       <c r="F241" s="22"/>
-      <c r="G241" s="46" t="s">
+      <c r="G241" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="242" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B242" s="33">
+      <c r="B242" s="32">
         <f t="shared" si="3"/>
         <v>239</v>
       </c>
       <c r="C242" s="7"/>
       <c r="D242" s="2"/>
-      <c r="E242" s="30" t="s">
+      <c r="E242" s="29" t="s">
         <v>36</v>
       </c>
       <c r="F242" s="22"/>
-      <c r="G242" s="46" t="s">
+      <c r="G242" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="243" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B243" s="33">
+      <c r="B243" s="32">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="C243" s="7"/>
       <c r="D243" s="2"/>
-      <c r="E243" s="30" t="s">
+      <c r="E243" s="29" t="s">
         <v>73</v>
       </c>
       <c r="F243" s="22"/>
-      <c r="G243" s="46" t="s">
+      <c r="G243" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="244" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B244" s="33">
+      <c r="B244" s="32">
         <f t="shared" si="3"/>
         <v>241</v>
       </c>
       <c r="C244" s="7"/>
       <c r="D244" s="2"/>
-      <c r="E244" s="30" t="s">
+      <c r="E244" s="29" t="s">
         <v>213</v>
       </c>
       <c r="F244" s="22"/>
-      <c r="G244" s="46" t="s">
+      <c r="G244" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="245" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B245" s="33">
+      <c r="B245" s="32">
         <f t="shared" si="3"/>
         <v>242</v>
       </c>
       <c r="C245" s="7"/>
       <c r="D245" s="2"/>
-      <c r="E245" s="30" t="s">
+      <c r="E245" s="29" t="s">
         <v>37</v>
       </c>
       <c r="F245" s="22"/>
-      <c r="G245" s="46" t="s">
+      <c r="G245" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="246" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B246" s="33">
+      <c r="B246" s="32">
         <f t="shared" si="3"/>
         <v>243</v>
       </c>
       <c r="C246" s="7"/>
       <c r="D246" s="2"/>
-      <c r="E246" s="30" t="s">
+      <c r="E246" s="29" t="s">
         <v>75</v>
       </c>
       <c r="F246" s="22"/>
-      <c r="G246" s="46" t="s">
+      <c r="G246" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="247" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B247" s="33">
+      <c r="B247" s="32">
         <f t="shared" si="3"/>
         <v>244</v>
       </c>
       <c r="C247" s="7"/>
       <c r="D247" s="2"/>
-      <c r="E247" s="30" t="s">
+      <c r="E247" s="29" t="s">
         <v>214</v>
       </c>
       <c r="F247" s="22"/>
-      <c r="G247" s="46" t="s">
+      <c r="G247" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="248" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B248" s="33">
+      <c r="B248" s="32">
         <f t="shared" si="3"/>
         <v>245</v>
       </c>
       <c r="C248" s="7"/>
       <c r="D248" s="2"/>
-      <c r="E248" s="30" t="s">
+      <c r="E248" s="29" t="s">
         <v>215</v>
       </c>
       <c r="F248" s="22"/>
-      <c r="G248" s="46" t="s">
+      <c r="G248" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="249" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B249" s="33">
+      <c r="B249" s="32">
         <f t="shared" si="3"/>
         <v>246</v>
       </c>
       <c r="C249" s="7"/>
       <c r="D249" s="2"/>
-      <c r="E249" s="30" t="s">
+      <c r="E249" s="29" t="s">
         <v>38</v>
       </c>
       <c r="F249" s="22"/>
-      <c r="G249" s="46" t="s">
+      <c r="G249" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="250" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B250" s="33">
+      <c r="B250" s="32">
         <f t="shared" si="3"/>
         <v>247</v>
       </c>
       <c r="C250" s="7"/>
       <c r="D250" s="2"/>
-      <c r="E250" s="30" t="s">
+      <c r="E250" s="29" t="s">
         <v>77</v>
       </c>
       <c r="F250" s="22"/>
-      <c r="G250" s="46" t="s">
+      <c r="G250" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="251" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B251" s="33">
+      <c r="B251" s="32">
         <f t="shared" si="3"/>
         <v>248</v>
       </c>
       <c r="C251" s="7"/>
       <c r="D251" s="2"/>
-      <c r="E251" s="30" t="s">
+      <c r="E251" s="29" t="s">
         <v>80</v>
       </c>
       <c r="F251" s="22"/>
-      <c r="G251" s="46" t="s">
+      <c r="G251" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="252" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B252" s="33">
+      <c r="B252" s="32">
         <f t="shared" si="3"/>
         <v>249</v>
       </c>
       <c r="C252" s="7"/>
       <c r="D252" s="2"/>
-      <c r="E252" s="30" t="s">
+      <c r="E252" s="29" t="s">
         <v>216</v>
       </c>
       <c r="F252" s="22"/>
-      <c r="G252" s="46" t="s">
+      <c r="G252" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="253" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B253" s="33">
+      <c r="B253" s="32">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="C253" s="7"/>
       <c r="D253" s="21"/>
-      <c r="E253" s="28" t="s">
+      <c r="E253" s="27" t="s">
         <v>61</v>
       </c>
       <c r="F253" s="10"/>
-      <c r="G253" s="46" t="s">
+      <c r="G253" s="45" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="254" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B254" s="33">
+      <c r="B254" s="32">
         <f t="shared" si="3"/>
         <v>251</v>
       </c>
       <c r="C254" s="7"/>
-      <c r="D254" s="50" t="s">
+      <c r="D254" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E254" s="28" t="s">
+      <c r="E254" s="27" t="s">
         <v>175</v>
       </c>
       <c r="F254" s="10"/>
-      <c r="G254" s="46" t="s">
+      <c r="G254" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="255" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B255" s="33">
+      <c r="B255" s="32">
         <f t="shared" si="3"/>
         <v>252</v>
       </c>
@@ -7352,16 +7372,16 @@
       <c r="D255" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E255" s="28" t="s">
+      <c r="E255" s="27" t="s">
         <v>217</v>
       </c>
       <c r="F255" s="10"/>
-      <c r="G255" s="46" t="s">
+      <c r="G255" s="45" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="256" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B256" s="33">
+      <c r="B256" s="32">
         <f t="shared" si="3"/>
         <v>253</v>
       </c>
@@ -7369,97 +7389,97 @@
       <c r="D256" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E256" s="29" t="s">
+      <c r="E256" s="28" t="s">
         <v>362</v>
       </c>
       <c r="F256" s="15"/>
-      <c r="G256" s="46" t="s">
+      <c r="G256" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="257" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B257" s="33">
+      <c r="B257" s="32">
         <f t="shared" si="3"/>
         <v>254</v>
       </c>
       <c r="C257" s="7"/>
       <c r="D257" s="2"/>
-      <c r="E257" s="30" t="s">
+      <c r="E257" s="29" t="s">
         <v>218</v>
       </c>
       <c r="F257" s="22"/>
-      <c r="G257" s="46" t="s">
+      <c r="G257" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="258" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B258" s="33">
+      <c r="B258" s="32">
         <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="C258" s="7"/>
       <c r="D258" s="2"/>
-      <c r="E258" s="30" t="s">
+      <c r="E258" s="29" t="s">
         <v>219</v>
       </c>
       <c r="F258" s="22"/>
-      <c r="G258" s="46" t="s">
+      <c r="G258" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="259" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B259" s="33">
+      <c r="B259" s="32">
         <f t="shared" si="3"/>
         <v>256</v>
       </c>
       <c r="C259" s="7"/>
       <c r="D259" s="2"/>
-      <c r="E259" s="30" t="s">
+      <c r="E259" s="29" t="s">
         <v>220</v>
       </c>
       <c r="F259" s="22"/>
-      <c r="G259" s="46" t="s">
+      <c r="G259" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="260" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B260" s="33">
+      <c r="B260" s="32">
         <f t="shared" si="3"/>
         <v>257</v>
       </c>
       <c r="C260" s="7"/>
       <c r="D260" s="2"/>
-      <c r="E260" s="30" t="s">
+      <c r="E260" s="29" t="s">
         <v>221</v>
       </c>
       <c r="F260" s="22"/>
-      <c r="G260" s="46" t="s">
+      <c r="G260" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="261" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B261" s="33">
+      <c r="B261" s="32">
         <f t="shared" ref="B261:B312" si="4">ROW()-3</f>
         <v>258</v>
       </c>
       <c r="C261" s="7"/>
       <c r="D261" s="2"/>
-      <c r="E261" s="30" t="s">
+      <c r="E261" s="29" t="s">
         <v>222</v>
       </c>
       <c r="F261" s="22"/>
-      <c r="G261" s="46" t="s">
+      <c r="G261" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="262" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B262" s="33">
+      <c r="B262" s="32">
         <f t="shared" si="4"/>
         <v>259</v>
       </c>
       <c r="C262" s="7"/>
       <c r="D262" s="2"/>
-      <c r="E262" s="30" t="s">
+      <c r="E262" s="29" t="s">
         <v>223</v>
       </c>
       <c r="F262" s="22"/>
@@ -7468,13 +7488,13 @@
       </c>
     </row>
     <row r="263" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B263" s="33">
+      <c r="B263" s="32">
         <f t="shared" si="4"/>
         <v>260</v>
       </c>
       <c r="C263" s="7"/>
       <c r="D263" s="2"/>
-      <c r="E263" s="30" t="s">
+      <c r="E263" s="29" t="s">
         <v>224</v>
       </c>
       <c r="F263" s="22"/>
@@ -7483,13 +7503,13 @@
       </c>
     </row>
     <row r="264" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B264" s="33">
+      <c r="B264" s="32">
         <f t="shared" si="4"/>
         <v>261</v>
       </c>
       <c r="C264" s="7"/>
       <c r="D264" s="2"/>
-      <c r="E264" s="30" t="s">
+      <c r="E264" s="29" t="s">
         <v>225</v>
       </c>
       <c r="F264" s="22"/>
@@ -7498,13 +7518,13 @@
       </c>
     </row>
     <row r="265" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B265" s="33">
+      <c r="B265" s="32">
         <f t="shared" si="4"/>
         <v>262</v>
       </c>
       <c r="C265" s="7"/>
       <c r="D265" s="2"/>
-      <c r="E265" s="30" t="s">
+      <c r="E265" s="29" t="s">
         <v>226</v>
       </c>
       <c r="F265" s="22"/>
@@ -7513,13 +7533,13 @@
       </c>
     </row>
     <row r="266" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B266" s="33">
+      <c r="B266" s="32">
         <f t="shared" si="4"/>
         <v>263</v>
       </c>
       <c r="C266" s="7"/>
       <c r="D266" s="2"/>
-      <c r="E266" s="30" t="s">
+      <c r="E266" s="29" t="s">
         <v>227</v>
       </c>
       <c r="F266" s="22"/>
@@ -7528,13 +7548,13 @@
       </c>
     </row>
     <row r="267" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B267" s="33">
+      <c r="B267" s="32">
         <f t="shared" si="4"/>
         <v>264</v>
       </c>
       <c r="C267" s="7"/>
       <c r="D267" s="2"/>
-      <c r="E267" s="30" t="s">
+      <c r="E267" s="29" t="s">
         <v>228</v>
       </c>
       <c r="F267" s="22"/>
@@ -7543,13 +7563,13 @@
       </c>
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B268" s="33">
+      <c r="B268" s="32">
         <f t="shared" si="4"/>
         <v>265</v>
       </c>
       <c r="C268" s="7"/>
       <c r="D268" s="2"/>
-      <c r="E268" s="30" t="s">
+      <c r="E268" s="29" t="s">
         <v>229</v>
       </c>
       <c r="F268" s="22"/>
@@ -7558,13 +7578,13 @@
       </c>
     </row>
     <row r="269" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B269" s="33">
+      <c r="B269" s="32">
         <f t="shared" si="4"/>
         <v>266</v>
       </c>
       <c r="C269" s="7"/>
       <c r="D269" s="2"/>
-      <c r="E269" s="30" t="s">
+      <c r="E269" s="29" t="s">
         <v>230</v>
       </c>
       <c r="F269" s="22"/>
@@ -7573,13 +7593,13 @@
       </c>
     </row>
     <row r="270" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B270" s="33">
+      <c r="B270" s="32">
         <f t="shared" si="4"/>
         <v>267</v>
       </c>
       <c r="C270" s="7"/>
       <c r="D270" s="2"/>
-      <c r="E270" s="30" t="s">
+      <c r="E270" s="29" t="s">
         <v>231</v>
       </c>
       <c r="F270" s="22"/>
@@ -7588,13 +7608,13 @@
       </c>
     </row>
     <row r="271" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B271" s="33">
+      <c r="B271" s="32">
         <f t="shared" si="4"/>
         <v>268</v>
       </c>
       <c r="C271" s="7"/>
       <c r="D271" s="2"/>
-      <c r="E271" s="30" t="s">
+      <c r="E271" s="29" t="s">
         <v>232</v>
       </c>
       <c r="F271" s="22"/>
@@ -7603,13 +7623,13 @@
       </c>
     </row>
     <row r="272" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B272" s="33">
+      <c r="B272" s="32">
         <f t="shared" si="4"/>
         <v>269</v>
       </c>
       <c r="C272" s="7"/>
       <c r="D272" s="2"/>
-      <c r="E272" s="30" t="s">
+      <c r="E272" s="29" t="s">
         <v>233</v>
       </c>
       <c r="F272" s="22"/>
@@ -7618,13 +7638,13 @@
       </c>
     </row>
     <row r="273" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B273" s="33">
+      <c r="B273" s="32">
         <f t="shared" si="4"/>
         <v>270</v>
       </c>
       <c r="C273" s="7"/>
       <c r="D273" s="2"/>
-      <c r="E273" s="30" t="s">
+      <c r="E273" s="29" t="s">
         <v>181</v>
       </c>
       <c r="F273" s="22"/>
@@ -7633,13 +7653,13 @@
       </c>
     </row>
     <row r="274" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B274" s="33">
+      <c r="B274" s="32">
         <f t="shared" si="4"/>
         <v>271</v>
       </c>
       <c r="C274" s="7"/>
       <c r="D274" s="2"/>
-      <c r="E274" s="30" t="s">
+      <c r="E274" s="29" t="s">
         <v>234</v>
       </c>
       <c r="F274" s="22"/>
@@ -7648,13 +7668,13 @@
       </c>
     </row>
     <row r="275" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B275" s="33">
+      <c r="B275" s="32">
         <f t="shared" si="4"/>
         <v>272</v>
       </c>
       <c r="C275" s="7"/>
       <c r="D275" s="2"/>
-      <c r="E275" s="30" t="s">
+      <c r="E275" s="29" t="s">
         <v>244</v>
       </c>
       <c r="F275" s="22"/>
@@ -7663,13 +7683,13 @@
       </c>
     </row>
     <row r="276" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B276" s="33">
+      <c r="B276" s="32">
         <f t="shared" si="4"/>
         <v>273</v>
       </c>
       <c r="C276" s="7"/>
       <c r="D276" s="2"/>
-      <c r="E276" s="30" t="s">
+      <c r="E276" s="29" t="s">
         <v>245</v>
       </c>
       <c r="F276" s="22"/>
@@ -7678,13 +7698,13 @@
       </c>
     </row>
     <row r="277" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B277" s="33">
+      <c r="B277" s="32">
         <f t="shared" si="4"/>
         <v>274</v>
       </c>
       <c r="C277" s="7"/>
       <c r="D277" s="2"/>
-      <c r="E277" s="30" t="s">
+      <c r="E277" s="29" t="s">
         <v>246</v>
       </c>
       <c r="F277" s="22"/>
@@ -7693,13 +7713,13 @@
       </c>
     </row>
     <row r="278" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B278" s="33">
+      <c r="B278" s="32">
         <f t="shared" si="4"/>
         <v>275</v>
       </c>
       <c r="C278" s="7"/>
       <c r="D278" s="2"/>
-      <c r="E278" s="30" t="s">
+      <c r="E278" s="29" t="s">
         <v>247</v>
       </c>
       <c r="F278" s="22"/>
@@ -7708,13 +7728,13 @@
       </c>
     </row>
     <row r="279" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B279" s="33">
+      <c r="B279" s="32">
         <f t="shared" si="4"/>
         <v>276</v>
       </c>
       <c r="C279" s="7"/>
       <c r="D279" s="2"/>
-      <c r="E279" s="30" t="s">
+      <c r="E279" s="29" t="s">
         <v>248</v>
       </c>
       <c r="F279" s="22"/>
@@ -7723,13 +7743,13 @@
       </c>
     </row>
     <row r="280" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B280" s="33">
+      <c r="B280" s="32">
         <f t="shared" si="4"/>
         <v>277</v>
       </c>
       <c r="C280" s="7"/>
       <c r="D280" s="2"/>
-      <c r="E280" s="30" t="s">
+      <c r="E280" s="29" t="s">
         <v>249</v>
       </c>
       <c r="F280" s="22"/>
@@ -7738,13 +7758,13 @@
       </c>
     </row>
     <row r="281" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B281" s="33">
+      <c r="B281" s="32">
         <f t="shared" si="4"/>
         <v>278</v>
       </c>
       <c r="C281" s="7"/>
       <c r="D281" s="2"/>
-      <c r="E281" s="30" t="s">
+      <c r="E281" s="29" t="s">
         <v>250</v>
       </c>
       <c r="F281" s="22"/>
@@ -7753,13 +7773,13 @@
       </c>
     </row>
     <row r="282" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B282" s="33">
+      <c r="B282" s="32">
         <f t="shared" si="4"/>
         <v>279</v>
       </c>
       <c r="C282" s="7"/>
       <c r="D282" s="2"/>
-      <c r="E282" s="30" t="s">
+      <c r="E282" s="29" t="s">
         <v>251</v>
       </c>
       <c r="F282" s="22"/>
@@ -7768,13 +7788,13 @@
       </c>
     </row>
     <row r="283" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B283" s="33">
+      <c r="B283" s="32">
         <f t="shared" si="4"/>
         <v>280</v>
       </c>
       <c r="C283" s="7"/>
       <c r="D283" s="2"/>
-      <c r="E283" s="30" t="s">
+      <c r="E283" s="29" t="s">
         <v>252</v>
       </c>
       <c r="F283" s="22"/>
@@ -7783,13 +7803,13 @@
       </c>
     </row>
     <row r="284" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B284" s="33">
+      <c r="B284" s="32">
         <f t="shared" si="4"/>
         <v>281</v>
       </c>
       <c r="C284" s="7"/>
       <c r="D284" s="2"/>
-      <c r="E284" s="30" t="s">
+      <c r="E284" s="29" t="s">
         <v>253</v>
       </c>
       <c r="F284" s="22"/>
@@ -7798,13 +7818,13 @@
       </c>
     </row>
     <row r="285" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B285" s="33">
+      <c r="B285" s="32">
         <f t="shared" si="4"/>
         <v>282</v>
       </c>
       <c r="C285" s="7"/>
       <c r="D285" s="2"/>
-      <c r="E285" s="30" t="s">
+      <c r="E285" s="29" t="s">
         <v>254</v>
       </c>
       <c r="F285" s="22"/>
@@ -7813,13 +7833,13 @@
       </c>
     </row>
     <row r="286" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B286" s="33">
+      <c r="B286" s="32">
         <f t="shared" si="4"/>
         <v>283</v>
       </c>
       <c r="C286" s="7"/>
       <c r="D286" s="2"/>
-      <c r="E286" s="30" t="s">
+      <c r="E286" s="29" t="s">
         <v>255</v>
       </c>
       <c r="F286" s="22"/>
@@ -7828,13 +7848,13 @@
       </c>
     </row>
     <row r="287" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B287" s="33">
+      <c r="B287" s="32">
         <f t="shared" si="4"/>
         <v>284</v>
       </c>
       <c r="C287" s="7"/>
       <c r="D287" s="2"/>
-      <c r="E287" s="30" t="s">
+      <c r="E287" s="29" t="s">
         <v>256</v>
       </c>
       <c r="F287" s="22"/>
@@ -7843,13 +7863,13 @@
       </c>
     </row>
     <row r="288" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B288" s="33">
+      <c r="B288" s="32">
         <f t="shared" si="4"/>
         <v>285</v>
       </c>
       <c r="C288" s="7"/>
       <c r="D288" s="16"/>
-      <c r="E288" s="30" t="s">
+      <c r="E288" s="29" t="s">
         <v>257</v>
       </c>
       <c r="F288" s="22"/>
@@ -7858,13 +7878,13 @@
       </c>
     </row>
     <row r="289" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B289" s="33">
+      <c r="B289" s="32">
         <f t="shared" si="4"/>
         <v>286</v>
       </c>
       <c r="C289" s="7"/>
       <c r="D289" s="2"/>
-      <c r="E289" s="30" t="s">
+      <c r="E289" s="29" t="s">
         <v>264</v>
       </c>
       <c r="F289" s="22"/>
@@ -7873,13 +7893,13 @@
       </c>
     </row>
     <row r="290" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B290" s="33">
+      <c r="B290" s="32">
         <f t="shared" si="4"/>
         <v>287</v>
       </c>
       <c r="C290" s="7"/>
       <c r="D290" s="2"/>
-      <c r="E290" s="30" t="s">
+      <c r="E290" s="29" t="s">
         <v>265</v>
       </c>
       <c r="F290" s="22"/>
@@ -7888,13 +7908,13 @@
       </c>
     </row>
     <row r="291" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B291" s="33">
+      <c r="B291" s="32">
         <f t="shared" si="4"/>
         <v>288</v>
       </c>
       <c r="C291" s="7"/>
       <c r="D291" s="2"/>
-      <c r="E291" s="30" t="s">
+      <c r="E291" s="29" t="s">
         <v>266</v>
       </c>
       <c r="F291" s="22"/>
@@ -7903,13 +7923,13 @@
       </c>
     </row>
     <row r="292" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B292" s="33">
+      <c r="B292" s="32">
         <f t="shared" si="4"/>
         <v>289</v>
       </c>
       <c r="C292" s="7"/>
       <c r="D292" s="2"/>
-      <c r="E292" s="30" t="s">
+      <c r="E292" s="29" t="s">
         <v>267</v>
       </c>
       <c r="F292" s="22"/>
@@ -7918,13 +7938,13 @@
       </c>
     </row>
     <row r="293" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B293" s="33">
+      <c r="B293" s="32">
         <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="C293" s="7"/>
       <c r="D293" s="2"/>
-      <c r="E293" s="30" t="s">
+      <c r="E293" s="29" t="s">
         <v>268</v>
       </c>
       <c r="F293" s="22"/>
@@ -7933,13 +7953,13 @@
       </c>
     </row>
     <row r="294" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B294" s="33">
+      <c r="B294" s="32">
         <f t="shared" si="4"/>
         <v>291</v>
       </c>
       <c r="C294" s="7"/>
       <c r="D294" s="2"/>
-      <c r="E294" s="30" t="s">
+      <c r="E294" s="29" t="s">
         <v>269</v>
       </c>
       <c r="F294" s="22"/>
@@ -7948,13 +7968,13 @@
       </c>
     </row>
     <row r="295" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B295" s="33">
+      <c r="B295" s="32">
         <f t="shared" si="4"/>
         <v>292</v>
       </c>
       <c r="C295" s="7"/>
       <c r="D295" s="2"/>
-      <c r="E295" s="30" t="s">
+      <c r="E295" s="29" t="s">
         <v>55</v>
       </c>
       <c r="F295" s="22"/>
@@ -7969,7 +7989,7 @@
       </c>
       <c r="C296" s="7"/>
       <c r="D296" s="21"/>
-      <c r="E296" s="28" t="s">
+      <c r="E296" s="27" t="s">
         <v>270</v>
       </c>
       <c r="F296" s="10"/>
@@ -7978,7 +7998,7 @@
       </c>
     </row>
     <row r="297" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B297" s="33">
+      <c r="B297" s="32">
         <f t="shared" si="4"/>
         <v>294</v>
       </c>
@@ -7986,7 +8006,7 @@
       <c r="D297" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E297" s="29" t="s">
+      <c r="E297" s="28" t="s">
         <v>235</v>
       </c>
       <c r="F297" s="15"/>
@@ -7995,13 +8015,13 @@
       </c>
     </row>
     <row r="298" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B298" s="33">
+      <c r="B298" s="32">
         <f t="shared" si="4"/>
         <v>295</v>
       </c>
       <c r="C298" s="7"/>
       <c r="D298" s="2"/>
-      <c r="E298" s="30" t="s">
+      <c r="E298" s="29" t="s">
         <v>236</v>
       </c>
       <c r="F298" s="22"/>
@@ -8010,13 +8030,13 @@
       </c>
     </row>
     <row r="299" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B299" s="33">
+      <c r="B299" s="32">
         <f t="shared" si="4"/>
         <v>296</v>
       </c>
       <c r="C299" s="7"/>
       <c r="D299" s="2"/>
-      <c r="E299" s="30" t="s">
+      <c r="E299" s="29" t="s">
         <v>237</v>
       </c>
       <c r="F299" s="22"/>
@@ -8025,13 +8045,13 @@
       </c>
     </row>
     <row r="300" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B300" s="33">
+      <c r="B300" s="32">
         <f t="shared" si="4"/>
         <v>297</v>
       </c>
       <c r="C300" s="7"/>
       <c r="D300" s="2"/>
-      <c r="E300" s="30" t="s">
+      <c r="E300" s="29" t="s">
         <v>238</v>
       </c>
       <c r="F300" s="22"/>
@@ -8040,13 +8060,13 @@
       </c>
     </row>
     <row r="301" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B301" s="33">
+      <c r="B301" s="32">
         <f t="shared" si="4"/>
         <v>298</v>
       </c>
       <c r="C301" s="7"/>
       <c r="D301" s="2"/>
-      <c r="E301" s="30" t="s">
+      <c r="E301" s="29" t="s">
         <v>239</v>
       </c>
       <c r="F301" s="22"/>
@@ -8055,13 +8075,13 @@
       </c>
     </row>
     <row r="302" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B302" s="33">
+      <c r="B302" s="32">
         <f t="shared" si="4"/>
         <v>299</v>
       </c>
       <c r="C302" s="7"/>
       <c r="D302" s="2"/>
-      <c r="E302" s="30" t="s">
+      <c r="E302" s="29" t="s">
         <v>240</v>
       </c>
       <c r="F302" s="22"/>
@@ -8070,13 +8090,13 @@
       </c>
     </row>
     <row r="303" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B303" s="33">
+      <c r="B303" s="32">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="C303" s="7"/>
       <c r="D303" s="2"/>
-      <c r="E303" s="30" t="s">
+      <c r="E303" s="29" t="s">
         <v>241</v>
       </c>
       <c r="F303" s="22"/>
@@ -8085,13 +8105,13 @@
       </c>
     </row>
     <row r="304" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B304" s="33">
+      <c r="B304" s="32">
         <f t="shared" si="4"/>
         <v>301</v>
       </c>
       <c r="C304" s="7"/>
       <c r="D304" s="2"/>
-      <c r="E304" s="30" t="s">
+      <c r="E304" s="29" t="s">
         <v>242</v>
       </c>
       <c r="F304" s="22"/>
@@ -8100,13 +8120,13 @@
       </c>
     </row>
     <row r="305" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B305" s="33">
+      <c r="B305" s="32">
         <f t="shared" si="4"/>
         <v>302</v>
       </c>
       <c r="C305" s="7"/>
       <c r="D305" s="2"/>
-      <c r="E305" s="30" t="s">
+      <c r="E305" s="29" t="s">
         <v>209</v>
       </c>
       <c r="F305" s="22"/>
@@ -8115,13 +8135,13 @@
       </c>
     </row>
     <row r="306" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B306" s="33">
+      <c r="B306" s="32">
         <f t="shared" si="4"/>
         <v>303</v>
       </c>
       <c r="C306" s="7"/>
       <c r="D306" s="2"/>
-      <c r="E306" s="30" t="s">
+      <c r="E306" s="29" t="s">
         <v>243</v>
       </c>
       <c r="F306" s="22"/>
@@ -8130,13 +8150,13 @@
       </c>
     </row>
     <row r="307" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B307" s="33">
+      <c r="B307" s="32">
         <f t="shared" si="4"/>
         <v>304</v>
       </c>
       <c r="C307" s="7"/>
       <c r="D307" s="2"/>
-      <c r="E307" s="30" t="s">
+      <c r="E307" s="29" t="s">
         <v>258</v>
       </c>
       <c r="F307" s="22"/>
@@ -8145,13 +8165,13 @@
       </c>
     </row>
     <row r="308" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B308" s="33">
+      <c r="B308" s="32">
         <f t="shared" si="4"/>
         <v>305</v>
       </c>
       <c r="C308" s="7"/>
       <c r="D308" s="2"/>
-      <c r="E308" s="30" t="s">
+      <c r="E308" s="29" t="s">
         <v>259</v>
       </c>
       <c r="F308" s="22"/>
@@ -8160,13 +8180,13 @@
       </c>
     </row>
     <row r="309" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B309" s="33">
+      <c r="B309" s="32">
         <f t="shared" si="4"/>
         <v>306</v>
       </c>
       <c r="C309" s="7"/>
       <c r="D309" s="2"/>
-      <c r="E309" s="30" t="s">
+      <c r="E309" s="29" t="s">
         <v>260</v>
       </c>
       <c r="F309" s="22"/>
@@ -8175,13 +8195,13 @@
       </c>
     </row>
     <row r="310" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B310" s="33">
+      <c r="B310" s="32">
         <f t="shared" si="4"/>
         <v>307</v>
       </c>
       <c r="C310" s="7"/>
       <c r="D310" s="2"/>
-      <c r="E310" s="30" t="s">
+      <c r="E310" s="29" t="s">
         <v>261</v>
       </c>
       <c r="F310" s="22"/>
@@ -8190,13 +8210,13 @@
       </c>
     </row>
     <row r="311" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B311" s="33">
+      <c r="B311" s="32">
         <f t="shared" si="4"/>
         <v>308</v>
       </c>
       <c r="C311" s="7"/>
       <c r="D311" s="2"/>
-      <c r="E311" s="30" t="s">
+      <c r="E311" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F311" s="22"/>
@@ -8205,13 +8225,13 @@
       </c>
     </row>
     <row r="312" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B312" s="33">
+      <c r="B312" s="32">
         <f t="shared" si="4"/>
         <v>309</v>
       </c>
       <c r="C312" s="7"/>
       <c r="D312" s="2"/>
-      <c r="E312" s="30" t="s">
+      <c r="E312" s="29" t="s">
         <v>263</v>
       </c>
       <c r="F312" s="22"/>

--- a/Doc/1.SA/調査/リンク先テーブル調査.xlsx
+++ b/Doc/1.SA/調査/リンク先テーブル調査.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7800" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="9000" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="社内" sheetId="4" r:id="rId1"/>
@@ -3576,7 +3576,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="53" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -3796,7 +3796,7 @@
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="57" t="s">
         <v>199</v>
       </c>
       <c r="F23" s="22"/>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="58" t="s">
         <v>204</v>
       </c>
       <c r="F24" s="22"/>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="58" t="s">
         <v>206</v>
       </c>
       <c r="F25" s="22"/>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="29" t="s">
+      <c r="E26" s="58" t="s">
         <v>207</v>
       </c>
       <c r="F26" s="22"/>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="58" t="s">
         <v>208</v>
       </c>
       <c r="F27" s="22"/>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="29" t="s">
+      <c r="E34" s="57" t="s">
         <v>277</v>
       </c>
       <c r="F34" s="22"/>
@@ -6303,7 +6303,7 @@
         <f t="shared" si="2"/>
         <v>183</v>
       </c>
-      <c r="C186" s="7" t="s">
+      <c r="C186" s="53" t="s">
         <v>21</v>
       </c>
       <c r="D186" s="2" t="s">
@@ -6463,7 +6463,7 @@
       </c>
       <c r="C196" s="7"/>
       <c r="D196" s="2"/>
-      <c r="E196" s="29" t="s">
+      <c r="E196" s="58" t="s">
         <v>180</v>
       </c>
       <c r="F196" s="22"/>
@@ -6508,7 +6508,7 @@
       </c>
       <c r="C199" s="9"/>
       <c r="D199" s="12"/>
-      <c r="E199" s="27" t="s">
+      <c r="E199" s="46" t="s">
         <v>183</v>
       </c>
       <c r="F199" s="10"/>

--- a/Doc/1.SA/調査/リンク先テーブル調査.xlsx
+++ b/Doc/1.SA/調査/リンク先テーブル調査.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9000" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="9600" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="社内" sheetId="4" r:id="rId1"/>
@@ -1362,7 +1362,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1393,6 +1393,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="34">
     <border>
@@ -1807,7 +1813,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1983,6 +1989,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4141,7 +4153,7 @@
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="32">
+      <c r="B46" s="59">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
@@ -4241,7 +4253,7 @@
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="32">
+      <c r="B52" s="59">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
@@ -6690,7 +6702,7 @@
         <f t="shared" si="3"/>
         <v>208</v>
       </c>
-      <c r="C211" s="9" t="s">
+      <c r="C211" s="60" t="s">
         <v>23</v>
       </c>
       <c r="D211" s="12" t="s">

--- a/Doc/1.SA/調査/リンク先テーブル調査.xlsx
+++ b/Doc/1.SA/調査/リンク先テーブル調査.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9600" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="10200" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="社内" sheetId="4" r:id="rId1"/>

--- a/Doc/1.SA/調査/リンク先テーブル調査.xlsx
+++ b/Doc/1.SA/調査/リンク先テーブル調査.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr showObjects="none" filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10200" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="12000" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="社内" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="379">
   <si>
     <t>外注チェック</t>
     <rPh sb="0" eb="2">
@@ -1326,12 +1326,59 @@
     <t>T未払調書</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>他システムが更新する</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当システムで作成</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参照のみ</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未使用(1/6 熊沢様に確認)</t>
+    <rPh sb="0" eb="3">
+      <t>ミシヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>クマザワサマ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1359,6 +1406,13 @@
       <color rgb="FFFF0000"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1813,7 +1867,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1995,6 +2049,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3464,7 +3527,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G313"/>
+  <dimension ref="A1:I313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3479,13 +3542,13 @@
     <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -3500,7 +3563,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>ROW()-3</f>
         <v>1</v>
@@ -3519,7 +3582,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="32">
         <f t="shared" ref="B5:B68" si="0">ROW()-3</f>
         <v>2</v>
@@ -3534,7 +3597,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="32">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3549,7 +3612,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3558,15 +3621,17 @@
       <c r="D7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="46" t="s">
         <v>278</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G7" s="63" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3582,8 +3647,14 @@
       <c r="G8" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>375</v>
+      </c>
+      <c r="I8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="32">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3602,7 +3673,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="32">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3617,7 +3688,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="32">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3632,7 +3703,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="32">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3647,7 +3718,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="32">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3662,7 +3733,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="32">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3679,7 +3750,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="32">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3694,7 +3765,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="32">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4184,7 +4255,7 @@
       <c r="F47" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="G47" s="45" t="s">
+      <c r="G47" s="62" t="s">
         <v>364</v>
       </c>
     </row>
@@ -4205,7 +4276,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="32">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -4220,7 +4291,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="32">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -4235,7 +4306,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="32">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4251,8 +4322,11 @@
       <c r="G51" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="59">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -4271,7 +4345,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="32">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -4286,11 +4360,11 @@
       <c r="F53" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="G53" s="45" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G53" s="61" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="32">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -4304,8 +4378,14 @@
       <c r="G54" s="45" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>375</v>
+      </c>
+      <c r="I54" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="32">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -4321,8 +4401,14 @@
       <c r="G55" s="45" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="45" t="s">
+        <v>374</v>
+      </c>
+      <c r="I55" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="32">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -4336,8 +4422,14 @@
       <c r="G56" s="45" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="45" t="s">
+        <v>374</v>
+      </c>
+      <c r="I56" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="32">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -4356,7 +4448,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="32">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -4371,7 +4463,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="32">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -4386,7 +4478,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="32">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -4401,7 +4493,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="32">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -4416,7 +4508,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="32">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -4431,7 +4523,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="32">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -4446,7 +4538,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="32">
         <f t="shared" si="0"/>
         <v>61</v>

--- a/Doc/1.SA/調査/リンク先テーブル調査.xlsx
+++ b/Doc/1.SA/調査/リンク先テーブル調査.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showObjects="none" filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12000" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="14400" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="社内" sheetId="4" r:id="rId1"/>
     <sheet name="財務部内" sheetId="3" r:id="rId2"/>
+    <sheet name="社内システム" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="407">
   <si>
     <t>外注チェック</t>
     <rPh sb="0" eb="2">
@@ -1373,12 +1374,138 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>■各システムのリンク先テーブル（社内システム）</t>
+    <rPh sb="1" eb="2">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シャナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伝票情報_支店.mdb</t>
+  </si>
+  <si>
+    <t>T_協力会社請求書データ税込</t>
+  </si>
+  <si>
+    <t>T_協力会社請求書データBK</t>
+  </si>
+  <si>
+    <t>ETCデータ.mdb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T損料データ1608</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S業務業績テーブル</t>
+  </si>
+  <si>
+    <t>QP_所属課テーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QP_所属店テーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QP_所属部テーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手作成？</t>
+    <rPh sb="0" eb="3">
+      <t>テサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未払業務テーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rink</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手作成</t>
+    <rPh sb="0" eb="3">
+      <t>テサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQL Serverにマスターを作る</t>
+    <rPh sb="16" eb="17">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_予算無業番</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TW_未払業番前期まで既払</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WT_業番既払</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WT_発注状況テーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>契約外注既払テーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制御テーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QG_業績前月</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QG_業績前月迄</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QP_既払当月テーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QP_既払累計テーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QP_業務マスター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QP_業務予算マスター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dbo_業務決定マスター</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1413,6 +1540,18 @@
       <color rgb="FFFF0000"/>
       <name val="Meiryo UI"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1454,7 +1593,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1861,13 +2000,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2058,6 +2290,108 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2344,7 +2678,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
@@ -2354,13 +2688,13 @@
     <col min="6" max="6" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" thickBot="1"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -2375,7 +2709,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" thickTop="1">
       <c r="B4" s="1">
         <f>ROW()-3</f>
         <v>1</v>
@@ -2391,7 +2725,7 @@
       </c>
       <c r="F4" s="40"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="B5" s="32">
         <f t="shared" ref="B5:B72" si="0">ROW()-3</f>
         <v>2</v>
@@ -2403,7 +2737,7 @@
       </c>
       <c r="F5" s="22"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="B6" s="32">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2415,7 +2749,7 @@
       </c>
       <c r="F6" s="22"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="B7" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2427,7 +2761,7 @@
       </c>
       <c r="F7" s="22"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="B8" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2439,7 +2773,7 @@
       </c>
       <c r="F8" s="22"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="B9" s="32">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2451,7 +2785,7 @@
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="B10" s="44">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2467,7 +2801,7 @@
       </c>
       <c r="F10" s="15"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="B11" s="32">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2479,7 +2813,7 @@
       </c>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="B12" s="32">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2491,7 +2825,7 @@
       </c>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="B13" s="32">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2503,7 +2837,7 @@
       </c>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="B14" s="32">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2515,7 +2849,7 @@
       </c>
       <c r="F14" s="22"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="B15" s="32">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2527,7 +2861,7 @@
       </c>
       <c r="F15" s="22"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="B16" s="32">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2539,7 +2873,7 @@
       </c>
       <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6">
       <c r="B17" s="32">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2551,7 +2885,7 @@
       </c>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6">
       <c r="B18" s="32">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2563,7 +2897,7 @@
       </c>
       <c r="F18" s="22"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6">
       <c r="B19" s="32">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2575,7 +2909,7 @@
       </c>
       <c r="F19" s="22"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6">
       <c r="B20" s="32">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2587,7 +2921,7 @@
       </c>
       <c r="F20" s="22"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6">
       <c r="B21" s="32">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2599,7 +2933,7 @@
       </c>
       <c r="F21" s="22"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6">
       <c r="B22" s="32">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2611,7 +2945,7 @@
       </c>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6">
       <c r="B23" s="32">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2623,7 +2957,7 @@
       </c>
       <c r="F23" s="22"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6">
       <c r="B24" s="32">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2635,7 +2969,7 @@
       </c>
       <c r="F24" s="22"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6">
       <c r="B25" s="32">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2647,7 +2981,7 @@
       </c>
       <c r="F25" s="22"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6">
       <c r="B26" s="32">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2659,7 +2993,7 @@
       </c>
       <c r="F26" s="22"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6">
       <c r="B27" s="32">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2671,7 +3005,7 @@
       </c>
       <c r="F27" s="22"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6">
       <c r="B28" s="32">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2683,7 +3017,7 @@
       </c>
       <c r="F28" s="22"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6">
       <c r="B29" s="32">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2695,7 +3029,7 @@
       </c>
       <c r="F29" s="22"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6">
       <c r="B30" s="32">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2707,7 +3041,7 @@
       </c>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6">
       <c r="B31" s="32">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2719,7 +3053,7 @@
       </c>
       <c r="F31" s="22"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6">
       <c r="B32" s="32">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2731,7 +3065,7 @@
       </c>
       <c r="F32" s="22"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6">
       <c r="B33" s="32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2743,7 +3077,7 @@
       </c>
       <c r="F33" s="22"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6">
       <c r="B34" s="32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2755,7 +3089,7 @@
       </c>
       <c r="F34" s="22"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6">
       <c r="B35" s="32">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2767,7 +3101,7 @@
       </c>
       <c r="F35" s="22"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6">
       <c r="B36" s="32">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2779,7 +3113,7 @@
       </c>
       <c r="F36" s="22"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6">
       <c r="B37" s="32">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2791,7 +3125,7 @@
       </c>
       <c r="F37" s="22"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6">
       <c r="B38" s="32">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2803,7 +3137,7 @@
       </c>
       <c r="F38" s="22"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6">
       <c r="B39" s="32">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2815,7 +3149,7 @@
       </c>
       <c r="F39" s="22"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6">
       <c r="B40" s="32">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2827,7 +3161,7 @@
       </c>
       <c r="F40" s="22"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6">
       <c r="B41" s="32">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2839,7 +3173,7 @@
       </c>
       <c r="F41" s="22"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6">
       <c r="B42" s="32">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2851,7 +3185,7 @@
       </c>
       <c r="F42" s="22"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6">
       <c r="B43" s="32">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2863,7 +3197,7 @@
       </c>
       <c r="F43" s="22"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6">
       <c r="B44" s="32">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2875,7 +3209,7 @@
       </c>
       <c r="F44" s="22"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6">
       <c r="B45" s="32">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2887,7 +3221,7 @@
       </c>
       <c r="F45" s="22"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6">
       <c r="B46" s="32">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2899,7 +3233,7 @@
       </c>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6">
       <c r="B47" s="44">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2915,7 +3249,7 @@
       </c>
       <c r="F47" s="15"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6">
       <c r="B48" s="32">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2927,7 +3261,7 @@
       </c>
       <c r="F48" s="22"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6">
       <c r="B49" s="32">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2939,7 +3273,7 @@
       </c>
       <c r="F49" s="22"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6">
       <c r="B50" s="32">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2951,7 +3285,7 @@
       </c>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6">
       <c r="B51" s="32">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2965,7 +3299,7 @@
       </c>
       <c r="F51" s="15"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6">
       <c r="B52" s="32">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2977,7 +3311,7 @@
       </c>
       <c r="F52" s="22"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6">
       <c r="B53" s="32">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2989,7 +3323,7 @@
       </c>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6">
       <c r="B54" s="44">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3005,7 +3339,7 @@
       </c>
       <c r="F54" s="15"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6">
       <c r="B55" s="32">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3017,7 +3351,7 @@
       </c>
       <c r="F55" s="22"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6">
       <c r="B56" s="32">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3029,7 +3363,7 @@
       </c>
       <c r="F56" s="22"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6">
       <c r="B57" s="32">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3041,7 +3375,7 @@
       </c>
       <c r="F57" s="22"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6">
       <c r="B58" s="32">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3053,7 +3387,7 @@
       </c>
       <c r="F58" s="10"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6">
       <c r="B59" s="32">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3067,7 +3401,7 @@
       </c>
       <c r="F59" s="15"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6">
       <c r="B60" s="32">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3079,7 +3413,7 @@
       </c>
       <c r="F60" s="22"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6">
       <c r="B61" s="32">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -3091,7 +3425,7 @@
       </c>
       <c r="F61" s="22"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6">
       <c r="B62" s="32">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3103,7 +3437,7 @@
       </c>
       <c r="F62" s="22"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6">
       <c r="B63" s="32">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3115,7 +3449,7 @@
       </c>
       <c r="F63" s="22"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6">
       <c r="B64" s="32">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3127,7 +3461,7 @@
       </c>
       <c r="F64" s="22"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6">
       <c r="B65" s="32">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3139,7 +3473,7 @@
       </c>
       <c r="F65" s="22"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6">
       <c r="B66" s="32">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -3151,7 +3485,7 @@
       </c>
       <c r="F66" s="22"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6">
       <c r="B67" s="32">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3163,7 +3497,7 @@
       </c>
       <c r="F67" s="22"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6">
       <c r="B68" s="32">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -3175,7 +3509,7 @@
       </c>
       <c r="F68" s="22"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6">
       <c r="B69" s="32">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -3187,7 +3521,7 @@
       </c>
       <c r="F69" s="22"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6">
       <c r="B70" s="32">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -3199,7 +3533,7 @@
       </c>
       <c r="F70" s="22"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6">
       <c r="B71" s="32">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -3211,7 +3545,7 @@
       </c>
       <c r="F71" s="22"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6">
       <c r="B72" s="32">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -3223,7 +3557,7 @@
       </c>
       <c r="F72" s="22"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6">
       <c r="B73" s="32">
         <f t="shared" ref="B73:B95" si="1">ROW()-3</f>
         <v>70</v>
@@ -3235,7 +3569,7 @@
       </c>
       <c r="F73" s="22"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6">
       <c r="B74" s="32">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -3247,7 +3581,7 @@
       </c>
       <c r="F74" s="22"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:6">
       <c r="B75" s="32">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -3259,7 +3593,7 @@
       </c>
       <c r="F75" s="22"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:6">
       <c r="B76" s="32">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -3271,7 +3605,7 @@
       </c>
       <c r="F76" s="22"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6">
       <c r="B77" s="32">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -3283,7 +3617,7 @@
       </c>
       <c r="F77" s="22"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6">
       <c r="B78" s="32">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -3295,7 +3629,7 @@
       </c>
       <c r="F78" s="10"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6">
       <c r="B79" s="44">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -3309,7 +3643,7 @@
       <c r="E79" s="27"/>
       <c r="F79" s="10"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6">
       <c r="B80" s="44">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -3325,7 +3659,7 @@
       </c>
       <c r="F80" s="10"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6">
       <c r="B81" s="32">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -3339,7 +3673,7 @@
       </c>
       <c r="F81" s="15"/>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6">
       <c r="B82" s="32">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -3351,7 +3685,7 @@
       </c>
       <c r="F82" s="22"/>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6">
       <c r="B83" s="32">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -3363,7 +3697,7 @@
       </c>
       <c r="F83" s="22"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:6">
       <c r="B84" s="32">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -3375,7 +3709,7 @@
       </c>
       <c r="F84" s="22"/>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6">
       <c r="B85" s="32">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -3387,7 +3721,7 @@
       </c>
       <c r="F85" s="22"/>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:6">
       <c r="B86" s="32">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -3399,7 +3733,7 @@
       </c>
       <c r="F86" s="22"/>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:6">
       <c r="B87" s="32">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -3411,7 +3745,7 @@
       </c>
       <c r="F87" s="22"/>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:6">
       <c r="B88" s="32">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -3423,7 +3757,7 @@
       </c>
       <c r="F88" s="22"/>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:6">
       <c r="B89" s="32">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -3435,7 +3769,7 @@
       </c>
       <c r="F89" s="22"/>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:6">
       <c r="B90" s="32">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -3447,7 +3781,7 @@
       </c>
       <c r="F90" s="22"/>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:6">
       <c r="B91" s="32">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -3459,7 +3793,7 @@
       </c>
       <c r="F91" s="22"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:6">
       <c r="B92" s="32">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -3471,7 +3805,7 @@
       </c>
       <c r="F92" s="22"/>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:6">
       <c r="B93" s="32">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -3483,7 +3817,7 @@
       </c>
       <c r="F93" s="10"/>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:6">
       <c r="B94" s="44">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -3499,7 +3833,7 @@
       </c>
       <c r="F94" s="25"/>
     </row>
-    <row r="95" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:6" ht="15" thickBot="1">
       <c r="B95" s="41">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -3511,7 +3845,7 @@
       </c>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:6">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -3529,9 +3863,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I313"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
@@ -3542,13 +3876,13 @@
     <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1"/>
+    <row r="3" spans="1:9" ht="15" thickBot="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -3563,7 +3897,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" thickTop="1">
       <c r="B4" s="1">
         <f>ROW()-3</f>
         <v>1</v>
@@ -3582,7 +3916,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="B5" s="32">
         <f t="shared" ref="B5:B68" si="0">ROW()-3</f>
         <v>2</v>
@@ -3597,7 +3931,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="B6" s="32">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3612,7 +3946,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3631,7 +3965,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="B8" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3654,7 +3988,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="B9" s="32">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3673,7 +4007,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="B10" s="32">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3688,7 +4022,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="32">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3703,7 +4037,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="B12" s="32">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3718,7 +4052,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="B13" s="32">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3733,7 +4067,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="B14" s="32">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3750,7 +4084,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="32">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3765,7 +4099,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="B16" s="32">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3782,7 +4116,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7">
       <c r="B17" s="32">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3797,7 +4131,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7">
       <c r="B18" s="32">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3812,7 +4146,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7">
       <c r="B19" s="32">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3827,7 +4161,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7">
       <c r="B20" s="32">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3842,7 +4176,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7">
       <c r="B21" s="32">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3857,7 +4191,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7">
       <c r="B22" s="32">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3872,7 +4206,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7">
       <c r="B23" s="32">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3887,7 +4221,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7">
       <c r="B24" s="32">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3902,7 +4236,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7">
       <c r="B25" s="32">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3917,7 +4251,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7">
       <c r="B26" s="32">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3932,7 +4266,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7">
       <c r="B27" s="32">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3947,7 +4281,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7">
       <c r="B28" s="32">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3962,7 +4296,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7">
       <c r="B29" s="32">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3977,7 +4311,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7">
       <c r="B30" s="32">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3992,7 +4326,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7">
       <c r="B31" s="32">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4007,7 +4341,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7">
       <c r="B32" s="32">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4022,7 +4356,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7">
       <c r="B33" s="32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4037,7 +4371,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7">
       <c r="B34" s="32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4052,7 +4386,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7">
       <c r="B35" s="32">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4067,7 +4401,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7">
       <c r="B36" s="32">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4082,7 +4416,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7">
       <c r="B37" s="32">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4097,7 +4431,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7">
       <c r="B38" s="32">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4112,7 +4446,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7">
       <c r="B39" s="32">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4127,7 +4461,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7">
       <c r="B40" s="32">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4142,7 +4476,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7">
       <c r="B41" s="32">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4157,7 +4491,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7">
       <c r="B42" s="32">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4172,7 +4506,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7">
       <c r="B43" s="32">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4191,7 +4525,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7">
       <c r="B44" s="32">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4206,7 +4540,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7">
       <c r="B45" s="32">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4223,7 +4557,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7">
       <c r="B46" s="59">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4242,7 +4576,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7">
       <c r="B47" s="32">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -4259,7 +4593,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7">
       <c r="B48" s="32">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -4276,7 +4610,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9">
       <c r="B49" s="32">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -4291,7 +4625,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9">
       <c r="B50" s="32">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -4306,7 +4640,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9">
       <c r="B51" s="32">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4326,7 +4660,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9">
       <c r="B52" s="59">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -4345,7 +4679,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9">
       <c r="B53" s="32">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -4364,7 +4698,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9">
       <c r="B54" s="32">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -4385,7 +4719,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9">
       <c r="B55" s="32">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -4408,7 +4742,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9">
       <c r="B56" s="32">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -4429,7 +4763,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9">
       <c r="B57" s="32">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -4448,7 +4782,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9">
       <c r="B58" s="32">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -4463,7 +4797,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9">
       <c r="B59" s="32">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -4478,7 +4812,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9">
       <c r="B60" s="32">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -4493,7 +4827,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9">
       <c r="B61" s="32">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -4508,7 +4842,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9">
       <c r="B62" s="32">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -4523,7 +4857,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9">
       <c r="B63" s="32">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -4538,7 +4872,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9">
       <c r="B64" s="32">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -4553,7 +4887,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7">
       <c r="B65" s="32">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -4568,7 +4902,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7">
       <c r="B66" s="32">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -4583,7 +4917,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7">
       <c r="B67" s="32">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -4598,7 +4932,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7">
       <c r="B68" s="32">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -4613,7 +4947,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7">
       <c r="B69" s="32">
         <f t="shared" ref="B69:B132" si="1">ROW()-3</f>
         <v>66</v>
@@ -4628,7 +4962,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7">
       <c r="B70" s="32">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -4643,7 +4977,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7">
       <c r="B71" s="32">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -4658,7 +4992,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7">
       <c r="B72" s="32">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -4673,7 +5007,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7">
       <c r="B73" s="32">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -4688,7 +5022,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7">
       <c r="B74" s="32">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -4705,7 +5039,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7">
       <c r="B75" s="32">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -4720,7 +5054,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7">
       <c r="B76" s="32">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -4735,7 +5069,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7">
       <c r="B77" s="32">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -4750,7 +5084,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7">
       <c r="B78" s="32">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -4765,7 +5099,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7">
       <c r="B79" s="32">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -4782,7 +5116,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7">
       <c r="B80" s="32">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -4797,7 +5131,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7">
       <c r="B81" s="32">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -4812,7 +5146,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7">
       <c r="B82" s="32">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -4827,7 +5161,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7">
       <c r="B83" s="32">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -4842,7 +5176,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7">
       <c r="B84" s="32">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -4857,7 +5191,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7">
       <c r="B85" s="32">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -4872,7 +5206,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7">
       <c r="B86" s="32">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -4891,7 +5225,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7">
       <c r="B87" s="32">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -4906,7 +5240,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7">
       <c r="B88" s="32">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -4921,7 +5255,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7">
       <c r="B89" s="32">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -4936,7 +5270,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7">
       <c r="B90" s="32">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -4951,7 +5285,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7">
       <c r="B91" s="32">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -4970,7 +5304,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7">
       <c r="B92" s="32">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -4985,7 +5319,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7">
       <c r="B93" s="32">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -5000,7 +5334,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7">
       <c r="B94" s="32">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -5015,7 +5349,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7">
       <c r="B95" s="32">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -5030,7 +5364,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7">
       <c r="B96" s="32">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -5045,7 +5379,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7">
       <c r="B97" s="32">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -5060,7 +5394,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7">
       <c r="B98" s="32">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -5075,7 +5409,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7">
       <c r="B99" s="32">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -5090,7 +5424,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7">
       <c r="B100" s="32">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -5105,7 +5439,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7">
       <c r="B101" s="32">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -5120,7 +5454,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7">
       <c r="B102" s="32">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -5135,7 +5469,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7">
       <c r="B103" s="32">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -5150,7 +5484,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7">
       <c r="B104" s="32">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -5165,7 +5499,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7">
       <c r="B105" s="32">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -5180,7 +5514,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7">
       <c r="B106" s="32">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -5195,7 +5529,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7">
       <c r="B107" s="32">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -5210,7 +5544,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7">
       <c r="B108" s="32">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -5225,7 +5559,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:7">
       <c r="B109" s="32">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -5240,7 +5574,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:7">
       <c r="B110" s="32">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -5255,7 +5589,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:7">
       <c r="B111" s="32">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -5270,7 +5604,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:7">
       <c r="B112" s="32">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -5285,7 +5619,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:7">
       <c r="B113" s="32">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -5300,7 +5634,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:7">
       <c r="B114" s="32">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -5315,7 +5649,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:7">
       <c r="B115" s="32">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -5330,7 +5664,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:7">
       <c r="B116" s="32">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -5345,7 +5679,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:7">
       <c r="B117" s="32">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -5360,7 +5694,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:7">
       <c r="B118" s="32">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -5375,7 +5709,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:7">
       <c r="B119" s="32">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -5390,7 +5724,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:7">
       <c r="B120" s="32">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -5405,7 +5739,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:7">
       <c r="B121" s="32">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -5420,7 +5754,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:7">
       <c r="B122" s="32">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -5437,7 +5771,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:7">
       <c r="B123" s="32">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -5452,7 +5786,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:7">
       <c r="B124" s="32">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -5467,7 +5801,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:7">
       <c r="B125" s="32">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -5482,7 +5816,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:7">
       <c r="B126" s="32">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -5497,7 +5831,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:7">
       <c r="B127" s="32">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -5512,7 +5846,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:7">
       <c r="B128" s="32">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -5527,7 +5861,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:7">
       <c r="B129" s="32">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -5542,7 +5876,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:7">
       <c r="B130" s="32">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -5557,7 +5891,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:7">
       <c r="B131" s="32">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -5572,7 +5906,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:7">
       <c r="B132" s="32">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -5587,7 +5921,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:7">
       <c r="B133" s="32">
         <f t="shared" ref="B133:B196" si="2">ROW()-3</f>
         <v>130</v>
@@ -5602,7 +5936,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:7">
       <c r="B134" s="32">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -5617,7 +5951,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:7">
       <c r="B135" s="32">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -5632,7 +5966,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:7">
       <c r="B136" s="32">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -5647,7 +5981,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:7">
       <c r="B137" s="32">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -5662,7 +5996,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:7">
       <c r="B138" s="32">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -5677,7 +6011,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:7">
       <c r="B139" s="32">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -5692,7 +6026,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:7">
       <c r="B140" s="32">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -5707,7 +6041,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:7">
       <c r="B141" s="32">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -5722,7 +6056,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:7">
       <c r="B142" s="32">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -5737,7 +6071,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:7">
       <c r="B143" s="32">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -5752,7 +6086,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:7">
       <c r="B144" s="32">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -5767,7 +6101,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:7">
       <c r="B145" s="32">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -5782,7 +6116,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:7">
       <c r="B146" s="32">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -5797,7 +6131,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:7">
       <c r="B147" s="32">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -5812,7 +6146,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:7">
       <c r="B148" s="32">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -5827,7 +6161,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:7">
       <c r="B149" s="32">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -5842,7 +6176,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:7">
       <c r="B150" s="32">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -5857,7 +6191,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:7">
       <c r="B151" s="32">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -5872,7 +6206,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:7">
       <c r="B152" s="32">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -5887,7 +6221,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:7">
       <c r="B153" s="32">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -5902,7 +6236,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:7">
       <c r="B154" s="32">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -5917,7 +6251,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:7">
       <c r="B155" s="32">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -5932,7 +6266,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:7">
       <c r="B156" s="32">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -5947,7 +6281,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:7">
       <c r="B157" s="32">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -5962,7 +6296,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:7">
       <c r="B158" s="32">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -5979,7 +6313,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:7">
       <c r="B159" s="32">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -5998,7 +6332,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="160" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:7" s="14" customFormat="1">
       <c r="B160" s="32">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -6013,7 +6347,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="161" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:7" s="14" customFormat="1">
       <c r="B161" s="32">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -6028,7 +6362,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="162" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:7" s="14" customFormat="1">
       <c r="B162" s="32">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -6043,7 +6377,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="163" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:7" s="14" customFormat="1">
       <c r="B163" s="32">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -6058,7 +6392,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="164" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:7" s="14" customFormat="1">
       <c r="B164" s="32">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -6073,7 +6407,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="165" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:7" s="14" customFormat="1">
       <c r="B165" s="32">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -6088,7 +6422,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:7">
       <c r="B166" s="32">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -6107,7 +6441,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:7">
       <c r="B167" s="32">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -6122,7 +6456,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:7">
       <c r="B168" s="32">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -6137,7 +6471,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:7">
       <c r="B169" s="32">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -6152,7 +6486,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:7">
       <c r="B170" s="32">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -6167,7 +6501,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:7">
       <c r="B171" s="32">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -6184,7 +6518,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:7">
       <c r="B172" s="32">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -6199,7 +6533,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:7">
       <c r="B173" s="32">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -6214,7 +6548,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:7">
       <c r="B174" s="32">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -6229,7 +6563,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:7">
       <c r="B175" s="32">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -6244,7 +6578,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:7">
       <c r="B176" s="32">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -6259,7 +6593,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:7">
       <c r="B177" s="32">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -6276,7 +6610,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:7">
       <c r="B178" s="32">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -6291,7 +6625,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:7">
       <c r="B179" s="32">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -6306,7 +6640,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:7">
       <c r="B180" s="32">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -6321,7 +6655,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:7">
       <c r="B181" s="32">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -6336,7 +6670,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:7">
       <c r="B182" s="32">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -6353,7 +6687,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:7">
       <c r="B183" s="32">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -6370,7 +6704,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:7">
       <c r="B184" s="32">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -6387,7 +6721,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:7">
       <c r="B185" s="32">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -6402,7 +6736,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:7">
       <c r="B186" s="32">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -6421,7 +6755,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:7">
       <c r="B187" s="32">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -6436,7 +6770,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:7">
       <c r="B188" s="32">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -6451,7 +6785,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:7">
       <c r="B189" s="32">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -6466,7 +6800,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:7">
       <c r="B190" s="32">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -6481,7 +6815,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:7">
       <c r="B191" s="32">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -6498,7 +6832,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:7">
       <c r="B192" s="32">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -6510,12 +6844,14 @@
       <c r="E192" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="F192" s="15"/>
+      <c r="F192" s="15" t="s">
+        <v>329</v>
+      </c>
       <c r="G192" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:7">
       <c r="B193" s="32">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -6530,7 +6866,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:7">
       <c r="B194" s="32">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -6545,7 +6881,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:7">
       <c r="B195" s="32">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -6560,7 +6896,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:7">
       <c r="B196" s="32">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -6575,7 +6911,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:7">
       <c r="B197" s="32">
         <f t="shared" ref="B197:B260" si="3">ROW()-3</f>
         <v>194</v>
@@ -6590,7 +6926,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:7">
       <c r="B198" s="32">
         <f t="shared" si="3"/>
         <v>195</v>
@@ -6605,7 +6941,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:7">
       <c r="B199" s="32">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -6620,7 +6956,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:7">
       <c r="B200" s="32">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -6639,7 +6975,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:7">
       <c r="B201" s="32">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -6654,7 +6990,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:7">
       <c r="B202" s="32">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -6669,7 +7005,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:7">
       <c r="B203" s="32">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -6684,7 +7020,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:7">
       <c r="B204" s="32">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -6699,7 +7035,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:7">
       <c r="B205" s="32">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -6714,7 +7050,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:7">
       <c r="B206" s="32">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -6729,7 +7065,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:7">
       <c r="B207" s="32">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -6744,7 +7080,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:7">
       <c r="B208" s="32">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -6759,7 +7095,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:7">
       <c r="B209" s="32">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -6774,7 +7110,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:7">
       <c r="B210" s="32">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -6789,7 +7125,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:7">
       <c r="B211" s="32">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -6806,7 +7142,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:7">
       <c r="B212" s="32">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -6825,7 +7161,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:7">
       <c r="B213" s="32">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -6840,7 +7176,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:7">
       <c r="B214" s="32">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -6855,7 +7191,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:7">
       <c r="B215" s="32">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -6870,7 +7206,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:7">
       <c r="B216" s="32">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -6887,7 +7223,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:7">
       <c r="B217" s="32">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -6902,7 +7238,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:7">
       <c r="B218" s="32">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -6917,7 +7253,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:7">
       <c r="B219" s="32">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -6934,7 +7270,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="220" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:7">
       <c r="B220" s="32">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -6949,7 +7285,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="221" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:7">
       <c r="B221" s="32">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -6964,7 +7300,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="222" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:7">
       <c r="B222" s="32">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -6979,7 +7315,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="223" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:7">
       <c r="B223" s="32">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -6994,7 +7330,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="224" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:7">
       <c r="B224" s="32">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -7009,7 +7345,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:7">
       <c r="B225" s="32">
         <f t="shared" si="3"/>
         <v>222</v>
@@ -7024,7 +7360,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:7">
       <c r="B226" s="32">
         <f t="shared" si="3"/>
         <v>223</v>
@@ -7039,7 +7375,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="227" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:7">
       <c r="B227" s="32">
         <f t="shared" si="3"/>
         <v>224</v>
@@ -7054,7 +7390,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="228" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:7">
       <c r="B228" s="32">
         <f t="shared" si="3"/>
         <v>225</v>
@@ -7069,7 +7405,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="229" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:7">
       <c r="B229" s="32">
         <f t="shared" si="3"/>
         <v>226</v>
@@ -7084,7 +7420,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="230" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:7">
       <c r="B230" s="32">
         <f t="shared" si="3"/>
         <v>227</v>
@@ -7099,7 +7435,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="231" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:7">
       <c r="B231" s="32">
         <f t="shared" si="3"/>
         <v>228</v>
@@ -7114,7 +7450,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="232" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:7">
       <c r="B232" s="32">
         <f t="shared" si="3"/>
         <v>229</v>
@@ -7129,7 +7465,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="233" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:7">
       <c r="B233" s="32">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -7144,7 +7480,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="234" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:7">
       <c r="B234" s="32">
         <f t="shared" si="3"/>
         <v>231</v>
@@ -7159,7 +7495,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="235" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:7">
       <c r="B235" s="32">
         <f t="shared" si="3"/>
         <v>232</v>
@@ -7174,7 +7510,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="236" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:7">
       <c r="B236" s="32">
         <f t="shared" si="3"/>
         <v>233</v>
@@ -7191,7 +7527,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="237" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:7">
       <c r="B237" s="32">
         <f t="shared" si="3"/>
         <v>234</v>
@@ -7210,7 +7546,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="238" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:7">
       <c r="B238" s="32">
         <f t="shared" si="3"/>
         <v>235</v>
@@ -7225,7 +7561,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="239" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:7">
       <c r="B239" s="32">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -7240,7 +7576,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="240" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:7">
       <c r="B240" s="32">
         <f t="shared" si="3"/>
         <v>237</v>
@@ -7255,7 +7591,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="241" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:7">
       <c r="B241" s="32">
         <f t="shared" si="3"/>
         <v>238</v>
@@ -7270,7 +7606,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="242" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:7">
       <c r="B242" s="32">
         <f t="shared" si="3"/>
         <v>239</v>
@@ -7285,7 +7621,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="243" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:7">
       <c r="B243" s="32">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -7300,7 +7636,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="244" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:7">
       <c r="B244" s="32">
         <f t="shared" si="3"/>
         <v>241</v>
@@ -7315,7 +7651,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="245" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:7">
       <c r="B245" s="32">
         <f t="shared" si="3"/>
         <v>242</v>
@@ -7330,7 +7666,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="246" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:7">
       <c r="B246" s="32">
         <f t="shared" si="3"/>
         <v>243</v>
@@ -7345,7 +7681,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="247" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:7">
       <c r="B247" s="32">
         <f t="shared" si="3"/>
         <v>244</v>
@@ -7360,7 +7696,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="248" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:7">
       <c r="B248" s="32">
         <f t="shared" si="3"/>
         <v>245</v>
@@ -7375,7 +7711,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="249" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:7">
       <c r="B249" s="32">
         <f t="shared" si="3"/>
         <v>246</v>
@@ -7390,7 +7726,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="250" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:7">
       <c r="B250" s="32">
         <f t="shared" si="3"/>
         <v>247</v>
@@ -7405,7 +7741,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="251" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:7">
       <c r="B251" s="32">
         <f t="shared" si="3"/>
         <v>248</v>
@@ -7420,7 +7756,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="252" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:7">
       <c r="B252" s="32">
         <f t="shared" si="3"/>
         <v>249</v>
@@ -7435,7 +7771,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="253" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:7">
       <c r="B253" s="32">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -7450,7 +7786,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="254" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:7">
       <c r="B254" s="32">
         <f t="shared" si="3"/>
         <v>251</v>
@@ -7467,7 +7803,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="255" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:7">
       <c r="B255" s="32">
         <f t="shared" si="3"/>
         <v>252</v>
@@ -7484,7 +7820,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="256" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:7">
       <c r="B256" s="32">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -7501,7 +7837,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="257" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:7">
       <c r="B257" s="32">
         <f t="shared" si="3"/>
         <v>254</v>
@@ -7516,7 +7852,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="258" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:7">
       <c r="B258" s="32">
         <f t="shared" si="3"/>
         <v>255</v>
@@ -7531,7 +7867,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="259" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:7">
       <c r="B259" s="32">
         <f t="shared" si="3"/>
         <v>256</v>
@@ -7546,7 +7882,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="260" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:7">
       <c r="B260" s="32">
         <f t="shared" si="3"/>
         <v>257</v>
@@ -7561,7 +7897,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="261" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:7">
       <c r="B261" s="32">
         <f t="shared" ref="B261:B312" si="4">ROW()-3</f>
         <v>258</v>
@@ -7576,7 +7912,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="262" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:7">
       <c r="B262" s="32">
         <f t="shared" si="4"/>
         <v>259</v>
@@ -7591,7 +7927,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="263" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:7">
       <c r="B263" s="32">
         <f t="shared" si="4"/>
         <v>260</v>
@@ -7606,7 +7942,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="264" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:7">
       <c r="B264" s="32">
         <f t="shared" si="4"/>
         <v>261</v>
@@ -7621,7 +7957,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="265" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:7">
       <c r="B265" s="32">
         <f t="shared" si="4"/>
         <v>262</v>
@@ -7636,7 +7972,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="266" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:7">
       <c r="B266" s="32">
         <f t="shared" si="4"/>
         <v>263</v>
@@ -7651,7 +7987,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="267" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:7">
       <c r="B267" s="32">
         <f t="shared" si="4"/>
         <v>264</v>
@@ -7666,7 +8002,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="268" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:7">
       <c r="B268" s="32">
         <f t="shared" si="4"/>
         <v>265</v>
@@ -7681,7 +8017,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="269" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:7">
       <c r="B269" s="32">
         <f t="shared" si="4"/>
         <v>266</v>
@@ -7696,7 +8032,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="270" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:7">
       <c r="B270" s="32">
         <f t="shared" si="4"/>
         <v>267</v>
@@ -7711,7 +8047,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="271" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:7">
       <c r="B271" s="32">
         <f t="shared" si="4"/>
         <v>268</v>
@@ -7726,7 +8062,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="272" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:7">
       <c r="B272" s="32">
         <f t="shared" si="4"/>
         <v>269</v>
@@ -7741,7 +8077,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="273" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:7">
       <c r="B273" s="32">
         <f t="shared" si="4"/>
         <v>270</v>
@@ -7756,7 +8092,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="274" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:7">
       <c r="B274" s="32">
         <f t="shared" si="4"/>
         <v>271</v>
@@ -7771,7 +8107,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="275" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:7">
       <c r="B275" s="32">
         <f t="shared" si="4"/>
         <v>272</v>
@@ -7786,7 +8122,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="276" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:7">
       <c r="B276" s="32">
         <f t="shared" si="4"/>
         <v>273</v>
@@ -7801,7 +8137,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="277" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:7">
       <c r="B277" s="32">
         <f t="shared" si="4"/>
         <v>274</v>
@@ -7816,7 +8152,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="278" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:7">
       <c r="B278" s="32">
         <f t="shared" si="4"/>
         <v>275</v>
@@ -7831,7 +8167,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="279" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:7">
       <c r="B279" s="32">
         <f t="shared" si="4"/>
         <v>276</v>
@@ -7846,7 +8182,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="280" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:7">
       <c r="B280" s="32">
         <f t="shared" si="4"/>
         <v>277</v>
@@ -7861,7 +8197,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="281" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:7">
       <c r="B281" s="32">
         <f t="shared" si="4"/>
         <v>278</v>
@@ -7876,7 +8212,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="282" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:7">
       <c r="B282" s="32">
         <f t="shared" si="4"/>
         <v>279</v>
@@ -7891,7 +8227,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="283" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:7">
       <c r="B283" s="32">
         <f t="shared" si="4"/>
         <v>280</v>
@@ -7906,7 +8242,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="284" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:7">
       <c r="B284" s="32">
         <f t="shared" si="4"/>
         <v>281</v>
@@ -7921,7 +8257,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="285" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:7">
       <c r="B285" s="32">
         <f t="shared" si="4"/>
         <v>282</v>
@@ -7936,7 +8272,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="286" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:7">
       <c r="B286" s="32">
         <f t="shared" si="4"/>
         <v>283</v>
@@ -7951,7 +8287,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="287" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:7">
       <c r="B287" s="32">
         <f t="shared" si="4"/>
         <v>284</v>
@@ -7966,7 +8302,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="288" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:7">
       <c r="B288" s="32">
         <f t="shared" si="4"/>
         <v>285</v>
@@ -7981,7 +8317,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="289" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:7">
       <c r="B289" s="32">
         <f t="shared" si="4"/>
         <v>286</v>
@@ -7996,7 +8332,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="290" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:7">
       <c r="B290" s="32">
         <f t="shared" si="4"/>
         <v>287</v>
@@ -8011,7 +8347,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="291" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:7">
       <c r="B291" s="32">
         <f t="shared" si="4"/>
         <v>288</v>
@@ -8026,7 +8362,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="292" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:7">
       <c r="B292" s="32">
         <f t="shared" si="4"/>
         <v>289</v>
@@ -8041,7 +8377,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="293" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:7">
       <c r="B293" s="32">
         <f t="shared" si="4"/>
         <v>290</v>
@@ -8056,7 +8392,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="294" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:7">
       <c r="B294" s="32">
         <f t="shared" si="4"/>
         <v>291</v>
@@ -8071,7 +8407,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="295" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:7">
       <c r="B295" s="32">
         <f t="shared" si="4"/>
         <v>292</v>
@@ -8086,7 +8422,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="296" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:7">
       <c r="B296" s="1">
         <f t="shared" si="4"/>
         <v>293</v>
@@ -8101,7 +8437,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="297" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:7">
       <c r="B297" s="32">
         <f t="shared" si="4"/>
         <v>294</v>
@@ -8118,7 +8454,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="298" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:7">
       <c r="B298" s="32">
         <f t="shared" si="4"/>
         <v>295</v>
@@ -8133,7 +8469,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="299" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:7">
       <c r="B299" s="32">
         <f t="shared" si="4"/>
         <v>296</v>
@@ -8148,7 +8484,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="300" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:7">
       <c r="B300" s="32">
         <f t="shared" si="4"/>
         <v>297</v>
@@ -8163,7 +8499,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="301" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:7">
       <c r="B301" s="32">
         <f t="shared" si="4"/>
         <v>298</v>
@@ -8178,7 +8514,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="302" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:7">
       <c r="B302" s="32">
         <f t="shared" si="4"/>
         <v>299</v>
@@ -8193,7 +8529,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="303" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:7">
       <c r="B303" s="32">
         <f t="shared" si="4"/>
         <v>300</v>
@@ -8208,7 +8544,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="304" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:7">
       <c r="B304" s="32">
         <f t="shared" si="4"/>
         <v>301</v>
@@ -8223,7 +8559,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="305" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:7">
       <c r="B305" s="32">
         <f t="shared" si="4"/>
         <v>302</v>
@@ -8238,7 +8574,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="306" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:7">
       <c r="B306" s="32">
         <f t="shared" si="4"/>
         <v>303</v>
@@ -8253,7 +8589,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="307" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:7">
       <c r="B307" s="32">
         <f t="shared" si="4"/>
         <v>304</v>
@@ -8268,7 +8604,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="308" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:7">
       <c r="B308" s="32">
         <f t="shared" si="4"/>
         <v>305</v>
@@ -8283,7 +8619,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="309" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:7">
       <c r="B309" s="32">
         <f t="shared" si="4"/>
         <v>306</v>
@@ -8298,7 +8634,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="310" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:7">
       <c r="B310" s="32">
         <f t="shared" si="4"/>
         <v>307</v>
@@ -8313,7 +8649,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="311" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:7">
       <c r="B311" s="32">
         <f t="shared" si="4"/>
         <v>308</v>
@@ -8328,7 +8664,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="312" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:7" ht="15" thickBot="1">
       <c r="B312" s="32">
         <f t="shared" si="4"/>
         <v>309</v>
@@ -8343,12 +8679,1485 @@
         <v>366</v>
       </c>
     </row>
-    <row r="313" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:7">
       <c r="B313" s="19"/>
       <c r="C313" s="19"/>
       <c r="D313" s="19"/>
       <c r="E313" s="19"/>
       <c r="F313" s="19"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="64" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="64" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="64" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="64" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5" style="64" customWidth="1"/>
+    <col min="7" max="7" width="9" style="64"/>
+    <col min="8" max="8" width="8" style="64" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.75" style="64" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="64"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="64" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1"/>
+    <row r="3" spans="1:10" ht="15" thickBot="1">
+      <c r="B3" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="67"/>
+      <c r="F3" s="68" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickTop="1">
+      <c r="B4" s="69">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="87"/>
+      <c r="G4" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="76">
+        <f t="shared" ref="B5:B17" si="0">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="73"/>
+      <c r="D5" s="93" t="s">
+        <v>383</v>
+      </c>
+      <c r="E5" s="94" t="s">
+        <v>353</v>
+      </c>
+      <c r="F5" s="95"/>
+      <c r="G5" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="76">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="73"/>
+      <c r="D6" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="74" t="s">
+        <v>349</v>
+      </c>
+      <c r="F6" s="75"/>
+      <c r="G6" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="76">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="73"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="88" t="s">
+        <v>350</v>
+      </c>
+      <c r="F7" s="89"/>
+      <c r="G7" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="76">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="73"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="88" t="s">
+        <v>351</v>
+      </c>
+      <c r="F8" s="89"/>
+      <c r="G8" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="76">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="73"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="88" t="s">
+        <v>352</v>
+      </c>
+      <c r="F9" s="89"/>
+      <c r="G9" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="76">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="73"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="88" t="s">
+        <v>354</v>
+      </c>
+      <c r="F10" s="89"/>
+      <c r="G10" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="76">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="73"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="88" t="s">
+        <v>355</v>
+      </c>
+      <c r="F11" s="89"/>
+      <c r="G11" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="76">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="73"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="88" t="s">
+        <v>196</v>
+      </c>
+      <c r="F12" s="89"/>
+      <c r="G12" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="76">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="73"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="89"/>
+      <c r="G13" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="76">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="73"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="88" t="s">
+        <v>356</v>
+      </c>
+      <c r="F14" s="89" t="s">
+        <v>384</v>
+      </c>
+      <c r="G14" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="76">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="73"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="88" t="s">
+        <v>357</v>
+      </c>
+      <c r="F15" s="89"/>
+      <c r="G15" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="76">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="73"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="88" t="s">
+        <v>276</v>
+      </c>
+      <c r="F16" s="89"/>
+      <c r="G16" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="76">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="80"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="82" t="s">
+        <v>358</v>
+      </c>
+      <c r="F17" s="83"/>
+      <c r="G17" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="76">
+        <f t="shared" ref="B18:B94" si="1">ROW()-3</f>
+        <v>15</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>359</v>
+      </c>
+      <c r="D18" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="90" t="s">
+        <v>360</v>
+      </c>
+      <c r="F18" s="91"/>
+      <c r="G18" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="76">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C19" s="80"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="83"/>
+      <c r="G19" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="84">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C20" s="73" t="s">
+        <v>324</v>
+      </c>
+      <c r="D20" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="74" t="s">
+        <v>179</v>
+      </c>
+      <c r="F20" s="75"/>
+      <c r="G20" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="84">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="73"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="F21" s="89"/>
+      <c r="G21" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="84">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C22" s="73"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="82" t="s">
+        <v>288</v>
+      </c>
+      <c r="F22" s="83"/>
+      <c r="G22" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="84">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C23" s="73"/>
+      <c r="D23" s="71" t="s">
+        <v>380</v>
+      </c>
+      <c r="E23" s="74" t="s">
+        <v>325</v>
+      </c>
+      <c r="F23" s="75"/>
+      <c r="G23" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="84">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="C24" s="73"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="88" t="s">
+        <v>326</v>
+      </c>
+      <c r="F24" s="89" t="s">
+        <v>381</v>
+      </c>
+      <c r="G24" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="84">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C25" s="73"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="88" t="s">
+        <v>327</v>
+      </c>
+      <c r="F25" s="89" t="s">
+        <v>382</v>
+      </c>
+      <c r="G25" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="84">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C26" s="80"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="82" t="s">
+        <v>276</v>
+      </c>
+      <c r="F26" s="83"/>
+      <c r="G26" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="84">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C27" s="73" t="s">
+        <v>328</v>
+      </c>
+      <c r="D27" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="74" t="s">
+        <v>406</v>
+      </c>
+      <c r="F27" s="75"/>
+      <c r="G27" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="69"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="96" t="s">
+        <v>338</v>
+      </c>
+      <c r="F28" s="89"/>
+      <c r="G28" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="69"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="88" t="s">
+        <v>339</v>
+      </c>
+      <c r="F29" s="89"/>
+      <c r="G29" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="69"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="96" t="s">
+        <v>343</v>
+      </c>
+      <c r="F30" s="89" t="s">
+        <v>385</v>
+      </c>
+      <c r="G30" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="69"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="82" t="s">
+        <v>344</v>
+      </c>
+      <c r="F31" s="83"/>
+      <c r="G31" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="69"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="74" t="s">
+        <v>400</v>
+      </c>
+      <c r="F32" s="75"/>
+      <c r="G32" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="69"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="88" t="s">
+        <v>401</v>
+      </c>
+      <c r="F33" s="89"/>
+      <c r="G33" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="69"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="88" t="s">
+        <v>402</v>
+      </c>
+      <c r="F34" s="89"/>
+      <c r="G34" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="69"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="88" t="s">
+        <v>403</v>
+      </c>
+      <c r="F35" s="89"/>
+      <c r="G35" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="69"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="88" t="s">
+        <v>404</v>
+      </c>
+      <c r="F36" s="89"/>
+      <c r="G36" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="69"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="88" t="s">
+        <v>405</v>
+      </c>
+      <c r="F37" s="89"/>
+      <c r="G37" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="69"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="88" t="s">
+        <v>391</v>
+      </c>
+      <c r="F38" s="89"/>
+      <c r="G38" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H38" s="72" t="s">
+        <v>389</v>
+      </c>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="69"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="96" t="s">
+        <v>334</v>
+      </c>
+      <c r="F39" s="89"/>
+      <c r="G39" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="69"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="88" t="s">
+        <v>335</v>
+      </c>
+      <c r="F40" s="89"/>
+      <c r="G40" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H40" s="72" t="s">
+        <v>392</v>
+      </c>
+      <c r="I40" s="72" t="s">
+        <v>393</v>
+      </c>
+      <c r="J40" s="72"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="69"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="88" t="s">
+        <v>308</v>
+      </c>
+      <c r="F41" s="89" t="s">
+        <v>386</v>
+      </c>
+      <c r="G41" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H41" s="72" t="s">
+        <v>392</v>
+      </c>
+      <c r="I41" s="72" t="s">
+        <v>393</v>
+      </c>
+      <c r="J41" s="72"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="69"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="88" t="s">
+        <v>133</v>
+      </c>
+      <c r="F42" s="89" t="s">
+        <v>387</v>
+      </c>
+      <c r="G42" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H42" s="72" t="s">
+        <v>392</v>
+      </c>
+      <c r="I42" s="72" t="s">
+        <v>393</v>
+      </c>
+      <c r="J42" s="72"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="69"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="F43" s="89" t="s">
+        <v>388</v>
+      </c>
+      <c r="G43" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H43" s="72" t="s">
+        <v>392</v>
+      </c>
+      <c r="I43" s="72" t="s">
+        <v>393</v>
+      </c>
+      <c r="J43" s="72"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="69"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="88" t="s">
+        <v>394</v>
+      </c>
+      <c r="F44" s="89"/>
+      <c r="G44" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H44" s="72"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="72"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="69"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="88" t="s">
+        <v>395</v>
+      </c>
+      <c r="F45" s="89"/>
+      <c r="G45" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H45" s="72"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="72"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="69"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="88" t="s">
+        <v>396</v>
+      </c>
+      <c r="F46" s="89"/>
+      <c r="G46" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="72"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="69"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="88" t="s">
+        <v>397</v>
+      </c>
+      <c r="F47" s="89"/>
+      <c r="G47" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="72"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="69"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="88" t="s">
+        <v>398</v>
+      </c>
+      <c r="F48" s="89"/>
+      <c r="G48" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="72"/>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="69"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="97" t="s">
+        <v>399</v>
+      </c>
+      <c r="F49" s="89"/>
+      <c r="G49" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H49" s="72"/>
+      <c r="I49" s="72"/>
+      <c r="J49" s="72"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="79"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="F50" s="83"/>
+      <c r="G50" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="72"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="84">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="C51" s="73" t="s">
+        <v>283</v>
+      </c>
+      <c r="D51" s="71"/>
+      <c r="E51" s="74" t="s">
+        <v>285</v>
+      </c>
+      <c r="F51" s="75"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="72"/>
+      <c r="J51" s="72"/>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="69"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="74" t="s">
+        <v>286</v>
+      </c>
+      <c r="F52" s="75"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="69"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="71"/>
+      <c r="E53" s="74" t="s">
+        <v>287</v>
+      </c>
+      <c r="F53" s="75"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="69"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="74" t="s">
+        <v>288</v>
+      </c>
+      <c r="F54" s="75"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="72"/>
+      <c r="J54" s="72"/>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="69"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="F55" s="75"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="72"/>
+      <c r="J55" s="72"/>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="79"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="82" t="s">
+        <v>289</v>
+      </c>
+      <c r="F56" s="83"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="72"/>
+      <c r="I56" s="72"/>
+      <c r="J56" s="72"/>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="84">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="C57" s="73" t="s">
+        <v>290</v>
+      </c>
+      <c r="D57" s="71"/>
+      <c r="E57" s="74" t="s">
+        <v>292</v>
+      </c>
+      <c r="F57" s="75"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="72"/>
+      <c r="I57" s="72"/>
+      <c r="J57" s="72"/>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="69"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="74" t="s">
+        <v>293</v>
+      </c>
+      <c r="F58" s="75"/>
+      <c r="G58" s="72"/>
+      <c r="H58" s="72"/>
+      <c r="I58" s="72"/>
+      <c r="J58" s="72"/>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="69"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="74" t="s">
+        <v>294</v>
+      </c>
+      <c r="F59" s="75"/>
+      <c r="G59" s="72"/>
+      <c r="H59" s="72"/>
+      <c r="I59" s="72"/>
+      <c r="J59" s="72"/>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="69"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="74" t="s">
+        <v>295</v>
+      </c>
+      <c r="F60" s="75"/>
+      <c r="G60" s="72"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="72"/>
+      <c r="J60" s="72"/>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="69"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="74" t="s">
+        <v>296</v>
+      </c>
+      <c r="F61" s="75"/>
+      <c r="G61" s="72"/>
+      <c r="H61" s="72"/>
+      <c r="I61" s="72"/>
+      <c r="J61" s="72"/>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="69"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="74" t="s">
+        <v>297</v>
+      </c>
+      <c r="F62" s="75"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="72"/>
+      <c r="J62" s="72"/>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="69"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="71"/>
+      <c r="E63" s="74" t="s">
+        <v>298</v>
+      </c>
+      <c r="F63" s="75"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="72"/>
+      <c r="J63" s="72"/>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" s="69"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="74" t="s">
+        <v>299</v>
+      </c>
+      <c r="F64" s="75"/>
+      <c r="G64" s="72"/>
+      <c r="H64" s="72"/>
+      <c r="I64" s="72"/>
+      <c r="J64" s="72"/>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="69"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="74" t="s">
+        <v>300</v>
+      </c>
+      <c r="F65" s="75"/>
+      <c r="G65" s="72"/>
+      <c r="H65" s="72"/>
+      <c r="I65" s="72"/>
+      <c r="J65" s="72"/>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" s="69"/>
+      <c r="C66" s="73"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="74" t="s">
+        <v>301</v>
+      </c>
+      <c r="F66" s="75"/>
+      <c r="G66" s="72"/>
+      <c r="H66" s="72"/>
+      <c r="I66" s="72"/>
+      <c r="J66" s="72"/>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="69"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="71"/>
+      <c r="E67" s="74" t="s">
+        <v>302</v>
+      </c>
+      <c r="F67" s="75"/>
+      <c r="G67" s="72"/>
+      <c r="H67" s="72"/>
+      <c r="I67" s="72"/>
+      <c r="J67" s="72"/>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" s="69"/>
+      <c r="C68" s="73"/>
+      <c r="D68" s="71"/>
+      <c r="E68" s="74" t="s">
+        <v>303</v>
+      </c>
+      <c r="F68" s="75"/>
+      <c r="G68" s="72"/>
+      <c r="H68" s="72"/>
+      <c r="I68" s="72"/>
+      <c r="J68" s="72"/>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" s="69"/>
+      <c r="C69" s="73"/>
+      <c r="D69" s="71"/>
+      <c r="E69" s="74" t="s">
+        <v>304</v>
+      </c>
+      <c r="F69" s="75"/>
+      <c r="G69" s="72"/>
+      <c r="H69" s="72"/>
+      <c r="I69" s="72"/>
+      <c r="J69" s="72"/>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="69"/>
+      <c r="C70" s="73"/>
+      <c r="D70" s="71"/>
+      <c r="E70" s="74" t="s">
+        <v>305</v>
+      </c>
+      <c r="F70" s="75"/>
+      <c r="G70" s="72"/>
+      <c r="H70" s="72"/>
+      <c r="I70" s="72"/>
+      <c r="J70" s="72"/>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="69"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="71"/>
+      <c r="E71" s="74" t="s">
+        <v>306</v>
+      </c>
+      <c r="F71" s="75"/>
+      <c r="G71" s="72"/>
+      <c r="H71" s="72"/>
+      <c r="I71" s="72"/>
+      <c r="J71" s="72"/>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="69"/>
+      <c r="C72" s="73"/>
+      <c r="D72" s="71"/>
+      <c r="E72" s="74" t="s">
+        <v>307</v>
+      </c>
+      <c r="F72" s="75"/>
+      <c r="G72" s="72"/>
+      <c r="H72" s="72"/>
+      <c r="I72" s="72"/>
+      <c r="J72" s="72"/>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="69"/>
+      <c r="C73" s="73"/>
+      <c r="D73" s="71"/>
+      <c r="E73" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="F73" s="75"/>
+      <c r="G73" s="72"/>
+      <c r="H73" s="72"/>
+      <c r="I73" s="72"/>
+      <c r="J73" s="72"/>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" s="69"/>
+      <c r="C74" s="73"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="74" t="s">
+        <v>308</v>
+      </c>
+      <c r="F74" s="75"/>
+      <c r="G74" s="72"/>
+      <c r="H74" s="72"/>
+      <c r="I74" s="72"/>
+      <c r="J74" s="72"/>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" s="69"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="71"/>
+      <c r="E75" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="F75" s="75"/>
+      <c r="G75" s="72"/>
+      <c r="H75" s="72"/>
+      <c r="I75" s="72"/>
+      <c r="J75" s="72"/>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" s="69"/>
+      <c r="C76" s="73"/>
+      <c r="D76" s="71"/>
+      <c r="E76" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="F76" s="75"/>
+      <c r="G76" s="72"/>
+      <c r="H76" s="72"/>
+      <c r="I76" s="72"/>
+      <c r="J76" s="72"/>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" s="69"/>
+      <c r="C77" s="73"/>
+      <c r="D77" s="71"/>
+      <c r="E77" s="74" t="s">
+        <v>309</v>
+      </c>
+      <c r="F77" s="75"/>
+      <c r="G77" s="71"/>
+      <c r="H77" s="72"/>
+      <c r="I77" s="72"/>
+      <c r="J77" s="72"/>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" s="69"/>
+      <c r="C78" s="73"/>
+      <c r="D78" s="71"/>
+      <c r="E78" s="74" t="s">
+        <v>310</v>
+      </c>
+      <c r="F78" s="75"/>
+      <c r="G78" s="71"/>
+      <c r="H78" s="72"/>
+      <c r="I78" s="72"/>
+      <c r="J78" s="72"/>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79" s="69"/>
+      <c r="C79" s="73"/>
+      <c r="D79" s="71"/>
+      <c r="E79" s="74" t="s">
+        <v>311</v>
+      </c>
+      <c r="F79" s="75"/>
+      <c r="G79" s="71"/>
+      <c r="H79" s="72"/>
+      <c r="I79" s="72"/>
+      <c r="J79" s="72"/>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="69"/>
+      <c r="C80" s="73"/>
+      <c r="D80" s="71"/>
+      <c r="E80" s="74" t="s">
+        <v>312</v>
+      </c>
+      <c r="F80" s="75"/>
+      <c r="G80" s="71"/>
+      <c r="H80" s="72"/>
+      <c r="I80" s="72"/>
+      <c r="J80" s="72"/>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" s="69"/>
+      <c r="C81" s="73"/>
+      <c r="D81" s="71"/>
+      <c r="E81" s="74" t="s">
+        <v>313</v>
+      </c>
+      <c r="F81" s="75"/>
+      <c r="G81" s="71"/>
+      <c r="H81" s="72"/>
+      <c r="I81" s="72"/>
+      <c r="J81" s="72"/>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="B82" s="69"/>
+      <c r="C82" s="73"/>
+      <c r="D82" s="71"/>
+      <c r="E82" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="F82" s="75"/>
+      <c r="G82" s="71"/>
+      <c r="H82" s="72"/>
+      <c r="I82" s="72"/>
+      <c r="J82" s="72"/>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" s="69"/>
+      <c r="C83" s="73"/>
+      <c r="D83" s="71"/>
+      <c r="E83" s="74" t="s">
+        <v>315</v>
+      </c>
+      <c r="F83" s="75"/>
+      <c r="G83" s="71"/>
+      <c r="H83" s="72"/>
+      <c r="I83" s="72"/>
+      <c r="J83" s="72"/>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="B84" s="69"/>
+      <c r="C84" s="73"/>
+      <c r="D84" s="71"/>
+      <c r="E84" s="74" t="s">
+        <v>316</v>
+      </c>
+      <c r="F84" s="75"/>
+      <c r="G84" s="71"/>
+      <c r="H84" s="72"/>
+      <c r="I84" s="72"/>
+      <c r="J84" s="72"/>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85" s="69"/>
+      <c r="C85" s="73"/>
+      <c r="D85" s="71"/>
+      <c r="E85" s="74" t="s">
+        <v>317</v>
+      </c>
+      <c r="F85" s="75"/>
+      <c r="G85" s="71"/>
+      <c r="H85" s="72"/>
+      <c r="I85" s="72"/>
+      <c r="J85" s="72"/>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="B86" s="69"/>
+      <c r="C86" s="73"/>
+      <c r="D86" s="71"/>
+      <c r="E86" s="74" t="s">
+        <v>318</v>
+      </c>
+      <c r="F86" s="75"/>
+      <c r="G86" s="71"/>
+      <c r="H86" s="72"/>
+      <c r="I86" s="72"/>
+      <c r="J86" s="72"/>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="B87" s="69"/>
+      <c r="C87" s="73"/>
+      <c r="D87" s="71"/>
+      <c r="E87" s="74" t="s">
+        <v>319</v>
+      </c>
+      <c r="F87" s="75"/>
+      <c r="G87" s="71"/>
+      <c r="H87" s="72"/>
+      <c r="I87" s="72"/>
+      <c r="J87" s="72"/>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="B88" s="69"/>
+      <c r="C88" s="73"/>
+      <c r="D88" s="71"/>
+      <c r="E88" s="74" t="s">
+        <v>320</v>
+      </c>
+      <c r="F88" s="75"/>
+      <c r="G88" s="71"/>
+      <c r="H88" s="72"/>
+      <c r="I88" s="72"/>
+      <c r="J88" s="72"/>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="B89" s="69"/>
+      <c r="C89" s="73"/>
+      <c r="D89" s="71"/>
+      <c r="E89" s="74" t="s">
+        <v>321</v>
+      </c>
+      <c r="F89" s="75"/>
+      <c r="G89" s="71"/>
+      <c r="H89" s="72"/>
+      <c r="I89" s="72"/>
+      <c r="J89" s="72"/>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="B90" s="69"/>
+      <c r="C90" s="73"/>
+      <c r="D90" s="71"/>
+      <c r="E90" s="74" t="s">
+        <v>322</v>
+      </c>
+      <c r="F90" s="75"/>
+      <c r="G90" s="71"/>
+      <c r="H90" s="72"/>
+      <c r="I90" s="72"/>
+      <c r="J90" s="72"/>
+    </row>
+    <row r="91" spans="2:10">
+      <c r="B91" s="69"/>
+      <c r="C91" s="73"/>
+      <c r="D91" s="71"/>
+      <c r="E91" s="74" t="s">
+        <v>323</v>
+      </c>
+      <c r="F91" s="75"/>
+      <c r="G91" s="71"/>
+      <c r="H91" s="72"/>
+      <c r="I91" s="72"/>
+      <c r="J91" s="72"/>
+    </row>
+    <row r="92" spans="2:10">
+      <c r="B92" s="69"/>
+      <c r="C92" s="73"/>
+      <c r="D92" s="71"/>
+      <c r="E92" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="F92" s="75"/>
+      <c r="G92" s="71"/>
+      <c r="H92" s="72"/>
+      <c r="I92" s="72"/>
+      <c r="J92" s="72"/>
+    </row>
+    <row r="93" spans="2:10">
+      <c r="B93" s="79"/>
+      <c r="C93" s="80"/>
+      <c r="D93" s="81"/>
+      <c r="E93" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="F93" s="83"/>
+      <c r="G93" s="71"/>
+      <c r="H93" s="72"/>
+      <c r="I93" s="72"/>
+      <c r="J93" s="72"/>
+    </row>
+    <row r="94" spans="2:10" ht="15" thickBot="1">
+      <c r="B94" s="84">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="C94" s="73" t="s">
+        <v>347</v>
+      </c>
+      <c r="D94" s="71"/>
+      <c r="E94" s="74"/>
+      <c r="F94" s="75"/>
+      <c r="G94" s="71"/>
+      <c r="H94" s="72"/>
+      <c r="I94" s="72"/>
+      <c r="J94" s="72"/>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="B95" s="78"/>
+      <c r="C95" s="78"/>
+      <c r="D95" s="78"/>
+      <c r="E95" s="78"/>
+      <c r="F95" s="78"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Doc/1.SA/調査/リンク先テーブル調査.xlsx
+++ b/Doc/1.SA/調査/リンク先テーブル調査.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showObjects="none" filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="14400" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="17400" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="社内" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="406">
   <si>
     <t>外注チェック</t>
     <rPh sb="0" eb="2">
@@ -1417,13 +1417,6 @@
   </si>
   <si>
     <t>QP_所属部テーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>手作成？</t>
-    <rPh sb="0" eb="3">
-      <t>テサクセイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -9184,7 +9177,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="74" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F27" s="75"/>
       <c r="G27" s="45" t="s">
@@ -9195,7 +9188,10 @@
       <c r="J27" s="72"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="69"/>
+      <c r="B28" s="84">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
       <c r="C28" s="73"/>
       <c r="D28" s="71"/>
       <c r="E28" s="96" t="s">
@@ -9210,7 +9206,10 @@
       <c r="J28" s="72"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="69"/>
+      <c r="B29" s="84">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
       <c r="C29" s="73"/>
       <c r="D29" s="71"/>
       <c r="E29" s="88" t="s">
@@ -9225,7 +9224,10 @@
       <c r="J29" s="72"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="69"/>
+      <c r="B30" s="84">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
       <c r="C30" s="73"/>
       <c r="D30" s="71"/>
       <c r="E30" s="96" t="s">
@@ -9242,7 +9244,10 @@
       <c r="J30" s="72"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="69"/>
+      <c r="B31" s="84">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
       <c r="C31" s="73"/>
       <c r="D31" s="92"/>
       <c r="E31" s="82" t="s">
@@ -9257,13 +9262,16 @@
       <c r="J31" s="72"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="69"/>
+      <c r="B32" s="84">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
       <c r="C32" s="73"/>
       <c r="D32" s="71" t="s">
         <v>2</v>
       </c>
       <c r="E32" s="74" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F32" s="75"/>
       <c r="G32" s="71" t="s">
@@ -9274,11 +9282,14 @@
       <c r="J32" s="72"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="69"/>
+      <c r="B33" s="84">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
       <c r="C33" s="73"/>
       <c r="D33" s="71"/>
       <c r="E33" s="88" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F33" s="89"/>
       <c r="G33" s="71" t="s">
@@ -9289,11 +9300,14 @@
       <c r="J33" s="72"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="69"/>
+      <c r="B34" s="84">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
       <c r="C34" s="73"/>
       <c r="D34" s="71"/>
       <c r="E34" s="88" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F34" s="89"/>
       <c r="G34" s="71" t="s">
@@ -9304,11 +9318,14 @@
       <c r="J34" s="72"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="69"/>
+      <c r="B35" s="84">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
       <c r="C35" s="73"/>
       <c r="D35" s="71"/>
       <c r="E35" s="88" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F35" s="89"/>
       <c r="G35" s="71" t="s">
@@ -9319,11 +9336,14 @@
       <c r="J35" s="72"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="69"/>
+      <c r="B36" s="84">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
       <c r="C36" s="73"/>
       <c r="D36" s="71"/>
       <c r="E36" s="88" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F36" s="89"/>
       <c r="G36" s="71" t="s">
@@ -9334,39 +9354,52 @@
       <c r="J36" s="72"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="69"/>
+      <c r="B37" s="84">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
       <c r="C37" s="73"/>
       <c r="D37" s="71"/>
       <c r="E37" s="88" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F37" s="89"/>
       <c r="G37" s="71" t="s">
         <v>361</v>
       </c>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
+      <c r="H37" s="72" t="s">
+        <v>391</v>
+      </c>
+      <c r="I37" s="72" t="s">
+        <v>392</v>
+      </c>
       <c r="J37" s="72"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="69"/>
+      <c r="B38" s="84">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
       <c r="C38" s="73"/>
       <c r="D38" s="71"/>
       <c r="E38" s="88" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F38" s="89"/>
       <c r="G38" s="71" t="s">
         <v>361</v>
       </c>
       <c r="H38" s="72" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="I38" s="72"/>
       <c r="J38" s="72"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="69"/>
+      <c r="B39" s="84">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
       <c r="C39" s="73"/>
       <c r="D39" s="71"/>
       <c r="E39" s="96" t="s">
@@ -9381,7 +9414,10 @@
       <c r="J39" s="72"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="69"/>
+      <c r="B40" s="84">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
       <c r="C40" s="73"/>
       <c r="D40" s="71"/>
       <c r="E40" s="88" t="s">
@@ -9392,15 +9428,18 @@
         <v>361</v>
       </c>
       <c r="H40" s="72" t="s">
+        <v>391</v>
+      </c>
+      <c r="I40" s="72" t="s">
         <v>392</v>
       </c>
-      <c r="I40" s="72" t="s">
-        <v>393</v>
-      </c>
       <c r="J40" s="72"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="69"/>
+      <c r="B41" s="84">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
       <c r="C41" s="73"/>
       <c r="D41" s="71"/>
       <c r="E41" s="88" t="s">
@@ -9413,15 +9452,18 @@
         <v>361</v>
       </c>
       <c r="H41" s="72" t="s">
+        <v>391</v>
+      </c>
+      <c r="I41" s="72" t="s">
         <v>392</v>
       </c>
-      <c r="I41" s="72" t="s">
-        <v>393</v>
-      </c>
       <c r="J41" s="72"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="69"/>
+      <c r="B42" s="84">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
       <c r="C42" s="73"/>
       <c r="D42" s="71"/>
       <c r="E42" s="88" t="s">
@@ -9434,15 +9476,18 @@
         <v>361</v>
       </c>
       <c r="H42" s="72" t="s">
+        <v>391</v>
+      </c>
+      <c r="I42" s="72" t="s">
         <v>392</v>
       </c>
-      <c r="I42" s="72" t="s">
-        <v>393</v>
-      </c>
       <c r="J42" s="72"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="69"/>
+      <c r="B43" s="84">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
       <c r="C43" s="73"/>
       <c r="D43" s="71"/>
       <c r="E43" s="88" t="s">
@@ -9455,19 +9500,22 @@
         <v>361</v>
       </c>
       <c r="H43" s="72" t="s">
+        <v>391</v>
+      </c>
+      <c r="I43" s="72" t="s">
         <v>392</v>
       </c>
-      <c r="I43" s="72" t="s">
-        <v>393</v>
-      </c>
       <c r="J43" s="72"/>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="69"/>
+      <c r="B44" s="84">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
       <c r="C44" s="73"/>
       <c r="D44" s="71"/>
       <c r="E44" s="88" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F44" s="89"/>
       <c r="G44" s="71" t="s">
@@ -9478,11 +9526,14 @@
       <c r="J44" s="72"/>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="69"/>
+      <c r="B45" s="84">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
       <c r="C45" s="73"/>
       <c r="D45" s="71"/>
       <c r="E45" s="88" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F45" s="89"/>
       <c r="G45" s="71" t="s">
@@ -9493,11 +9544,14 @@
       <c r="J45" s="72"/>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="69"/>
+      <c r="B46" s="84">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
       <c r="C46" s="73"/>
       <c r="D46" s="71"/>
       <c r="E46" s="88" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F46" s="89"/>
       <c r="G46" s="71" t="s">
@@ -9508,11 +9562,14 @@
       <c r="J46" s="72"/>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="69"/>
+      <c r="B47" s="84">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
       <c r="C47" s="73"/>
       <c r="D47" s="71"/>
       <c r="E47" s="88" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F47" s="89"/>
       <c r="G47" s="71" t="s">
@@ -9523,11 +9580,14 @@
       <c r="J47" s="72"/>
     </row>
     <row r="48" spans="2:10">
-      <c r="B48" s="69"/>
+      <c r="B48" s="84">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
       <c r="C48" s="73"/>
       <c r="D48" s="71"/>
       <c r="E48" s="88" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F48" s="89"/>
       <c r="G48" s="71" t="s">
@@ -9538,11 +9598,14 @@
       <c r="J48" s="72"/>
     </row>
     <row r="49" spans="2:10">
-      <c r="B49" s="69"/>
+      <c r="B49" s="84">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
       <c r="C49" s="73"/>
       <c r="D49" s="71"/>
       <c r="E49" s="97" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F49" s="89"/>
       <c r="G49" s="71" t="s">
@@ -9553,11 +9616,14 @@
       <c r="J49" s="72"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="79"/>
+      <c r="B50" s="84">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
       <c r="C50" s="80"/>
       <c r="D50" s="81"/>
       <c r="E50" s="82" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F50" s="83"/>
       <c r="G50" s="71" t="s">
@@ -9575,77 +9641,122 @@
       <c r="C51" s="73" t="s">
         <v>283</v>
       </c>
-      <c r="D51" s="71"/>
+      <c r="D51" s="71" t="s">
+        <v>380</v>
+      </c>
       <c r="E51" s="74" t="s">
         <v>285</v>
       </c>
       <c r="F51" s="75"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="72"/>
+      <c r="G51" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H51" s="72" t="s">
+        <v>391</v>
+      </c>
+      <c r="I51" s="72" t="s">
+        <v>392</v>
+      </c>
       <c r="J51" s="72"/>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="69"/>
+      <c r="B52" s="84">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
       <c r="C52" s="73"/>
       <c r="D52" s="71"/>
       <c r="E52" s="74" t="s">
         <v>286</v>
       </c>
       <c r="F52" s="75"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="72"/>
+      <c r="G52" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H52" s="72" t="s">
+        <v>391</v>
+      </c>
+      <c r="I52" s="72" t="s">
+        <v>392</v>
+      </c>
       <c r="J52" s="72"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="69"/>
+      <c r="B53" s="84">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
       <c r="C53" s="73"/>
       <c r="D53" s="71"/>
       <c r="E53" s="74" t="s">
         <v>287</v>
       </c>
       <c r="F53" s="75"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72"/>
+      <c r="G53" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H53" s="72" t="s">
+        <v>391</v>
+      </c>
+      <c r="I53" s="72" t="s">
+        <v>392</v>
+      </c>
       <c r="J53" s="72"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="69"/>
+      <c r="B54" s="84">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
       <c r="C54" s="73"/>
       <c r="D54" s="71"/>
       <c r="E54" s="74" t="s">
         <v>288</v>
       </c>
       <c r="F54" s="75"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="72"/>
+      <c r="G54" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H54" s="72" t="s">
+        <v>391</v>
+      </c>
+      <c r="I54" s="72" t="s">
+        <v>392</v>
+      </c>
       <c r="J54" s="72"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="69"/>
+      <c r="B55" s="84">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
       <c r="C55" s="73"/>
       <c r="D55" s="71"/>
       <c r="E55" s="74" t="s">
         <v>57</v>
       </c>
       <c r="F55" s="75"/>
-      <c r="G55" s="72"/>
+      <c r="G55" s="71" t="s">
+        <v>361</v>
+      </c>
       <c r="H55" s="72"/>
       <c r="I55" s="72"/>
       <c r="J55" s="72"/>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="79"/>
+      <c r="B56" s="84">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
       <c r="C56" s="80"/>
       <c r="D56" s="81"/>
       <c r="E56" s="82" t="s">
         <v>289</v>
       </c>
       <c r="F56" s="83"/>
-      <c r="G56" s="72"/>
+      <c r="G56" s="71" t="s">
+        <v>361</v>
+      </c>
       <c r="H56" s="72"/>
       <c r="I56" s="72"/>
       <c r="J56" s="72"/>

--- a/Doc/1.SA/調査/リンク先テーブル調査.xlsx
+++ b/Doc/1.SA/調査/リンク先テーブル調査.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showObjects="none" filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="17400" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="19200" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="社内" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="415">
   <si>
     <t>外注チェック</t>
     <rPh sb="0" eb="2">
@@ -1491,6 +1491,57 @@
   </si>
   <si>
     <t>dbo_業務決定マスター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CT_支払先</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QP_業務マスター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手作成?</t>
+    <rPh sb="0" eb="3">
+      <t>テサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T伝票テーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支払承認内訳システム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQL Serverにテーブル作成</t>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M科目残高テーブルN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQL Server化</t>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他システムが更新している</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1548,7 +1599,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1585,6 +1636,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="41">
     <border>
@@ -2092,7 +2155,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2385,6 +2448,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3856,7 +3925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I313"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A244" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -8703,7 +8772,8 @@
     <col min="7" max="7" width="9" style="64"/>
     <col min="8" max="8" width="8" style="64" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.75" style="64" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="64"/>
+    <col min="10" max="10" width="18.875" style="64" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="64"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -8767,7 +8837,9 @@
       </c>
       <c r="H5" s="72"/>
       <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
+      <c r="J5" s="72" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="76">
@@ -8781,12 +8853,16 @@
       <c r="E6" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="F6" s="75"/>
+      <c r="F6" s="75" t="s">
+        <v>412</v>
+      </c>
       <c r="G6" s="71" t="s">
         <v>361</v>
       </c>
       <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
+      <c r="I6" s="72" t="s">
+        <v>413</v>
+      </c>
       <c r="J6" s="72"/>
     </row>
     <row r="7" spans="1:10">
@@ -8804,7 +8880,9 @@
         <v>361</v>
       </c>
       <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
+      <c r="I7" s="72" t="s">
+        <v>413</v>
+      </c>
       <c r="J7" s="72"/>
     </row>
     <row r="8" spans="1:10">
@@ -8822,7 +8900,9 @@
         <v>361</v>
       </c>
       <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
+      <c r="I8" s="72" t="s">
+        <v>413</v>
+      </c>
       <c r="J8" s="72"/>
     </row>
     <row r="9" spans="1:10">
@@ -8840,7 +8920,9 @@
         <v>361</v>
       </c>
       <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
+      <c r="I9" s="72" t="s">
+        <v>413</v>
+      </c>
       <c r="J9" s="72"/>
     </row>
     <row r="10" spans="1:10">
@@ -8857,8 +8939,12 @@
       <c r="G10" s="71" t="s">
         <v>361</v>
       </c>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
+      <c r="H10" s="72" t="s">
+        <v>391</v>
+      </c>
+      <c r="I10" s="72" t="s">
+        <v>413</v>
+      </c>
       <c r="J10" s="72"/>
     </row>
     <row r="11" spans="1:10">
@@ -8875,8 +8961,12 @@
       <c r="G11" s="71" t="s">
         <v>361</v>
       </c>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
+      <c r="H11" s="72" t="s">
+        <v>391</v>
+      </c>
+      <c r="I11" s="72" t="s">
+        <v>413</v>
+      </c>
       <c r="J11" s="72"/>
     </row>
     <row r="12" spans="1:10">
@@ -8894,7 +8984,7 @@
         <v>361</v>
       </c>
       <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
+      <c r="I12" s="99"/>
       <c r="J12" s="72"/>
     </row>
     <row r="13" spans="1:10">
@@ -8912,7 +9002,7 @@
         <v>361</v>
       </c>
       <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
+      <c r="I13" s="99"/>
       <c r="J13" s="72"/>
     </row>
     <row r="14" spans="1:10">
@@ -8932,7 +9022,9 @@
         <v>361</v>
       </c>
       <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
+      <c r="I14" s="72" t="s">
+        <v>413</v>
+      </c>
       <c r="J14" s="72"/>
     </row>
     <row r="15" spans="1:10">
@@ -8950,7 +9042,9 @@
         <v>361</v>
       </c>
       <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
+      <c r="I15" s="72" t="s">
+        <v>413</v>
+      </c>
       <c r="J15" s="72"/>
     </row>
     <row r="16" spans="1:10">
@@ -8968,7 +9062,9 @@
         <v>361</v>
       </c>
       <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
+      <c r="I16" s="72" t="s">
+        <v>413</v>
+      </c>
       <c r="J16" s="72"/>
     </row>
     <row r="17" spans="2:10">
@@ -8986,7 +9082,7 @@
         <v>361</v>
       </c>
       <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
+      <c r="I17" s="99"/>
       <c r="J17" s="72"/>
     </row>
     <row r="18" spans="2:10">
@@ -9034,14 +9130,14 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C20" s="73" t="s">
-        <v>324</v>
+      <c r="C20" s="98" t="s">
+        <v>410</v>
       </c>
       <c r="D20" s="77" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="74" t="s">
-        <v>179</v>
+        <v>407</v>
       </c>
       <c r="F20" s="75"/>
       <c r="G20" s="71" t="s">
@@ -9065,8 +9161,12 @@
       <c r="G21" s="71" t="s">
         <v>361</v>
       </c>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
+      <c r="H21" s="72" t="s">
+        <v>391</v>
+      </c>
+      <c r="I21" s="72" t="s">
+        <v>392</v>
+      </c>
       <c r="J21" s="72"/>
     </row>
     <row r="22" spans="2:10">
@@ -9083,8 +9183,12 @@
       <c r="G22" s="71" t="s">
         <v>361</v>
       </c>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
+      <c r="H22" s="72" t="s">
+        <v>391</v>
+      </c>
+      <c r="I22" s="72" t="s">
+        <v>392</v>
+      </c>
       <c r="J22" s="72"/>
     </row>
     <row r="23" spans="2:10">
@@ -9097,13 +9201,15 @@
         <v>380</v>
       </c>
       <c r="E23" s="74" t="s">
-        <v>325</v>
+        <v>406</v>
       </c>
       <c r="F23" s="75"/>
       <c r="G23" s="71" t="s">
         <v>361</v>
       </c>
-      <c r="H23" s="72"/>
+      <c r="H23" s="72" t="s">
+        <v>408</v>
+      </c>
       <c r="I23" s="72"/>
       <c r="J23" s="72"/>
     </row>
@@ -9124,7 +9230,9 @@
         <v>361</v>
       </c>
       <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
+      <c r="I24" s="72" t="s">
+        <v>411</v>
+      </c>
       <c r="J24" s="72"/>
     </row>
     <row r="25" spans="2:10">
@@ -9144,7 +9252,9 @@
         <v>361</v>
       </c>
       <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
+      <c r="I25" s="72" t="s">
+        <v>411</v>
+      </c>
       <c r="J25" s="72"/>
     </row>
     <row r="26" spans="2:10">
@@ -9155,7 +9265,7 @@
       <c r="C26" s="80"/>
       <c r="D26" s="81"/>
       <c r="E26" s="82" t="s">
-        <v>276</v>
+        <v>409</v>
       </c>
       <c r="F26" s="83"/>
       <c r="G26" s="71" t="s">
@@ -9170,7 +9280,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="C27" s="73" t="s">
+      <c r="C27" s="98" t="s">
         <v>328</v>
       </c>
       <c r="D27" s="77" t="s">
@@ -9638,7 +9748,7 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="C51" s="73" t="s">
+      <c r="C51" s="98" t="s">
         <v>283</v>
       </c>
       <c r="D51" s="71" t="s">

--- a/Doc/1.SA/調査/リンク先テーブル調査.xlsx
+++ b/Doc/1.SA/調査/リンク先テーブル調査.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showObjects="none" filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="19200" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="20400" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="社内" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="418">
   <si>
     <t>外注チェック</t>
     <rPh sb="0" eb="2">
@@ -1542,6 +1542,18 @@
     <rPh sb="6" eb="8">
       <t>コウシン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_施工部コード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_店名テーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_ETCデータ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1599,7 +1611,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1642,12 +1654,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="41">
     <border>
@@ -2155,7 +2161,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2451,9 +2457,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3925,7 +3928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I313"/>
   <sheetViews>
-    <sheetView topLeftCell="A244" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -8829,14 +8832,16 @@
         <v>383</v>
       </c>
       <c r="E5" s="94" t="s">
-        <v>353</v>
+        <v>417</v>
       </c>
       <c r="F5" s="95"/>
       <c r="G5" s="71" t="s">
         <v>361</v>
       </c>
       <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
+      <c r="I5" s="72" t="s">
+        <v>413</v>
+      </c>
       <c r="J5" s="72" t="s">
         <v>414</v>
       </c>
@@ -8977,14 +8982,16 @@
       <c r="C12" s="73"/>
       <c r="D12" s="71"/>
       <c r="E12" s="88" t="s">
-        <v>196</v>
+        <v>415</v>
       </c>
       <c r="F12" s="89"/>
       <c r="G12" s="71" t="s">
         <v>361</v>
       </c>
       <c r="H12" s="72"/>
-      <c r="I12" s="99"/>
+      <c r="I12" s="72" t="s">
+        <v>413</v>
+      </c>
       <c r="J12" s="72"/>
     </row>
     <row r="13" spans="1:10">
@@ -8995,14 +9002,16 @@
       <c r="C13" s="73"/>
       <c r="D13" s="71"/>
       <c r="E13" s="88" t="s">
-        <v>57</v>
+        <v>416</v>
       </c>
       <c r="F13" s="89"/>
       <c r="G13" s="71" t="s">
         <v>361</v>
       </c>
       <c r="H13" s="72"/>
-      <c r="I13" s="99"/>
+      <c r="I13" s="72" t="s">
+        <v>413</v>
+      </c>
       <c r="J13" s="72"/>
     </row>
     <row r="14" spans="1:10">
@@ -9081,8 +9090,12 @@
       <c r="G17" s="71" t="s">
         <v>361</v>
       </c>
-      <c r="H17" s="72"/>
-      <c r="I17" s="99"/>
+      <c r="H17" s="72" t="s">
+        <v>391</v>
+      </c>
+      <c r="I17" s="72" t="s">
+        <v>413</v>
+      </c>
       <c r="J17" s="72"/>
     </row>
     <row r="18" spans="2:10">
